--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -8069,7 +8069,7 @@
         <v>15.4537399</v>
       </c>
       <c r="G118">
-        <v>11.6404525</v>
+        <v>11.6416182</v>
       </c>
       <c r="H118">
         <v>16.4406452</v>
@@ -8084,7 +8084,7 @@
         <v>16.4197531</v>
       </c>
       <c r="L118">
-        <v>11.7353238</v>
+        <v>11.7378647</v>
       </c>
       <c r="M118">
         <v>16.6847835</v>
@@ -8102,13 +8102,13 @@
         <v>17.3317941</v>
       </c>
       <c r="S118">
-        <v>19.770539</v>
+        <v>19.7751472</v>
       </c>
       <c r="T118">
         <v>15.5973787</v>
       </c>
       <c r="U118">
-        <v>16.0874305</v>
+        <v>16.1068224</v>
       </c>
       <c r="V118">
         <v>19.0853243</v>
@@ -8123,7 +8123,7 @@
         <v>10.8501119</v>
       </c>
       <c r="Z118">
-        <v>15.259746</v>
+        <v>15.2586488</v>
       </c>
       <c r="AA118">
         <v>17.7182829</v>
@@ -8147,7 +8147,7 @@
         <v>22.9995361</v>
       </c>
       <c r="AI118">
-        <v>13.9317181</v>
+        <v>13.9517014</v>
       </c>
       <c r="AJ118">
         <v>18.8472633</v>
@@ -8162,7 +8162,7 @@
         <v>17.0695626</v>
       </c>
       <c r="AN118">
-        <v>15.3570077</v>
+        <v>15.3557336</v>
       </c>
       <c r="AO118">
         <v>15.5012243</v>
@@ -8186,10 +8186,10 @@
         <v>22.2256901</v>
       </c>
       <c r="AV118">
-        <v>14.4004212</v>
+        <v>14.3992119</v>
       </c>
       <c r="AW118">
-        <v>14.5101609</v>
+        <v>14.5117352</v>
       </c>
       <c r="AX118">
         <v>16.1071783</v>
@@ -8207,7 +8207,7 @@
         <v>14.9914481</v>
       </c>
       <c r="BD118">
-        <v>14.2408167</v>
+        <v>14.2380106</v>
       </c>
       <c r="BE118">
         <v>16.8373054</v>
@@ -8216,6 +8216,162 @@
     <row r="119" spans="1:57">
       <c r="A119" t="s">
         <v>173</v>
+      </c>
+      <c r="B119">
+        <v>12.4218306</v>
+      </c>
+      <c r="C119">
+        <v>18.7729232</v>
+      </c>
+      <c r="D119">
+        <v>15.7016911</v>
+      </c>
+      <c r="F119">
+        <v>15.45094</v>
+      </c>
+      <c r="G119">
+        <v>11.5371406</v>
+      </c>
+      <c r="H119">
+        <v>16.3633017</v>
+      </c>
+      <c r="I119">
+        <v>17.2428737</v>
+      </c>
+      <c r="J119">
+        <v>17.5977654</v>
+      </c>
+      <c r="K119">
+        <v>15.9252032</v>
+      </c>
+      <c r="L119">
+        <v>11.746748</v>
+      </c>
+      <c r="M119">
+        <v>16.3875723</v>
+      </c>
+      <c r="O119">
+        <v>8.580508500000001</v>
+      </c>
+      <c r="P119">
+        <v>22.1028756</v>
+      </c>
+      <c r="Q119">
+        <v>13.8806776</v>
+      </c>
+      <c r="R119">
+        <v>17.0982021</v>
+      </c>
+      <c r="S119">
+        <v>20.00072</v>
+      </c>
+      <c r="T119">
+        <v>15.5547589</v>
+      </c>
+      <c r="U119">
+        <v>15.7327792</v>
+      </c>
+      <c r="V119">
+        <v>19.0379935</v>
+      </c>
+      <c r="W119">
+        <v>19.2780914</v>
+      </c>
+      <c r="X119">
+        <v>16.7396833</v>
+      </c>
+      <c r="Y119">
+        <v>10.9425436</v>
+      </c>
+      <c r="Z119">
+        <v>15.0927056</v>
+      </c>
+      <c r="AA119">
+        <v>17.5818306</v>
+      </c>
+      <c r="AB119">
+        <v>14.5572345</v>
+      </c>
+      <c r="AD119">
+        <v>19.5129628</v>
+      </c>
+      <c r="AE119">
+        <v>10.0579413</v>
+      </c>
+      <c r="AF119">
+        <v>13.9498546</v>
+      </c>
+      <c r="AG119">
+        <v>17.1875059</v>
+      </c>
+      <c r="AH119">
+        <v>22.2882319</v>
+      </c>
+      <c r="AI119">
+        <v>13.5902418</v>
+      </c>
+      <c r="AJ119">
+        <v>18.658269</v>
+      </c>
+      <c r="AK119">
+        <v>14.9974173</v>
+      </c>
+      <c r="AL119">
+        <v>13.3883344</v>
+      </c>
+      <c r="AM119">
+        <v>16.990343</v>
+      </c>
+      <c r="AN119">
+        <v>15.0671153</v>
+      </c>
+      <c r="AO119">
+        <v>15.1093641</v>
+      </c>
+      <c r="AP119">
+        <v>11.7614442</v>
+      </c>
+      <c r="AQ119">
+        <v>12.7855533</v>
+      </c>
+      <c r="AR119">
+        <v>11.9861862</v>
+      </c>
+      <c r="AS119">
+        <v>17.0343067</v>
+      </c>
+      <c r="AT119">
+        <v>13.5830281</v>
+      </c>
+      <c r="AU119">
+        <v>21.6749966</v>
+      </c>
+      <c r="AV119">
+        <v>14.4382213</v>
+      </c>
+      <c r="AW119">
+        <v>14.6547033</v>
+      </c>
+      <c r="AX119">
+        <v>16.1001547</v>
+      </c>
+      <c r="AY119">
+        <v>15.4255826</v>
+      </c>
+      <c r="BA119">
+        <v>10.2045818</v>
+      </c>
+      <c r="BB119">
+        <v>13.5757475</v>
+      </c>
+      <c r="BC119">
+        <v>14.5011994</v>
+      </c>
+      <c r="BD119">
+        <v>13.8574228</v>
+      </c>
+      <c r="BE119">
+        <v>14.8743164</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -1370,297 +1370,7506 @@
         <v>118</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:57">
       <c r="A65" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:57">
       <c r="A66" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:57">
       <c r="A67" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:57">
       <c r="A68" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:57">
       <c r="A69" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:57">
       <c r="A70" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:57">
       <c r="A71" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:57">
       <c r="A72" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:57">
       <c r="A73" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:57">
       <c r="A74" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:57">
       <c r="A75" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:57">
       <c r="A76" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="C76">
+        <v>19.1458818</v>
+      </c>
+      <c r="D76">
+        <v>18.6330912</v>
+      </c>
+      <c r="F76">
+        <v>17.7796327</v>
+      </c>
+      <c r="G76">
+        <v>16.4970961</v>
+      </c>
+      <c r="H76">
+        <v>25.4303446</v>
+      </c>
+      <c r="I76">
+        <v>25.5025126</v>
+      </c>
+      <c r="K76">
+        <v>25.7042254</v>
+      </c>
+      <c r="L76">
+        <v>17.7443229</v>
+      </c>
+      <c r="M76">
+        <v>24.747173</v>
+      </c>
+      <c r="O76">
+        <v>15.8783784</v>
+      </c>
+      <c r="P76">
+        <v>26.4938408</v>
+      </c>
+      <c r="Q76">
+        <v>30.9846107</v>
+      </c>
+      <c r="R76">
+        <v>24.1367558</v>
+      </c>
+      <c r="S76">
+        <v>30.6873687</v>
+      </c>
+      <c r="T76">
+        <v>22.0170455</v>
+      </c>
+      <c r="U76">
+        <v>23.8911828</v>
+      </c>
+      <c r="V76">
+        <v>32.8677901</v>
+      </c>
+      <c r="W76">
+        <v>24.4102334</v>
+      </c>
+      <c r="X76">
+        <v>20.1388667</v>
+      </c>
+      <c r="Y76">
+        <v>15.1282051</v>
+      </c>
+      <c r="Z76">
+        <v>26.2271722</v>
+      </c>
+      <c r="AA76">
+        <v>19.6163156</v>
+      </c>
+      <c r="AB76">
+        <v>25.4015861</v>
+      </c>
+      <c r="AD76">
+        <v>26.0363243</v>
+      </c>
+      <c r="AE76">
+        <v>21.7980899</v>
+      </c>
+      <c r="AF76">
+        <v>18.3105502</v>
+      </c>
+      <c r="AH76">
+        <v>20.7228119</v>
+      </c>
+      <c r="AI76">
+        <v>23.964497</v>
+      </c>
+      <c r="AJ76">
+        <v>33.2061119</v>
+      </c>
+      <c r="AK76">
+        <v>15.2408536</v>
+      </c>
+      <c r="AL76">
+        <v>27.170513</v>
+      </c>
+      <c r="AM76">
+        <v>31.1929469</v>
+      </c>
+      <c r="AN76">
+        <v>22.5235918</v>
+      </c>
+      <c r="AO76">
+        <v>25.2439088</v>
+      </c>
+      <c r="AP76">
+        <v>22.470413</v>
+      </c>
+      <c r="AQ76">
+        <v>21.1760959</v>
+      </c>
+      <c r="AS76">
+        <v>19.1968571</v>
+      </c>
+      <c r="AT76">
+        <v>20.4173936</v>
+      </c>
+      <c r="AU76">
+        <v>23.6402979</v>
+      </c>
+      <c r="AV76">
+        <v>19.8797485</v>
+      </c>
+      <c r="AW76">
+        <v>19.611951</v>
+      </c>
+      <c r="AX76">
+        <v>20.474464</v>
+      </c>
+      <c r="AY76">
+        <v>18.8261612</v>
+      </c>
+      <c r="BB76">
+        <v>19.9324621</v>
+      </c>
+      <c r="BC76">
+        <v>23.0307864</v>
+      </c>
+      <c r="BD76">
+        <v>17.8075397</v>
+      </c>
+      <c r="BE76">
+        <v>30.9455945</v>
+      </c>
+    </row>
+    <row r="77" spans="1:57">
       <c r="A77" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>22.4789916</v>
+      </c>
+      <c r="C77">
+        <v>22.148402</v>
+      </c>
+      <c r="D77">
+        <v>20.9766635</v>
+      </c>
+      <c r="F77">
+        <v>17.684928</v>
+      </c>
+      <c r="G77">
+        <v>16.8286602</v>
+      </c>
+      <c r="H77">
+        <v>28.2658588</v>
+      </c>
+      <c r="I77">
+        <v>27.5715391</v>
+      </c>
+      <c r="J77">
+        <v>20.7964602</v>
+      </c>
+      <c r="K77">
+        <v>23.6900644</v>
+      </c>
+      <c r="L77">
+        <v>16.8291126</v>
+      </c>
+      <c r="M77">
+        <v>23.1722504</v>
+      </c>
+      <c r="O77">
+        <v>19.0544413</v>
+      </c>
+      <c r="P77">
+        <v>24.9428306</v>
+      </c>
+      <c r="Q77">
+        <v>26.4332756</v>
+      </c>
+      <c r="R77">
+        <v>22.2855076</v>
+      </c>
+      <c r="S77">
+        <v>28.9153342</v>
+      </c>
+      <c r="T77">
+        <v>20.5754311</v>
+      </c>
+      <c r="U77">
+        <v>24.7749276</v>
+      </c>
+      <c r="V77">
+        <v>31.7097506</v>
+      </c>
+      <c r="W77">
+        <v>24.1493381</v>
+      </c>
+      <c r="X77">
+        <v>19.1007128</v>
+      </c>
+      <c r="Y77">
+        <v>17.2442244</v>
+      </c>
+      <c r="Z77">
+        <v>25.2823162</v>
+      </c>
+      <c r="AA77">
+        <v>18.7853353</v>
+      </c>
+      <c r="AB77">
+        <v>21.6872432</v>
+      </c>
+      <c r="AD77">
+        <v>24.312951</v>
+      </c>
+      <c r="AE77">
+        <v>19.4831078</v>
+      </c>
+      <c r="AF77">
+        <v>17.2594334</v>
+      </c>
+      <c r="AG77">
+        <v>24.1377295</v>
+      </c>
+      <c r="AH77">
+        <v>20.1280528</v>
+      </c>
+      <c r="AI77">
+        <v>18.7030075</v>
+      </c>
+      <c r="AJ77">
+        <v>33.0357192</v>
+      </c>
+      <c r="AK77">
+        <v>17.0903983</v>
+      </c>
+      <c r="AL77">
+        <v>22.0510239</v>
+      </c>
+      <c r="AM77">
+        <v>29.6955858</v>
+      </c>
+      <c r="AN77">
+        <v>21.7519838</v>
+      </c>
+      <c r="AO77">
+        <v>21.7720396</v>
+      </c>
+      <c r="AP77">
+        <v>19.6600054</v>
+      </c>
+      <c r="AQ77">
+        <v>20.3597482</v>
+      </c>
+      <c r="AS77">
+        <v>19.7202756</v>
+      </c>
+      <c r="AT77">
+        <v>18.6315037</v>
+      </c>
+      <c r="AU77">
+        <v>22.5799797</v>
+      </c>
+      <c r="AV77">
+        <v>19.7952281</v>
+      </c>
+      <c r="AW77">
+        <v>20.1760031</v>
+      </c>
+      <c r="AX77">
+        <v>22.3927224</v>
+      </c>
+      <c r="AY77">
+        <v>18.82304</v>
+      </c>
+      <c r="BA77">
+        <v>22.2846232</v>
+      </c>
+      <c r="BB77">
+        <v>20.8230495</v>
+      </c>
+      <c r="BC77">
+        <v>19.2537203</v>
+      </c>
+      <c r="BD77">
+        <v>20.6674186</v>
+      </c>
+      <c r="BE77">
+        <v>25.8692419</v>
+      </c>
+    </row>
+    <row r="78" spans="1:57">
       <c r="A78" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>19.7289157</v>
+      </c>
+      <c r="C78">
+        <v>21.5580424</v>
+      </c>
+      <c r="D78">
+        <v>20.880447</v>
+      </c>
+      <c r="F78">
+        <v>17.4759836</v>
+      </c>
+      <c r="G78">
+        <v>16.6780917</v>
+      </c>
+      <c r="H78">
+        <v>27.02315</v>
+      </c>
+      <c r="I78">
+        <v>27.3998903</v>
+      </c>
+      <c r="J78">
+        <v>18.8461538</v>
+      </c>
+      <c r="K78">
+        <v>21.8038529</v>
+      </c>
+      <c r="L78">
+        <v>16.7583998</v>
+      </c>
+      <c r="M78">
+        <v>22.9346461</v>
+      </c>
+      <c r="O78">
+        <v>18.8845401</v>
+      </c>
+      <c r="P78">
+        <v>23.8446714</v>
+      </c>
+      <c r="Q78">
+        <v>25.5425845</v>
+      </c>
+      <c r="R78">
+        <v>22.26627</v>
+      </c>
+      <c r="S78">
+        <v>27.5971246</v>
+      </c>
+      <c r="T78">
+        <v>22.1049142</v>
+      </c>
+      <c r="U78">
+        <v>24.106182</v>
+      </c>
+      <c r="V78">
+        <v>32.1338818</v>
+      </c>
+      <c r="W78">
+        <v>25.2332983</v>
+      </c>
+      <c r="X78">
+        <v>17.9657054</v>
+      </c>
+      <c r="Y78">
+        <v>17.4714104</v>
+      </c>
+      <c r="Z78">
+        <v>25.2810169</v>
+      </c>
+      <c r="AA78">
+        <v>18.8806492</v>
+      </c>
+      <c r="AB78">
+        <v>21.7431739</v>
+      </c>
+      <c r="AD78">
+        <v>23.4996923</v>
+      </c>
+      <c r="AE78">
+        <v>19.507694</v>
+      </c>
+      <c r="AF78">
+        <v>17.1710999</v>
+      </c>
+      <c r="AG78">
+        <v>21.5126841</v>
+      </c>
+      <c r="AH78">
+        <v>20.7087573</v>
+      </c>
+      <c r="AI78">
+        <v>19.6969697</v>
+      </c>
+      <c r="AJ78">
+        <v>33.2534157</v>
+      </c>
+      <c r="AK78">
+        <v>18.569029</v>
+      </c>
+      <c r="AL78">
+        <v>21.9265966</v>
+      </c>
+      <c r="AM78">
+        <v>29.3170506</v>
+      </c>
+      <c r="AN78">
+        <v>22.2127854</v>
+      </c>
+      <c r="AO78">
+        <v>22.754453</v>
+      </c>
+      <c r="AP78">
+        <v>20.8578753</v>
+      </c>
+      <c r="AQ78">
+        <v>20.5201803</v>
+      </c>
+      <c r="AS78">
+        <v>21.2981702</v>
+      </c>
+      <c r="AT78">
+        <v>17.8091433</v>
+      </c>
+      <c r="AU78">
+        <v>24.0262019</v>
+      </c>
+      <c r="AV78">
+        <v>19.2505257</v>
+      </c>
+      <c r="AW78">
+        <v>19.7452558</v>
+      </c>
+      <c r="AX78">
+        <v>23.2343499</v>
+      </c>
+      <c r="AY78">
+        <v>18.8271599</v>
+      </c>
+      <c r="BA78">
+        <v>21.2068966</v>
+      </c>
+      <c r="BB78">
+        <v>21.3355267</v>
+      </c>
+      <c r="BC78">
+        <v>19.4093947</v>
+      </c>
+      <c r="BD78">
+        <v>20.4030998</v>
+      </c>
+      <c r="BE78">
+        <v>23.5941633</v>
+      </c>
+    </row>
+    <row r="79" spans="1:57">
       <c r="A79" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>20.7434053</v>
+      </c>
+      <c r="C79">
+        <v>22.2133075</v>
+      </c>
+      <c r="D79">
+        <v>21.0714173</v>
+      </c>
+      <c r="F79">
+        <v>17.296123</v>
+      </c>
+      <c r="G79">
+        <v>16.5618747</v>
+      </c>
+      <c r="H79">
+        <v>26.3500394</v>
+      </c>
+      <c r="I79">
+        <v>27.598059</v>
+      </c>
+      <c r="J79">
+        <v>18.7150838</v>
+      </c>
+      <c r="K79">
+        <v>21.9559585</v>
+      </c>
+      <c r="L79">
+        <v>16.7321108</v>
+      </c>
+      <c r="M79">
+        <v>22.8058848</v>
+      </c>
+      <c r="O79">
+        <v>18.1746032</v>
+      </c>
+      <c r="P79">
+        <v>25.1229759</v>
+      </c>
+      <c r="Q79">
+        <v>24.2388089</v>
+      </c>
+      <c r="R79">
+        <v>22.0910781</v>
+      </c>
+      <c r="S79">
+        <v>27.3069295</v>
+      </c>
+      <c r="T79">
+        <v>22.3110958</v>
+      </c>
+      <c r="U79">
+        <v>24.2325576</v>
+      </c>
+      <c r="V79">
+        <v>32.4612481</v>
+      </c>
+      <c r="W79">
+        <v>24.6044132</v>
+      </c>
+      <c r="X79">
+        <v>18.0839275</v>
+      </c>
+      <c r="Y79">
+        <v>17.3216132</v>
+      </c>
+      <c r="Z79">
+        <v>25.3208363</v>
+      </c>
+      <c r="AA79">
+        <v>18.2714637</v>
+      </c>
+      <c r="AB79">
+        <v>21.2902043</v>
+      </c>
+      <c r="AD79">
+        <v>23.8180704</v>
+      </c>
+      <c r="AE79">
+        <v>19.450148</v>
+      </c>
+      <c r="AF79">
+        <v>17.1838213</v>
+      </c>
+      <c r="AG79">
+        <v>21.243554</v>
+      </c>
+      <c r="AH79">
+        <v>21.5309814</v>
+      </c>
+      <c r="AI79">
+        <v>19.3769799</v>
+      </c>
+      <c r="AJ79">
+        <v>32.4162044</v>
+      </c>
+      <c r="AK79">
+        <v>16.8121105</v>
+      </c>
+      <c r="AL79">
+        <v>20.0102959</v>
+      </c>
+      <c r="AM79">
+        <v>29.0702973</v>
+      </c>
+      <c r="AN79">
+        <v>22.00144</v>
+      </c>
+      <c r="AO79">
+        <v>22.4823926</v>
+      </c>
+      <c r="AP79">
+        <v>21.1651736</v>
+      </c>
+      <c r="AQ79">
+        <v>20.0218693</v>
+      </c>
+      <c r="AS79">
+        <v>19.693027</v>
+      </c>
+      <c r="AT79">
+        <v>18.02402</v>
+      </c>
+      <c r="AU79">
+        <v>26.2990869</v>
+      </c>
+      <c r="AV79">
+        <v>19.6473328</v>
+      </c>
+      <c r="AW79">
+        <v>19.9740834</v>
+      </c>
+      <c r="AX79">
+        <v>21.7622599</v>
+      </c>
+      <c r="AY79">
+        <v>18.9495238</v>
+      </c>
+      <c r="BA79">
+        <v>22.7400899</v>
+      </c>
+      <c r="BB79">
+        <v>20.5588119</v>
+      </c>
+      <c r="BC79">
+        <v>19.6109405</v>
+      </c>
+      <c r="BD79">
+        <v>20.6226691</v>
+      </c>
+      <c r="BE79">
+        <v>26.3325646</v>
+      </c>
+    </row>
+    <row r="80" spans="1:57">
       <c r="A80" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>19.9029126</v>
+      </c>
+      <c r="C80">
+        <v>21.598688</v>
+      </c>
+      <c r="D80">
+        <v>21.4833694</v>
+      </c>
+      <c r="F80">
+        <v>17.6123447</v>
+      </c>
+      <c r="G80">
+        <v>16.2680936</v>
+      </c>
+      <c r="H80">
+        <v>26.2859206</v>
+      </c>
+      <c r="I80">
+        <v>27.2234273</v>
+      </c>
+      <c r="J80">
+        <v>18.5267857</v>
+      </c>
+      <c r="K80">
+        <v>21.3089005</v>
+      </c>
+      <c r="L80">
+        <v>16.6017063</v>
+      </c>
+      <c r="M80">
+        <v>21.71944</v>
+      </c>
+      <c r="O80">
+        <v>17.1586716</v>
+      </c>
+      <c r="P80">
+        <v>24.9120102</v>
+      </c>
+      <c r="Q80">
+        <v>24.2346413</v>
+      </c>
+      <c r="R80">
+        <v>21.7695306</v>
+      </c>
+      <c r="S80">
+        <v>26.6772499</v>
+      </c>
+      <c r="T80">
+        <v>21.6935334</v>
+      </c>
+      <c r="U80">
+        <v>23.5285833</v>
+      </c>
+      <c r="V80">
+        <v>31.3221894</v>
+      </c>
+      <c r="W80">
+        <v>24.6923181</v>
+      </c>
+      <c r="X80">
+        <v>18.1799228</v>
+      </c>
+      <c r="Y80">
+        <v>18.9724919</v>
+      </c>
+      <c r="Z80">
+        <v>24.6562161</v>
+      </c>
+      <c r="AA80">
+        <v>18.9830209</v>
+      </c>
+      <c r="AB80">
+        <v>21.0279275</v>
+      </c>
+      <c r="AD80">
+        <v>23.9947511</v>
+      </c>
+      <c r="AE80">
+        <v>19.8596418</v>
+      </c>
+      <c r="AF80">
+        <v>16.6757937</v>
+      </c>
+      <c r="AG80">
+        <v>21.0358068</v>
+      </c>
+      <c r="AH80">
+        <v>21.160288</v>
+      </c>
+      <c r="AI80">
+        <v>19.1753403</v>
+      </c>
+      <c r="AJ80">
+        <v>32.4460135</v>
+      </c>
+      <c r="AK80">
+        <v>16.8052029</v>
+      </c>
+      <c r="AL80">
+        <v>19.7813118</v>
+      </c>
+      <c r="AM80">
+        <v>29.2415188</v>
+      </c>
+      <c r="AN80">
+        <v>21.794885</v>
+      </c>
+      <c r="AO80">
+        <v>22.0925764</v>
+      </c>
+      <c r="AP80">
+        <v>19.8346325</v>
+      </c>
+      <c r="AQ80">
+        <v>19.5193538</v>
+      </c>
+      <c r="AS80">
+        <v>19.4704716</v>
+      </c>
+      <c r="AT80">
+        <v>17.8735278</v>
+      </c>
+      <c r="AU80">
+        <v>25.315139</v>
+      </c>
+      <c r="AV80">
+        <v>19.0286333</v>
+      </c>
+      <c r="AW80">
+        <v>19.6007607</v>
+      </c>
+      <c r="AX80">
+        <v>21.7757421</v>
+      </c>
+      <c r="AY80">
+        <v>18.7536239</v>
+      </c>
+      <c r="BA80">
+        <v>22.36084</v>
+      </c>
+      <c r="BB80">
+        <v>19.9518177</v>
+      </c>
+      <c r="BC80">
+        <v>18.5530501</v>
+      </c>
+      <c r="BD80">
+        <v>20.6358782</v>
+      </c>
+      <c r="BE80">
+        <v>24.7654099</v>
+      </c>
+    </row>
+    <row r="81" spans="1:57">
       <c r="A81" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>20.4954955</v>
+      </c>
+      <c r="C81">
+        <v>20.6530581</v>
+      </c>
+      <c r="D81">
+        <v>21.4911422</v>
+      </c>
+      <c r="F81">
+        <v>17.9648292</v>
+      </c>
+      <c r="G81">
+        <v>16.1827057</v>
+      </c>
+      <c r="H81">
+        <v>25.657458</v>
+      </c>
+      <c r="I81">
+        <v>27.2715988</v>
+      </c>
+      <c r="J81">
+        <v>17.1985816</v>
+      </c>
+      <c r="K81">
+        <v>20.9598031</v>
+      </c>
+      <c r="L81">
+        <v>16.4653698</v>
+      </c>
+      <c r="M81">
+        <v>21.7218912</v>
+      </c>
+      <c r="O81">
+        <v>17.1906694</v>
+      </c>
+      <c r="P81">
+        <v>24.2906982</v>
+      </c>
+      <c r="Q81">
+        <v>23.3159118</v>
+      </c>
+      <c r="R81">
+        <v>21.5986984</v>
+      </c>
+      <c r="S81">
+        <v>26.1998986</v>
+      </c>
+      <c r="T81">
+        <v>21.4645442</v>
+      </c>
+      <c r="U81">
+        <v>23.4761422</v>
+      </c>
+      <c r="V81">
+        <v>30.3824234</v>
+      </c>
+      <c r="W81">
+        <v>25.0962191</v>
+      </c>
+      <c r="X81">
+        <v>17.4852949</v>
+      </c>
+      <c r="Y81">
+        <v>18.7128713</v>
+      </c>
+      <c r="Z81">
+        <v>24.5914754</v>
+      </c>
+      <c r="AA81">
+        <v>18.552951</v>
+      </c>
+      <c r="AB81">
+        <v>20.467413</v>
+      </c>
+      <c r="AD81">
+        <v>25.2101832</v>
+      </c>
+      <c r="AE81">
+        <v>18.7845984</v>
+      </c>
+      <c r="AF81">
+        <v>16.6444413</v>
+      </c>
+      <c r="AG81">
+        <v>20.4163513</v>
+      </c>
+      <c r="AH81">
+        <v>21.4225582</v>
+      </c>
+      <c r="AI81">
+        <v>19.3558474</v>
+      </c>
+      <c r="AJ81">
+        <v>31.990268</v>
+      </c>
+      <c r="AK81">
+        <v>17.0119324</v>
+      </c>
+      <c r="AL81">
+        <v>19.7875747</v>
+      </c>
+      <c r="AM81">
+        <v>29.2879035</v>
+      </c>
+      <c r="AN81">
+        <v>21.6855245</v>
+      </c>
+      <c r="AO81">
+        <v>22.4591597</v>
+      </c>
+      <c r="AP81">
+        <v>19.864777</v>
+      </c>
+      <c r="AQ81">
+        <v>19.3853139</v>
+      </c>
+      <c r="AS81">
+        <v>20.1924275</v>
+      </c>
+      <c r="AT81">
+        <v>17.8199071</v>
+      </c>
+      <c r="AU81">
+        <v>24.5269199</v>
+      </c>
+      <c r="AV81">
+        <v>19.4331701</v>
+      </c>
+      <c r="AW81">
+        <v>19.4351704</v>
+      </c>
+      <c r="AX81">
+        <v>22.2154499</v>
+      </c>
+      <c r="AY81">
+        <v>18.3669418</v>
+      </c>
+      <c r="BA81">
+        <v>23.5738255</v>
+      </c>
+      <c r="BB81">
+        <v>20.3602104</v>
+      </c>
+      <c r="BC81">
+        <v>18.6152291</v>
+      </c>
+      <c r="BD81">
+        <v>21.4786694</v>
+      </c>
+      <c r="BE81">
+        <v>25.9578157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:57">
       <c r="A82" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>20.4041721</v>
+      </c>
+      <c r="C82">
+        <v>21.1726379</v>
+      </c>
+      <c r="D82">
+        <v>20.3151138</v>
+      </c>
+      <c r="F82">
+        <v>17.833565</v>
+      </c>
+      <c r="G82">
+        <v>15.7922992</v>
+      </c>
+      <c r="H82">
+        <v>25.0883634</v>
+      </c>
+      <c r="I82">
+        <v>27.2581678</v>
+      </c>
+      <c r="J82">
+        <v>16.40625</v>
+      </c>
+      <c r="K82">
+        <v>20.3951775</v>
+      </c>
+      <c r="L82">
+        <v>16.5747763</v>
+      </c>
+      <c r="M82">
+        <v>22.0077291</v>
+      </c>
+      <c r="O82">
+        <v>15.9188956</v>
+      </c>
+      <c r="P82">
+        <v>24.0800061</v>
+      </c>
+      <c r="Q82">
+        <v>23.3415656</v>
+      </c>
+      <c r="R82">
+        <v>21.6551238</v>
+      </c>
+      <c r="S82">
+        <v>26.1430564</v>
+      </c>
+      <c r="T82">
+        <v>22.0279534</v>
+      </c>
+      <c r="U82">
+        <v>23.067422</v>
+      </c>
+      <c r="V82">
+        <v>30.2560191</v>
+      </c>
+      <c r="W82">
+        <v>25.5800238</v>
+      </c>
+      <c r="X82">
+        <v>17.2054352</v>
+      </c>
+      <c r="Y82">
+        <v>19.1039032</v>
+      </c>
+      <c r="Z82">
+        <v>24.4175422</v>
+      </c>
+      <c r="AA82">
+        <v>19.2319554</v>
+      </c>
+      <c r="AB82">
+        <v>20.6655779</v>
+      </c>
+      <c r="AD82">
+        <v>24.4548056</v>
+      </c>
+      <c r="AE82">
+        <v>19.2207045</v>
+      </c>
+      <c r="AF82">
+        <v>16.2195914</v>
+      </c>
+      <c r="AG82">
+        <v>20.5857097</v>
+      </c>
+      <c r="AH82">
+        <v>21.2818715</v>
+      </c>
+      <c r="AI82">
+        <v>19.4489032</v>
+      </c>
+      <c r="AJ82">
+        <v>31.7849004</v>
+      </c>
+      <c r="AK82">
+        <v>16.7974702</v>
+      </c>
+      <c r="AL82">
+        <v>19.0783655</v>
+      </c>
+      <c r="AM82">
+        <v>28.8823158</v>
+      </c>
+      <c r="AN82">
+        <v>21.5938257</v>
+      </c>
+      <c r="AO82">
+        <v>22.2773773</v>
+      </c>
+      <c r="AP82">
+        <v>19.5954564</v>
+      </c>
+      <c r="AQ82">
+        <v>19.1033311</v>
+      </c>
+      <c r="AS82">
+        <v>20.8215549</v>
+      </c>
+      <c r="AT82">
+        <v>18.1021575</v>
+      </c>
+      <c r="AU82">
+        <v>23.7620015</v>
+      </c>
+      <c r="AV82">
+        <v>20.1011436</v>
+      </c>
+      <c r="AW82">
+        <v>19.2912679</v>
+      </c>
+      <c r="AX82">
+        <v>22.3503739</v>
+      </c>
+      <c r="AY82">
+        <v>18.7367774</v>
+      </c>
+      <c r="BA82">
+        <v>21.4779034</v>
+      </c>
+      <c r="BB82">
+        <v>20.3054156</v>
+      </c>
+      <c r="BC82">
+        <v>18.9740278</v>
+      </c>
+      <c r="BD82">
+        <v>21.1587788</v>
+      </c>
+      <c r="BE82">
+        <v>25.0973578</v>
+      </c>
+    </row>
+    <row r="83" spans="1:57">
       <c r="A83" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>20.3337454</v>
+      </c>
+      <c r="C83">
+        <v>21.7173646</v>
+      </c>
+      <c r="D83">
+        <v>20.6992702</v>
+      </c>
+      <c r="F83">
+        <v>18.0879468</v>
+      </c>
+      <c r="G83">
+        <v>15.5982621</v>
+      </c>
+      <c r="H83">
+        <v>25.5155936</v>
+      </c>
+      <c r="I83">
+        <v>27.3592158</v>
+      </c>
+      <c r="J83">
+        <v>18.6980609</v>
+      </c>
+      <c r="K83">
+        <v>20.3125</v>
+      </c>
+      <c r="L83">
+        <v>16.759262</v>
+      </c>
+      <c r="M83">
+        <v>21.5691146</v>
+      </c>
+      <c r="O83">
+        <v>15.3299916</v>
+      </c>
+      <c r="P83">
+        <v>24.3479237</v>
+      </c>
+      <c r="Q83">
+        <v>22.307889</v>
+      </c>
+      <c r="R83">
+        <v>21.7198065</v>
+      </c>
+      <c r="S83">
+        <v>26.1186225</v>
+      </c>
+      <c r="T83">
+        <v>21.862531</v>
+      </c>
+      <c r="U83">
+        <v>22.9469666</v>
+      </c>
+      <c r="V83">
+        <v>29.0854452</v>
+      </c>
+      <c r="W83">
+        <v>24.9798974</v>
+      </c>
+      <c r="X83">
+        <v>16.8296614</v>
+      </c>
+      <c r="Y83">
+        <v>18.3388547</v>
+      </c>
+      <c r="Z83">
+        <v>24.0583744</v>
+      </c>
+      <c r="AA83">
+        <v>19.0138249</v>
+      </c>
+      <c r="AB83">
+        <v>20.1116143</v>
+      </c>
+      <c r="AD83">
+        <v>24.6006181</v>
+      </c>
+      <c r="AE83">
+        <v>18.9625543</v>
+      </c>
+      <c r="AF83">
+        <v>16.0269306</v>
+      </c>
+      <c r="AG83">
+        <v>19.9094651</v>
+      </c>
+      <c r="AH83">
+        <v>21.1976723</v>
+      </c>
+      <c r="AI83">
+        <v>18.5018904</v>
+      </c>
+      <c r="AJ83">
+        <v>31.2771472</v>
+      </c>
+      <c r="AK83">
+        <v>17.1594239</v>
+      </c>
+      <c r="AL83">
+        <v>18.5318575</v>
+      </c>
+      <c r="AM83">
+        <v>28.9341823</v>
+      </c>
+      <c r="AN83">
+        <v>21.6276313</v>
+      </c>
+      <c r="AO83">
+        <v>22.1069437</v>
+      </c>
+      <c r="AP83">
+        <v>19.3714611</v>
+      </c>
+      <c r="AQ83">
+        <v>19.094792</v>
+      </c>
+      <c r="AS83">
+        <v>21.2548241</v>
+      </c>
+      <c r="AT83">
+        <v>17.8733447</v>
+      </c>
+      <c r="AU83">
+        <v>23.8003223</v>
+      </c>
+      <c r="AV83">
+        <v>19.5159259</v>
+      </c>
+      <c r="AW83">
+        <v>19.3046969</v>
+      </c>
+      <c r="AX83">
+        <v>22.6712264</v>
+      </c>
+      <c r="AY83">
+        <v>18.487233</v>
+      </c>
+      <c r="BA83">
+        <v>21.9411627</v>
+      </c>
+      <c r="BB83">
+        <v>20.4023616</v>
+      </c>
+      <c r="BC83">
+        <v>18.8985703</v>
+      </c>
+      <c r="BD83">
+        <v>20.4116066</v>
+      </c>
+      <c r="BE83">
+        <v>24.1041302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:57">
       <c r="A84" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>20.3589109</v>
+      </c>
+      <c r="C84">
+        <v>21.8787803</v>
+      </c>
+      <c r="D84">
+        <v>19.7528811</v>
+      </c>
+      <c r="F84">
+        <v>18.341502</v>
+      </c>
+      <c r="G84">
+        <v>15.3903426</v>
+      </c>
+      <c r="H84">
+        <v>24.769803</v>
+      </c>
+      <c r="I84">
+        <v>27.1701389</v>
+      </c>
+      <c r="J84">
+        <v>19.0909091</v>
+      </c>
+      <c r="K84">
+        <v>20.3553616</v>
+      </c>
+      <c r="L84">
+        <v>16.7253441</v>
+      </c>
+      <c r="M84">
+        <v>22.1258676</v>
+      </c>
+      <c r="O84">
+        <v>14.4956315</v>
+      </c>
+      <c r="P84">
+        <v>24.3311598</v>
+      </c>
+      <c r="Q84">
+        <v>22.6505037</v>
+      </c>
+      <c r="R84">
+        <v>21.8092444</v>
+      </c>
+      <c r="S84">
+        <v>26.3285643</v>
+      </c>
+      <c r="T84">
+        <v>21.0069117</v>
+      </c>
+      <c r="U84">
+        <v>23.4225924</v>
+      </c>
+      <c r="V84">
+        <v>28.6145159</v>
+      </c>
+      <c r="W84">
+        <v>25.1713282</v>
+      </c>
+      <c r="X84">
+        <v>16.419295</v>
+      </c>
+      <c r="Y84">
+        <v>19.4734345</v>
+      </c>
+      <c r="Z84">
+        <v>24.2453246</v>
+      </c>
+      <c r="AA84">
+        <v>18.6526563</v>
+      </c>
+      <c r="AB84">
+        <v>19.8008952</v>
+      </c>
+      <c r="AD84">
+        <v>24.8909531</v>
+      </c>
+      <c r="AE84">
+        <v>19.1762484</v>
+      </c>
+      <c r="AF84">
+        <v>16.0162355</v>
+      </c>
+      <c r="AG84">
+        <v>20.4218829</v>
+      </c>
+      <c r="AH84">
+        <v>21.5481136</v>
+      </c>
+      <c r="AI84">
+        <v>18.7582855</v>
+      </c>
+      <c r="AJ84">
+        <v>31.4416123</v>
+      </c>
+      <c r="AK84">
+        <v>16.7860304</v>
+      </c>
+      <c r="AL84">
+        <v>18.5763147</v>
+      </c>
+      <c r="AM84">
+        <v>28.5906816</v>
+      </c>
+      <c r="AN84">
+        <v>21.4088941</v>
+      </c>
+      <c r="AO84">
+        <v>23.0833181</v>
+      </c>
+      <c r="AP84">
+        <v>19.3588321</v>
+      </c>
+      <c r="AQ84">
+        <v>18.8875816</v>
+      </c>
+      <c r="AS84">
+        <v>21.0577203</v>
+      </c>
+      <c r="AT84">
+        <v>18.03615</v>
+      </c>
+      <c r="AU84">
+        <v>24.8456611</v>
+      </c>
+      <c r="AV84">
+        <v>19.5994496</v>
+      </c>
+      <c r="AW84">
+        <v>19.0450414</v>
+      </c>
+      <c r="AX84">
+        <v>22.35647</v>
+      </c>
+      <c r="AY84">
+        <v>18.5832552</v>
+      </c>
+      <c r="BA84">
+        <v>21.836975</v>
+      </c>
+      <c r="BB84">
+        <v>20.1428268</v>
+      </c>
+      <c r="BC84">
+        <v>18.5657568</v>
+      </c>
+      <c r="BD84">
+        <v>20.5663968</v>
+      </c>
+      <c r="BE84">
+        <v>23.8042937</v>
+      </c>
+    </row>
+    <row r="85" spans="1:57">
       <c r="A85" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>19.4530444</v>
+      </c>
+      <c r="C85">
+        <v>21.2125824</v>
+      </c>
+      <c r="D85">
+        <v>20.8542181</v>
+      </c>
+      <c r="F85">
+        <v>18.4190041</v>
+      </c>
+      <c r="G85">
+        <v>15.2828538</v>
+      </c>
+      <c r="H85">
+        <v>24.8848459</v>
+      </c>
+      <c r="I85">
+        <v>26.4429887</v>
+      </c>
+      <c r="J85">
+        <v>20.9276018</v>
+      </c>
+      <c r="K85">
+        <v>19.3888185</v>
+      </c>
+      <c r="L85">
+        <v>16.6573961</v>
+      </c>
+      <c r="M85">
+        <v>22.0881962</v>
+      </c>
+      <c r="O85">
+        <v>14.8708487</v>
+      </c>
+      <c r="P85">
+        <v>24.4814226</v>
+      </c>
+      <c r="Q85">
+        <v>22.3965169</v>
+      </c>
+      <c r="R85">
+        <v>21.4646306</v>
+      </c>
+      <c r="S85">
+        <v>26.6178468</v>
+      </c>
+      <c r="T85">
+        <v>20.3628733</v>
+      </c>
+      <c r="U85">
+        <v>23.3070904</v>
+      </c>
+      <c r="V85">
+        <v>28.1367774</v>
+      </c>
+      <c r="W85">
+        <v>25.9661792</v>
+      </c>
+      <c r="X85">
+        <v>16.4388785</v>
+      </c>
+      <c r="Y85">
+        <v>19.0349076</v>
+      </c>
+      <c r="Z85">
+        <v>23.9464503</v>
+      </c>
+      <c r="AA85">
+        <v>18.4319354</v>
+      </c>
+      <c r="AB85">
+        <v>20.017529</v>
+      </c>
+      <c r="AD85">
+        <v>25.1889825</v>
+      </c>
+      <c r="AE85">
+        <v>19.5480008</v>
+      </c>
+      <c r="AF85">
+        <v>15.9708358</v>
+      </c>
+      <c r="AG85">
+        <v>20.5163233</v>
+      </c>
+      <c r="AH85">
+        <v>21.3549543</v>
+      </c>
+      <c r="AI85">
+        <v>19.3915563</v>
+      </c>
+      <c r="AJ85">
+        <v>30.338797</v>
+      </c>
+      <c r="AK85">
+        <v>17.0349509</v>
+      </c>
+      <c r="AL85">
+        <v>18.6221023</v>
+      </c>
+      <c r="AM85">
+        <v>28.7523296</v>
+      </c>
+      <c r="AN85">
+        <v>21.3243241</v>
+      </c>
+      <c r="AO85">
+        <v>22.7860826</v>
+      </c>
+      <c r="AP85">
+        <v>19.0725054</v>
+      </c>
+      <c r="AQ85">
+        <v>18.6229245</v>
+      </c>
+      <c r="AS85">
+        <v>20.8260558</v>
+      </c>
+      <c r="AT85">
+        <v>18.5894794</v>
+      </c>
+      <c r="AU85">
+        <v>24.2806861</v>
+      </c>
+      <c r="AV85">
+        <v>19.4168769</v>
+      </c>
+      <c r="AW85">
+        <v>18.9161209</v>
+      </c>
+      <c r="AX85">
+        <v>22.1054388</v>
+      </c>
+      <c r="AY85">
+        <v>18.6624082</v>
+      </c>
+      <c r="BA85">
+        <v>21.4210436</v>
+      </c>
+      <c r="BB85">
+        <v>20.4792293</v>
+      </c>
+      <c r="BC85">
+        <v>18.6159341</v>
+      </c>
+      <c r="BD85">
+        <v>20.7681448</v>
+      </c>
+      <c r="BE85">
+        <v>23.5931759</v>
+      </c>
+    </row>
+    <row r="86" spans="1:57">
       <c r="A86" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>19.7124304</v>
+      </c>
+      <c r="C86">
+        <v>21.3481769</v>
+      </c>
+      <c r="D86">
+        <v>20.0521044</v>
+      </c>
+      <c r="F86">
+        <v>18.2718315</v>
+      </c>
+      <c r="G86">
+        <v>15.0521765</v>
+      </c>
+      <c r="H86">
+        <v>24.8875974</v>
+      </c>
+      <c r="I86">
+        <v>26.1662156</v>
+      </c>
+      <c r="J86">
+        <v>21.6135458</v>
+      </c>
+      <c r="K86">
+        <v>19.3414453</v>
+      </c>
+      <c r="L86">
+        <v>16.4270421</v>
+      </c>
+      <c r="M86">
+        <v>22.0106959</v>
+      </c>
+      <c r="O86">
+        <v>14.9671053</v>
+      </c>
+      <c r="P86">
+        <v>24.1261236</v>
+      </c>
+      <c r="Q86">
+        <v>22.123713</v>
+      </c>
+      <c r="R86">
+        <v>21.1619916</v>
+      </c>
+      <c r="S86">
+        <v>26.1040697</v>
+      </c>
+      <c r="T86">
+        <v>20.436338</v>
+      </c>
+      <c r="U86">
+        <v>23.0131261</v>
+      </c>
+      <c r="V86">
+        <v>27.2256086</v>
+      </c>
+      <c r="W86">
+        <v>25.9474046</v>
+      </c>
+      <c r="X86">
+        <v>16.2400401</v>
+      </c>
+      <c r="Y86">
+        <v>18.9463602</v>
+      </c>
+      <c r="Z86">
+        <v>24.0886805</v>
+      </c>
+      <c r="AA86">
+        <v>17.6980876</v>
+      </c>
+      <c r="AB86">
+        <v>19.7048116</v>
+      </c>
+      <c r="AD86">
+        <v>24.5897153</v>
+      </c>
+      <c r="AE86">
+        <v>19.1342476</v>
+      </c>
+      <c r="AF86">
+        <v>16.0630028</v>
+      </c>
+      <c r="AG86">
+        <v>20.8753627</v>
+      </c>
+      <c r="AH86">
+        <v>20.6662284</v>
+      </c>
+      <c r="AI86">
+        <v>18.4729064</v>
+      </c>
+      <c r="AJ86">
+        <v>31.318197</v>
+      </c>
+      <c r="AK86">
+        <v>17.8011284</v>
+      </c>
+      <c r="AL86">
+        <v>18.8478675</v>
+      </c>
+      <c r="AM86">
+        <v>28.5609511</v>
+      </c>
+      <c r="AN86">
+        <v>21.084616</v>
+      </c>
+      <c r="AO86">
+        <v>22.3734711</v>
+      </c>
+      <c r="AP86">
+        <v>19.1333245</v>
+      </c>
+      <c r="AQ86">
+        <v>18.3570573</v>
+      </c>
+      <c r="AS86">
+        <v>21.8040203</v>
+      </c>
+      <c r="AT86">
+        <v>17.8998363</v>
+      </c>
+      <c r="AU86">
+        <v>23.9705867</v>
+      </c>
+      <c r="AV86">
+        <v>19.6506175</v>
+      </c>
+      <c r="AW86">
+        <v>18.6422005</v>
+      </c>
+      <c r="AX86">
+        <v>22.1437827</v>
+      </c>
+      <c r="AY86">
+        <v>18.6095232</v>
+      </c>
+      <c r="BA86">
+        <v>20.6630105</v>
+      </c>
+      <c r="BB86">
+        <v>20.6572747</v>
+      </c>
+      <c r="BC86">
+        <v>18.3350801</v>
+      </c>
+      <c r="BD86">
+        <v>20.0511013</v>
+      </c>
+      <c r="BE86">
+        <v>21.4429794</v>
+      </c>
+    </row>
+    <row r="87" spans="1:57">
       <c r="A87" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>19.2765957</v>
+      </c>
+      <c r="C87">
+        <v>21.3043533</v>
+      </c>
+      <c r="D87">
+        <v>19.8608676</v>
+      </c>
+      <c r="F87">
+        <v>18.0720813</v>
+      </c>
+      <c r="G87">
+        <v>14.9921879</v>
+      </c>
+      <c r="H87">
+        <v>24.6251048</v>
+      </c>
+      <c r="I87">
+        <v>25.684781</v>
+      </c>
+      <c r="J87">
+        <v>21.8446602</v>
+      </c>
+      <c r="K87">
+        <v>19.1986234</v>
+      </c>
+      <c r="L87">
+        <v>16.495522</v>
+      </c>
+      <c r="M87">
+        <v>22.1335292</v>
+      </c>
+      <c r="O87">
+        <v>14.7912886</v>
+      </c>
+      <c r="P87">
+        <v>23.5126873</v>
+      </c>
+      <c r="Q87">
+        <v>22.5077316</v>
+      </c>
+      <c r="R87">
+        <v>21.1623486</v>
+      </c>
+      <c r="S87">
+        <v>26.1140114</v>
+      </c>
+      <c r="T87">
+        <v>20.325105</v>
+      </c>
+      <c r="U87">
+        <v>23.3298583</v>
+      </c>
+      <c r="V87">
+        <v>26.9236612</v>
+      </c>
+      <c r="W87">
+        <v>26.2075466</v>
+      </c>
+      <c r="X87">
+        <v>15.8982978</v>
+      </c>
+      <c r="Y87">
+        <v>17.673869</v>
+      </c>
+      <c r="Z87">
+        <v>23.8921663</v>
+      </c>
+      <c r="AA87">
+        <v>17.7204421</v>
+      </c>
+      <c r="AB87">
+        <v>18.8871659</v>
+      </c>
+      <c r="AD87">
+        <v>23.7469139</v>
+      </c>
+      <c r="AE87">
+        <v>19.3802661</v>
+      </c>
+      <c r="AF87">
+        <v>15.9699524</v>
+      </c>
+      <c r="AG87">
+        <v>20.7315022</v>
+      </c>
+      <c r="AH87">
+        <v>21.8862054</v>
+      </c>
+      <c r="AI87">
+        <v>18.8302673</v>
+      </c>
+      <c r="AJ87">
+        <v>30.9017376</v>
+      </c>
+      <c r="AK87">
+        <v>17.572748</v>
+      </c>
+      <c r="AL87">
+        <v>19.2928777</v>
+      </c>
+      <c r="AM87">
+        <v>28.3592604</v>
+      </c>
+      <c r="AN87">
+        <v>20.6234477</v>
+      </c>
+      <c r="AO87">
+        <v>22.0467406</v>
+      </c>
+      <c r="AP87">
+        <v>19.5210885</v>
+      </c>
+      <c r="AQ87">
+        <v>18.0839219</v>
+      </c>
+      <c r="AS87">
+        <v>21.5742891</v>
+      </c>
+      <c r="AT87">
+        <v>18.1329697</v>
+      </c>
+      <c r="AU87">
+        <v>23.6854066</v>
+      </c>
+      <c r="AV87">
+        <v>19.3005208</v>
+      </c>
+      <c r="AW87">
+        <v>18.6568186</v>
+      </c>
+      <c r="AX87">
+        <v>22.0435787</v>
+      </c>
+      <c r="AY87">
+        <v>18.6522223</v>
+      </c>
+      <c r="BA87">
+        <v>20.2057644</v>
+      </c>
+      <c r="BB87">
+        <v>20.8337364</v>
+      </c>
+      <c r="BC87">
+        <v>18.1421799</v>
+      </c>
+      <c r="BD87">
+        <v>19.9464655</v>
+      </c>
+      <c r="BE87">
+        <v>22.1980406</v>
+      </c>
+    </row>
+    <row r="88" spans="1:57">
       <c r="A88" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>18.4125705</v>
+      </c>
+      <c r="C88">
+        <v>20.9779767</v>
+      </c>
+      <c r="D88">
+        <v>19.6868651</v>
+      </c>
+      <c r="F88">
+        <v>17.8575373</v>
+      </c>
+      <c r="G88">
+        <v>14.8978423</v>
+      </c>
+      <c r="H88">
+        <v>24.267547</v>
+      </c>
+      <c r="I88">
+        <v>25.9001406</v>
+      </c>
+      <c r="J88">
+        <v>22.1746575</v>
+      </c>
+      <c r="K88">
+        <v>19.6101456</v>
+      </c>
+      <c r="L88">
+        <v>16.477662</v>
+      </c>
+      <c r="M88">
+        <v>22.1808354</v>
+      </c>
+      <c r="O88">
+        <v>14.6956522</v>
+      </c>
+      <c r="P88">
+        <v>24.3311424</v>
+      </c>
+      <c r="Q88">
+        <v>22.2924693</v>
+      </c>
+      <c r="R88">
+        <v>21.0304797</v>
+      </c>
+      <c r="S88">
+        <v>26.2846158</v>
+      </c>
+      <c r="T88">
+        <v>20.3207619</v>
+      </c>
+      <c r="U88">
+        <v>23.3027673</v>
+      </c>
+      <c r="V88">
+        <v>26.5968389</v>
+      </c>
+      <c r="W88">
+        <v>26.4803048</v>
+      </c>
+      <c r="X88">
+        <v>16.4738233</v>
+      </c>
+      <c r="Y88">
+        <v>17.6173403</v>
+      </c>
+      <c r="Z88">
+        <v>23.8289955</v>
+      </c>
+      <c r="AA88">
+        <v>18.1650262</v>
+      </c>
+      <c r="AB88">
+        <v>19.5189466</v>
+      </c>
+      <c r="AD88">
+        <v>23.5813127</v>
+      </c>
+      <c r="AE88">
+        <v>18.9467408</v>
+      </c>
+      <c r="AF88">
+        <v>15.8394055</v>
+      </c>
+      <c r="AG88">
+        <v>20.5009009</v>
+      </c>
+      <c r="AH88">
+        <v>21.8754498</v>
+      </c>
+      <c r="AI88">
+        <v>18.9302482</v>
+      </c>
+      <c r="AJ88">
+        <v>30.3989588</v>
+      </c>
+      <c r="AK88">
+        <v>18.0820757</v>
+      </c>
+      <c r="AL88">
+        <v>18.4177168</v>
+      </c>
+      <c r="AM88">
+        <v>28.1027799</v>
+      </c>
+      <c r="AN88">
+        <v>20.483576</v>
+      </c>
+      <c r="AO88">
+        <v>21.3796205</v>
+      </c>
+      <c r="AP88">
+        <v>19.5301962</v>
+      </c>
+      <c r="AQ88">
+        <v>18.0282853</v>
+      </c>
+      <c r="AS88">
+        <v>21.0835109</v>
+      </c>
+      <c r="AT88">
+        <v>18.0224039</v>
+      </c>
+      <c r="AU88">
+        <v>22.3265284</v>
+      </c>
+      <c r="AV88">
+        <v>19.5325055</v>
+      </c>
+      <c r="AW88">
+        <v>18.4781846</v>
+      </c>
+      <c r="AX88">
+        <v>21.6424586</v>
+      </c>
+      <c r="AY88">
+        <v>18.6285866</v>
+      </c>
+      <c r="BA88">
+        <v>19.5230418</v>
+      </c>
+      <c r="BB88">
+        <v>20.1930245</v>
+      </c>
+      <c r="BC88">
+        <v>18.1401437</v>
+      </c>
+      <c r="BD88">
+        <v>19.0978769</v>
+      </c>
+      <c r="BE88">
+        <v>22.7155162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:57">
       <c r="A89" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>18.5385169</v>
+      </c>
+      <c r="C89">
+        <v>20.8994915</v>
+      </c>
+      <c r="D89">
+        <v>19.611571</v>
+      </c>
+      <c r="F89">
+        <v>17.5483202</v>
+      </c>
+      <c r="G89">
+        <v>14.7782183</v>
+      </c>
+      <c r="H89">
+        <v>24.822572</v>
+      </c>
+      <c r="I89">
+        <v>25.4657989</v>
+      </c>
+      <c r="J89">
+        <v>21.369637</v>
+      </c>
+      <c r="K89">
+        <v>19.6373962</v>
+      </c>
+      <c r="L89">
+        <v>16.306917</v>
+      </c>
+      <c r="M89">
+        <v>21.693339</v>
+      </c>
+      <c r="O89">
+        <v>15.8826638</v>
+      </c>
+      <c r="P89">
+        <v>23.7795479</v>
+      </c>
+      <c r="Q89">
+        <v>22.2627342</v>
+      </c>
+      <c r="R89">
+        <v>20.9259668</v>
+      </c>
+      <c r="S89">
+        <v>25.9427059</v>
+      </c>
+      <c r="T89">
+        <v>20.691016</v>
+      </c>
+      <c r="U89">
+        <v>23.0112605</v>
+      </c>
+      <c r="V89">
+        <v>26.4233382</v>
+      </c>
+      <c r="W89">
+        <v>26.0264393</v>
+      </c>
+      <c r="X89">
+        <v>17.0778792</v>
+      </c>
+      <c r="Y89">
+        <v>17.3463443</v>
+      </c>
+      <c r="Z89">
+        <v>23.491778</v>
+      </c>
+      <c r="AA89">
+        <v>18.2725197</v>
+      </c>
+      <c r="AB89">
+        <v>18.9650739</v>
+      </c>
+      <c r="AD89">
+        <v>24.0253343</v>
+      </c>
+      <c r="AE89">
+        <v>17.8354522</v>
+      </c>
+      <c r="AF89">
+        <v>15.9177572</v>
+      </c>
+      <c r="AG89">
+        <v>20.6190786</v>
+      </c>
+      <c r="AH89">
+        <v>21.5247401</v>
+      </c>
+      <c r="AI89">
+        <v>19.3217893</v>
+      </c>
+      <c r="AJ89">
+        <v>30.0586751</v>
+      </c>
+      <c r="AK89">
+        <v>17.4220657</v>
+      </c>
+      <c r="AL89">
+        <v>19.0042977</v>
+      </c>
+      <c r="AM89">
+        <v>27.8617872</v>
+      </c>
+      <c r="AN89">
+        <v>20.5015483</v>
+      </c>
+      <c r="AO89">
+        <v>21.159635</v>
+      </c>
+      <c r="AP89">
+        <v>19.377829</v>
+      </c>
+      <c r="AQ89">
+        <v>18.0446796</v>
+      </c>
+      <c r="AS89">
+        <v>21.3433389</v>
+      </c>
+      <c r="AT89">
+        <v>17.64617</v>
+      </c>
+      <c r="AU89">
+        <v>21.6445093</v>
+      </c>
+      <c r="AV89">
+        <v>19.0556224</v>
+      </c>
+      <c r="AW89">
+        <v>18.304742</v>
+      </c>
+      <c r="AX89">
+        <v>21.0104891</v>
+      </c>
+      <c r="AY89">
+        <v>18.2235656</v>
+      </c>
+      <c r="BA89">
+        <v>19.0186165</v>
+      </c>
+      <c r="BB89">
+        <v>20.0890138</v>
+      </c>
+      <c r="BC89">
+        <v>17.3495702</v>
+      </c>
+      <c r="BD89">
+        <v>19.3250446</v>
+      </c>
+      <c r="BE89">
+        <v>21.8809508</v>
+      </c>
+    </row>
+    <row r="90" spans="1:57">
       <c r="A90" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>17.9659816</v>
+      </c>
+      <c r="C90">
+        <v>20.7813872</v>
+      </c>
+      <c r="D90">
+        <v>20.2385565</v>
+      </c>
+      <c r="F90">
+        <v>17.3862391</v>
+      </c>
+      <c r="G90">
+        <v>14.7717343</v>
+      </c>
+      <c r="H90">
+        <v>24.373779</v>
+      </c>
+      <c r="I90">
+        <v>25.4483292</v>
+      </c>
+      <c r="J90">
+        <v>20.8188153</v>
+      </c>
+      <c r="K90">
+        <v>19.5724767</v>
+      </c>
+      <c r="L90">
+        <v>16.040567</v>
+      </c>
+      <c r="M90">
+        <v>21.6569142</v>
+      </c>
+      <c r="O90">
+        <v>16.0283316</v>
+      </c>
+      <c r="P90">
+        <v>24.2400866</v>
+      </c>
+      <c r="Q90">
+        <v>21.7820027</v>
+      </c>
+      <c r="R90">
+        <v>20.9597831</v>
+      </c>
+      <c r="S90">
+        <v>25.6801448</v>
+      </c>
+      <c r="T90">
+        <v>19.9042416</v>
+      </c>
+      <c r="U90">
+        <v>23.3015861</v>
+      </c>
+      <c r="V90">
+        <v>26.237513</v>
+      </c>
+      <c r="W90">
+        <v>26.2299809</v>
+      </c>
+      <c r="X90">
+        <v>17.4728299</v>
+      </c>
+      <c r="Y90">
+        <v>16.6775138</v>
+      </c>
+      <c r="Z90">
+        <v>23.577456</v>
+      </c>
+      <c r="AA90">
+        <v>18.28262</v>
+      </c>
+      <c r="AB90">
+        <v>18.4530335</v>
+      </c>
+      <c r="AD90">
+        <v>23.7286874</v>
+      </c>
+      <c r="AE90">
+        <v>17.8245948</v>
+      </c>
+      <c r="AF90">
+        <v>15.9164597</v>
+      </c>
+      <c r="AG90">
+        <v>21.4841573</v>
+      </c>
+      <c r="AH90">
+        <v>22.0804925</v>
+      </c>
+      <c r="AI90">
+        <v>19.2524241</v>
+      </c>
+      <c r="AJ90">
+        <v>30.4682007</v>
+      </c>
+      <c r="AK90">
+        <v>17.2458432</v>
+      </c>
+      <c r="AL90">
+        <v>18.8201021</v>
+      </c>
+      <c r="AM90">
+        <v>27.7730058</v>
+      </c>
+      <c r="AN90">
+        <v>20.2710467</v>
+      </c>
+      <c r="AO90">
+        <v>21.0438071</v>
+      </c>
+      <c r="AP90">
+        <v>18.8599719</v>
+      </c>
+      <c r="AQ90">
+        <v>18.0240265</v>
+      </c>
+      <c r="AS90">
+        <v>21.8083068</v>
+      </c>
+      <c r="AT90">
+        <v>17.8192306</v>
+      </c>
+      <c r="AU90">
+        <v>23.0695416</v>
+      </c>
+      <c r="AV90">
+        <v>18.9207291</v>
+      </c>
+      <c r="AW90">
+        <v>18.1733181</v>
+      </c>
+      <c r="AX90">
+        <v>20.667747</v>
+      </c>
+      <c r="AY90">
+        <v>17.9974093</v>
+      </c>
+      <c r="BA90">
+        <v>17.9183728</v>
+      </c>
+      <c r="BB90">
+        <v>19.8740141</v>
+      </c>
+      <c r="BC90">
+        <v>17.4353411</v>
+      </c>
+      <c r="BD90">
+        <v>19.5076531</v>
+      </c>
+      <c r="BE90">
+        <v>21.8057074</v>
+      </c>
+    </row>
+    <row r="91" spans="1:57">
       <c r="A91" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>17.2745358</v>
+      </c>
+      <c r="C91">
+        <v>20.7708288</v>
+      </c>
+      <c r="D91">
+        <v>20.215002</v>
+      </c>
+      <c r="F91">
+        <v>17.1973274</v>
+      </c>
+      <c r="G91">
+        <v>14.7133329</v>
+      </c>
+      <c r="H91">
+        <v>24.060729</v>
+      </c>
+      <c r="I91">
+        <v>25.1552795</v>
+      </c>
+      <c r="J91">
+        <v>22.0588235</v>
+      </c>
+      <c r="K91">
+        <v>20.2988048</v>
+      </c>
+      <c r="L91">
+        <v>15.9651029</v>
+      </c>
+      <c r="M91">
+        <v>21.441634</v>
+      </c>
+      <c r="O91">
+        <v>15.8234383</v>
+      </c>
+      <c r="P91">
+        <v>24.3355652</v>
+      </c>
+      <c r="Q91">
+        <v>21.5078443</v>
+      </c>
+      <c r="R91">
+        <v>20.7922474</v>
+      </c>
+      <c r="S91">
+        <v>25.4824845</v>
+      </c>
+      <c r="T91">
+        <v>19.99832</v>
+      </c>
+      <c r="U91">
+        <v>22.1821721</v>
+      </c>
+      <c r="V91">
+        <v>26.4091714</v>
+      </c>
+      <c r="W91">
+        <v>25.8121336</v>
+      </c>
+      <c r="X91">
+        <v>17.1597205</v>
+      </c>
+      <c r="Y91">
+        <v>16.0505077</v>
+      </c>
+      <c r="Z91">
+        <v>23.2281513</v>
+      </c>
+      <c r="AA91">
+        <v>18.7551081</v>
+      </c>
+      <c r="AB91">
+        <v>17.9477607</v>
+      </c>
+      <c r="AD91">
+        <v>23.5912863</v>
+      </c>
+      <c r="AE91">
+        <v>16.8598318</v>
+      </c>
+      <c r="AF91">
+        <v>15.7317226</v>
+      </c>
+      <c r="AG91">
+        <v>20.514689</v>
+      </c>
+      <c r="AH91">
+        <v>22.3672276</v>
+      </c>
+      <c r="AI91">
+        <v>19.8246532</v>
+      </c>
+      <c r="AJ91">
+        <v>29.7668099</v>
+      </c>
+      <c r="AK91">
+        <v>17.1594931</v>
+      </c>
+      <c r="AL91">
+        <v>18.8049696</v>
+      </c>
+      <c r="AM91">
+        <v>27.2002346</v>
+      </c>
+      <c r="AN91">
+        <v>20.0128458</v>
+      </c>
+      <c r="AO91">
+        <v>19.9476822</v>
+      </c>
+      <c r="AP91">
+        <v>18.7482932</v>
+      </c>
+      <c r="AQ91">
+        <v>17.8395771</v>
+      </c>
+      <c r="AS91">
+        <v>22.3252508</v>
+      </c>
+      <c r="AT91">
+        <v>17.7139482</v>
+      </c>
+      <c r="AU91">
+        <v>23.5214372</v>
+      </c>
+      <c r="AV91">
+        <v>18.8811411</v>
+      </c>
+      <c r="AW91">
+        <v>17.9230432</v>
+      </c>
+      <c r="AX91">
+        <v>20.0693814</v>
+      </c>
+      <c r="AY91">
+        <v>18.1943367</v>
+      </c>
+      <c r="BA91">
+        <v>18.2291644</v>
+      </c>
+      <c r="BB91">
+        <v>19.5139029</v>
+      </c>
+      <c r="BC91">
+        <v>17.2576903</v>
+      </c>
+      <c r="BD91">
+        <v>18.6489642</v>
+      </c>
+      <c r="BE91">
+        <v>21.1561822</v>
+      </c>
+    </row>
+    <row r="92" spans="1:57">
       <c r="A92" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>17.6128591</v>
+      </c>
+      <c r="C92">
+        <v>20.4612639</v>
+      </c>
+      <c r="D92">
+        <v>19.7988555</v>
+      </c>
+      <c r="F92">
+        <v>16.9985914</v>
+      </c>
+      <c r="G92">
+        <v>14.4541802</v>
+      </c>
+      <c r="H92">
+        <v>23.7067305</v>
+      </c>
+      <c r="I92">
+        <v>25.0652277</v>
+      </c>
+      <c r="J92">
+        <v>22.0351391</v>
+      </c>
+      <c r="K92">
+        <v>20.3008988</v>
+      </c>
+      <c r="L92">
+        <v>15.8477901</v>
+      </c>
+      <c r="M92">
+        <v>21.2195255</v>
+      </c>
+      <c r="O92">
+        <v>14.7828362</v>
+      </c>
+      <c r="P92">
+        <v>25.146782</v>
+      </c>
+      <c r="Q92">
+        <v>20.9165362</v>
+      </c>
+      <c r="R92">
+        <v>20.8202347</v>
+      </c>
+      <c r="S92">
+        <v>24.9977854</v>
+      </c>
+      <c r="T92">
+        <v>20.3779865</v>
+      </c>
+      <c r="U92">
+        <v>22.0218186</v>
+      </c>
+      <c r="V92">
+        <v>26.2859609</v>
+      </c>
+      <c r="W92">
+        <v>25.2475294</v>
+      </c>
+      <c r="X92">
+        <v>17.0538208</v>
+      </c>
+      <c r="Y92">
+        <v>16.1884669</v>
+      </c>
+      <c r="Z92">
+        <v>23.0541033</v>
+      </c>
+      <c r="AA92">
+        <v>18.6865386</v>
+      </c>
+      <c r="AB92">
+        <v>18.1109574</v>
+      </c>
+      <c r="AD92">
+        <v>23.4615654</v>
+      </c>
+      <c r="AE92">
+        <v>16.5216671</v>
+      </c>
+      <c r="AF92">
+        <v>15.4532136</v>
+      </c>
+      <c r="AG92">
+        <v>20.3112493</v>
+      </c>
+      <c r="AH92">
+        <v>22.6523144</v>
+      </c>
+      <c r="AI92">
+        <v>19.5575461</v>
+      </c>
+      <c r="AJ92">
+        <v>29.7646883</v>
+      </c>
+      <c r="AK92">
+        <v>16.7757886</v>
+      </c>
+      <c r="AL92">
+        <v>18.314184</v>
+      </c>
+      <c r="AM92">
+        <v>26.9041536</v>
+      </c>
+      <c r="AN92">
+        <v>19.8618509</v>
+      </c>
+      <c r="AO92">
+        <v>20.0493136</v>
+      </c>
+      <c r="AP92">
+        <v>18.471085</v>
+      </c>
+      <c r="AQ92">
+        <v>17.5322503</v>
+      </c>
+      <c r="AS92">
+        <v>22.9067713</v>
+      </c>
+      <c r="AT92">
+        <v>17.2747707</v>
+      </c>
+      <c r="AU92">
+        <v>22.8398163</v>
+      </c>
+      <c r="AV92">
+        <v>18.6312496</v>
+      </c>
+      <c r="AW92">
+        <v>17.8860408</v>
+      </c>
+      <c r="AX92">
+        <v>19.8326184</v>
+      </c>
+      <c r="AY92">
+        <v>17.9802825</v>
+      </c>
+      <c r="BA92">
+        <v>17.1138743</v>
+      </c>
+      <c r="BB92">
+        <v>19.0238752</v>
+      </c>
+      <c r="BC92">
+        <v>17.323969</v>
+      </c>
+      <c r="BD92">
+        <v>19.0346169</v>
+      </c>
+      <c r="BE92">
+        <v>21.1840759</v>
+      </c>
+    </row>
+    <row r="93" spans="1:57">
       <c r="A93" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>17.7354709</v>
+      </c>
+      <c r="C93">
+        <v>20.3005415</v>
+      </c>
+      <c r="D93">
+        <v>19.7784808</v>
+      </c>
+      <c r="F93">
+        <v>16.6861971</v>
+      </c>
+      <c r="G93">
+        <v>14.3698601</v>
+      </c>
+      <c r="H93">
+        <v>22.9953358</v>
+      </c>
+      <c r="I93">
+        <v>24.634592</v>
+      </c>
+      <c r="J93">
+        <v>21.5045593</v>
+      </c>
+      <c r="K93">
+        <v>19.7253185</v>
+      </c>
+      <c r="L93">
+        <v>15.5896527</v>
+      </c>
+      <c r="M93">
+        <v>20.9255615</v>
+      </c>
+      <c r="O93">
+        <v>14.3916155</v>
+      </c>
+      <c r="P93">
+        <v>24.6291759</v>
+      </c>
+      <c r="Q93">
+        <v>20.7015124</v>
+      </c>
+      <c r="R93">
+        <v>20.6684637</v>
+      </c>
+      <c r="S93">
+        <v>25.2298703</v>
+      </c>
+      <c r="T93">
+        <v>19.5625979</v>
+      </c>
+      <c r="U93">
+        <v>22.3908622</v>
+      </c>
+      <c r="V93">
+        <v>26.2335339</v>
+      </c>
+      <c r="W93">
+        <v>25.0772664</v>
+      </c>
+      <c r="X93">
+        <v>17.5536203</v>
+      </c>
+      <c r="Y93">
+        <v>15.8346972</v>
+      </c>
+      <c r="Z93">
+        <v>22.5866792</v>
+      </c>
+      <c r="AA93">
+        <v>18.5027794</v>
+      </c>
+      <c r="AB93">
+        <v>17.468331</v>
+      </c>
+      <c r="AD93">
+        <v>23.5350152</v>
+      </c>
+      <c r="AE93">
+        <v>15.6833747</v>
+      </c>
+      <c r="AF93">
+        <v>15.4653702</v>
+      </c>
+      <c r="AG93">
+        <v>20.629732</v>
+      </c>
+      <c r="AH93">
+        <v>22.5662955</v>
+      </c>
+      <c r="AI93">
+        <v>20.6155143</v>
+      </c>
+      <c r="AJ93">
+        <v>28.6769458</v>
+      </c>
+      <c r="AK93">
+        <v>17.4497434</v>
+      </c>
+      <c r="AL93">
+        <v>17.7935406</v>
+      </c>
+      <c r="AM93">
+        <v>26.269262</v>
+      </c>
+      <c r="AN93">
+        <v>19.8866966</v>
+      </c>
+      <c r="AO93">
+        <v>20.0637903</v>
+      </c>
+      <c r="AP93">
+        <v>17.7487135</v>
+      </c>
+      <c r="AQ93">
+        <v>17.3505926</v>
+      </c>
+      <c r="AS93">
+        <v>21.8982674</v>
+      </c>
+      <c r="AT93">
+        <v>17.3935425</v>
+      </c>
+      <c r="AU93">
+        <v>22.7405983</v>
+      </c>
+      <c r="AV93">
+        <v>18.2778338</v>
+      </c>
+      <c r="AW93">
+        <v>17.8077603</v>
+      </c>
+      <c r="AX93">
+        <v>19.0557062</v>
+      </c>
+      <c r="AY93">
+        <v>17.9767091</v>
+      </c>
+      <c r="BA93">
+        <v>17.3050182</v>
+      </c>
+      <c r="BB93">
+        <v>18.6108197</v>
+      </c>
+      <c r="BC93">
+        <v>17.2778527</v>
+      </c>
+      <c r="BD93">
+        <v>18.0953412</v>
+      </c>
+      <c r="BE93">
+        <v>21.028038</v>
+      </c>
+    </row>
+    <row r="94" spans="1:57">
       <c r="A94" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>16.9268985</v>
+      </c>
+      <c r="C94">
+        <v>20.1412296</v>
+      </c>
+      <c r="D94">
+        <v>19.4917253</v>
+      </c>
+      <c r="F94">
+        <v>16.7282197</v>
+      </c>
+      <c r="G94">
+        <v>14.3208025</v>
+      </c>
+      <c r="H94">
+        <v>23.1840349</v>
+      </c>
+      <c r="I94">
+        <v>24.5884392</v>
+      </c>
+      <c r="J94">
+        <v>21.8061674</v>
+      </c>
+      <c r="K94">
+        <v>19.7908445</v>
+      </c>
+      <c r="L94">
+        <v>15.3635456</v>
+      </c>
+      <c r="M94">
+        <v>21.0794538</v>
+      </c>
+      <c r="O94">
+        <v>14.4743656</v>
+      </c>
+      <c r="P94">
+        <v>24.661595</v>
+      </c>
+      <c r="Q94">
+        <v>19.7713016</v>
+      </c>
+      <c r="R94">
+        <v>20.7566326</v>
+      </c>
+      <c r="S94">
+        <v>24.8599568</v>
+      </c>
+      <c r="T94">
+        <v>20.2171097</v>
+      </c>
+      <c r="U94">
+        <v>21.7491817</v>
+      </c>
+      <c r="V94">
+        <v>25.7216768</v>
+      </c>
+      <c r="W94">
+        <v>24.997039</v>
+      </c>
+      <c r="X94">
+        <v>17.599681</v>
+      </c>
+      <c r="Y94">
+        <v>16.1231884</v>
+      </c>
+      <c r="Z94">
+        <v>22.2850361</v>
+      </c>
+      <c r="AA94">
+        <v>18.2935842</v>
+      </c>
+      <c r="AB94">
+        <v>17.3325555</v>
+      </c>
+      <c r="AD94">
+        <v>23.4432653</v>
+      </c>
+      <c r="AE94">
+        <v>14.9278499</v>
+      </c>
+      <c r="AF94">
+        <v>15.1798542</v>
+      </c>
+      <c r="AG94">
+        <v>20.6510028</v>
+      </c>
+      <c r="AH94">
+        <v>22.6276487</v>
+      </c>
+      <c r="AI94">
+        <v>19.2044833</v>
+      </c>
+      <c r="AJ94">
+        <v>28.8550044</v>
+      </c>
+      <c r="AK94">
+        <v>17.0491788</v>
+      </c>
+      <c r="AL94">
+        <v>17.3883347</v>
+      </c>
+      <c r="AM94">
+        <v>25.8029376</v>
+      </c>
+      <c r="AN94">
+        <v>19.5689224</v>
+      </c>
+      <c r="AO94">
+        <v>19.8082783</v>
+      </c>
+      <c r="AP94">
+        <v>17.2278729</v>
+      </c>
+      <c r="AQ94">
+        <v>17.2855915</v>
+      </c>
+      <c r="AS94">
+        <v>21.7188991</v>
+      </c>
+      <c r="AT94">
+        <v>17.4126818</v>
+      </c>
+      <c r="AU94">
+        <v>21.58855</v>
+      </c>
+      <c r="AV94">
+        <v>18.4161646</v>
+      </c>
+      <c r="AW94">
+        <v>17.7979898</v>
+      </c>
+      <c r="AX94">
+        <v>18.6594927</v>
+      </c>
+      <c r="AY94">
+        <v>17.8038508</v>
+      </c>
+      <c r="BA94">
+        <v>16.8447362</v>
+      </c>
+      <c r="BB94">
+        <v>17.983806</v>
+      </c>
+      <c r="BC94">
+        <v>17.0095006</v>
+      </c>
+      <c r="BD94">
+        <v>18.4094978</v>
+      </c>
+      <c r="BE94">
+        <v>20.86809</v>
+      </c>
+    </row>
+    <row r="95" spans="1:57">
       <c r="A95" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>17.1237693</v>
+      </c>
+      <c r="C95">
+        <v>20.1800853</v>
+      </c>
+      <c r="D95">
+        <v>19.1217688</v>
+      </c>
+      <c r="F95">
+        <v>16.7458647</v>
+      </c>
+      <c r="G95">
+        <v>14.102836</v>
+      </c>
+      <c r="H95">
+        <v>23.0088414</v>
+      </c>
+      <c r="I95">
+        <v>24.3910095</v>
+      </c>
+      <c r="J95">
+        <v>21.6641679</v>
+      </c>
+      <c r="K95">
+        <v>20.0204918</v>
+      </c>
+      <c r="L95">
+        <v>15.1454585</v>
+      </c>
+      <c r="M95">
+        <v>21.0650123</v>
+      </c>
+      <c r="O95">
+        <v>13.9578834</v>
+      </c>
+      <c r="P95">
+        <v>25.0614462</v>
+      </c>
+      <c r="Q95">
+        <v>19.7580294</v>
+      </c>
+      <c r="R95">
+        <v>20.713498</v>
+      </c>
+      <c r="S95">
+        <v>24.6259983</v>
+      </c>
+      <c r="T95">
+        <v>20.3768798</v>
+      </c>
+      <c r="U95">
+        <v>21.3724839</v>
+      </c>
+      <c r="V95">
+        <v>25.5356739</v>
+      </c>
+      <c r="W95">
+        <v>24.4842309</v>
+      </c>
+      <c r="X95">
+        <v>17.9591507</v>
+      </c>
+      <c r="Y95">
+        <v>15.5806182</v>
+      </c>
+      <c r="Z95">
+        <v>22.1590983</v>
+      </c>
+      <c r="AA95">
+        <v>18.5280954</v>
+      </c>
+      <c r="AB95">
+        <v>17.2995084</v>
+      </c>
+      <c r="AD95">
+        <v>23.4097987</v>
+      </c>
+      <c r="AE95">
+        <v>14.4585341</v>
+      </c>
+      <c r="AF95">
+        <v>14.9151883</v>
+      </c>
+      <c r="AG95">
+        <v>19.5415294</v>
+      </c>
+      <c r="AH95">
+        <v>22.790815</v>
+      </c>
+      <c r="AI95">
+        <v>19.0482646</v>
+      </c>
+      <c r="AJ95">
+        <v>28.0595894</v>
+      </c>
+      <c r="AK95">
+        <v>16.9727071</v>
+      </c>
+      <c r="AL95">
+        <v>17.1009944</v>
+      </c>
+      <c r="AM95">
+        <v>25.0862306</v>
+      </c>
+      <c r="AN95">
+        <v>19.3167326</v>
+      </c>
+      <c r="AO95">
+        <v>20.1460793</v>
+      </c>
+      <c r="AP95">
+        <v>16.5372857</v>
+      </c>
+      <c r="AQ95">
+        <v>16.9759176</v>
+      </c>
+      <c r="AS95">
+        <v>22.4222132</v>
+      </c>
+      <c r="AT95">
+        <v>17.2428303</v>
+      </c>
+      <c r="AU95">
+        <v>21.1893003</v>
+      </c>
+      <c r="AV95">
+        <v>17.8842666</v>
+      </c>
+      <c r="AW95">
+        <v>17.7382421</v>
+      </c>
+      <c r="AX95">
+        <v>18.743961</v>
+      </c>
+      <c r="AY95">
+        <v>17.6803876</v>
+      </c>
+      <c r="BA95">
+        <v>16.0133207</v>
+      </c>
+      <c r="BB95">
+        <v>18.1736548</v>
+      </c>
+      <c r="BC95">
+        <v>16.9668199</v>
+      </c>
+      <c r="BD95">
+        <v>18.319081</v>
+      </c>
+      <c r="BE95">
+        <v>20.4054186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:57">
       <c r="A96" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>15.961945</v>
+      </c>
+      <c r="C96">
+        <v>20.3174352</v>
+      </c>
+      <c r="D96">
+        <v>18.9698021</v>
+      </c>
+      <c r="F96">
+        <v>16.582514</v>
+      </c>
+      <c r="G96">
+        <v>14.0600732</v>
+      </c>
+      <c r="H96">
+        <v>22.8993574</v>
+      </c>
+      <c r="I96">
+        <v>23.9935484</v>
+      </c>
+      <c r="J96">
+        <v>21.4622642</v>
+      </c>
+      <c r="K96">
+        <v>19.4546945</v>
+      </c>
+      <c r="L96">
+        <v>15.0342134</v>
+      </c>
+      <c r="M96">
+        <v>21.3792835</v>
+      </c>
+      <c r="O96">
+        <v>13.4967672</v>
+      </c>
+      <c r="P96">
+        <v>25.2278666</v>
+      </c>
+      <c r="Q96">
+        <v>18.8051963</v>
+      </c>
+      <c r="R96">
+        <v>20.5377359</v>
+      </c>
+      <c r="S96">
+        <v>24.4378931</v>
+      </c>
+      <c r="T96">
+        <v>19.9683496</v>
+      </c>
+      <c r="U96">
+        <v>21.6478372</v>
+      </c>
+      <c r="V96">
+        <v>25.1054374</v>
+      </c>
+      <c r="W96">
+        <v>24.2658812</v>
+      </c>
+      <c r="X96">
+        <v>17.8492266</v>
+      </c>
+      <c r="Y96">
+        <v>15.104453</v>
+      </c>
+      <c r="Z96">
+        <v>21.8292415</v>
+      </c>
+      <c r="AA96">
+        <v>18.4177876</v>
+      </c>
+      <c r="AB96">
+        <v>17.2403128</v>
+      </c>
+      <c r="AD96">
+        <v>22.8463581</v>
+      </c>
+      <c r="AE96">
+        <v>13.9369881</v>
+      </c>
+      <c r="AF96">
+        <v>15.0823202</v>
+      </c>
+      <c r="AG96">
+        <v>19.5496209</v>
+      </c>
+      <c r="AH96">
+        <v>22.8799604</v>
+      </c>
+      <c r="AI96">
+        <v>18.6814772</v>
+      </c>
+      <c r="AJ96">
+        <v>27.8969013</v>
+      </c>
+      <c r="AK96">
+        <v>17.0246197</v>
+      </c>
+      <c r="AL96">
+        <v>17.2740953</v>
+      </c>
+      <c r="AM96">
+        <v>24.4971546</v>
+      </c>
+      <c r="AN96">
+        <v>18.9098933</v>
+      </c>
+      <c r="AO96">
+        <v>19.3770168</v>
+      </c>
+      <c r="AP96">
+        <v>15.85712</v>
+      </c>
+      <c r="AQ96">
+        <v>16.629191</v>
+      </c>
+      <c r="AS96">
+        <v>21.4351222</v>
+      </c>
+      <c r="AT96">
+        <v>17.0101042</v>
+      </c>
+      <c r="AU96">
+        <v>22.5321564</v>
+      </c>
+      <c r="AV96">
+        <v>17.3277191</v>
+      </c>
+      <c r="AW96">
+        <v>17.6712196</v>
+      </c>
+      <c r="AX96">
+        <v>18.605552</v>
+      </c>
+      <c r="AY96">
+        <v>17.8408204</v>
+      </c>
+      <c r="BA96">
+        <v>16.2046244</v>
+      </c>
+      <c r="BB96">
+        <v>17.8606171</v>
+      </c>
+      <c r="BC96">
+        <v>16.7815092</v>
+      </c>
+      <c r="BD96">
+        <v>17.5890674</v>
+      </c>
+      <c r="BE96">
+        <v>18.9512718</v>
+      </c>
+    </row>
+    <row r="97" spans="1:57">
       <c r="A97" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>16.1691542</v>
+      </c>
+      <c r="C97">
+        <v>19.8985661</v>
+      </c>
+      <c r="D97">
+        <v>19.2264</v>
+      </c>
+      <c r="F97">
+        <v>16.8463504</v>
+      </c>
+      <c r="G97">
+        <v>14.133199</v>
+      </c>
+      <c r="H97">
+        <v>22.4575605</v>
+      </c>
+      <c r="I97">
+        <v>23.7615712</v>
+      </c>
+      <c r="J97">
+        <v>23.1218698</v>
+      </c>
+      <c r="K97">
+        <v>19.4372044</v>
+      </c>
+      <c r="L97">
+        <v>14.8700928</v>
+      </c>
+      <c r="M97">
+        <v>20.9320501</v>
+      </c>
+      <c r="O97">
+        <v>13.8655462</v>
+      </c>
+      <c r="P97">
+        <v>24.7464035</v>
+      </c>
+      <c r="Q97">
+        <v>18.9189695</v>
+      </c>
+      <c r="R97">
+        <v>20.2828003</v>
+      </c>
+      <c r="S97">
+        <v>24.3157543</v>
+      </c>
+      <c r="T97">
+        <v>20.1050027</v>
+      </c>
+      <c r="U97">
+        <v>21.0264947</v>
+      </c>
+      <c r="V97">
+        <v>25.3242614</v>
+      </c>
+      <c r="W97">
+        <v>23.8798186</v>
+      </c>
+      <c r="X97">
+        <v>17.8346724</v>
+      </c>
+      <c r="Y97">
+        <v>15.2789342</v>
+      </c>
+      <c r="Z97">
+        <v>21.7740903</v>
+      </c>
+      <c r="AA97">
+        <v>17.9154122</v>
+      </c>
+      <c r="AB97">
+        <v>17.1984792</v>
+      </c>
+      <c r="AD97">
+        <v>23.3817976</v>
+      </c>
+      <c r="AE97">
+        <v>13.9898452</v>
+      </c>
+      <c r="AF97">
+        <v>14.9028192</v>
+      </c>
+      <c r="AG97">
+        <v>18.9903993</v>
+      </c>
+      <c r="AH97">
+        <v>23.3598586</v>
+      </c>
+      <c r="AI97">
+        <v>18.3720302</v>
+      </c>
+      <c r="AJ97">
+        <v>27.3633322</v>
+      </c>
+      <c r="AK97">
+        <v>16.7966454</v>
+      </c>
+      <c r="AL97">
+        <v>17.2493419</v>
+      </c>
+      <c r="AM97">
+        <v>24.231856</v>
+      </c>
+      <c r="AN97">
+        <v>18.8480954</v>
+      </c>
+      <c r="AO97">
+        <v>19.4670796</v>
+      </c>
+      <c r="AP97">
+        <v>15.8568705</v>
+      </c>
+      <c r="AQ97">
+        <v>16.385993</v>
+      </c>
+      <c r="AS97">
+        <v>21.2224444</v>
+      </c>
+      <c r="AT97">
+        <v>16.7686413</v>
+      </c>
+      <c r="AU97">
+        <v>23.3874787</v>
+      </c>
+      <c r="AV97">
+        <v>17.2538466</v>
+      </c>
+      <c r="AW97">
+        <v>17.7675073</v>
+      </c>
+      <c r="AX97">
+        <v>18.5617684</v>
+      </c>
+      <c r="AY97">
+        <v>17.5627282</v>
+      </c>
+      <c r="BA97">
+        <v>16.7859817</v>
+      </c>
+      <c r="BB97">
+        <v>17.732309</v>
+      </c>
+      <c r="BC97">
+        <v>16.5260855</v>
+      </c>
+      <c r="BD97">
+        <v>18.1194365</v>
+      </c>
+      <c r="BE97">
+        <v>18.9992553</v>
+      </c>
+    </row>
+    <row r="98" spans="1:57">
       <c r="A98" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>16.469282</v>
+      </c>
+      <c r="C98">
+        <v>20.084401</v>
+      </c>
+      <c r="D98">
+        <v>17.8725406</v>
+      </c>
+      <c r="F98">
+        <v>16.7514501</v>
+      </c>
+      <c r="G98">
+        <v>13.8224204</v>
+      </c>
+      <c r="H98">
+        <v>21.8807037</v>
+      </c>
+      <c r="I98">
+        <v>23.8434405</v>
+      </c>
+      <c r="J98">
+        <v>20.7592892</v>
+      </c>
+      <c r="K98">
+        <v>19.3098217</v>
+      </c>
+      <c r="L98">
+        <v>14.7498123</v>
+      </c>
+      <c r="M98">
+        <v>20.7317168</v>
+      </c>
+      <c r="O98">
+        <v>14.0661253</v>
+      </c>
+      <c r="P98">
+        <v>24.5112046</v>
+      </c>
+      <c r="Q98">
+        <v>18.4735872</v>
+      </c>
+      <c r="R98">
+        <v>20.1947627</v>
+      </c>
+      <c r="S98">
+        <v>23.9206803</v>
+      </c>
+      <c r="T98">
+        <v>20.4329614</v>
+      </c>
+      <c r="U98">
+        <v>20.9922029</v>
+      </c>
+      <c r="V98">
+        <v>25.0334939</v>
+      </c>
+      <c r="W98">
+        <v>23.330031</v>
+      </c>
+      <c r="X98">
+        <v>18.0675962</v>
+      </c>
+      <c r="Y98">
+        <v>16.053774</v>
+      </c>
+      <c r="Z98">
+        <v>21.4360256</v>
+      </c>
+      <c r="AA98">
+        <v>18.3482011</v>
+      </c>
+      <c r="AB98">
+        <v>16.9056002</v>
+      </c>
+      <c r="AD98">
+        <v>22.4036857</v>
+      </c>
+      <c r="AE98">
+        <v>12.6691868</v>
+      </c>
+      <c r="AF98">
+        <v>15.3465576</v>
+      </c>
+      <c r="AG98">
+        <v>18.3245023</v>
+      </c>
+      <c r="AH98">
+        <v>22.580212</v>
+      </c>
+      <c r="AI98">
+        <v>17.7575098</v>
+      </c>
+      <c r="AJ98">
+        <v>26.7228756</v>
+      </c>
+      <c r="AK98">
+        <v>17.1226462</v>
+      </c>
+      <c r="AL98">
+        <v>17.549075</v>
+      </c>
+      <c r="AM98">
+        <v>23.8009233</v>
+      </c>
+      <c r="AN98">
+        <v>18.5607866</v>
+      </c>
+      <c r="AO98">
+        <v>19.7566082</v>
+      </c>
+      <c r="AP98">
+        <v>15.2905018</v>
+      </c>
+      <c r="AQ98">
+        <v>16.2404766</v>
+      </c>
+      <c r="AS98">
+        <v>19.8921683</v>
+      </c>
+      <c r="AT98">
+        <v>16.3695951</v>
+      </c>
+      <c r="AU98">
+        <v>22.2973359</v>
+      </c>
+      <c r="AV98">
+        <v>16.9445159</v>
+      </c>
+      <c r="AW98">
+        <v>17.8100107</v>
+      </c>
+      <c r="AX98">
+        <v>18.7580029</v>
+      </c>
+      <c r="AY98">
+        <v>17.2452472</v>
+      </c>
+      <c r="BA98">
+        <v>16.0612683</v>
+      </c>
+      <c r="BB98">
+        <v>18.0441732</v>
+      </c>
+      <c r="BC98">
+        <v>16.4409514</v>
+      </c>
+      <c r="BD98">
+        <v>18.5967941</v>
+      </c>
+      <c r="BE98">
+        <v>19.1768769</v>
+      </c>
+    </row>
+    <row r="99" spans="1:57">
       <c r="A99" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>16.1875</v>
+      </c>
+      <c r="C99">
+        <v>20.280971</v>
+      </c>
+      <c r="D99">
+        <v>17.8673914</v>
+      </c>
+      <c r="F99">
+        <v>16.676005</v>
+      </c>
+      <c r="G99">
+        <v>13.7261706</v>
+      </c>
+      <c r="H99">
+        <v>22.0583566</v>
+      </c>
+      <c r="I99">
+        <v>24.0373281</v>
+      </c>
+      <c r="J99">
+        <v>22.0554273</v>
+      </c>
+      <c r="K99">
+        <v>19.3701226</v>
+      </c>
+      <c r="L99">
+        <v>14.5388516</v>
+      </c>
+      <c r="M99">
+        <v>19.5662437</v>
+      </c>
+      <c r="O99">
+        <v>14.745628</v>
+      </c>
+      <c r="P99">
+        <v>25.156192</v>
+      </c>
+      <c r="Q99">
+        <v>18.0444615</v>
+      </c>
+      <c r="R99">
+        <v>20.3612275</v>
+      </c>
+      <c r="S99">
+        <v>23.8406608</v>
+      </c>
+      <c r="T99">
+        <v>18.8573472</v>
+      </c>
+      <c r="U99">
+        <v>21.0968085</v>
+      </c>
+      <c r="V99">
+        <v>24.7082405</v>
+      </c>
+      <c r="W99">
+        <v>23.6986614</v>
+      </c>
+      <c r="X99">
+        <v>18.1232133</v>
+      </c>
+      <c r="Y99">
+        <v>15.8254717</v>
+      </c>
+      <c r="Z99">
+        <v>21.2503386</v>
+      </c>
+      <c r="AA99">
+        <v>18.1164083</v>
+      </c>
+      <c r="AB99">
+        <v>15.6786053</v>
+      </c>
+      <c r="AD99">
+        <v>21.9519704</v>
+      </c>
+      <c r="AE99">
+        <v>13.710784</v>
+      </c>
+      <c r="AF99">
+        <v>14.5803311</v>
+      </c>
+      <c r="AG99">
+        <v>20.718232</v>
+      </c>
+      <c r="AH99">
+        <v>21.8805395</v>
+      </c>
+      <c r="AI99">
+        <v>17.6967648</v>
+      </c>
+      <c r="AJ99">
+        <v>26.9081523</v>
+      </c>
+      <c r="AK99">
+        <v>16.7929218</v>
+      </c>
+      <c r="AL99">
+        <v>16.9830788</v>
+      </c>
+      <c r="AM99">
+        <v>23.0602803</v>
+      </c>
+      <c r="AN99">
+        <v>18.5410157</v>
+      </c>
+      <c r="AO99">
+        <v>19.3407875</v>
+      </c>
+      <c r="AP99">
+        <v>15.1952577</v>
+      </c>
+      <c r="AQ99">
+        <v>16.3815928</v>
+      </c>
+      <c r="AS99">
+        <v>18.7976879</v>
+      </c>
+      <c r="AT99">
+        <v>16.487852</v>
+      </c>
+      <c r="AU99">
+        <v>23.416207</v>
+      </c>
+      <c r="AV99">
+        <v>16.8149519</v>
+      </c>
+      <c r="AW99">
+        <v>17.4266397</v>
+      </c>
+      <c r="AX99">
+        <v>19.322401</v>
+      </c>
+      <c r="AY99">
+        <v>16.9718461</v>
+      </c>
+      <c r="BA99">
+        <v>17.2392077</v>
+      </c>
+      <c r="BB99">
+        <v>17.4861507</v>
+      </c>
+      <c r="BC99">
+        <v>16.8635641</v>
+      </c>
+      <c r="BD99">
+        <v>17.3791132</v>
+      </c>
+      <c r="BE99">
+        <v>19.5807119</v>
+      </c>
+    </row>
+    <row r="100" spans="1:57">
       <c r="A100" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>17.0721112</v>
+      </c>
+      <c r="C100">
+        <v>20.0198276</v>
+      </c>
+      <c r="D100">
+        <v>17.6862085</v>
+      </c>
+      <c r="F100">
+        <v>16.7417786</v>
+      </c>
+      <c r="G100">
+        <v>13.7777137</v>
+      </c>
+      <c r="H100">
+        <v>21.7691225</v>
+      </c>
+      <c r="I100">
+        <v>24.0953823</v>
+      </c>
+      <c r="J100">
+        <v>21.0573477</v>
+      </c>
+      <c r="K100">
+        <v>19.3588469</v>
+      </c>
+      <c r="L100">
+        <v>14.6270988</v>
+      </c>
+      <c r="M100">
+        <v>20.6951372</v>
+      </c>
+      <c r="O100">
+        <v>13.6422553</v>
+      </c>
+      <c r="P100">
+        <v>25.1925217</v>
+      </c>
+      <c r="Q100">
+        <v>18.2055488</v>
+      </c>
+      <c r="R100">
+        <v>19.8596491</v>
+      </c>
+      <c r="S100">
+        <v>23.6550772</v>
+      </c>
+      <c r="T100">
+        <v>20.0778911</v>
+      </c>
+      <c r="U100">
+        <v>21.3196756</v>
+      </c>
+      <c r="V100">
+        <v>24.2754742</v>
+      </c>
+      <c r="W100">
+        <v>22.7763789</v>
+      </c>
+      <c r="X100">
+        <v>18.9029189</v>
+      </c>
+      <c r="Y100">
+        <v>15.5641422</v>
+      </c>
+      <c r="Z100">
+        <v>21.2014547</v>
+      </c>
+      <c r="AA100">
+        <v>18.3672555</v>
+      </c>
+      <c r="AB100">
+        <v>16.775146</v>
+      </c>
+      <c r="AD100">
+        <v>22.4069887</v>
+      </c>
+      <c r="AE100">
+        <v>13.5393257</v>
+      </c>
+      <c r="AF100">
+        <v>15.2337536</v>
+      </c>
+      <c r="AG100">
+        <v>17.9899807</v>
+      </c>
+      <c r="AH100">
+        <v>22.9543486</v>
+      </c>
+      <c r="AI100">
+        <v>17.3549656</v>
+      </c>
+      <c r="AJ100">
+        <v>26.1445494</v>
+      </c>
+      <c r="AK100">
+        <v>16.9929715</v>
+      </c>
+      <c r="AL100">
+        <v>17.1354167</v>
+      </c>
+      <c r="AM100">
+        <v>22.8088879</v>
+      </c>
+      <c r="AN100">
+        <v>18.2921081</v>
+      </c>
+      <c r="AO100">
+        <v>19.0652838</v>
+      </c>
+      <c r="AP100">
+        <v>15.1916293</v>
+      </c>
+      <c r="AQ100">
+        <v>16.2663157</v>
+      </c>
+      <c r="AS100">
+        <v>19.8811752</v>
+      </c>
+      <c r="AT100">
+        <v>16.2954389</v>
+      </c>
+      <c r="AU100">
+        <v>22.8919588</v>
+      </c>
+      <c r="AV100">
+        <v>16.3698104</v>
+      </c>
+      <c r="AW100">
+        <v>17.3970386</v>
+      </c>
+      <c r="AX100">
+        <v>19.1557395</v>
+      </c>
+      <c r="AY100">
+        <v>16.8877163</v>
+      </c>
+      <c r="BA100">
+        <v>15.6095694</v>
+      </c>
+      <c r="BB100">
+        <v>17.6397644</v>
+      </c>
+      <c r="BC100">
+        <v>16.186481</v>
+      </c>
+      <c r="BD100">
+        <v>18.9528756</v>
+      </c>
+      <c r="BE100">
+        <v>19.7558324</v>
+      </c>
+    </row>
+    <row r="101" spans="1:57">
       <c r="A101" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>16.090535</v>
+      </c>
+      <c r="C101">
+        <v>19.5496812</v>
+      </c>
+      <c r="D101">
+        <v>17.9483735</v>
+      </c>
+      <c r="F101">
+        <v>16.5645091</v>
+      </c>
+      <c r="G101">
+        <v>13.4539082</v>
+      </c>
+      <c r="H101">
+        <v>21.4799448</v>
+      </c>
+      <c r="I101">
+        <v>24.5623223</v>
+      </c>
+      <c r="J101">
+        <v>20.6801471</v>
+      </c>
+      <c r="K101">
+        <v>19.3103703</v>
+      </c>
+      <c r="L101">
+        <v>14.5548147</v>
+      </c>
+      <c r="M101">
+        <v>20.2467</v>
+      </c>
+      <c r="O101">
+        <v>13.4900193</v>
+      </c>
+      <c r="P101">
+        <v>24.1226501</v>
+      </c>
+      <c r="Q101">
+        <v>18.1138361</v>
+      </c>
+      <c r="R101">
+        <v>19.8779627</v>
+      </c>
+      <c r="S101">
+        <v>23.3960066</v>
+      </c>
+      <c r="T101">
+        <v>19.4667614</v>
+      </c>
+      <c r="U101">
+        <v>20.6094127</v>
+      </c>
+      <c r="V101">
+        <v>24.1519544</v>
+      </c>
+      <c r="W101">
+        <v>22.6317351</v>
+      </c>
+      <c r="X101">
+        <v>18.1898563</v>
+      </c>
+      <c r="Y101">
+        <v>15.459913</v>
+      </c>
+      <c r="Z101">
+        <v>21.1312097</v>
+      </c>
+      <c r="AA101">
+        <v>18.3674449</v>
+      </c>
+      <c r="AB101">
+        <v>17.0548079</v>
+      </c>
+      <c r="AD101">
+        <v>22.0192319</v>
+      </c>
+      <c r="AE101">
+        <v>12.5101943</v>
+      </c>
+      <c r="AF101">
+        <v>15.6943074</v>
+      </c>
+      <c r="AG101">
+        <v>18.7150608</v>
+      </c>
+      <c r="AH101">
+        <v>23.0385902</v>
+      </c>
+      <c r="AI101">
+        <v>17.2940798</v>
+      </c>
+      <c r="AJ101">
+        <v>25.466828</v>
+      </c>
+      <c r="AK101">
+        <v>17.1591504</v>
+      </c>
+      <c r="AL101">
+        <v>17.2170592</v>
+      </c>
+      <c r="AM101">
+        <v>22.3394306</v>
+      </c>
+      <c r="AN101">
+        <v>18.1652458</v>
+      </c>
+      <c r="AO101">
+        <v>19.085523</v>
+      </c>
+      <c r="AP101">
+        <v>14.8373621</v>
+      </c>
+      <c r="AQ101">
+        <v>15.9567592</v>
+      </c>
+      <c r="AS101">
+        <v>20.0711288</v>
+      </c>
+      <c r="AT101">
+        <v>15.7639175</v>
+      </c>
+      <c r="AU101">
+        <v>21.8712296</v>
+      </c>
+      <c r="AV101">
+        <v>15.9909481</v>
+      </c>
+      <c r="AW101">
+        <v>17.4755093</v>
+      </c>
+      <c r="AX101">
+        <v>18.4418394</v>
+      </c>
+      <c r="AY101">
+        <v>16.9601803</v>
+      </c>
+      <c r="BA101">
+        <v>15.0252639</v>
+      </c>
+      <c r="BB101">
+        <v>17.3691782</v>
+      </c>
+      <c r="BC101">
+        <v>16.0991719</v>
+      </c>
+      <c r="BD101">
+        <v>17.5936004</v>
+      </c>
+      <c r="BE101">
+        <v>18.8442516</v>
+      </c>
+    </row>
+    <row r="102" spans="1:57">
       <c r="A102" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>16.3848631</v>
+      </c>
+      <c r="C102">
+        <v>19.5224935</v>
+      </c>
+      <c r="D102">
+        <v>17.912397</v>
+      </c>
+      <c r="F102">
+        <v>16.7007157</v>
+      </c>
+      <c r="G102">
+        <v>13.4298382</v>
+      </c>
+      <c r="H102">
+        <v>21.0693592</v>
+      </c>
+      <c r="I102">
+        <v>24.4853819</v>
+      </c>
+      <c r="J102">
+        <v>19.6914701</v>
+      </c>
+      <c r="K102">
+        <v>18.9110994</v>
+      </c>
+      <c r="L102">
+        <v>14.482847</v>
+      </c>
+      <c r="M102">
+        <v>19.6728269</v>
+      </c>
+      <c r="O102">
+        <v>13.370565</v>
+      </c>
+      <c r="P102">
+        <v>24.4603817</v>
+      </c>
+      <c r="Q102">
+        <v>17.8546767</v>
+      </c>
+      <c r="R102">
+        <v>19.7482039</v>
+      </c>
+      <c r="S102">
+        <v>23.4304792</v>
+      </c>
+      <c r="T102">
+        <v>18.7932609</v>
+      </c>
+      <c r="U102">
+        <v>20.1860671</v>
+      </c>
+      <c r="V102">
+        <v>24.1188045</v>
+      </c>
+      <c r="W102">
+        <v>22.3259978</v>
+      </c>
+      <c r="X102">
+        <v>18.4396559</v>
+      </c>
+      <c r="Y102">
+        <v>15.3094952</v>
+      </c>
+      <c r="Z102">
+        <v>20.6475424</v>
+      </c>
+      <c r="AA102">
+        <v>18.3820215</v>
+      </c>
+      <c r="AB102">
+        <v>17.3541788</v>
+      </c>
+      <c r="AD102">
+        <v>21.9281784</v>
+      </c>
+      <c r="AE102">
+        <v>12.6546308</v>
+      </c>
+      <c r="AF102">
+        <v>15.6035467</v>
+      </c>
+      <c r="AG102">
+        <v>18.6959436</v>
+      </c>
+      <c r="AH102">
+        <v>22.8381771</v>
+      </c>
+      <c r="AI102">
+        <v>17.139738</v>
+      </c>
+      <c r="AJ102">
+        <v>24.5206997</v>
+      </c>
+      <c r="AK102">
+        <v>17.1545735</v>
+      </c>
+      <c r="AL102">
+        <v>17.3797981</v>
+      </c>
+      <c r="AM102">
+        <v>22.0367992</v>
+      </c>
+      <c r="AN102">
+        <v>18.1274139</v>
+      </c>
+      <c r="AO102">
+        <v>18.0059704</v>
+      </c>
+      <c r="AP102">
+        <v>14.885606</v>
+      </c>
+      <c r="AQ102">
+        <v>16.2319017</v>
+      </c>
+      <c r="AS102">
+        <v>19.7264926</v>
+      </c>
+      <c r="AT102">
+        <v>15.780196</v>
+      </c>
+      <c r="AU102">
+        <v>22.6647174</v>
+      </c>
+      <c r="AV102">
+        <v>16.460276</v>
+      </c>
+      <c r="AW102">
+        <v>17.383185</v>
+      </c>
+      <c r="AX102">
+        <v>18.1876618</v>
+      </c>
+      <c r="AY102">
+        <v>17.0334169</v>
+      </c>
+      <c r="BA102">
+        <v>14.5148858</v>
+      </c>
+      <c r="BB102">
+        <v>17.1956382</v>
+      </c>
+      <c r="BC102">
+        <v>16.2808443</v>
+      </c>
+      <c r="BD102">
+        <v>18.0550562</v>
+      </c>
+      <c r="BE102">
+        <v>18.348669</v>
+      </c>
+    </row>
+    <row r="103" spans="1:57">
       <c r="A103" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>16.0606061</v>
+      </c>
+      <c r="C103">
+        <v>19.1325728</v>
+      </c>
+      <c r="D103">
+        <v>18.3322329</v>
+      </c>
+      <c r="F103">
+        <v>16.6186183</v>
+      </c>
+      <c r="G103">
+        <v>13.214245</v>
+      </c>
+      <c r="H103">
+        <v>20.7652918</v>
+      </c>
+      <c r="I103">
+        <v>24.8033283</v>
+      </c>
+      <c r="J103">
+        <v>21.5370019</v>
+      </c>
+      <c r="K103">
+        <v>18.9447786</v>
+      </c>
+      <c r="L103">
+        <v>14.3596406</v>
+      </c>
+      <c r="M103">
+        <v>19.1318624</v>
+      </c>
+      <c r="O103">
+        <v>12.1815807</v>
+      </c>
+      <c r="P103">
+        <v>23.8148221</v>
+      </c>
+      <c r="Q103">
+        <v>17.4517629</v>
+      </c>
+      <c r="R103">
+        <v>19.4479702</v>
+      </c>
+      <c r="S103">
+        <v>23.072707</v>
+      </c>
+      <c r="T103">
+        <v>18.5832305</v>
+      </c>
+      <c r="U103">
+        <v>19.3487334</v>
+      </c>
+      <c r="V103">
+        <v>23.6382194</v>
+      </c>
+      <c r="W103">
+        <v>22.2529608</v>
+      </c>
+      <c r="X103">
+        <v>18.2671472</v>
+      </c>
+      <c r="Y103">
+        <v>15.9240924</v>
+      </c>
+      <c r="Z103">
+        <v>20.4634733</v>
+      </c>
+      <c r="AA103">
+        <v>18.2883687</v>
+      </c>
+      <c r="AB103">
+        <v>16.8846418</v>
+      </c>
+      <c r="AD103">
+        <v>21.2346535</v>
+      </c>
+      <c r="AE103">
+        <v>13.3656136</v>
+      </c>
+      <c r="AF103">
+        <v>15.5539736</v>
+      </c>
+      <c r="AG103">
+        <v>17.8550154</v>
+      </c>
+      <c r="AH103">
+        <v>23.4223784</v>
+      </c>
+      <c r="AI103">
+        <v>17.4263194</v>
+      </c>
+      <c r="AJ103">
+        <v>24.4084089</v>
+      </c>
+      <c r="AK103">
+        <v>17.0871325</v>
+      </c>
+      <c r="AL103">
+        <v>17.2575341</v>
+      </c>
+      <c r="AM103">
+        <v>21.6136051</v>
+      </c>
+      <c r="AN103">
+        <v>18.4786513</v>
+      </c>
+      <c r="AO103">
+        <v>18.7752562</v>
+      </c>
+      <c r="AP103">
+        <v>15.077197</v>
+      </c>
+      <c r="AQ103">
+        <v>16.2475922</v>
+      </c>
+      <c r="AS103">
+        <v>19.8911378</v>
+      </c>
+      <c r="AT103">
+        <v>15.8623596</v>
+      </c>
+      <c r="AU103">
+        <v>23.0328286</v>
+      </c>
+      <c r="AV103">
+        <v>16.2602472</v>
+      </c>
+      <c r="AW103">
+        <v>16.9476827</v>
+      </c>
+      <c r="AX103">
+        <v>18.3153058</v>
+      </c>
+      <c r="AY103">
+        <v>16.6438691</v>
+      </c>
+      <c r="BA103">
+        <v>13.6329374</v>
+      </c>
+      <c r="BB103">
+        <v>17.4683915</v>
+      </c>
+      <c r="BC103">
+        <v>16.0056836</v>
+      </c>
+      <c r="BD103">
+        <v>17.6848577</v>
+      </c>
+      <c r="BE103">
+        <v>18.6005434</v>
+      </c>
+    </row>
+    <row r="104" spans="1:57">
       <c r="A104" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>15.1279707</v>
+      </c>
+      <c r="C104">
+        <v>18.7898543</v>
+      </c>
+      <c r="D104">
+        <v>18.6820104</v>
+      </c>
+      <c r="F104">
+        <v>16.4424195</v>
+      </c>
+      <c r="G104">
+        <v>13.0801304</v>
+      </c>
+      <c r="H104">
+        <v>20.2373995</v>
+      </c>
+      <c r="I104">
+        <v>24.6468927</v>
+      </c>
+      <c r="J104">
+        <v>19.4716243</v>
+      </c>
+      <c r="K104">
+        <v>18.2680563</v>
+      </c>
+      <c r="L104">
+        <v>14.275219</v>
+      </c>
+      <c r="M104">
+        <v>18.4949639</v>
+      </c>
+      <c r="O104">
+        <v>11.9222304</v>
+      </c>
+      <c r="P104">
+        <v>23.975735</v>
+      </c>
+      <c r="Q104">
+        <v>18.13586</v>
+      </c>
+      <c r="R104">
+        <v>19.5856414</v>
+      </c>
+      <c r="S104">
+        <v>22.9122558</v>
+      </c>
+      <c r="T104">
+        <v>18.2536628</v>
+      </c>
+      <c r="U104">
+        <v>19.2676286</v>
+      </c>
+      <c r="V104">
+        <v>23.5319012</v>
+      </c>
+      <c r="W104">
+        <v>22.2897101</v>
+      </c>
+      <c r="X104">
+        <v>18.2815912</v>
+      </c>
+      <c r="Y104">
+        <v>15.5015954</v>
+      </c>
+      <c r="Z104">
+        <v>20.0915395</v>
+      </c>
+      <c r="AA104">
+        <v>18.8582468</v>
+      </c>
+      <c r="AB104">
+        <v>17.1844434</v>
+      </c>
+      <c r="AD104">
+        <v>20.8190372</v>
+      </c>
+      <c r="AE104">
+        <v>12.2750904</v>
+      </c>
+      <c r="AF104">
+        <v>15.3013796</v>
+      </c>
+      <c r="AG104">
+        <v>17.6726224</v>
+      </c>
+      <c r="AH104">
+        <v>23.6849095</v>
+      </c>
+      <c r="AI104">
+        <v>17.0138759</v>
+      </c>
+      <c r="AJ104">
+        <v>23.7767331</v>
+      </c>
+      <c r="AK104">
+        <v>16.8650076</v>
+      </c>
+      <c r="AL104">
+        <v>17.1574468</v>
+      </c>
+      <c r="AM104">
+        <v>21.4273035</v>
+      </c>
+      <c r="AN104">
+        <v>18.331464</v>
+      </c>
+      <c r="AO104">
+        <v>17.869029</v>
+      </c>
+      <c r="AP104">
+        <v>14.6607747</v>
+      </c>
+      <c r="AQ104">
+        <v>16.0348325</v>
+      </c>
+      <c r="AS104">
+        <v>18.3992024</v>
+      </c>
+      <c r="AT104">
+        <v>15.2571784</v>
+      </c>
+      <c r="AU104">
+        <v>22.9474463</v>
+      </c>
+      <c r="AV104">
+        <v>15.9299552</v>
+      </c>
+      <c r="AW104">
+        <v>17.0370935</v>
+      </c>
+      <c r="AX104">
+        <v>17.7861751</v>
+      </c>
+      <c r="AY104">
+        <v>16.6828003</v>
+      </c>
+      <c r="BA104">
+        <v>12.9553107</v>
+      </c>
+      <c r="BB104">
+        <v>16.9014855</v>
+      </c>
+      <c r="BC104">
+        <v>16.2181321</v>
+      </c>
+      <c r="BD104">
+        <v>16.9253896</v>
+      </c>
+      <c r="BE104">
+        <v>17.8493357</v>
+      </c>
+    </row>
+    <row r="105" spans="1:57">
       <c r="A105" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>13.6326861</v>
+      </c>
+      <c r="C105">
+        <v>18.6632372</v>
+      </c>
+      <c r="D105">
+        <v>17.6626677</v>
+      </c>
+      <c r="F105">
+        <v>16.1211649</v>
+      </c>
+      <c r="G105">
+        <v>13.1262951</v>
+      </c>
+      <c r="H105">
+        <v>20.6496466</v>
+      </c>
+      <c r="I105">
+        <v>23.5298541</v>
+      </c>
+      <c r="J105">
+        <v>20.5410822</v>
+      </c>
+      <c r="K105">
+        <v>18.4626499</v>
+      </c>
+      <c r="L105">
+        <v>14.0705593</v>
+      </c>
+      <c r="M105">
+        <v>18.568366</v>
+      </c>
+      <c r="O105">
+        <v>12.1437824</v>
+      </c>
+      <c r="P105">
+        <v>24.1302315</v>
+      </c>
+      <c r="Q105">
+        <v>17.7520372</v>
+      </c>
+      <c r="R105">
+        <v>19.6834865</v>
+      </c>
+      <c r="S105">
+        <v>22.7877772</v>
+      </c>
+      <c r="T105">
+        <v>18.5686988</v>
+      </c>
+      <c r="U105">
+        <v>18.749914</v>
+      </c>
+      <c r="V105">
+        <v>22.6038224</v>
+      </c>
+      <c r="W105">
+        <v>21.9927164</v>
+      </c>
+      <c r="X105">
+        <v>18.1654671</v>
+      </c>
+      <c r="Y105">
+        <v>14.457643</v>
+      </c>
+      <c r="Z105">
+        <v>19.6197241</v>
+      </c>
+      <c r="AA105">
+        <v>18.3218786</v>
+      </c>
+      <c r="AB105">
+        <v>16.9390334</v>
+      </c>
+      <c r="AD105">
+        <v>21.2276175</v>
+      </c>
+      <c r="AE105">
+        <v>12.2597719</v>
+      </c>
+      <c r="AF105">
+        <v>15.4905947</v>
+      </c>
+      <c r="AG105">
+        <v>19.1193607</v>
+      </c>
+      <c r="AH105">
+        <v>24.175442</v>
+      </c>
+      <c r="AI105">
+        <v>16.25</v>
+      </c>
+      <c r="AJ105">
+        <v>23.4987648</v>
+      </c>
+      <c r="AK105">
+        <v>16.9474301</v>
+      </c>
+      <c r="AL105">
+        <v>16.8050731</v>
+      </c>
+      <c r="AM105">
+        <v>20.7560538</v>
+      </c>
+      <c r="AN105">
+        <v>18.2124085</v>
+      </c>
+      <c r="AO105">
+        <v>18.1841613</v>
+      </c>
+      <c r="AP105">
+        <v>14.6977614</v>
+      </c>
+      <c r="AQ105">
+        <v>16.2338555</v>
+      </c>
+      <c r="AS105">
+        <v>18.2772712</v>
+      </c>
+      <c r="AT105">
+        <v>15.5970637</v>
+      </c>
+      <c r="AU105">
+        <v>22.2126605</v>
+      </c>
+      <c r="AV105">
+        <v>16.0807257</v>
+      </c>
+      <c r="AW105">
+        <v>16.7793413</v>
+      </c>
+      <c r="AX105">
+        <v>16.6645638</v>
+      </c>
+      <c r="AY105">
+        <v>16.4914997</v>
+      </c>
+      <c r="BA105">
+        <v>13.7247916</v>
+      </c>
+      <c r="BB105">
+        <v>16.7394374</v>
+      </c>
+      <c r="BC105">
+        <v>15.7954902</v>
+      </c>
+      <c r="BD105">
+        <v>16.860944</v>
+      </c>
+      <c r="BE105">
+        <v>18.4485975</v>
+      </c>
+    </row>
+    <row r="106" spans="1:57">
       <c r="A106" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>13.1012204</v>
+      </c>
+      <c r="C106">
+        <v>19.456623</v>
+      </c>
+      <c r="D106">
+        <v>18.1001738</v>
+      </c>
+      <c r="F106">
+        <v>16.4521735</v>
+      </c>
+      <c r="G106">
+        <v>12.9584398</v>
+      </c>
+      <c r="H106">
+        <v>20.5507069</v>
+      </c>
+      <c r="I106">
+        <v>22.8898523</v>
+      </c>
+      <c r="J106">
+        <v>20.202952</v>
+      </c>
+      <c r="K106">
+        <v>17.6017875</v>
+      </c>
+      <c r="L106">
+        <v>13.9522219</v>
+      </c>
+      <c r="M106">
+        <v>18.4178554</v>
+      </c>
+      <c r="O106">
+        <v>10.7768692</v>
+      </c>
+      <c r="P106">
+        <v>23.9537261</v>
+      </c>
+      <c r="Q106">
+        <v>17.3007216</v>
+      </c>
+      <c r="R106">
+        <v>19.540953</v>
+      </c>
+      <c r="S106">
+        <v>23.0366376</v>
+      </c>
+      <c r="T106">
+        <v>17.8583539</v>
+      </c>
+      <c r="U106">
+        <v>18.6939177</v>
+      </c>
+      <c r="V106">
+        <v>22.8104806</v>
+      </c>
+      <c r="W106">
+        <v>21.9492139</v>
+      </c>
+      <c r="X106">
+        <v>17.8705559</v>
+      </c>
+      <c r="Y106">
+        <v>14.5221599</v>
+      </c>
+      <c r="Z106">
+        <v>19.168616</v>
+      </c>
+      <c r="AA106">
+        <v>18.3416</v>
+      </c>
+      <c r="AB106">
+        <v>16.8230909</v>
+      </c>
+      <c r="AD106">
+        <v>21.2472584</v>
+      </c>
+      <c r="AE106">
+        <v>11.8094296</v>
+      </c>
+      <c r="AF106">
+        <v>15.2380061</v>
+      </c>
+      <c r="AG106">
+        <v>19.0679956</v>
+      </c>
+      <c r="AH106">
+        <v>24.6606551</v>
+      </c>
+      <c r="AI106">
+        <v>16.2739346</v>
+      </c>
+      <c r="AJ106">
+        <v>22.789679</v>
+      </c>
+      <c r="AK106">
+        <v>17.1121483</v>
+      </c>
+      <c r="AL106">
+        <v>16.4575985</v>
+      </c>
+      <c r="AM106">
+        <v>20.3544103</v>
+      </c>
+      <c r="AN106">
+        <v>18.2251243</v>
+      </c>
+      <c r="AO106">
+        <v>18.3081385</v>
+      </c>
+      <c r="AP106">
+        <v>14.8383085</v>
+      </c>
+      <c r="AQ106">
+        <v>15.8780929</v>
+      </c>
+      <c r="AS106">
+        <v>17.4323639</v>
+      </c>
+      <c r="AT106">
+        <v>15.1815662</v>
+      </c>
+      <c r="AU106">
+        <v>22.6453023</v>
+      </c>
+      <c r="AV106">
+        <v>15.8436608</v>
+      </c>
+      <c r="AW106">
+        <v>16.7762195</v>
+      </c>
+      <c r="AX106">
+        <v>17.0895086</v>
+      </c>
+      <c r="AY106">
+        <v>16.7449161</v>
+      </c>
+      <c r="BA106">
+        <v>12.7020045</v>
+      </c>
+      <c r="BB106">
+        <v>16.285974</v>
+      </c>
+      <c r="BC106">
+        <v>15.8153247</v>
+      </c>
+      <c r="BD106">
+        <v>16.5447529</v>
+      </c>
+      <c r="BE106">
+        <v>17.7774702</v>
+      </c>
+    </row>
+    <row r="107" spans="1:57">
       <c r="A107" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>12.9800853</v>
+      </c>
+      <c r="C107">
+        <v>18.7916953</v>
+      </c>
+      <c r="D107">
+        <v>17.4902836</v>
+      </c>
+      <c r="F107">
+        <v>16.4305326</v>
+      </c>
+      <c r="G107">
+        <v>12.8285937</v>
+      </c>
+      <c r="H107">
+        <v>20.1938408</v>
+      </c>
+      <c r="I107">
+        <v>22.489567</v>
+      </c>
+      <c r="J107">
+        <v>20.0530035</v>
+      </c>
+      <c r="K107">
+        <v>17.8856071</v>
+      </c>
+      <c r="L107">
+        <v>13.8676241</v>
+      </c>
+      <c r="M107">
+        <v>17.5941416</v>
+      </c>
+      <c r="O107">
+        <v>11.627236</v>
+      </c>
+      <c r="P107">
+        <v>23.8577197</v>
+      </c>
+      <c r="Q107">
+        <v>17.3317898</v>
+      </c>
+      <c r="R107">
+        <v>19.5228795</v>
+      </c>
+      <c r="S107">
+        <v>22.5716697</v>
+      </c>
+      <c r="T107">
+        <v>18.2234775</v>
+      </c>
+      <c r="U107">
+        <v>18.0918979</v>
+      </c>
+      <c r="V107">
+        <v>22.469028</v>
+      </c>
+      <c r="W107">
+        <v>21.7977655</v>
+      </c>
+      <c r="X107">
+        <v>17.4648147</v>
+      </c>
+      <c r="Y107">
+        <v>13.8455638</v>
+      </c>
+      <c r="Z107">
+        <v>18.8235511</v>
+      </c>
+      <c r="AA107">
+        <v>18.9594665</v>
+      </c>
+      <c r="AB107">
+        <v>16.3630541</v>
+      </c>
+      <c r="AD107">
+        <v>21.6350089</v>
+      </c>
+      <c r="AE107">
+        <v>12.1472149</v>
+      </c>
+      <c r="AF107">
+        <v>15.1628666</v>
+      </c>
+      <c r="AG107">
+        <v>19.7398383</v>
+      </c>
+      <c r="AH107">
+        <v>23.9449412</v>
+      </c>
+      <c r="AI107">
+        <v>16.2339475</v>
+      </c>
+      <c r="AJ107">
+        <v>22.349155</v>
+      </c>
+      <c r="AK107">
+        <v>17.168449</v>
+      </c>
+      <c r="AL107">
+        <v>15.6546225</v>
+      </c>
+      <c r="AM107">
+        <v>20.1255106</v>
+      </c>
+      <c r="AN107">
+        <v>17.9418672</v>
+      </c>
+      <c r="AO107">
+        <v>18.1193124</v>
+      </c>
+      <c r="AP107">
+        <v>14.4771233</v>
+      </c>
+      <c r="AQ107">
+        <v>15.4697344</v>
+      </c>
+      <c r="AS107">
+        <v>17.7330864</v>
+      </c>
+      <c r="AT107">
+        <v>15.0133068</v>
+      </c>
+      <c r="AU107">
+        <v>21.4938498</v>
+      </c>
+      <c r="AV107">
+        <v>15.7939379</v>
+      </c>
+      <c r="AW107">
+        <v>16.4623441</v>
+      </c>
+      <c r="AX107">
+        <v>16.911698</v>
+      </c>
+      <c r="AY107">
+        <v>16.6213817</v>
+      </c>
+      <c r="BA107">
+        <v>14.1074904</v>
+      </c>
+      <c r="BB107">
+        <v>16.0576986</v>
+      </c>
+      <c r="BC107">
+        <v>15.9087423</v>
+      </c>
+      <c r="BD107">
+        <v>15.7415158</v>
+      </c>
+      <c r="BE107">
+        <v>18.0213698</v>
+      </c>
+    </row>
+    <row r="108" spans="1:57">
       <c r="A108" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>13.3892617</v>
+      </c>
+      <c r="C108">
+        <v>18.8855124</v>
+      </c>
+      <c r="D108">
+        <v>16.9027774</v>
+      </c>
+      <c r="F108">
+        <v>16.1199399</v>
+      </c>
+      <c r="G108">
+        <v>12.7616776</v>
+      </c>
+      <c r="H108">
+        <v>19.0662065</v>
+      </c>
+      <c r="I108">
+        <v>21.6217901</v>
+      </c>
+      <c r="J108">
+        <v>20.178282</v>
+      </c>
+      <c r="K108">
+        <v>17.1088129</v>
+      </c>
+      <c r="L108">
+        <v>13.550948</v>
+      </c>
+      <c r="M108">
+        <v>17.2167225</v>
+      </c>
+      <c r="O108">
+        <v>10.706695</v>
+      </c>
+      <c r="P108">
+        <v>24.2519157</v>
+      </c>
+      <c r="Q108">
+        <v>15.7973167</v>
+      </c>
+      <c r="R108">
+        <v>19.1856964</v>
+      </c>
+      <c r="S108">
+        <v>22.1326321</v>
+      </c>
+      <c r="T108">
+        <v>17.8677005</v>
+      </c>
+      <c r="U108">
+        <v>17.9587906</v>
+      </c>
+      <c r="V108">
+        <v>22.609184</v>
+      </c>
+      <c r="W108">
+        <v>21.9439233</v>
+      </c>
+      <c r="X108">
+        <v>17.3846416</v>
+      </c>
+      <c r="Y108">
+        <v>13.9085397</v>
+      </c>
+      <c r="Z108">
+        <v>18.2958321</v>
+      </c>
+      <c r="AA108">
+        <v>18.1892572</v>
+      </c>
+      <c r="AB108">
+        <v>15.8397243</v>
+      </c>
+      <c r="AD108">
+        <v>20.7126238</v>
+      </c>
+      <c r="AE108">
+        <v>12.3724598</v>
+      </c>
+      <c r="AF108">
+        <v>15.1267245</v>
+      </c>
+      <c r="AG108">
+        <v>19.7452206</v>
+      </c>
+      <c r="AH108">
+        <v>24.159299</v>
+      </c>
+      <c r="AI108">
+        <v>16.7654188</v>
+      </c>
+      <c r="AJ108">
+        <v>21.9322885</v>
+      </c>
+      <c r="AK108">
+        <v>16.6047646</v>
+      </c>
+      <c r="AL108">
+        <v>15.4589047</v>
+      </c>
+      <c r="AM108">
+        <v>19.9430878</v>
+      </c>
+      <c r="AN108">
+        <v>17.5861106</v>
+      </c>
+      <c r="AO108">
+        <v>17.696734</v>
+      </c>
+      <c r="AP108">
+        <v>13.9991958</v>
+      </c>
+      <c r="AQ108">
+        <v>15.1220146</v>
+      </c>
+      <c r="AS108">
+        <v>17.7487037</v>
+      </c>
+      <c r="AT108">
+        <v>15.081952</v>
+      </c>
+      <c r="AU108">
+        <v>21.84129</v>
+      </c>
+      <c r="AV108">
+        <v>15.5896418</v>
+      </c>
+      <c r="AW108">
+        <v>16.2856645</v>
+      </c>
+      <c r="AX108">
+        <v>16.3384291</v>
+      </c>
+      <c r="AY108">
+        <v>16.3921112</v>
+      </c>
+      <c r="BA108">
+        <v>13.0628016</v>
+      </c>
+      <c r="BB108">
+        <v>15.9959239</v>
+      </c>
+      <c r="BC108">
+        <v>15.6366538</v>
+      </c>
+      <c r="BD108">
+        <v>16.0811383</v>
+      </c>
+      <c r="BE108">
+        <v>15.857468</v>
+      </c>
+    </row>
+    <row r="109" spans="1:57">
       <c r="A109" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>13.1893688</v>
+      </c>
+      <c r="C109">
+        <v>18.7257195</v>
+      </c>
+      <c r="D109">
+        <v>16.5757332</v>
+      </c>
+      <c r="F109">
+        <v>15.6880314</v>
+      </c>
+      <c r="G109">
+        <v>12.6586673</v>
+      </c>
+      <c r="H109">
+        <v>18.4780442</v>
+      </c>
+      <c r="I109">
+        <v>21.2884986</v>
+      </c>
+      <c r="J109">
+        <v>20.0460829</v>
+      </c>
+      <c r="K109">
+        <v>17.5784563</v>
+      </c>
+      <c r="L109">
+        <v>13.167788</v>
+      </c>
+      <c r="M109">
+        <v>16.8765318</v>
+      </c>
+      <c r="O109">
+        <v>9.527438999999999</v>
+      </c>
+      <c r="P109">
+        <v>23.6291386</v>
+      </c>
+      <c r="Q109">
+        <v>15.9260986</v>
+      </c>
+      <c r="R109">
+        <v>19.2970083</v>
+      </c>
+      <c r="S109">
+        <v>21.8270952</v>
+      </c>
+      <c r="T109">
+        <v>17.3290381</v>
+      </c>
+      <c r="U109">
+        <v>17.5693613</v>
+      </c>
+      <c r="V109">
+        <v>21.5094272</v>
+      </c>
+      <c r="W109">
+        <v>21.4030832</v>
+      </c>
+      <c r="X109">
+        <v>17.4117846</v>
+      </c>
+      <c r="Y109">
+        <v>13.7295582</v>
+      </c>
+      <c r="Z109">
+        <v>18.0204219</v>
+      </c>
+      <c r="AA109">
+        <v>18.1927326</v>
+      </c>
+      <c r="AB109">
+        <v>15.786488</v>
+      </c>
+      <c r="AD109">
+        <v>21.0561007</v>
+      </c>
+      <c r="AE109">
+        <v>12.0497278</v>
+      </c>
+      <c r="AF109">
+        <v>14.908557</v>
+      </c>
+      <c r="AG109">
+        <v>18.9319019</v>
+      </c>
+      <c r="AH109">
+        <v>23.8884764</v>
+      </c>
+      <c r="AI109">
+        <v>16.1435554</v>
+      </c>
+      <c r="AJ109">
+        <v>21.8792236</v>
+      </c>
+      <c r="AK109">
+        <v>16.3172866</v>
+      </c>
+      <c r="AL109">
+        <v>16.2383412</v>
+      </c>
+      <c r="AM109">
+        <v>19.6318677</v>
+      </c>
+      <c r="AN109">
+        <v>17.2489444</v>
+      </c>
+      <c r="AO109">
+        <v>17.9027574</v>
+      </c>
+      <c r="AP109">
+        <v>13.869076</v>
+      </c>
+      <c r="AQ109">
+        <v>14.5812831</v>
+      </c>
+      <c r="AS109">
+        <v>17.4965718</v>
+      </c>
+      <c r="AT109">
+        <v>14.5275869</v>
+      </c>
+      <c r="AU109">
+        <v>20.3838498</v>
+      </c>
+      <c r="AV109">
+        <v>15.4162931</v>
+      </c>
+      <c r="AW109">
+        <v>16.0618609</v>
+      </c>
+      <c r="AX109">
+        <v>16.4077269</v>
+      </c>
+      <c r="AY109">
+        <v>16.5065208</v>
+      </c>
+      <c r="BA109">
+        <v>12.5073609</v>
+      </c>
+      <c r="BB109">
+        <v>15.5413852</v>
+      </c>
+      <c r="BC109">
+        <v>15.4278983</v>
+      </c>
+      <c r="BD109">
+        <v>16.1550028</v>
+      </c>
+      <c r="BE109">
+        <v>16.7818436</v>
+      </c>
+    </row>
+    <row r="110" spans="1:57">
       <c r="A110" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>12.9783163</v>
+      </c>
+      <c r="C110">
+        <v>18.8157952</v>
+      </c>
+      <c r="D110">
+        <v>16.2650453</v>
+      </c>
+      <c r="F110">
+        <v>15.5576942</v>
+      </c>
+      <c r="G110">
+        <v>12.5433413</v>
+      </c>
+      <c r="H110">
+        <v>17.9100623</v>
+      </c>
+      <c r="I110">
+        <v>20.4805211</v>
+      </c>
+      <c r="J110">
+        <v>18.880597</v>
+      </c>
+      <c r="K110">
+        <v>17.724525</v>
+      </c>
+      <c r="L110">
+        <v>13.1706042</v>
+      </c>
+      <c r="M110">
+        <v>16.7126333</v>
+      </c>
+      <c r="O110">
+        <v>9.263959399999999</v>
+      </c>
+      <c r="P110">
+        <v>24.5138591</v>
+      </c>
+      <c r="Q110">
+        <v>15.1042085</v>
+      </c>
+      <c r="R110">
+        <v>19.5866052</v>
+      </c>
+      <c r="S110">
+        <v>21.5041776</v>
+      </c>
+      <c r="T110">
+        <v>18.2462634</v>
+      </c>
+      <c r="U110">
+        <v>18.0240494</v>
+      </c>
+      <c r="V110">
+        <v>21.7566491</v>
+      </c>
+      <c r="W110">
+        <v>21.4440339</v>
+      </c>
+      <c r="X110">
+        <v>17.352459</v>
+      </c>
+      <c r="Y110">
+        <v>13.7214426</v>
+      </c>
+      <c r="Z110">
+        <v>17.9660383</v>
+      </c>
+      <c r="AA110">
+        <v>18.4684507</v>
+      </c>
+      <c r="AB110">
+        <v>15.7400658</v>
+      </c>
+      <c r="AD110">
+        <v>21.2815245</v>
+      </c>
+      <c r="AE110">
+        <v>12.0104365</v>
+      </c>
+      <c r="AF110">
+        <v>14.7954297</v>
+      </c>
+      <c r="AG110">
+        <v>20.356911</v>
+      </c>
+      <c r="AH110">
+        <v>22.9186072</v>
+      </c>
+      <c r="AI110">
+        <v>16.2450622</v>
+      </c>
+      <c r="AJ110">
+        <v>21.6342647</v>
+      </c>
+      <c r="AK110">
+        <v>15.9629663</v>
+      </c>
+      <c r="AL110">
+        <v>16.1469489</v>
+      </c>
+      <c r="AM110">
+        <v>19.5698068</v>
+      </c>
+      <c r="AN110">
+        <v>16.8451726</v>
+      </c>
+      <c r="AO110">
+        <v>17.276213</v>
+      </c>
+      <c r="AP110">
+        <v>13.8997919</v>
+      </c>
+      <c r="AQ110">
+        <v>14.5304278</v>
+      </c>
+      <c r="AS110">
+        <v>16.9212646</v>
+      </c>
+      <c r="AT110">
+        <v>14.5718575</v>
+      </c>
+      <c r="AU110">
+        <v>21.7813757</v>
+      </c>
+      <c r="AV110">
+        <v>15.4318573</v>
+      </c>
+      <c r="AW110">
+        <v>16.0401449</v>
+      </c>
+      <c r="AX110">
+        <v>16.2023141</v>
+      </c>
+      <c r="AY110">
+        <v>16.2425563</v>
+      </c>
+      <c r="BA110">
+        <v>12.852349</v>
+      </c>
+      <c r="BB110">
+        <v>15.2762339</v>
+      </c>
+      <c r="BC110">
+        <v>15.6688992</v>
+      </c>
+      <c r="BD110">
+        <v>16.1517067</v>
+      </c>
+      <c r="BE110">
+        <v>17.7890387</v>
+      </c>
+    </row>
+    <row r="111" spans="1:57">
       <c r="A111" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>13.1864989</v>
+      </c>
+      <c r="C111">
+        <v>19.0788758</v>
+      </c>
+      <c r="D111">
+        <v>16.264153</v>
+      </c>
+      <c r="F111">
+        <v>15.7721921</v>
+      </c>
+      <c r="G111">
+        <v>12.6150875</v>
+      </c>
+      <c r="H111">
+        <v>17.799338</v>
+      </c>
+      <c r="I111">
+        <v>19.8398194</v>
+      </c>
+      <c r="J111">
+        <v>18.7906372</v>
+      </c>
+      <c r="K111">
+        <v>18.0911145</v>
+      </c>
+      <c r="L111">
+        <v>13.0592453</v>
+      </c>
+      <c r="M111">
+        <v>16.8614019</v>
+      </c>
+      <c r="O111">
+        <v>9.172899299999999</v>
+      </c>
+      <c r="P111">
+        <v>23.8325845</v>
+      </c>
+      <c r="Q111">
+        <v>15.5482589</v>
+      </c>
+      <c r="R111">
+        <v>19.0991581</v>
+      </c>
+      <c r="S111">
+        <v>21.3366662</v>
+      </c>
+      <c r="T111">
+        <v>17.1319758</v>
+      </c>
+      <c r="U111">
+        <v>17.8487021</v>
+      </c>
+      <c r="V111">
+        <v>21.8174052</v>
+      </c>
+      <c r="W111">
+        <v>20.944418</v>
+      </c>
+      <c r="X111">
+        <v>17.3710576</v>
+      </c>
+      <c r="Y111">
+        <v>13.313991</v>
+      </c>
+      <c r="Z111">
+        <v>17.6684867</v>
+      </c>
+      <c r="AA111">
+        <v>18.0979436</v>
+      </c>
+      <c r="AB111">
+        <v>15.2543092</v>
+      </c>
+      <c r="AD111">
+        <v>21.373166</v>
+      </c>
+      <c r="AE111">
+        <v>12.2267716</v>
+      </c>
+      <c r="AF111">
+        <v>14.9987586</v>
+      </c>
+      <c r="AG111">
+        <v>20.713573</v>
+      </c>
+      <c r="AH111">
+        <v>22.9812324</v>
+      </c>
+      <c r="AI111">
+        <v>16.3495188</v>
+      </c>
+      <c r="AJ111">
+        <v>21.1795119</v>
+      </c>
+      <c r="AK111">
+        <v>15.5724693</v>
+      </c>
+      <c r="AL111">
+        <v>15.6077056</v>
+      </c>
+      <c r="AM111">
+        <v>19.3855169</v>
+      </c>
+      <c r="AN111">
+        <v>16.4356327</v>
+      </c>
+      <c r="AO111">
+        <v>17.1711777</v>
+      </c>
+      <c r="AP111">
+        <v>13.7600954</v>
+      </c>
+      <c r="AQ111">
+        <v>14.0796207</v>
+      </c>
+      <c r="AS111">
+        <v>17.209711</v>
+      </c>
+      <c r="AT111">
+        <v>14.7013111</v>
+      </c>
+      <c r="AU111">
+        <v>20.7698858</v>
+      </c>
+      <c r="AV111">
+        <v>15.126583</v>
+      </c>
+      <c r="AW111">
+        <v>15.944096</v>
+      </c>
+      <c r="AX111">
+        <v>16.7996725</v>
+      </c>
+      <c r="AY111">
+        <v>16.428471</v>
+      </c>
+      <c r="BA111">
+        <v>12.2307664</v>
+      </c>
+      <c r="BB111">
+        <v>15.2552796</v>
+      </c>
+      <c r="BC111">
+        <v>15.5502311</v>
+      </c>
+      <c r="BD111">
+        <v>15.7477928</v>
+      </c>
+      <c r="BE111">
+        <v>15.9946545</v>
+      </c>
+    </row>
+    <row r="112" spans="1:57">
       <c r="A112" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>13.4692705</v>
+      </c>
+      <c r="C112">
+        <v>19.0750719</v>
+      </c>
+      <c r="D112">
+        <v>15.7324946</v>
+      </c>
+      <c r="F112">
+        <v>15.6374134</v>
+      </c>
+      <c r="G112">
+        <v>12.4359116</v>
+      </c>
+      <c r="H112">
+        <v>17.2894819</v>
+      </c>
+      <c r="I112">
+        <v>19.5834645</v>
+      </c>
+      <c r="J112">
+        <v>18.7965261</v>
+      </c>
+      <c r="K112">
+        <v>17.3217187</v>
+      </c>
+      <c r="L112">
+        <v>12.7254422</v>
+      </c>
+      <c r="M112">
+        <v>16.7975031</v>
+      </c>
+      <c r="O112">
+        <v>8.303964799999999</v>
+      </c>
+      <c r="P112">
+        <v>24.3286986</v>
+      </c>
+      <c r="Q112">
+        <v>15.4051507</v>
+      </c>
+      <c r="R112">
+        <v>19.0831919</v>
+      </c>
+      <c r="S112">
+        <v>21.1605847</v>
+      </c>
+      <c r="T112">
+        <v>16.9856099</v>
+      </c>
+      <c r="U112">
+        <v>17.2006608</v>
+      </c>
+      <c r="V112">
+        <v>21.7592132</v>
+      </c>
+      <c r="W112">
+        <v>20.6134324</v>
+      </c>
+      <c r="X112">
+        <v>17.4706621</v>
+      </c>
+      <c r="Y112">
+        <v>12.705647</v>
+      </c>
+      <c r="Z112">
+        <v>17.2952876</v>
+      </c>
+      <c r="AA112">
+        <v>18.4291719</v>
+      </c>
+      <c r="AB112">
+        <v>15.1898023</v>
+      </c>
+      <c r="AD112">
+        <v>21.4134581</v>
+      </c>
+      <c r="AE112">
+        <v>12.1706228</v>
+      </c>
+      <c r="AF112">
+        <v>14.7708256</v>
+      </c>
+      <c r="AG112">
+        <v>20.6964188</v>
+      </c>
+      <c r="AH112">
+        <v>23.3815424</v>
+      </c>
+      <c r="AI112">
+        <v>16.2736374</v>
+      </c>
+      <c r="AJ112">
+        <v>20.6662237</v>
+      </c>
+      <c r="AK112">
+        <v>16.2257847</v>
+      </c>
+      <c r="AL112">
+        <v>15.6406929</v>
+      </c>
+      <c r="AM112">
+        <v>19.1158803</v>
+      </c>
+      <c r="AN112">
+        <v>16.3802883</v>
+      </c>
+      <c r="AO112">
+        <v>16.4413199</v>
+      </c>
+      <c r="AP112">
+        <v>13.6595152</v>
+      </c>
+      <c r="AQ112">
+        <v>13.6683906</v>
+      </c>
+      <c r="AS112">
+        <v>17.5038852</v>
+      </c>
+      <c r="AT112">
+        <v>14.3081933</v>
+      </c>
+      <c r="AU112">
+        <v>20.8220808</v>
+      </c>
+      <c r="AV112">
+        <v>14.8187636</v>
+      </c>
+      <c r="AW112">
+        <v>15.7142007</v>
+      </c>
+      <c r="AX112">
+        <v>17.0508934</v>
+      </c>
+      <c r="AY112">
+        <v>16.4413999</v>
+      </c>
+      <c r="BA112">
+        <v>12.3511117</v>
+      </c>
+      <c r="BB112">
+        <v>14.9311893</v>
+      </c>
+      <c r="BC112">
+        <v>16.0852225</v>
+      </c>
+      <c r="BD112">
+        <v>15.6180015</v>
+      </c>
+      <c r="BE112">
+        <v>17.2189177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:57">
       <c r="A113" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>13.0220418</v>
+      </c>
+      <c r="C113">
+        <v>19.2220417</v>
+      </c>
+      <c r="D113">
+        <v>15.4799844</v>
+      </c>
+      <c r="F113">
+        <v>15.4578014</v>
+      </c>
+      <c r="G113">
+        <v>12.4380064</v>
+      </c>
+      <c r="H113">
+        <v>16.9100081</v>
+      </c>
+      <c r="I113">
+        <v>19.6553498</v>
+      </c>
+      <c r="J113">
+        <v>17.6584735</v>
+      </c>
+      <c r="K113">
+        <v>17.6248653</v>
+      </c>
+      <c r="L113">
+        <v>12.3929347</v>
+      </c>
+      <c r="M113">
+        <v>16.968443</v>
+      </c>
+      <c r="O113">
+        <v>8.5290208</v>
+      </c>
+      <c r="P113">
+        <v>24.1537154</v>
+      </c>
+      <c r="Q113">
+        <v>14.7504569</v>
+      </c>
+      <c r="R113">
+        <v>18.8506649</v>
+      </c>
+      <c r="S113">
+        <v>20.8380925</v>
+      </c>
+      <c r="T113">
+        <v>17.2107027</v>
+      </c>
+      <c r="U113">
+        <v>17.0567289</v>
+      </c>
+      <c r="V113">
+        <v>21.1380627</v>
+      </c>
+      <c r="W113">
+        <v>20.564579</v>
+      </c>
+      <c r="X113">
+        <v>17.4909315</v>
+      </c>
+      <c r="Y113">
+        <v>12.6051375</v>
+      </c>
+      <c r="Z113">
+        <v>17.0797696</v>
+      </c>
+      <c r="AA113">
+        <v>18.2448013</v>
+      </c>
+      <c r="AB113">
+        <v>15.2367267</v>
+      </c>
+      <c r="AD113">
+        <v>20.9217267</v>
+      </c>
+      <c r="AE113">
+        <v>12.8459501</v>
+      </c>
+      <c r="AF113">
+        <v>14.5050405</v>
+      </c>
+      <c r="AG113">
+        <v>20.9754029</v>
+      </c>
+      <c r="AH113">
+        <v>23.3374828</v>
+      </c>
+      <c r="AI113">
+        <v>16.1778508</v>
+      </c>
+      <c r="AJ113">
+        <v>20.2647786</v>
+      </c>
+      <c r="AK113">
+        <v>15.2488104</v>
+      </c>
+      <c r="AL113">
+        <v>15.4293091</v>
+      </c>
+      <c r="AM113">
+        <v>19.0154925</v>
+      </c>
+      <c r="AN113">
+        <v>16.347358</v>
+      </c>
+      <c r="AO113">
+        <v>16.0561414</v>
+      </c>
+      <c r="AP113">
+        <v>13.3399525</v>
+      </c>
+      <c r="AQ113">
+        <v>13.6086707</v>
+      </c>
+      <c r="AR113">
+        <v>7.4675761</v>
+      </c>
+      <c r="AS113">
+        <v>18.0198671</v>
+      </c>
+      <c r="AT113">
+        <v>14.3954799</v>
+      </c>
+      <c r="AU113">
+        <v>21.2714306</v>
+      </c>
+      <c r="AV113">
+        <v>15.0305351</v>
+      </c>
+      <c r="AW113">
+        <v>15.3307498</v>
+      </c>
+      <c r="AX113">
+        <v>16.8573561</v>
+      </c>
+      <c r="AY113">
+        <v>16.2776919</v>
+      </c>
+      <c r="BA113">
+        <v>12.7688102</v>
+      </c>
+      <c r="BB113">
+        <v>14.8922651</v>
+      </c>
+      <c r="BC113">
+        <v>16.0892469</v>
+      </c>
+      <c r="BD113">
+        <v>15.6328236</v>
+      </c>
+      <c r="BE113">
+        <v>16.1659143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:57">
       <c r="A114" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>12.2222222</v>
+      </c>
+      <c r="C114">
+        <v>19.3391482</v>
+      </c>
+      <c r="D114">
+        <v>15.1011865</v>
+      </c>
+      <c r="F114">
+        <v>15.5092749</v>
+      </c>
+      <c r="G114">
+        <v>12.2830651</v>
+      </c>
+      <c r="H114">
+        <v>16.5094388</v>
+      </c>
+      <c r="I114">
+        <v>18.9885496</v>
+      </c>
+      <c r="J114">
+        <v>17.3886883</v>
+      </c>
+      <c r="K114">
+        <v>17.4973675</v>
+      </c>
+      <c r="L114">
+        <v>12.4185561</v>
+      </c>
+      <c r="M114">
+        <v>16.7399104</v>
+      </c>
+      <c r="O114">
+        <v>8.506493499999999</v>
+      </c>
+      <c r="P114">
+        <v>23.7500962</v>
+      </c>
+      <c r="Q114">
+        <v>14.5983787</v>
+      </c>
+      <c r="R114">
+        <v>18.5386162</v>
+      </c>
+      <c r="S114">
+        <v>20.7709255</v>
+      </c>
+      <c r="T114">
+        <v>16.9776964</v>
+      </c>
+      <c r="U114">
+        <v>16.6282897</v>
+      </c>
+      <c r="V114">
+        <v>21.0237458</v>
+      </c>
+      <c r="W114">
+        <v>20.1200443</v>
+      </c>
+      <c r="X114">
+        <v>17.4013813</v>
+      </c>
+      <c r="Y114">
+        <v>12.1270781</v>
+      </c>
+      <c r="Z114">
+        <v>16.691128</v>
+      </c>
+      <c r="AA114">
+        <v>17.6579177</v>
+      </c>
+      <c r="AB114">
+        <v>15.1872761</v>
+      </c>
+      <c r="AD114">
+        <v>20.3741118</v>
+      </c>
+      <c r="AE114">
+        <v>11.6489122</v>
+      </c>
+      <c r="AF114">
+        <v>14.3452665</v>
+      </c>
+      <c r="AG114">
+        <v>20.8948641</v>
+      </c>
+      <c r="AH114">
+        <v>23.007637</v>
+      </c>
+      <c r="AI114">
+        <v>15.6475632</v>
+      </c>
+      <c r="AJ114">
+        <v>20.5225163</v>
+      </c>
+      <c r="AK114">
+        <v>15.4728002</v>
+      </c>
+      <c r="AL114">
+        <v>15.2872954</v>
+      </c>
+      <c r="AM114">
+        <v>18.5781148</v>
+      </c>
+      <c r="AN114">
+        <v>16.0645339</v>
+      </c>
+      <c r="AO114">
+        <v>16.2646017</v>
+      </c>
+      <c r="AP114">
+        <v>13.0259301</v>
+      </c>
+      <c r="AQ114">
+        <v>13.4694942</v>
+      </c>
+      <c r="AR114">
+        <v>10.2836754</v>
+      </c>
+      <c r="AS114">
+        <v>18.2484935</v>
+      </c>
+      <c r="AT114">
+        <v>14.1232654</v>
+      </c>
+      <c r="AU114">
+        <v>21.1559463</v>
+      </c>
+      <c r="AV114">
+        <v>14.8024353</v>
+      </c>
+      <c r="AW114">
+        <v>15.3306934</v>
+      </c>
+      <c r="AX114">
+        <v>16.8463069</v>
+      </c>
+      <c r="AY114">
+        <v>16.2257614</v>
+      </c>
+      <c r="BA114">
+        <v>11.4309214</v>
+      </c>
+      <c r="BB114">
+        <v>14.5321746</v>
+      </c>
+      <c r="BC114">
+        <v>15.7138425</v>
+      </c>
+      <c r="BD114">
+        <v>15.7202086</v>
+      </c>
+      <c r="BE114">
+        <v>16.2318432</v>
+      </c>
+    </row>
+    <row r="115" spans="1:57">
       <c r="A115" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>12.1902017</v>
+      </c>
+      <c r="C115">
+        <v>19.1362358</v>
+      </c>
+      <c r="D115">
+        <v>15.8714244</v>
+      </c>
+      <c r="F115">
+        <v>15.5315644</v>
+      </c>
+      <c r="G115">
+        <v>12.0663139</v>
+      </c>
+      <c r="H115">
+        <v>16.773999</v>
+      </c>
+      <c r="I115">
+        <v>18.4938371</v>
+      </c>
+      <c r="J115">
+        <v>17.6996424</v>
+      </c>
+      <c r="K115">
+        <v>17.17119</v>
+      </c>
+      <c r="L115">
+        <v>12.2825885</v>
+      </c>
+      <c r="M115">
+        <v>16.9075154</v>
+      </c>
+      <c r="O115">
+        <v>8.0569728</v>
+      </c>
+      <c r="P115">
+        <v>23.6365814</v>
+      </c>
+      <c r="Q115">
+        <v>15.0880996</v>
+      </c>
+      <c r="R115">
+        <v>18.6235578</v>
+      </c>
+      <c r="S115">
+        <v>20.8311354</v>
+      </c>
+      <c r="T115">
+        <v>16.4039956</v>
+      </c>
+      <c r="U115">
+        <v>16.9898122</v>
+      </c>
+      <c r="V115">
+        <v>20.5705828</v>
+      </c>
+      <c r="W115">
+        <v>19.9827691</v>
+      </c>
+      <c r="X115">
+        <v>17.4051928</v>
+      </c>
+      <c r="Y115">
+        <v>11.7194469</v>
+      </c>
+      <c r="Z115">
+        <v>16.7188948</v>
+      </c>
+      <c r="AA115">
+        <v>17.5342281</v>
+      </c>
+      <c r="AB115">
+        <v>14.9430074</v>
+      </c>
+      <c r="AD115">
+        <v>20.723416</v>
+      </c>
+      <c r="AE115">
+        <v>11.1868119</v>
+      </c>
+      <c r="AF115">
+        <v>14.2024537</v>
+      </c>
+      <c r="AG115">
+        <v>19.6563308</v>
+      </c>
+      <c r="AH115">
+        <v>22.4961478</v>
+      </c>
+      <c r="AI115">
+        <v>14.8672764</v>
+      </c>
+      <c r="AJ115">
+        <v>20.0418002</v>
+      </c>
+      <c r="AK115">
+        <v>15.7857899</v>
+      </c>
+      <c r="AL115">
+        <v>15.3878559</v>
+      </c>
+      <c r="AM115">
+        <v>18.3356689</v>
+      </c>
+      <c r="AN115">
+        <v>15.7095156</v>
+      </c>
+      <c r="AO115">
+        <v>15.96582</v>
+      </c>
+      <c r="AP115">
+        <v>13.1633125</v>
+      </c>
+      <c r="AQ115">
+        <v>13.1418625</v>
+      </c>
+      <c r="AR115">
+        <v>11.1649411</v>
+      </c>
+      <c r="AS115">
+        <v>17.6036091</v>
+      </c>
+      <c r="AT115">
+        <v>13.9679837</v>
+      </c>
+      <c r="AU115">
+        <v>21.4760892</v>
+      </c>
+      <c r="AV115">
+        <v>14.7717478</v>
+      </c>
+      <c r="AW115">
+        <v>15.1269532</v>
+      </c>
+      <c r="AX115">
+        <v>16.7543682</v>
+      </c>
+      <c r="AY115">
+        <v>16.167478</v>
+      </c>
+      <c r="BA115">
+        <v>11.4898936</v>
+      </c>
+      <c r="BB115">
+        <v>14.3516219</v>
+      </c>
+      <c r="BC115">
+        <v>15.5731203</v>
+      </c>
+      <c r="BD115">
+        <v>15.9070124</v>
+      </c>
+      <c r="BE115">
+        <v>16.5011082</v>
+      </c>
+    </row>
+    <row r="116" spans="1:57">
       <c r="A116" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>12.1717724</v>
+      </c>
+      <c r="C116">
+        <v>19.2396744</v>
+      </c>
+      <c r="D116">
+        <v>15.3012102</v>
+      </c>
+      <c r="F116">
+        <v>15.7507084</v>
+      </c>
+      <c r="G116">
+        <v>11.9889774</v>
+      </c>
+      <c r="H116">
+        <v>17.0590517</v>
+      </c>
+      <c r="I116">
+        <v>17.8470116</v>
+      </c>
+      <c r="J116">
+        <v>17.8735632</v>
+      </c>
+      <c r="K116">
+        <v>16.9670711</v>
+      </c>
+      <c r="L116">
+        <v>11.9652977</v>
+      </c>
+      <c r="M116">
+        <v>16.855448</v>
+      </c>
+      <c r="O116">
+        <v>8.360858800000001</v>
+      </c>
+      <c r="P116">
+        <v>22.9953099</v>
+      </c>
+      <c r="Q116">
+        <v>14.4437597</v>
+      </c>
+      <c r="R116">
+        <v>18.0224563</v>
+      </c>
+      <c r="S116">
+        <v>20.4489923</v>
+      </c>
+      <c r="T116">
+        <v>16.0246241</v>
+      </c>
+      <c r="U116">
+        <v>16.417319</v>
+      </c>
+      <c r="V116">
+        <v>20.3502833</v>
+      </c>
+      <c r="W116">
+        <v>19.8801247</v>
+      </c>
+      <c r="X116">
+        <v>17.4778814</v>
+      </c>
+      <c r="Y116">
+        <v>11.5493242</v>
+      </c>
+      <c r="Z116">
+        <v>16.0189652</v>
+      </c>
+      <c r="AA116">
+        <v>17.5869321</v>
+      </c>
+      <c r="AB116">
+        <v>14.6345005</v>
+      </c>
+      <c r="AD116">
+        <v>20.3971651</v>
+      </c>
+      <c r="AE116">
+        <v>11.2670614</v>
+      </c>
+      <c r="AF116">
+        <v>14.1345854</v>
+      </c>
+      <c r="AG116">
+        <v>20.5953367</v>
+      </c>
+      <c r="AH116">
+        <v>22.7557745</v>
+      </c>
+      <c r="AI116">
+        <v>14.433794</v>
+      </c>
+      <c r="AJ116">
+        <v>19.4545922</v>
+      </c>
+      <c r="AK116">
+        <v>15.6126998</v>
+      </c>
+      <c r="AL116">
+        <v>14.8063936</v>
+      </c>
+      <c r="AM116">
+        <v>17.951657</v>
+      </c>
+      <c r="AN116">
+        <v>15.6629782</v>
+      </c>
+      <c r="AO116">
+        <v>15.7976695</v>
+      </c>
+      <c r="AP116">
+        <v>12.796668</v>
+      </c>
+      <c r="AQ116">
+        <v>13.0129886</v>
+      </c>
+      <c r="AR116">
+        <v>14.739798</v>
+      </c>
+      <c r="AS116">
+        <v>17.929692</v>
+      </c>
+      <c r="AT116">
+        <v>13.7300911</v>
+      </c>
+      <c r="AU116">
+        <v>22.5072472</v>
+      </c>
+      <c r="AV116">
+        <v>14.8608909</v>
+      </c>
+      <c r="AW116">
+        <v>15.0979011</v>
+      </c>
+      <c r="AX116">
+        <v>16.5824372</v>
+      </c>
+      <c r="AY116">
+        <v>15.98817</v>
+      </c>
+      <c r="BA116">
+        <v>11.0860861</v>
+      </c>
+      <c r="BB116">
+        <v>14.2505689</v>
+      </c>
+      <c r="BC116">
+        <v>15.128365</v>
+      </c>
+      <c r="BD116">
+        <v>15.0967759</v>
+      </c>
+      <c r="BE116">
+        <v>15.6019504</v>
+      </c>
+    </row>
+    <row r="117" spans="1:57">
       <c r="A117" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>12.6427406</v>
+      </c>
+      <c r="C117">
+        <v>19.5513024</v>
+      </c>
+      <c r="D117">
+        <v>15.5183981</v>
+      </c>
+      <c r="F117">
+        <v>15.3148501</v>
+      </c>
+      <c r="G117">
+        <v>11.7884438</v>
+      </c>
+      <c r="H117">
+        <v>16.7260631</v>
+      </c>
+      <c r="I117">
+        <v>17.7764174</v>
+      </c>
+      <c r="J117">
+        <v>17.4860335</v>
+      </c>
+      <c r="K117">
+        <v>16.1015848</v>
+      </c>
+      <c r="L117">
+        <v>11.9199454</v>
+      </c>
+      <c r="M117">
+        <v>16.8167928</v>
+      </c>
+      <c r="O117">
+        <v>8.547531599999999</v>
+      </c>
+      <c r="P117">
+        <v>23.1181477</v>
+      </c>
+      <c r="Q117">
+        <v>14.5170737</v>
+      </c>
+      <c r="R117">
+        <v>17.7514421</v>
+      </c>
+      <c r="S117">
+        <v>20.3641164</v>
+      </c>
+      <c r="T117">
+        <v>15.4201237</v>
+      </c>
+      <c r="U117">
+        <v>16.0773104</v>
+      </c>
+      <c r="V117">
+        <v>19.6619179</v>
+      </c>
+      <c r="W117">
+        <v>19.6901135</v>
+      </c>
+      <c r="X117">
+        <v>17.5460312</v>
+      </c>
+      <c r="Y117">
+        <v>10.8470869</v>
+      </c>
+      <c r="Z117">
+        <v>15.6308897</v>
+      </c>
+      <c r="AA117">
+        <v>17.2334219</v>
+      </c>
+      <c r="AB117">
+        <v>14.6232402</v>
+      </c>
+      <c r="AD117">
+        <v>19.671192</v>
+      </c>
+      <c r="AE117">
+        <v>10.2559898</v>
+      </c>
+      <c r="AF117">
+        <v>14.0506811</v>
+      </c>
+      <c r="AG117">
+        <v>19.7028211</v>
+      </c>
+      <c r="AH117">
+        <v>22.2709326</v>
+      </c>
+      <c r="AI117">
+        <v>14.5805142</v>
+      </c>
+      <c r="AJ117">
+        <v>19.1081705</v>
+      </c>
+      <c r="AK117">
+        <v>15.0671328</v>
+      </c>
+      <c r="AL117">
+        <v>13.956149</v>
+      </c>
+      <c r="AM117">
+        <v>17.5038798</v>
+      </c>
+      <c r="AN117">
+        <v>15.4459347</v>
+      </c>
+      <c r="AO117">
+        <v>15.6965182</v>
+      </c>
+      <c r="AP117">
+        <v>12.3751623</v>
+      </c>
+      <c r="AQ117">
+        <v>12.8934694</v>
+      </c>
+      <c r="AR117">
+        <v>13.4729469</v>
+      </c>
+      <c r="AS117">
+        <v>17.9258374</v>
+      </c>
+      <c r="AT117">
+        <v>13.4915121</v>
+      </c>
+      <c r="AU117">
+        <v>21.4002975</v>
+      </c>
+      <c r="AV117">
+        <v>14.4442122</v>
+      </c>
+      <c r="AW117">
+        <v>14.8661264</v>
+      </c>
+      <c r="AX117">
+        <v>16.6874969</v>
+      </c>
+      <c r="AY117">
+        <v>15.9787192</v>
+      </c>
+      <c r="BA117">
+        <v>10.678394</v>
+      </c>
+      <c r="BB117">
+        <v>14.0307621</v>
+      </c>
+      <c r="BC117">
+        <v>15.4115118</v>
+      </c>
+      <c r="BD117">
+        <v>14.2830807</v>
+      </c>
+      <c r="BE117">
+        <v>16.5685184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:57">
       <c r="A118" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>13.1625442</v>
+      </c>
+      <c r="C118">
+        <v>18.8203267</v>
+      </c>
+      <c r="D118">
+        <v>15.7204986</v>
+      </c>
+      <c r="F118">
+        <v>15.4537399</v>
+      </c>
+      <c r="G118">
+        <v>11.6416182</v>
+      </c>
+      <c r="H118">
+        <v>16.4406452</v>
+      </c>
+      <c r="I118">
+        <v>17.5774401</v>
+      </c>
+      <c r="J118">
+        <v>17.6438053</v>
+      </c>
+      <c r="K118">
+        <v>16.4197531</v>
+      </c>
+      <c r="L118">
+        <v>11.7378647</v>
+      </c>
+      <c r="M118">
+        <v>16.6847835</v>
+      </c>
+      <c r="O118">
+        <v>8.4663866</v>
+      </c>
+      <c r="P118">
+        <v>22.4884359</v>
+      </c>
+      <c r="Q118">
+        <v>14.3228119</v>
+      </c>
+      <c r="R118">
+        <v>17.3317941</v>
+      </c>
+      <c r="S118">
+        <v>19.7751472</v>
+      </c>
+      <c r="T118">
+        <v>15.5973787</v>
+      </c>
+      <c r="U118">
+        <v>16.1068224</v>
+      </c>
+      <c r="V118">
+        <v>19.0853243</v>
+      </c>
+      <c r="W118">
+        <v>19.4709822</v>
+      </c>
+      <c r="X118">
+        <v>16.9549128</v>
+      </c>
+      <c r="Y118">
+        <v>10.8501119</v>
+      </c>
+      <c r="Z118">
+        <v>15.2586488</v>
+      </c>
+      <c r="AA118">
+        <v>17.7182829</v>
+      </c>
+      <c r="AB118">
+        <v>14.859068</v>
+      </c>
+      <c r="AD118">
+        <v>19.8901837</v>
+      </c>
+      <c r="AE118">
+        <v>10.7474961</v>
+      </c>
+      <c r="AF118">
+        <v>13.7680066</v>
+      </c>
+      <c r="AG118">
+        <v>18.7860607</v>
+      </c>
+      <c r="AH118">
+        <v>22.9995361</v>
+      </c>
+      <c r="AI118">
+        <v>13.9517014</v>
+      </c>
+      <c r="AJ118">
+        <v>18.8472633</v>
+      </c>
+      <c r="AK118">
+        <v>15.0938849</v>
+      </c>
+      <c r="AL118">
+        <v>13.5648176</v>
+      </c>
+      <c r="AM118">
+        <v>17.0695626</v>
+      </c>
+      <c r="AN118">
+        <v>15.3557336</v>
+      </c>
+      <c r="AO118">
+        <v>15.5012243</v>
+      </c>
+      <c r="AP118">
+        <v>12.0670571</v>
+      </c>
+      <c r="AQ118">
+        <v>12.8555669</v>
+      </c>
+      <c r="AR118">
+        <v>12.0436531</v>
+      </c>
+      <c r="AS118">
+        <v>17.5573692</v>
+      </c>
+      <c r="AT118">
+        <v>13.6155096</v>
+      </c>
+      <c r="AU118">
+        <v>22.2256901</v>
+      </c>
+      <c r="AV118">
+        <v>14.3992119</v>
+      </c>
+      <c r="AW118">
+        <v>14.5117352</v>
+      </c>
+      <c r="AX118">
+        <v>16.1071783</v>
+      </c>
+      <c r="AY118">
+        <v>15.6568809</v>
+      </c>
+      <c r="BA118">
+        <v>10.9490986</v>
+      </c>
+      <c r="BB118">
+        <v>13.5997897</v>
+      </c>
+      <c r="BC118">
+        <v>14.9914481</v>
+      </c>
+      <c r="BD118">
+        <v>14.2380106</v>
+      </c>
+      <c r="BE118">
+        <v>16.8373054</v>
+      </c>
+    </row>
+    <row r="119" spans="1:57">
       <c r="A119" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>12.4147727</v>
+      </c>
+      <c r="C119">
+        <v>18.7729232</v>
+      </c>
+      <c r="D119">
+        <v>15.6990261</v>
+      </c>
+      <c r="F119">
+        <v>15.45094</v>
+      </c>
+      <c r="G119">
+        <v>11.5385542</v>
+      </c>
+      <c r="H119">
+        <v>16.3633017</v>
+      </c>
+      <c r="I119">
+        <v>17.2428737</v>
+      </c>
+      <c r="J119">
+        <v>17.5977654</v>
+      </c>
+      <c r="K119">
+        <v>15.9252032</v>
+      </c>
+      <c r="L119">
+        <v>11.746748</v>
+      </c>
+      <c r="M119">
+        <v>16.3875723</v>
+      </c>
+      <c r="O119">
+        <v>8.580508500000001</v>
+      </c>
+      <c r="P119">
+        <v>22.1028756</v>
+      </c>
+      <c r="Q119">
+        <v>13.8806776</v>
+      </c>
+      <c r="R119">
+        <v>17.0975016</v>
+      </c>
+      <c r="S119">
+        <v>19.9992119</v>
+      </c>
+      <c r="T119">
+        <v>15.5547589</v>
+      </c>
+      <c r="U119">
+        <v>15.7307495</v>
+      </c>
+      <c r="V119">
+        <v>19.0359175</v>
+      </c>
+      <c r="W119">
+        <v>19.2780914</v>
+      </c>
+      <c r="X119">
+        <v>16.7396833</v>
+      </c>
+      <c r="Y119">
+        <v>10.9425436</v>
+      </c>
+      <c r="Z119">
+        <v>15.0927056</v>
+      </c>
+      <c r="AA119">
+        <v>17.5818306</v>
+      </c>
+      <c r="AB119">
+        <v>14.5572345</v>
+      </c>
+      <c r="AD119">
+        <v>19.5129628</v>
+      </c>
+      <c r="AE119">
+        <v>10.0579413</v>
+      </c>
+      <c r="AF119">
+        <v>13.9491846</v>
+      </c>
+      <c r="AG119">
+        <v>17.1784974</v>
+      </c>
+      <c r="AH119">
+        <v>22.2882319</v>
+      </c>
+      <c r="AI119">
+        <v>13.5902418</v>
+      </c>
+      <c r="AJ119">
+        <v>18.657013</v>
+      </c>
+      <c r="AK119">
+        <v>14.9974173</v>
+      </c>
+      <c r="AL119">
+        <v>13.3883344</v>
+      </c>
+      <c r="AM119">
+        <v>16.990343</v>
+      </c>
+      <c r="AN119">
+        <v>15.0671153</v>
+      </c>
+      <c r="AO119">
+        <v>15.1093641</v>
+      </c>
+      <c r="AP119">
+        <v>11.7601275</v>
+      </c>
+      <c r="AQ119">
+        <v>12.7851148</v>
+      </c>
+      <c r="AR119">
+        <v>11.9861862</v>
+      </c>
+      <c r="AS119">
+        <v>17.0343067</v>
+      </c>
+      <c r="AT119">
+        <v>13.5819514</v>
+      </c>
+      <c r="AU119">
+        <v>21.6749966</v>
+      </c>
+      <c r="AV119">
+        <v>14.4369984</v>
+      </c>
+      <c r="AW119">
+        <v>14.6543013</v>
+      </c>
+      <c r="AX119">
+        <v>16.1001547</v>
+      </c>
+      <c r="AY119">
+        <v>15.4255826</v>
+      </c>
+      <c r="BA119">
+        <v>10.2045818</v>
+      </c>
+      <c r="BB119">
+        <v>13.5757475</v>
+      </c>
+      <c r="BC119">
+        <v>14.5011994</v>
+      </c>
+      <c r="BD119">
+        <v>13.8547361</v>
+      </c>
+      <c r="BE119">
+        <v>14.8743164</v>
+      </c>
+    </row>
+    <row r="120" spans="1:57">
       <c r="A120" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120">
+        <v>12.5147232</v>
+      </c>
+      <c r="C120">
+        <v>18.5980242</v>
+      </c>
+      <c r="D120">
+        <v>16.3459971</v>
+      </c>
+      <c r="F120">
+        <v>15.2448038</v>
+      </c>
+      <c r="G120">
+        <v>11.4845732</v>
+      </c>
+      <c r="H120">
+        <v>16.2509725</v>
+      </c>
+      <c r="I120">
+        <v>16.7963053</v>
+      </c>
+      <c r="J120">
+        <v>17.4137931</v>
+      </c>
+      <c r="K120">
+        <v>15.6419544</v>
+      </c>
+      <c r="L120">
+        <v>11.9238268</v>
+      </c>
+      <c r="M120">
+        <v>16.5559284</v>
+      </c>
+      <c r="O120">
+        <v>8.709143600000001</v>
+      </c>
+      <c r="P120">
+        <v>22.1779794</v>
+      </c>
+      <c r="Q120">
+        <v>13.5900622</v>
+      </c>
+      <c r="R120">
+        <v>16.8322454</v>
+      </c>
+      <c r="S120">
+        <v>19.7510851</v>
+      </c>
+      <c r="T120">
+        <v>15.2870529</v>
+      </c>
+      <c r="U120">
+        <v>15.6145101</v>
+      </c>
+      <c r="V120">
+        <v>18.7242338</v>
+      </c>
+      <c r="W120">
+        <v>18.7578963</v>
+      </c>
+      <c r="X120">
+        <v>16.6666092</v>
+      </c>
+      <c r="Y120">
+        <v>10.9160305</v>
+      </c>
+      <c r="Z120">
+        <v>14.8970447</v>
+      </c>
+      <c r="AA120">
+        <v>17.6943342</v>
+      </c>
+      <c r="AB120">
+        <v>14.7648251</v>
+      </c>
+      <c r="AD120">
+        <v>19.1605265</v>
+      </c>
+      <c r="AE120">
+        <v>9.8922268</v>
+      </c>
+      <c r="AF120">
+        <v>13.9598431</v>
+      </c>
+      <c r="AG120">
+        <v>17.3033068</v>
+      </c>
+      <c r="AH120">
+        <v>22.1204595</v>
+      </c>
+      <c r="AI120">
+        <v>13.6919592</v>
+      </c>
+      <c r="AJ120">
+        <v>18.6113982</v>
+      </c>
+      <c r="AK120">
+        <v>14.7485185</v>
+      </c>
+      <c r="AL120">
+        <v>13.5287824</v>
+      </c>
+      <c r="AM120">
+        <v>16.5165748</v>
+      </c>
+      <c r="AN120">
+        <v>14.7944969</v>
+      </c>
+      <c r="AO120">
+        <v>14.7904468</v>
+      </c>
+      <c r="AP120">
+        <v>11.6691433</v>
+      </c>
+      <c r="AQ120">
+        <v>12.6996161</v>
+      </c>
+      <c r="AR120">
+        <v>12.5730049</v>
+      </c>
+      <c r="AS120">
+        <v>16.7193125</v>
+      </c>
+      <c r="AT120">
+        <v>13.5523644</v>
+      </c>
+      <c r="AU120">
+        <v>21.4335222</v>
+      </c>
+      <c r="AV120">
+        <v>14.4768023</v>
+      </c>
+      <c r="AW120">
+        <v>14.6482352</v>
+      </c>
+      <c r="AX120">
+        <v>16.157255</v>
+      </c>
+      <c r="AY120">
+        <v>15.2501299</v>
+      </c>
+      <c r="BA120">
+        <v>9.874537800000001</v>
+      </c>
+      <c r="BB120">
+        <v>13.6133749</v>
+      </c>
+      <c r="BC120">
+        <v>14.5666253</v>
+      </c>
+      <c r="BD120">
+        <v>13.4485452</v>
+      </c>
+      <c r="BE120">
+        <v>14.9543513</v>
+      </c>
+    </row>
+    <row r="121" spans="1:57">
       <c r="A121" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121">
+        <v>12.7256843</v>
+      </c>
+      <c r="C121">
+        <v>18.1535971</v>
+      </c>
+      <c r="D121">
+        <v>16.3985028</v>
+      </c>
+      <c r="F121">
+        <v>15.0152854</v>
+      </c>
+      <c r="G121">
+        <v>11.3013488</v>
+      </c>
+      <c r="H121">
+        <v>15.9831067</v>
+      </c>
+      <c r="I121">
+        <v>16.3622902</v>
+      </c>
+      <c r="J121">
+        <v>17.9266896</v>
+      </c>
+      <c r="K121">
+        <v>14.5611458</v>
+      </c>
+      <c r="L121">
+        <v>11.7097194</v>
+      </c>
+      <c r="M121">
+        <v>16.5502948</v>
+      </c>
+      <c r="O121">
+        <v>9.4717293</v>
+      </c>
+      <c r="P121">
+        <v>22.2184268</v>
+      </c>
+      <c r="Q121">
+        <v>13.5206753</v>
+      </c>
+      <c r="R121">
+        <v>16.7239821</v>
+      </c>
+      <c r="S121">
+        <v>19.2965014</v>
+      </c>
+      <c r="T121">
+        <v>15.0530204</v>
+      </c>
+      <c r="U121">
+        <v>15.5981085</v>
+      </c>
+      <c r="V121">
+        <v>18.9503824</v>
+      </c>
+      <c r="W121">
+        <v>18.4302283</v>
+      </c>
+      <c r="X121">
+        <v>16.1527846</v>
+      </c>
+      <c r="Y121">
+        <v>11.0527444</v>
+      </c>
+      <c r="Z121">
+        <v>14.76156</v>
+      </c>
+      <c r="AA121">
+        <v>18.1668301</v>
+      </c>
+      <c r="AB121">
+        <v>14.7221264</v>
+      </c>
+      <c r="AD121">
+        <v>19.3829061</v>
+      </c>
+      <c r="AE121">
+        <v>10.2390044</v>
+      </c>
+      <c r="AF121">
+        <v>14.2046547</v>
+      </c>
+      <c r="AG121">
+        <v>17.0908223</v>
+      </c>
+      <c r="AH121">
+        <v>22.016735</v>
+      </c>
+      <c r="AI121">
+        <v>13.9196983</v>
+      </c>
+      <c r="AJ121">
+        <v>18.0261827</v>
+      </c>
+      <c r="AK121">
+        <v>15.0731489</v>
+      </c>
+      <c r="AL121">
+        <v>13.1928232</v>
+      </c>
+      <c r="AM121">
+        <v>16.096947</v>
+      </c>
+      <c r="AN121">
+        <v>14.7575273</v>
+      </c>
+      <c r="AO121">
+        <v>14.698587</v>
+      </c>
+      <c r="AP121">
+        <v>12.0212022</v>
+      </c>
+      <c r="AQ121">
+        <v>12.6565936</v>
+      </c>
+      <c r="AR121">
+        <v>12.1116882</v>
+      </c>
+      <c r="AS121">
+        <v>16.3748632</v>
+      </c>
+      <c r="AT121">
+        <v>13.5321033</v>
+      </c>
+      <c r="AU121">
+        <v>21.8164299</v>
+      </c>
+      <c r="AV121">
+        <v>14.0075562</v>
+      </c>
+      <c r="AW121">
+        <v>14.6236164</v>
+      </c>
+      <c r="AX121">
+        <v>15.8376877</v>
+      </c>
+      <c r="AY121">
+        <v>15.639636</v>
+      </c>
+      <c r="BA121">
+        <v>9.8302329</v>
+      </c>
+      <c r="BB121">
+        <v>13.3517836</v>
+      </c>
+      <c r="BC121">
+        <v>14.6321207</v>
+      </c>
+      <c r="BD121">
+        <v>13.730564</v>
+      </c>
+      <c r="BE121">
+        <v>15.2143638</v>
+      </c>
+    </row>
+    <row r="122" spans="1:57">
       <c r="A122" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122">
+        <v>12.6677852</v>
+      </c>
+      <c r="C122">
+        <v>18.6926674</v>
+      </c>
+      <c r="D122">
+        <v>16.8883273</v>
+      </c>
+      <c r="F122">
+        <v>14.9010826</v>
+      </c>
+      <c r="G122">
+        <v>11.3636146</v>
+      </c>
+      <c r="H122">
+        <v>15.8172606</v>
+      </c>
+      <c r="I122">
+        <v>16.3292514</v>
+      </c>
+      <c r="J122">
+        <v>17.1948357</v>
+      </c>
+      <c r="K122">
+        <v>14.9725777</v>
+      </c>
+      <c r="L122">
+        <v>11.698427</v>
+      </c>
+      <c r="M122">
+        <v>16.2645222</v>
+      </c>
+      <c r="O122">
+        <v>8.447979399999999</v>
+      </c>
+      <c r="P122">
+        <v>21.9894377</v>
+      </c>
+      <c r="Q122">
+        <v>13.7108657</v>
+      </c>
+      <c r="R122">
+        <v>16.3279109</v>
+      </c>
+      <c r="S122">
+        <v>18.7807983</v>
+      </c>
+      <c r="T122">
+        <v>14.8358424</v>
+      </c>
+      <c r="U122">
+        <v>15.4003321</v>
+      </c>
+      <c r="V122">
+        <v>18.932446</v>
+      </c>
+      <c r="W122">
+        <v>17.7987133</v>
+      </c>
+      <c r="X122">
+        <v>16.0566812</v>
+      </c>
+      <c r="Y122">
+        <v>10.5257464</v>
+      </c>
+      <c r="Z122">
+        <v>14.396042</v>
+      </c>
+      <c r="AA122">
+        <v>17.8726382</v>
+      </c>
+      <c r="AB122">
+        <v>14.8647588</v>
+      </c>
+      <c r="AD122">
+        <v>19.719199</v>
+      </c>
+      <c r="AE122">
+        <v>9.6963104</v>
+      </c>
+      <c r="AF122">
+        <v>13.815754</v>
+      </c>
+      <c r="AG122">
+        <v>17.0416371</v>
+      </c>
+      <c r="AH122">
+        <v>21.5485893</v>
+      </c>
+      <c r="AI122">
+        <v>14.1294542</v>
+      </c>
+      <c r="AJ122">
+        <v>17.9047895</v>
+      </c>
+      <c r="AK122">
+        <v>13.7118335</v>
+      </c>
+      <c r="AL122">
+        <v>12.2957444</v>
+      </c>
+      <c r="AM122">
+        <v>15.7410436</v>
+      </c>
+      <c r="AN122">
+        <v>14.6708435</v>
+      </c>
+      <c r="AO122">
+        <v>14.4169342</v>
+      </c>
+      <c r="AP122">
+        <v>11.5330551</v>
+      </c>
+      <c r="AQ122">
+        <v>12.5341947</v>
+      </c>
+      <c r="AR122">
+        <v>12.264164</v>
+      </c>
+      <c r="AS122">
+        <v>15.8757444</v>
+      </c>
+      <c r="AT122">
+        <v>13.7873015</v>
+      </c>
+      <c r="AU122">
+        <v>20.3004927</v>
+      </c>
+      <c r="AV122">
+        <v>13.9536008</v>
+      </c>
+      <c r="AW122">
+        <v>14.669349</v>
+      </c>
+      <c r="AX122">
+        <v>16.4394038</v>
+      </c>
+      <c r="AY122">
+        <v>15.1681612</v>
+      </c>
+      <c r="BA122">
+        <v>9.8931817</v>
+      </c>
+      <c r="BB122">
+        <v>13.4345321</v>
+      </c>
+      <c r="BC122">
+        <v>14.4930411</v>
+      </c>
+      <c r="BD122">
+        <v>13.3385323</v>
+      </c>
+      <c r="BE122">
+        <v>14.6837679</v>
+      </c>
+    </row>
+    <row r="123" spans="1:57">
       <c r="A123" t="s">
         <v>177</v>
       </c>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Alaska</t>
   </si>
@@ -548,6 +548,27 @@
   </si>
   <si>
     <t>01 06 2020</t>
+  </si>
+  <si>
+    <t>02 06 2020</t>
+  </si>
+  <si>
+    <t>03 06 2020</t>
+  </si>
+  <si>
+    <t>04 06 2020</t>
+  </si>
+  <si>
+    <t>05 06 2020</t>
+  </si>
+  <si>
+    <t>06 06 2020</t>
+  </si>
+  <si>
+    <t>07 06 2020</t>
+  </si>
+  <si>
+    <t>08 06 2020</t>
   </si>
 </sst>
 </file>
@@ -879,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE123"/>
+  <dimension ref="A1:BE130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8260,7 +8281,7 @@
         <v>11.746748</v>
       </c>
       <c r="M119">
-        <v>16.3875723</v>
+        <v>16.3863843</v>
       </c>
       <c r="O119">
         <v>8.580508500000001</v>
@@ -8421,7 +8442,7 @@
         <v>11.9238268</v>
       </c>
       <c r="M120">
-        <v>16.5559284</v>
+        <v>16.5547062</v>
       </c>
       <c r="O120">
         <v>8.709143600000001</v>
@@ -8582,7 +8603,7 @@
         <v>11.7097194</v>
       </c>
       <c r="M121">
-        <v>16.5502948</v>
+        <v>16.5490652</v>
       </c>
       <c r="O121">
         <v>9.4717293</v>
@@ -8722,13 +8743,13 @@
         <v>16.8883273</v>
       </c>
       <c r="F122">
-        <v>14.9010826</v>
+        <v>14.899868</v>
       </c>
       <c r="G122">
-        <v>11.3636146</v>
+        <v>11.3613703</v>
       </c>
       <c r="H122">
-        <v>15.8172606</v>
+        <v>15.8248666</v>
       </c>
       <c r="I122">
         <v>16.3292514</v>
@@ -8740,10 +8761,10 @@
         <v>14.9725777</v>
       </c>
       <c r="L122">
-        <v>11.698427</v>
+        <v>11.7010078</v>
       </c>
       <c r="M122">
-        <v>16.2645222</v>
+        <v>16.2632995</v>
       </c>
       <c r="O122">
         <v>8.447979399999999</v>
@@ -8761,7 +8782,7 @@
         <v>18.7807983</v>
       </c>
       <c r="T122">
-        <v>14.8358424</v>
+        <v>14.8334356</v>
       </c>
       <c r="U122">
         <v>15.4003321</v>
@@ -8818,7 +8839,7 @@
         <v>15.7410436</v>
       </c>
       <c r="AN122">
-        <v>14.6708435</v>
+        <v>14.6682243</v>
       </c>
       <c r="AO122">
         <v>14.4169342</v>
@@ -8842,10 +8863,10 @@
         <v>20.3004927</v>
       </c>
       <c r="AV122">
-        <v>13.9536008</v>
+        <v>13.9523877</v>
       </c>
       <c r="AW122">
-        <v>14.669349</v>
+        <v>14.6713623</v>
       </c>
       <c r="AX122">
         <v>16.4394038</v>
@@ -8857,7 +8878,7 @@
         <v>9.8931817</v>
       </c>
       <c r="BB122">
-        <v>13.4345321</v>
+        <v>13.4325572</v>
       </c>
       <c r="BC122">
         <v>14.4930411</v>
@@ -8872,6 +8893,974 @@
     <row r="123" spans="1:57">
       <c r="A123" t="s">
         <v>177</v>
+      </c>
+      <c r="B123">
+        <v>12.5605164</v>
+      </c>
+      <c r="C123">
+        <v>18.7590793</v>
+      </c>
+      <c r="D123">
+        <v>16.7497956</v>
+      </c>
+      <c r="F123">
+        <v>14.9050471</v>
+      </c>
+      <c r="G123">
+        <v>11.3592035</v>
+      </c>
+      <c r="H123">
+        <v>15.5485981</v>
+      </c>
+      <c r="I123">
+        <v>15.9224559</v>
+      </c>
+      <c r="J123">
+        <v>15.546697</v>
+      </c>
+      <c r="K123">
+        <v>14.5731478</v>
+      </c>
+      <c r="L123">
+        <v>11.8885942</v>
+      </c>
+      <c r="M123">
+        <v>16.1794707</v>
+      </c>
+      <c r="O123">
+        <v>8.8235294</v>
+      </c>
+      <c r="P123">
+        <v>21.6181246</v>
+      </c>
+      <c r="Q123">
+        <v>13.4141061</v>
+      </c>
+      <c r="R123">
+        <v>16.1735404</v>
+      </c>
+      <c r="S123">
+        <v>18.9726432</v>
+      </c>
+      <c r="T123">
+        <v>14.6231776</v>
+      </c>
+      <c r="U123">
+        <v>15.4351575</v>
+      </c>
+      <c r="V123">
+        <v>19.0531787</v>
+      </c>
+      <c r="W123">
+        <v>17.3041009</v>
+      </c>
+      <c r="X123">
+        <v>15.7569205</v>
+      </c>
+      <c r="Y123">
+        <v>10.0152572</v>
+      </c>
+      <c r="Z123">
+        <v>14.1996381</v>
+      </c>
+      <c r="AA123">
+        <v>17.5769097</v>
+      </c>
+      <c r="AB123">
+        <v>14.81863</v>
+      </c>
+      <c r="AD123">
+        <v>19.7109308</v>
+      </c>
+      <c r="AE123">
+        <v>9.2229922</v>
+      </c>
+      <c r="AF123">
+        <v>13.9046305</v>
+      </c>
+      <c r="AG123">
+        <v>17.8383689</v>
+      </c>
+      <c r="AH123">
+        <v>21.426789</v>
+      </c>
+      <c r="AI123">
+        <v>13.4365526</v>
+      </c>
+      <c r="AJ123">
+        <v>17.5675617</v>
+      </c>
+      <c r="AK123">
+        <v>14.1010263</v>
+      </c>
+      <c r="AL123">
+        <v>12.1167964</v>
+      </c>
+      <c r="AM123">
+        <v>15.5392094</v>
+      </c>
+      <c r="AN123">
+        <v>14.3210989</v>
+      </c>
+      <c r="AO123">
+        <v>14.1231491</v>
+      </c>
+      <c r="AP123">
+        <v>11.5758286</v>
+      </c>
+      <c r="AQ123">
+        <v>12.3378264</v>
+      </c>
+      <c r="AR123">
+        <v>7.9882485</v>
+      </c>
+      <c r="AS123">
+        <v>15.3034019</v>
+      </c>
+      <c r="AT123">
+        <v>14.2592257</v>
+      </c>
+      <c r="AU123">
+        <v>20.4802587</v>
+      </c>
+      <c r="AV123">
+        <v>13.7841213</v>
+      </c>
+      <c r="AW123">
+        <v>14.4293391</v>
+      </c>
+      <c r="AX123">
+        <v>16.3772043</v>
+      </c>
+      <c r="AY123">
+        <v>15.2842832</v>
+      </c>
+      <c r="BA123">
+        <v>9.915507</v>
+      </c>
+      <c r="BB123">
+        <v>13.3723583</v>
+      </c>
+      <c r="BC123">
+        <v>14.4291145</v>
+      </c>
+      <c r="BD123">
+        <v>13.6497005</v>
+      </c>
+      <c r="BE123">
+        <v>15.5304343</v>
+      </c>
+    </row>
+    <row r="124" spans="1:57">
+      <c r="A124" t="s">
+        <v>178</v>
+      </c>
+      <c r="B124">
+        <v>12.3400853</v>
+      </c>
+      <c r="C124">
+        <v>18.6678701</v>
+      </c>
+      <c r="D124">
+        <v>17.4503912</v>
+      </c>
+      <c r="F124">
+        <v>15.1337443</v>
+      </c>
+      <c r="G124">
+        <v>11.5093612</v>
+      </c>
+      <c r="H124">
+        <v>15.2753969</v>
+      </c>
+      <c r="I124">
+        <v>15.5308322</v>
+      </c>
+      <c r="J124">
+        <v>16.277713</v>
+      </c>
+      <c r="K124">
+        <v>14.8768283</v>
+      </c>
+      <c r="L124">
+        <v>11.7416337</v>
+      </c>
+      <c r="M124">
+        <v>15.8710085</v>
+      </c>
+      <c r="O124">
+        <v>8.6385179</v>
+      </c>
+      <c r="P124">
+        <v>21.4670109</v>
+      </c>
+      <c r="Q124">
+        <v>13.1892586</v>
+      </c>
+      <c r="R124">
+        <v>16.0778909</v>
+      </c>
+      <c r="S124">
+        <v>18.7495091</v>
+      </c>
+      <c r="T124">
+        <v>15.0236843</v>
+      </c>
+      <c r="U124">
+        <v>15.0369839</v>
+      </c>
+      <c r="V124">
+        <v>19.3939806</v>
+      </c>
+      <c r="W124">
+        <v>16.8338189</v>
+      </c>
+      <c r="X124">
+        <v>15.8282473</v>
+      </c>
+      <c r="Y124">
+        <v>10.4820628</v>
+      </c>
+      <c r="Z124">
+        <v>14.0770636</v>
+      </c>
+      <c r="AA124">
+        <v>17.6398343</v>
+      </c>
+      <c r="AB124">
+        <v>14.9537741</v>
+      </c>
+      <c r="AD124">
+        <v>19.9505473</v>
+      </c>
+      <c r="AE124">
+        <v>10.2917635</v>
+      </c>
+      <c r="AF124">
+        <v>13.9127098</v>
+      </c>
+      <c r="AG124">
+        <v>17.5774844</v>
+      </c>
+      <c r="AH124">
+        <v>21.227876</v>
+      </c>
+      <c r="AI124">
+        <v>13.6594523</v>
+      </c>
+      <c r="AJ124">
+        <v>17.1309745</v>
+      </c>
+      <c r="AK124">
+        <v>13.9115842</v>
+      </c>
+      <c r="AL124">
+        <v>12.8987259</v>
+      </c>
+      <c r="AM124">
+        <v>15.2994503</v>
+      </c>
+      <c r="AN124">
+        <v>14.2817472</v>
+      </c>
+      <c r="AO124">
+        <v>13.9328542</v>
+      </c>
+      <c r="AP124">
+        <v>11.2304792</v>
+      </c>
+      <c r="AQ124">
+        <v>12.1814004</v>
+      </c>
+      <c r="AR124">
+        <v>12.2159577</v>
+      </c>
+      <c r="AS124">
+        <v>15.0243272</v>
+      </c>
+      <c r="AT124">
+        <v>14.3803623</v>
+      </c>
+      <c r="AU124">
+        <v>21.0610408</v>
+      </c>
+      <c r="AV124">
+        <v>13.6898051</v>
+      </c>
+      <c r="AW124">
+        <v>14.4886775</v>
+      </c>
+      <c r="AX124">
+        <v>16.6109142</v>
+      </c>
+      <c r="AY124">
+        <v>15.4748305</v>
+      </c>
+      <c r="BA124">
+        <v>9.5398067</v>
+      </c>
+      <c r="BB124">
+        <v>13.406725</v>
+      </c>
+      <c r="BC124">
+        <v>14.4690956</v>
+      </c>
+      <c r="BD124">
+        <v>13.7298209</v>
+      </c>
+      <c r="BE124">
+        <v>14.4995233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:57">
+      <c r="A125" t="s">
+        <v>179</v>
+      </c>
+      <c r="B125">
+        <v>11.814693</v>
+      </c>
+      <c r="C125">
+        <v>18.7363156</v>
+      </c>
+      <c r="D125">
+        <v>17.670227</v>
+      </c>
+      <c r="F125">
+        <v>15.0548898</v>
+      </c>
+      <c r="G125">
+        <v>11.3314312</v>
+      </c>
+      <c r="H125">
+        <v>15.0712037</v>
+      </c>
+      <c r="I125">
+        <v>15.5639858</v>
+      </c>
+      <c r="J125">
+        <v>16.6083916</v>
+      </c>
+      <c r="K125">
+        <v>14.6426827</v>
+      </c>
+      <c r="L125">
+        <v>11.8639727</v>
+      </c>
+      <c r="M125">
+        <v>16.2637838</v>
+      </c>
+      <c r="O125">
+        <v>9.25</v>
+      </c>
+      <c r="P125">
+        <v>20.4053137</v>
+      </c>
+      <c r="Q125">
+        <v>13.3934708</v>
+      </c>
+      <c r="R125">
+        <v>15.8668252</v>
+      </c>
+      <c r="S125">
+        <v>18.6378651</v>
+      </c>
+      <c r="T125">
+        <v>14.8348661</v>
+      </c>
+      <c r="U125">
+        <v>14.7523711</v>
+      </c>
+      <c r="V125">
+        <v>19.5370663</v>
+      </c>
+      <c r="W125">
+        <v>16.0712625</v>
+      </c>
+      <c r="X125">
+        <v>16.2463057</v>
+      </c>
+      <c r="Y125">
+        <v>10.1835853</v>
+      </c>
+      <c r="Z125">
+        <v>14.0627452</v>
+      </c>
+      <c r="AA125">
+        <v>17.2956312</v>
+      </c>
+      <c r="AB125">
+        <v>14.8490425</v>
+      </c>
+      <c r="AD125">
+        <v>20.4356436</v>
+      </c>
+      <c r="AE125">
+        <v>9.4163891</v>
+      </c>
+      <c r="AF125">
+        <v>14.1992598</v>
+      </c>
+      <c r="AG125">
+        <v>18.5768029</v>
+      </c>
+      <c r="AH125">
+        <v>20.4326523</v>
+      </c>
+      <c r="AI125">
+        <v>13.4968638</v>
+      </c>
+      <c r="AJ125">
+        <v>16.9499312</v>
+      </c>
+      <c r="AK125">
+        <v>13.5927795</v>
+      </c>
+      <c r="AL125">
+        <v>12.5812421</v>
+      </c>
+      <c r="AM125">
+        <v>15.1868031</v>
+      </c>
+      <c r="AN125">
+        <v>14.0842797</v>
+      </c>
+      <c r="AO125">
+        <v>14.1265401</v>
+      </c>
+      <c r="AP125">
+        <v>11.4928076</v>
+      </c>
+      <c r="AQ125">
+        <v>12.0117758</v>
+      </c>
+      <c r="AR125">
+        <v>12.7329193</v>
+      </c>
+      <c r="AS125">
+        <v>14.347615</v>
+      </c>
+      <c r="AT125">
+        <v>14.3411821</v>
+      </c>
+      <c r="AU125">
+        <v>20.3420182</v>
+      </c>
+      <c r="AV125">
+        <v>13.784677</v>
+      </c>
+      <c r="AW125">
+        <v>14.5458575</v>
+      </c>
+      <c r="AX125">
+        <v>17.1316031</v>
+      </c>
+      <c r="AY125">
+        <v>15.1200427</v>
+      </c>
+      <c r="BA125">
+        <v>9.0402217</v>
+      </c>
+      <c r="BB125">
+        <v>13.4631368</v>
+      </c>
+      <c r="BC125">
+        <v>14.2372689</v>
+      </c>
+      <c r="BD125">
+        <v>13.7652473</v>
+      </c>
+      <c r="BE125">
+        <v>14.390123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:57">
+      <c r="A126" t="s">
+        <v>180</v>
+      </c>
+      <c r="B126">
+        <v>11.3832853</v>
+      </c>
+      <c r="C126">
+        <v>19.5490362</v>
+      </c>
+      <c r="D126">
+        <v>17.8246431</v>
+      </c>
+      <c r="F126">
+        <v>15.1424916</v>
+      </c>
+      <c r="G126">
+        <v>11.3773956</v>
+      </c>
+      <c r="H126">
+        <v>14.6181609</v>
+      </c>
+      <c r="I126">
+        <v>15.3120165</v>
+      </c>
+      <c r="J126">
+        <v>15.1728553</v>
+      </c>
+      <c r="K126">
+        <v>15.043592</v>
+      </c>
+      <c r="L126">
+        <v>11.6157393</v>
+      </c>
+      <c r="M126">
+        <v>15.8155882</v>
+      </c>
+      <c r="O126">
+        <v>8.7894249</v>
+      </c>
+      <c r="P126">
+        <v>20.1245942</v>
+      </c>
+      <c r="Q126">
+        <v>13.8141082</v>
+      </c>
+      <c r="R126">
+        <v>15.5056831</v>
+      </c>
+      <c r="S126">
+        <v>18.5247995</v>
+      </c>
+      <c r="T126">
+        <v>14.0363711</v>
+      </c>
+      <c r="U126">
+        <v>15.4925417</v>
+      </c>
+      <c r="V126">
+        <v>19.2268127</v>
+      </c>
+      <c r="W126">
+        <v>16.1316809</v>
+      </c>
+      <c r="X126">
+        <v>15.9695245</v>
+      </c>
+      <c r="Y126">
+        <v>10.2288174</v>
+      </c>
+      <c r="Z126">
+        <v>13.7075491</v>
+      </c>
+      <c r="AA126">
+        <v>17.2119012</v>
+      </c>
+      <c r="AB126">
+        <v>14.9067591</v>
+      </c>
+      <c r="AD126">
+        <v>20.2638172</v>
+      </c>
+      <c r="AE126">
+        <v>9.6901589</v>
+      </c>
+      <c r="AF126">
+        <v>14.3056784</v>
+      </c>
+      <c r="AG126">
+        <v>18.1919969</v>
+      </c>
+      <c r="AH126">
+        <v>19.7387855</v>
+      </c>
+      <c r="AI126">
+        <v>13.6083181</v>
+      </c>
+      <c r="AJ126">
+        <v>16.3335512</v>
+      </c>
+      <c r="AK126">
+        <v>13.917699</v>
+      </c>
+      <c r="AL126">
+        <v>12.9687109</v>
+      </c>
+      <c r="AM126">
+        <v>14.7900317</v>
+      </c>
+      <c r="AN126">
+        <v>14.0925129</v>
+      </c>
+      <c r="AO126">
+        <v>14.2541212</v>
+      </c>
+      <c r="AP126">
+        <v>11.5370577</v>
+      </c>
+      <c r="AQ126">
+        <v>12.0422027</v>
+      </c>
+      <c r="AR126">
+        <v>12.7587101</v>
+      </c>
+      <c r="AS126">
+        <v>14.1460022</v>
+      </c>
+      <c r="AT126">
+        <v>14.4097329</v>
+      </c>
+      <c r="AU126">
+        <v>20.6840599</v>
+      </c>
+      <c r="AV126">
+        <v>13.6182758</v>
+      </c>
+      <c r="AW126">
+        <v>14.6861059</v>
+      </c>
+      <c r="AX126">
+        <v>17.4774932</v>
+      </c>
+      <c r="AY126">
+        <v>14.901903</v>
+      </c>
+      <c r="BA126">
+        <v>9.615384600000001</v>
+      </c>
+      <c r="BB126">
+        <v>13.2416785</v>
+      </c>
+      <c r="BC126">
+        <v>14.2862764</v>
+      </c>
+      <c r="BD126">
+        <v>12.8883871</v>
+      </c>
+      <c r="BE126">
+        <v>15.2005792</v>
+      </c>
+    </row>
+    <row r="127" spans="1:57">
+      <c r="A127" t="s">
+        <v>181</v>
+      </c>
+      <c r="B127">
+        <v>12.0035566</v>
+      </c>
+      <c r="C127">
+        <v>19.7044027</v>
+      </c>
+      <c r="D127">
+        <v>17.9351663</v>
+      </c>
+      <c r="F127">
+        <v>15.6301729</v>
+      </c>
+      <c r="G127">
+        <v>11.3313224</v>
+      </c>
+      <c r="H127">
+        <v>14.6786272</v>
+      </c>
+      <c r="I127">
+        <v>14.8741777</v>
+      </c>
+      <c r="J127">
+        <v>16.1782662</v>
+      </c>
+      <c r="K127">
+        <v>14.8640506</v>
+      </c>
+      <c r="L127">
+        <v>11.5611115</v>
+      </c>
+      <c r="M127">
+        <v>16.0075127</v>
+      </c>
+      <c r="O127">
+        <v>8.7438424</v>
+      </c>
+      <c r="P127">
+        <v>20.119043</v>
+      </c>
+      <c r="Q127">
+        <v>14.0976034</v>
+      </c>
+      <c r="R127">
+        <v>15.0949068</v>
+      </c>
+      <c r="S127">
+        <v>18.27988</v>
+      </c>
+      <c r="T127">
+        <v>14.365135</v>
+      </c>
+      <c r="U127">
+        <v>15.3878522</v>
+      </c>
+      <c r="V127">
+        <v>19.2828626</v>
+      </c>
+      <c r="W127">
+        <v>15.943804</v>
+      </c>
+      <c r="X127">
+        <v>15.8810978</v>
+      </c>
+      <c r="Y127">
+        <v>10.5403525</v>
+      </c>
+      <c r="Z127">
+        <v>13.5969602</v>
+      </c>
+      <c r="AA127">
+        <v>16.3080427</v>
+      </c>
+      <c r="AB127">
+        <v>14.8463573</v>
+      </c>
+      <c r="AD127">
+        <v>19.9377031</v>
+      </c>
+      <c r="AE127">
+        <v>9.8438313</v>
+      </c>
+      <c r="AF127">
+        <v>14.4325211</v>
+      </c>
+      <c r="AG127">
+        <v>18.0181321</v>
+      </c>
+      <c r="AH127">
+        <v>20.3556036</v>
+      </c>
+      <c r="AI127">
+        <v>12.6539624</v>
+      </c>
+      <c r="AJ127">
+        <v>15.9347273</v>
+      </c>
+      <c r="AK127">
+        <v>14.0268622</v>
+      </c>
+      <c r="AL127">
+        <v>12.7631282</v>
+      </c>
+      <c r="AM127">
+        <v>14.4957168</v>
+      </c>
+      <c r="AN127">
+        <v>13.72005</v>
+      </c>
+      <c r="AO127">
+        <v>14.4480335</v>
+      </c>
+      <c r="AP127">
+        <v>11.4184249</v>
+      </c>
+      <c r="AQ127">
+        <v>11.8629735</v>
+      </c>
+      <c r="AR127">
+        <v>10.3846154</v>
+      </c>
+      <c r="AS127">
+        <v>13.4677713</v>
+      </c>
+      <c r="AT127">
+        <v>14.319057</v>
+      </c>
+      <c r="AU127">
+        <v>19.252603</v>
+      </c>
+      <c r="AV127">
+        <v>13.4383922</v>
+      </c>
+      <c r="AW127">
+        <v>14.5067304</v>
+      </c>
+      <c r="AX127">
+        <v>17.6116455</v>
+      </c>
+      <c r="AY127">
+        <v>14.922335</v>
+      </c>
+      <c r="BA127">
+        <v>8.993971999999999</v>
+      </c>
+      <c r="BB127">
+        <v>12.9343328</v>
+      </c>
+      <c r="BC127">
+        <v>13.9741451</v>
+      </c>
+      <c r="BD127">
+        <v>13.6967255</v>
+      </c>
+      <c r="BE127">
+        <v>15.7766241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:57">
+      <c r="A128" t="s">
+        <v>182</v>
+      </c>
+      <c r="B128">
+        <v>13.0201765</v>
+      </c>
+      <c r="C128">
+        <v>19.3907246</v>
+      </c>
+      <c r="D128">
+        <v>18.3076257</v>
+      </c>
+      <c r="F128">
+        <v>15.7920972</v>
+      </c>
+      <c r="G128">
+        <v>11.4733163</v>
+      </c>
+      <c r="H128">
+        <v>14.5098615</v>
+      </c>
+      <c r="I128">
+        <v>14.4362663</v>
+      </c>
+      <c r="J128">
+        <v>16.2077597</v>
+      </c>
+      <c r="K128">
+        <v>14.7579948</v>
+      </c>
+      <c r="L128">
+        <v>11.774065</v>
+      </c>
+      <c r="M128">
+        <v>15.7653073</v>
+      </c>
+      <c r="O128">
+        <v>7.485349</v>
+      </c>
+      <c r="P128">
+        <v>20.3072495</v>
+      </c>
+      <c r="Q128">
+        <v>13.5186865</v>
+      </c>
+      <c r="R128">
+        <v>15.1311186</v>
+      </c>
+      <c r="S128">
+        <v>18.606122</v>
+      </c>
+      <c r="T128">
+        <v>14.5635459</v>
+      </c>
+      <c r="U128">
+        <v>15.2259707</v>
+      </c>
+      <c r="V128">
+        <v>19.2080921</v>
+      </c>
+      <c r="W128">
+        <v>16.1783622</v>
+      </c>
+      <c r="X128">
+        <v>15.674513</v>
+      </c>
+      <c r="Y128">
+        <v>10.5034265</v>
+      </c>
+      <c r="Z128">
+        <v>13.4264022</v>
+      </c>
+      <c r="AA128">
+        <v>16.7609852</v>
+      </c>
+      <c r="AB128">
+        <v>14.9009109</v>
+      </c>
+      <c r="AD128">
+        <v>20.8144855</v>
+      </c>
+      <c r="AE128">
+        <v>10.4296009</v>
+      </c>
+      <c r="AF128">
+        <v>14.3535007</v>
+      </c>
+      <c r="AG128">
+        <v>19.6169035</v>
+      </c>
+      <c r="AH128">
+        <v>20.3654683</v>
+      </c>
+      <c r="AI128">
+        <v>13.0580958</v>
+      </c>
+      <c r="AJ128">
+        <v>15.4762853</v>
+      </c>
+      <c r="AK128">
+        <v>13.2180148</v>
+      </c>
+      <c r="AL128">
+        <v>12.9405504</v>
+      </c>
+      <c r="AM128">
+        <v>14.5441568</v>
+      </c>
+      <c r="AN128">
+        <v>13.5761371</v>
+      </c>
+      <c r="AO128">
+        <v>13.8899385</v>
+      </c>
+      <c r="AP128">
+        <v>11.1351554</v>
+      </c>
+      <c r="AQ128">
+        <v>11.7157836</v>
+      </c>
+      <c r="AS128">
+        <v>13.9287102</v>
+      </c>
+      <c r="AT128">
+        <v>14.4988624</v>
+      </c>
+      <c r="AU128">
+        <v>19.9558536</v>
+      </c>
+      <c r="AV128">
+        <v>13.7041421</v>
+      </c>
+      <c r="AW128">
+        <v>14.4571091</v>
+      </c>
+      <c r="AX128">
+        <v>17.8783984</v>
+      </c>
+      <c r="AY128">
+        <v>14.3251903</v>
+      </c>
+      <c r="BA128">
+        <v>9.468006900000001</v>
+      </c>
+      <c r="BB128">
+        <v>12.8820076</v>
+      </c>
+      <c r="BC128">
+        <v>13.976316</v>
+      </c>
+      <c r="BD128">
+        <v>13.5962756</v>
+      </c>
+      <c r="BE128">
+        <v>15.8181815</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Alaska</t>
   </si>
@@ -569,6 +569,15 @@
   </si>
   <si>
     <t>08 06 2020</t>
+  </si>
+  <si>
+    <t>09 06 2020</t>
+  </si>
+  <si>
+    <t>10 06 2020</t>
+  </si>
+  <si>
+    <t>11 06 2020</t>
   </si>
 </sst>
 </file>
@@ -900,7 +909,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE130"/>
+  <dimension ref="A1:BE133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9584,7 +9593,7 @@
         <v>15.0949068</v>
       </c>
       <c r="S127">
-        <v>18.27988</v>
+        <v>18.2865828</v>
       </c>
       <c r="T127">
         <v>14.365135</v>
@@ -9641,7 +9650,7 @@
         <v>12.7631282</v>
       </c>
       <c r="AM127">
-        <v>14.4957168</v>
+        <v>14.4951626</v>
       </c>
       <c r="AN127">
         <v>13.72005</v>
@@ -9709,13 +9718,13 @@
         <v>18.3076257</v>
       </c>
       <c r="F128">
-        <v>15.7920972</v>
+        <v>15.7906661</v>
       </c>
       <c r="G128">
-        <v>11.4733163</v>
+        <v>11.47303</v>
       </c>
       <c r="H128">
-        <v>14.5098615</v>
+        <v>14.5069889</v>
       </c>
       <c r="I128">
         <v>14.4362663</v>
@@ -9727,7 +9736,7 @@
         <v>14.7579948</v>
       </c>
       <c r="L128">
-        <v>11.774065</v>
+        <v>11.7736866</v>
       </c>
       <c r="M128">
         <v>15.7653073</v>
@@ -9742,10 +9751,10 @@
         <v>13.5186865</v>
       </c>
       <c r="R128">
-        <v>15.1311186</v>
+        <v>15.130351</v>
       </c>
       <c r="S128">
-        <v>18.606122</v>
+        <v>18.6131636</v>
       </c>
       <c r="T128">
         <v>14.5635459</v>
@@ -9793,7 +9802,7 @@
         <v>13.0580958</v>
       </c>
       <c r="AJ128">
-        <v>15.4762853</v>
+        <v>15.475009</v>
       </c>
       <c r="AK128">
         <v>13.2180148</v>
@@ -9802,7 +9811,7 @@
         <v>12.9405504</v>
       </c>
       <c r="AM128">
-        <v>14.5441568</v>
+        <v>14.5435281</v>
       </c>
       <c r="AN128">
         <v>13.5761371</v>
@@ -9814,13 +9823,16 @@
         <v>11.1351554</v>
       </c>
       <c r="AQ128">
-        <v>11.7157836</v>
+        <v>11.7189437</v>
+      </c>
+      <c r="AR128">
+        <v>16.6666667</v>
       </c>
       <c r="AS128">
         <v>13.9287102</v>
       </c>
       <c r="AT128">
-        <v>14.4988624</v>
+        <v>14.5069622</v>
       </c>
       <c r="AU128">
         <v>19.9558536</v>
@@ -9832,7 +9844,7 @@
         <v>14.4571091</v>
       </c>
       <c r="AX128">
-        <v>17.8783984</v>
+        <v>17.8924122</v>
       </c>
       <c r="AY128">
         <v>14.3251903</v>
@@ -9853,14 +9865,488 @@
         <v>15.8181815</v>
       </c>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:57">
       <c r="A129" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>13.3966891</v>
+      </c>
+      <c r="C129">
+        <v>19.551786</v>
+      </c>
+      <c r="D129">
+        <v>17.8413619</v>
+      </c>
+      <c r="F129">
+        <v>16.2745311</v>
+      </c>
+      <c r="G129">
+        <v>11.3958285</v>
+      </c>
+      <c r="H129">
+        <v>14.0148556</v>
+      </c>
+      <c r="I129">
+        <v>14.5096508</v>
+      </c>
+      <c r="J129">
+        <v>16.1547912</v>
+      </c>
+      <c r="K129">
+        <v>14.645359</v>
+      </c>
+      <c r="L129">
+        <v>11.7526909</v>
+      </c>
+      <c r="M129">
+        <v>15.6578749</v>
+      </c>
+      <c r="O129">
+        <v>7.8093812</v>
+      </c>
+      <c r="P129">
+        <v>20.2247116</v>
+      </c>
+      <c r="Q129">
+        <v>14.2099706</v>
+      </c>
+      <c r="R129">
+        <v>14.8746526</v>
+      </c>
+      <c r="S129">
+        <v>19.0197771</v>
+      </c>
+      <c r="T129">
+        <v>14.5482429</v>
+      </c>
+      <c r="U129">
+        <v>14.7450354</v>
+      </c>
+      <c r="V129">
+        <v>19.0637298</v>
+      </c>
+      <c r="W129">
+        <v>15.6230926</v>
+      </c>
+      <c r="X129">
+        <v>15.5382182</v>
+      </c>
+      <c r="Y129">
+        <v>10.2209302</v>
+      </c>
+      <c r="Z129">
+        <v>13.3492913</v>
+      </c>
+      <c r="AA129">
+        <v>16.3383757</v>
+      </c>
+      <c r="AB129">
+        <v>14.8020335</v>
+      </c>
+      <c r="AD129">
+        <v>20.4561248</v>
+      </c>
+      <c r="AE129">
+        <v>9.7618005</v>
+      </c>
+      <c r="AF129">
+        <v>14.3768644</v>
+      </c>
+      <c r="AG129">
+        <v>18.7697725</v>
+      </c>
+      <c r="AH129">
+        <v>21.1396537</v>
+      </c>
+      <c r="AI129">
+        <v>12.1983914</v>
+      </c>
+      <c r="AJ129">
+        <v>15.1161879</v>
+      </c>
+      <c r="AK129">
+        <v>13.332979</v>
+      </c>
+      <c r="AL129">
+        <v>13.660548</v>
+      </c>
+      <c r="AM129">
+        <v>14.2235266</v>
+      </c>
+      <c r="AN129">
+        <v>13.6231201</v>
+      </c>
+      <c r="AO129">
+        <v>14.0414219</v>
+      </c>
+      <c r="AP129">
+        <v>11.4422502</v>
+      </c>
+      <c r="AQ129">
+        <v>11.7920549</v>
+      </c>
+      <c r="AS129">
+        <v>13.7175911</v>
+      </c>
+      <c r="AT129">
+        <v>14.4870187</v>
+      </c>
+      <c r="AU129">
+        <v>19.5797247</v>
+      </c>
+      <c r="AV129">
+        <v>13.6817435</v>
+      </c>
+      <c r="AW129">
+        <v>14.6527513</v>
+      </c>
+      <c r="AX129">
+        <v>17.8005621</v>
+      </c>
+      <c r="AY129">
+        <v>14.5569006</v>
+      </c>
+      <c r="BA129">
+        <v>8.9254684</v>
+      </c>
+      <c r="BB129">
+        <v>12.6542692</v>
+      </c>
+      <c r="BC129">
+        <v>13.4698016</v>
+      </c>
+      <c r="BD129">
+        <v>13.9001569</v>
+      </c>
+      <c r="BE129">
+        <v>15.3266506</v>
+      </c>
+    </row>
+    <row r="130" spans="1:57">
       <c r="A130" t="s">
         <v>184</v>
+      </c>
+      <c r="B130">
+        <v>13.9116719</v>
+      </c>
+      <c r="C130">
+        <v>19.3275917</v>
+      </c>
+      <c r="D130">
+        <v>18.2124461</v>
+      </c>
+      <c r="F130">
+        <v>16.4830531</v>
+      </c>
+      <c r="G130">
+        <v>11.348569</v>
+      </c>
+      <c r="H130">
+        <v>14.0403854</v>
+      </c>
+      <c r="I130">
+        <v>14.4266132</v>
+      </c>
+      <c r="J130">
+        <v>16.581306</v>
+      </c>
+      <c r="K130">
+        <v>15.0073024</v>
+      </c>
+      <c r="L130">
+        <v>11.5862401</v>
+      </c>
+      <c r="M130">
+        <v>15.6111176</v>
+      </c>
+      <c r="O130">
+        <v>8.528513200000001</v>
+      </c>
+      <c r="P130">
+        <v>20.2588454</v>
+      </c>
+      <c r="Q130">
+        <v>13.8997025</v>
+      </c>
+      <c r="R130">
+        <v>14.6645239</v>
+      </c>
+      <c r="S130">
+        <v>19.0685443</v>
+      </c>
+      <c r="T130">
+        <v>14.8131428</v>
+      </c>
+      <c r="U130">
+        <v>15.2412698</v>
+      </c>
+      <c r="V130">
+        <v>18.4916255</v>
+      </c>
+      <c r="W130">
+        <v>15.3152684</v>
+      </c>
+      <c r="X130">
+        <v>15.2524546</v>
+      </c>
+      <c r="Y130">
+        <v>10.3298838</v>
+      </c>
+      <c r="Z130">
+        <v>13.1744174</v>
+      </c>
+      <c r="AA130">
+        <v>16.1353727</v>
+      </c>
+      <c r="AB130">
+        <v>14.7477796</v>
+      </c>
+      <c r="AD130">
+        <v>21.1474806</v>
+      </c>
+      <c r="AE130">
+        <v>9.943261100000001</v>
+      </c>
+      <c r="AF130">
+        <v>14.6895306</v>
+      </c>
+      <c r="AG130">
+        <v>17.9764536</v>
+      </c>
+      <c r="AH130">
+        <v>20.9150219</v>
+      </c>
+      <c r="AI130">
+        <v>12.297391</v>
+      </c>
+      <c r="AJ130">
+        <v>15.0489228</v>
+      </c>
+      <c r="AK130">
+        <v>13.6308568</v>
+      </c>
+      <c r="AL130">
+        <v>13.6533383</v>
+      </c>
+      <c r="AM130">
+        <v>13.9227634</v>
+      </c>
+      <c r="AN130">
+        <v>13.7584017</v>
+      </c>
+      <c r="AO130">
+        <v>14.0260367</v>
+      </c>
+      <c r="AP130">
+        <v>11.3501403</v>
+      </c>
+      <c r="AQ130">
+        <v>11.8950669</v>
+      </c>
+      <c r="AS130">
+        <v>13.3378153</v>
+      </c>
+      <c r="AT130">
+        <v>14.5205048</v>
+      </c>
+      <c r="AU130">
+        <v>20.0684195</v>
+      </c>
+      <c r="AV130">
+        <v>13.6226858</v>
+      </c>
+      <c r="AW130">
+        <v>14.9484815</v>
+      </c>
+      <c r="AX130">
+        <v>17.9805388</v>
+      </c>
+      <c r="AY130">
+        <v>14.5202266</v>
+      </c>
+      <c r="BA130">
+        <v>8.3381668</v>
+      </c>
+      <c r="BB130">
+        <v>12.3891171</v>
+      </c>
+      <c r="BC130">
+        <v>13.3228056</v>
+      </c>
+      <c r="BD130">
+        <v>13.0853577</v>
+      </c>
+      <c r="BE130">
+        <v>14.9665782</v>
+      </c>
+    </row>
+    <row r="131" spans="1:57">
+      <c r="A131" t="s">
+        <v>185</v>
+      </c>
+      <c r="B131">
+        <v>14.4913628</v>
+      </c>
+      <c r="C131">
+        <v>19.9402313</v>
+      </c>
+      <c r="D131">
+        <v>18.1086032</v>
+      </c>
+      <c r="F131">
+        <v>16.5476203</v>
+      </c>
+      <c r="G131">
+        <v>11.2962349</v>
+      </c>
+      <c r="H131">
+        <v>13.9327142</v>
+      </c>
+      <c r="I131">
+        <v>14.2798881</v>
+      </c>
+      <c r="J131">
+        <v>15.625</v>
+      </c>
+      <c r="K131">
+        <v>14.2111012</v>
+      </c>
+      <c r="L131">
+        <v>11.7884436</v>
+      </c>
+      <c r="M131">
+        <v>15.4547589</v>
+      </c>
+      <c r="O131">
+        <v>8.5633947</v>
+      </c>
+      <c r="P131">
+        <v>20.313587</v>
+      </c>
+      <c r="Q131">
+        <v>14.3406705</v>
+      </c>
+      <c r="R131">
+        <v>14.4654193</v>
+      </c>
+      <c r="S131">
+        <v>18.8825783</v>
+      </c>
+      <c r="T131">
+        <v>14.5313118</v>
+      </c>
+      <c r="U131">
+        <v>15.0245709</v>
+      </c>
+      <c r="V131">
+        <v>18.2493735</v>
+      </c>
+      <c r="W131">
+        <v>15.0174044</v>
+      </c>
+      <c r="X131">
+        <v>15.3453029</v>
+      </c>
+      <c r="Y131">
+        <v>10.1209982</v>
+      </c>
+      <c r="Z131">
+        <v>13.1206828</v>
+      </c>
+      <c r="AA131">
+        <v>15.8758346</v>
+      </c>
+      <c r="AB131">
+        <v>14.3983524</v>
+      </c>
+      <c r="AD131">
+        <v>21.2176896</v>
+      </c>
+      <c r="AE131">
+        <v>10.4555128</v>
+      </c>
+      <c r="AF131">
+        <v>14.7950494</v>
+      </c>
+      <c r="AG131">
+        <v>18.3252985</v>
+      </c>
+      <c r="AH131">
+        <v>21.1554369</v>
+      </c>
+      <c r="AI131">
+        <v>12.0874698</v>
+      </c>
+      <c r="AJ131">
+        <v>14.6992655</v>
+      </c>
+      <c r="AK131">
+        <v>14.220647</v>
+      </c>
+      <c r="AL131">
+        <v>13.2396025</v>
+      </c>
+      <c r="AM131">
+        <v>13.3784943</v>
+      </c>
+      <c r="AN131">
+        <v>13.598012</v>
+      </c>
+      <c r="AO131">
+        <v>13.9496459</v>
+      </c>
+      <c r="AP131">
+        <v>11.6229082</v>
+      </c>
+      <c r="AQ131">
+        <v>11.6127365</v>
+      </c>
+      <c r="AS131">
+        <v>13.5426632</v>
+      </c>
+      <c r="AT131">
+        <v>15.0218712</v>
+      </c>
+      <c r="AU131">
+        <v>19.7156971</v>
+      </c>
+      <c r="AV131">
+        <v>13.9147307</v>
+      </c>
+      <c r="AW131">
+        <v>15.1095526</v>
+      </c>
+      <c r="AX131">
+        <v>17.9030771</v>
+      </c>
+      <c r="AY131">
+        <v>14.2341501</v>
+      </c>
+      <c r="BA131">
+        <v>8.667074599999999</v>
+      </c>
+      <c r="BB131">
+        <v>12.4524758</v>
+      </c>
+      <c r="BC131">
+        <v>13.5970998</v>
+      </c>
+      <c r="BD131">
+        <v>13.9478458</v>
+      </c>
+      <c r="BE131">
+        <v>15.1991216</v>
+      </c>
+    </row>
+    <row r="132" spans="1:57">
+      <c r="A132" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="133" spans="1:57">
+      <c r="A133" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Alaska</t>
   </si>
@@ -578,6 +578,21 @@
   </si>
   <si>
     <t>11 06 2020</t>
+  </si>
+  <si>
+    <t>12 06 2020</t>
+  </si>
+  <si>
+    <t>13 06 2020</t>
+  </si>
+  <si>
+    <t>14 06 2020</t>
+  </si>
+  <si>
+    <t>15 06 2020</t>
+  </si>
+  <si>
+    <t>16 06 2020</t>
   </si>
 </sst>
 </file>
@@ -909,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE133"/>
+  <dimension ref="A1:BE138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9936,7 +9951,7 @@
         <v>10.2209302</v>
       </c>
       <c r="Z129">
-        <v>13.3492913</v>
+        <v>13.3529615</v>
       </c>
       <c r="AA129">
         <v>16.3383757</v>
@@ -9985,6 +10000,9 @@
       </c>
       <c r="AQ129">
         <v>11.7920549</v>
+      </c>
+      <c r="AR129">
+        <v>7.5893467</v>
       </c>
       <c r="AS129">
         <v>13.7175911</v>
@@ -10094,7 +10112,7 @@
         <v>10.3298838</v>
       </c>
       <c r="Z130">
-        <v>13.1744174</v>
+        <v>13.1781499</v>
       </c>
       <c r="AA130">
         <v>16.1353727</v>
@@ -10144,6 +10162,9 @@
       <c r="AQ130">
         <v>11.8950669</v>
       </c>
+      <c r="AR130">
+        <v>10.2485045</v>
+      </c>
       <c r="AS130">
         <v>13.3378153</v>
       </c>
@@ -10178,7 +10199,7 @@
         <v>13.0853577</v>
       </c>
       <c r="BE130">
-        <v>14.9665782</v>
+        <v>14.9564713</v>
       </c>
     </row>
     <row r="131" spans="1:57">
@@ -10195,10 +10216,10 @@
         <v>18.1086032</v>
       </c>
       <c r="F131">
-        <v>16.5476203</v>
+        <v>16.5461133</v>
       </c>
       <c r="G131">
-        <v>11.2962349</v>
+        <v>11.2959453</v>
       </c>
       <c r="H131">
         <v>13.9327142</v>
@@ -10213,13 +10234,13 @@
         <v>14.2111012</v>
       </c>
       <c r="L131">
-        <v>11.7884436</v>
+        <v>11.7876606</v>
       </c>
       <c r="M131">
         <v>15.4547589</v>
       </c>
       <c r="O131">
-        <v>8.5633947</v>
+        <v>8.5590189</v>
       </c>
       <c r="P131">
         <v>20.313587</v>
@@ -10231,7 +10252,7 @@
         <v>14.4654193</v>
       </c>
       <c r="S131">
-        <v>18.8825783</v>
+        <v>18.8809763</v>
       </c>
       <c r="T131">
         <v>14.5313118</v>
@@ -10252,7 +10273,7 @@
         <v>10.1209982</v>
       </c>
       <c r="Z131">
-        <v>13.1206828</v>
+        <v>13.1246331</v>
       </c>
       <c r="AA131">
         <v>15.8758346</v>
@@ -10306,13 +10327,13 @@
         <v>13.5426632</v>
       </c>
       <c r="AT131">
-        <v>15.0218712</v>
+        <v>15.0204726</v>
       </c>
       <c r="AU131">
         <v>19.7156971</v>
       </c>
       <c r="AV131">
-        <v>13.9147307</v>
+        <v>13.9230571</v>
       </c>
       <c r="AW131">
         <v>15.1095526</v>
@@ -10327,26 +10348,816 @@
         <v>8.667074599999999</v>
       </c>
       <c r="BB131">
-        <v>12.4524758</v>
+        <v>12.4514466</v>
       </c>
       <c r="BC131">
         <v>13.5970998</v>
       </c>
       <c r="BD131">
-        <v>13.9478458</v>
+        <v>13.9446283</v>
       </c>
       <c r="BE131">
-        <v>15.1991216</v>
+        <v>15.1876081</v>
       </c>
     </row>
     <row r="132" spans="1:57">
       <c r="A132" t="s">
         <v>186</v>
       </c>
+      <c r="B132">
+        <v>14.2078255</v>
+      </c>
+      <c r="C132">
+        <v>19.301172</v>
+      </c>
+      <c r="D132">
+        <v>17.8812427</v>
+      </c>
+      <c r="F132">
+        <v>17.1699225</v>
+      </c>
+      <c r="G132">
+        <v>11.3159436</v>
+      </c>
+      <c r="H132">
+        <v>13.7565069</v>
+      </c>
+      <c r="I132">
+        <v>13.6173913</v>
+      </c>
+      <c r="J132">
+        <v>14.8976982</v>
+      </c>
+      <c r="K132">
+        <v>13.5141294</v>
+      </c>
+      <c r="L132">
+        <v>11.529806</v>
+      </c>
+      <c r="M132">
+        <v>15.5494627</v>
+      </c>
+      <c r="O132">
+        <v>7.5867426</v>
+      </c>
+      <c r="P132">
+        <v>20.1670333</v>
+      </c>
+      <c r="Q132">
+        <v>14.7044281</v>
+      </c>
+      <c r="R132">
+        <v>14.3339816</v>
+      </c>
+      <c r="S132">
+        <v>18.7015281</v>
+      </c>
+      <c r="T132">
+        <v>14.3837301</v>
+      </c>
+      <c r="U132">
+        <v>15.345495</v>
+      </c>
+      <c r="V132">
+        <v>18.4882367</v>
+      </c>
+      <c r="W132">
+        <v>14.6836525</v>
+      </c>
+      <c r="X132">
+        <v>14.9465457</v>
+      </c>
+      <c r="Y132">
+        <v>10.0928481</v>
+      </c>
+      <c r="Z132">
+        <v>12.7157998</v>
+      </c>
+      <c r="AA132">
+        <v>15.3844612</v>
+      </c>
+      <c r="AB132">
+        <v>14.1121981</v>
+      </c>
+      <c r="AD132">
+        <v>20.6459457</v>
+      </c>
+      <c r="AE132">
+        <v>10.5509873</v>
+      </c>
+      <c r="AF132">
+        <v>14.7784578</v>
+      </c>
+      <c r="AG132">
+        <v>17.6029318</v>
+      </c>
+      <c r="AH132">
+        <v>20.7043035</v>
+      </c>
+      <c r="AI132">
+        <v>12.0955203</v>
+      </c>
+      <c r="AJ132">
+        <v>14.3063212</v>
+      </c>
+      <c r="AK132">
+        <v>13.9300282</v>
+      </c>
+      <c r="AL132">
+        <v>13.4878516</v>
+      </c>
+      <c r="AM132">
+        <v>13.3802825</v>
+      </c>
+      <c r="AN132">
+        <v>13.567387</v>
+      </c>
+      <c r="AO132">
+        <v>14.2578272</v>
+      </c>
+      <c r="AP132">
+        <v>12.0109486</v>
+      </c>
+      <c r="AQ132">
+        <v>11.7041099</v>
+      </c>
+      <c r="AS132">
+        <v>13.3623027</v>
+      </c>
+      <c r="AT132">
+        <v>15.6660148</v>
+      </c>
+      <c r="AU132">
+        <v>21.0719259</v>
+      </c>
+      <c r="AV132">
+        <v>13.9482109</v>
+      </c>
+      <c r="AW132">
+        <v>15.2458642</v>
+      </c>
+      <c r="AX132">
+        <v>17.770569</v>
+      </c>
+      <c r="AY132">
+        <v>14.3638439</v>
+      </c>
+      <c r="BA132">
+        <v>8.7316102</v>
+      </c>
+      <c r="BB132">
+        <v>12.4410437</v>
+      </c>
+      <c r="BC132">
+        <v>13.3063874</v>
+      </c>
+      <c r="BD132">
+        <v>14.3944167</v>
+      </c>
+      <c r="BE132">
+        <v>14.387196</v>
+      </c>
     </row>
     <row r="133" spans="1:57">
       <c r="A133" t="s">
         <v>187</v>
+      </c>
+      <c r="B133">
+        <v>15.4071661</v>
+      </c>
+      <c r="C133">
+        <v>19.97973</v>
+      </c>
+      <c r="D133">
+        <v>17.5865215</v>
+      </c>
+      <c r="F133">
+        <v>17.4152647</v>
+      </c>
+      <c r="G133">
+        <v>11.2590772</v>
+      </c>
+      <c r="H133">
+        <v>13.3875337</v>
+      </c>
+      <c r="I133">
+        <v>13.2490803</v>
+      </c>
+      <c r="J133">
+        <v>15.3795812</v>
+      </c>
+      <c r="K133">
+        <v>13.3096927</v>
+      </c>
+      <c r="L133">
+        <v>11.589119</v>
+      </c>
+      <c r="M133">
+        <v>15.1490648</v>
+      </c>
+      <c r="O133">
+        <v>7.8556807</v>
+      </c>
+      <c r="P133">
+        <v>20.5131229</v>
+      </c>
+      <c r="Q133">
+        <v>13.8497096</v>
+      </c>
+      <c r="R133">
+        <v>14.0785931</v>
+      </c>
+      <c r="S133">
+        <v>18.79548</v>
+      </c>
+      <c r="T133">
+        <v>14.3156073</v>
+      </c>
+      <c r="U133">
+        <v>15.0097051</v>
+      </c>
+      <c r="V133">
+        <v>18.6318984</v>
+      </c>
+      <c r="W133">
+        <v>14.3606388</v>
+      </c>
+      <c r="X133">
+        <v>14.2663854</v>
+      </c>
+      <c r="Y133">
+        <v>10.0711482</v>
+      </c>
+      <c r="Z133">
+        <v>12.4796205</v>
+      </c>
+      <c r="AA133">
+        <v>15.3820211</v>
+      </c>
+      <c r="AB133">
+        <v>13.6507954</v>
+      </c>
+      <c r="AD133">
+        <v>21.050917</v>
+      </c>
+      <c r="AE133">
+        <v>10.0035525</v>
+      </c>
+      <c r="AF133">
+        <v>14.7180546</v>
+      </c>
+      <c r="AG133">
+        <v>17.5037305</v>
+      </c>
+      <c r="AH133">
+        <v>20.8677006</v>
+      </c>
+      <c r="AI133">
+        <v>11.6119483</v>
+      </c>
+      <c r="AJ133">
+        <v>14.2969908</v>
+      </c>
+      <c r="AK133">
+        <v>13.8412321</v>
+      </c>
+      <c r="AL133">
+        <v>12.6325155</v>
+      </c>
+      <c r="AM133">
+        <v>13.0372738</v>
+      </c>
+      <c r="AN133">
+        <v>13.647672</v>
+      </c>
+      <c r="AO133">
+        <v>14.0221268</v>
+      </c>
+      <c r="AP133">
+        <v>11.6657081</v>
+      </c>
+      <c r="AQ133">
+        <v>11.7214128</v>
+      </c>
+      <c r="AS133">
+        <v>12.9219127</v>
+      </c>
+      <c r="AT133">
+        <v>16.1878248</v>
+      </c>
+      <c r="AU133">
+        <v>20.4633716</v>
+      </c>
+      <c r="AV133">
+        <v>13.9762194</v>
+      </c>
+      <c r="AW133">
+        <v>15.2708939</v>
+      </c>
+      <c r="AX133">
+        <v>18.1371273</v>
+      </c>
+      <c r="AY133">
+        <v>14.0725748</v>
+      </c>
+      <c r="BA133">
+        <v>8.659206599999999</v>
+      </c>
+      <c r="BB133">
+        <v>12.4906953</v>
+      </c>
+      <c r="BC133">
+        <v>13.5647435</v>
+      </c>
+      <c r="BD133">
+        <v>13.6116076</v>
+      </c>
+      <c r="BE133">
+        <v>14.8345475</v>
+      </c>
+    </row>
+    <row r="134" spans="1:57">
+      <c r="A134" t="s">
+        <v>188</v>
+      </c>
+      <c r="B134">
+        <v>15.300727</v>
+      </c>
+      <c r="C134">
+        <v>19.5356138</v>
+      </c>
+      <c r="D134">
+        <v>17.6595259</v>
+      </c>
+      <c r="F134">
+        <v>17.6349544</v>
+      </c>
+      <c r="G134">
+        <v>11.3925637</v>
+      </c>
+      <c r="H134">
+        <v>12.9923334</v>
+      </c>
+      <c r="I134">
+        <v>12.9037963</v>
+      </c>
+      <c r="J134">
+        <v>14.083558</v>
+      </c>
+      <c r="K134">
+        <v>12.7772643</v>
+      </c>
+      <c r="L134">
+        <v>11.7384777</v>
+      </c>
+      <c r="M134">
+        <v>15.0601687</v>
+      </c>
+      <c r="O134">
+        <v>8.299899699999999</v>
+      </c>
+      <c r="P134">
+        <v>20.070983</v>
+      </c>
+      <c r="Q134">
+        <v>14.6148805</v>
+      </c>
+      <c r="R134">
+        <v>13.7458832</v>
+      </c>
+      <c r="S134">
+        <v>18.7859837</v>
+      </c>
+      <c r="T134">
+        <v>14.2674471</v>
+      </c>
+      <c r="U134">
+        <v>14.655373</v>
+      </c>
+      <c r="V134">
+        <v>18.7587594</v>
+      </c>
+      <c r="W134">
+        <v>14.4270854</v>
+      </c>
+      <c r="X134">
+        <v>13.9680509</v>
+      </c>
+      <c r="Y134">
+        <v>9.256577399999999</v>
+      </c>
+      <c r="Z134">
+        <v>12.014159</v>
+      </c>
+      <c r="AA134">
+        <v>15.0357303</v>
+      </c>
+      <c r="AB134">
+        <v>14.2304148</v>
+      </c>
+      <c r="AD134">
+        <v>21.0802879</v>
+      </c>
+      <c r="AE134">
+        <v>9.5368245</v>
+      </c>
+      <c r="AF134">
+        <v>14.629002</v>
+      </c>
+      <c r="AG134">
+        <v>17.1493065</v>
+      </c>
+      <c r="AH134">
+        <v>21.3465108</v>
+      </c>
+      <c r="AI134">
+        <v>11.6519174</v>
+      </c>
+      <c r="AJ134">
+        <v>13.9783621</v>
+      </c>
+      <c r="AK134">
+        <v>14.3683957</v>
+      </c>
+      <c r="AL134">
+        <v>12.9616137</v>
+      </c>
+      <c r="AM134">
+        <v>12.9308176</v>
+      </c>
+      <c r="AN134">
+        <v>13.6416097</v>
+      </c>
+      <c r="AO134">
+        <v>14.8479413</v>
+      </c>
+      <c r="AP134">
+        <v>11.7670466</v>
+      </c>
+      <c r="AQ134">
+        <v>11.6616173</v>
+      </c>
+      <c r="AS134">
+        <v>12.9244698</v>
+      </c>
+      <c r="AT134">
+        <v>16.559976</v>
+      </c>
+      <c r="AU134">
+        <v>20.8628418</v>
+      </c>
+      <c r="AV134">
+        <v>13.9550334</v>
+      </c>
+      <c r="AW134">
+        <v>15.7336092</v>
+      </c>
+      <c r="AX134">
+        <v>18.4351064</v>
+      </c>
+      <c r="AY134">
+        <v>13.8164021</v>
+      </c>
+      <c r="BA134">
+        <v>8.528719000000001</v>
+      </c>
+      <c r="BB134">
+        <v>12.6428402</v>
+      </c>
+      <c r="BC134">
+        <v>13.4217538</v>
+      </c>
+      <c r="BD134">
+        <v>14.248871</v>
+      </c>
+      <c r="BE134">
+        <v>14.6055422</v>
+      </c>
+    </row>
+    <row r="135" spans="1:57">
+      <c r="A135" t="s">
+        <v>189</v>
+      </c>
+      <c r="B135">
+        <v>15.1774398</v>
+      </c>
+      <c r="C135">
+        <v>19.4539491</v>
+      </c>
+      <c r="D135">
+        <v>18.0101713</v>
+      </c>
+      <c r="F135">
+        <v>17.9183935</v>
+      </c>
+      <c r="G135">
+        <v>11.4129938</v>
+      </c>
+      <c r="H135">
+        <v>12.7335787</v>
+      </c>
+      <c r="I135">
+        <v>12.680776</v>
+      </c>
+      <c r="J135">
+        <v>14.5371578</v>
+      </c>
+      <c r="K135">
+        <v>12.8865979</v>
+      </c>
+      <c r="L135">
+        <v>11.7591432</v>
+      </c>
+      <c r="M135">
+        <v>15.3592905</v>
+      </c>
+      <c r="O135">
+        <v>8.100558700000001</v>
+      </c>
+      <c r="P135">
+        <v>20.0351179</v>
+      </c>
+      <c r="Q135">
+        <v>14.4814364</v>
+      </c>
+      <c r="R135">
+        <v>13.4698227</v>
+      </c>
+      <c r="S135">
+        <v>18.6605114</v>
+      </c>
+      <c r="T135">
+        <v>13.7331304</v>
+      </c>
+      <c r="U135">
+        <v>14.426606</v>
+      </c>
+      <c r="V135">
+        <v>18.6317649</v>
+      </c>
+      <c r="W135">
+        <v>13.9226582</v>
+      </c>
+      <c r="X135">
+        <v>13.9851683</v>
+      </c>
+      <c r="Y135">
+        <v>9.076433099999999</v>
+      </c>
+      <c r="Z135">
+        <v>11.7842875</v>
+      </c>
+      <c r="AA135">
+        <v>14.9135091</v>
+      </c>
+      <c r="AB135">
+        <v>14.1342852</v>
+      </c>
+      <c r="AD135">
+        <v>21.0962135</v>
+      </c>
+      <c r="AE135">
+        <v>9.824619999999999</v>
+      </c>
+      <c r="AF135">
+        <v>14.9885001</v>
+      </c>
+      <c r="AG135">
+        <v>16.6291366</v>
+      </c>
+      <c r="AH135">
+        <v>20.5507839</v>
+      </c>
+      <c r="AI135">
+        <v>11.5291262</v>
+      </c>
+      <c r="AJ135">
+        <v>13.7300075</v>
+      </c>
+      <c r="AK135">
+        <v>14.0712605</v>
+      </c>
+      <c r="AL135">
+        <v>13.4167147</v>
+      </c>
+      <c r="AM135">
+        <v>12.7142376</v>
+      </c>
+      <c r="AN135">
+        <v>13.6848956</v>
+      </c>
+      <c r="AO135">
+        <v>14.6589586</v>
+      </c>
+      <c r="AP135">
+        <v>11.9241602</v>
+      </c>
+      <c r="AQ135">
+        <v>11.4898137</v>
+      </c>
+      <c r="AS135">
+        <v>11.9037145</v>
+      </c>
+      <c r="AT135">
+        <v>16.960511</v>
+      </c>
+      <c r="AU135">
+        <v>20.3462191</v>
+      </c>
+      <c r="AV135">
+        <v>14.019408</v>
+      </c>
+      <c r="AW135">
+        <v>15.9887428</v>
+      </c>
+      <c r="AX135">
+        <v>18.4734274</v>
+      </c>
+      <c r="AY135">
+        <v>13.6750689</v>
+      </c>
+      <c r="BA135">
+        <v>8.146070699999999</v>
+      </c>
+      <c r="BB135">
+        <v>12.8200266</v>
+      </c>
+      <c r="BC135">
+        <v>13.3065282</v>
+      </c>
+      <c r="BD135">
+        <v>13.661591</v>
+      </c>
+      <c r="BE135">
+        <v>13.6279081</v>
+      </c>
+    </row>
+    <row r="136" spans="1:57">
+      <c r="A136" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136">
+        <v>14.9645809</v>
+      </c>
+      <c r="C136">
+        <v>19.8181272</v>
+      </c>
+      <c r="D136">
+        <v>18.4630463</v>
+      </c>
+      <c r="F136">
+        <v>18.2413088</v>
+      </c>
+      <c r="G136">
+        <v>11.4578952</v>
+      </c>
+      <c r="H136">
+        <v>12.5188231</v>
+      </c>
+      <c r="I136">
+        <v>12.1695906</v>
+      </c>
+      <c r="J136">
+        <v>14.0977444</v>
+      </c>
+      <c r="K136">
+        <v>12.2875517</v>
+      </c>
+      <c r="L136">
+        <v>11.9147423</v>
+      </c>
+      <c r="M136">
+        <v>15.2651201</v>
+      </c>
+      <c r="O136">
+        <v>8.087130699999999</v>
+      </c>
+      <c r="P136">
+        <v>19.4532801</v>
+      </c>
+      <c r="Q136">
+        <v>14.4506336</v>
+      </c>
+      <c r="R136">
+        <v>13.53054</v>
+      </c>
+      <c r="S136">
+        <v>18.5071082</v>
+      </c>
+      <c r="T136">
+        <v>14.0283952</v>
+      </c>
+      <c r="U136">
+        <v>14.5827185</v>
+      </c>
+      <c r="V136">
+        <v>18.5492201</v>
+      </c>
+      <c r="W136">
+        <v>13.3782549</v>
+      </c>
+      <c r="X136">
+        <v>13.7620279</v>
+      </c>
+      <c r="Y136">
+        <v>9.234173200000001</v>
+      </c>
+      <c r="Z136">
+        <v>11.474599</v>
+      </c>
+      <c r="AA136">
+        <v>14.7731333</v>
+      </c>
+      <c r="AB136">
+        <v>13.9514174</v>
+      </c>
+      <c r="AD136">
+        <v>20.5963494</v>
+      </c>
+      <c r="AE136">
+        <v>9.8346175</v>
+      </c>
+      <c r="AF136">
+        <v>14.7292706</v>
+      </c>
+      <c r="AG136">
+        <v>16.7617261</v>
+      </c>
+      <c r="AH136">
+        <v>20.0518177</v>
+      </c>
+      <c r="AI136">
+        <v>11.0003244</v>
+      </c>
+      <c r="AJ136">
+        <v>13.9168783</v>
+      </c>
+      <c r="AK136">
+        <v>14.4731198</v>
+      </c>
+      <c r="AL136">
+        <v>13.0884216</v>
+      </c>
+      <c r="AM136">
+        <v>12.6239328</v>
+      </c>
+      <c r="AN136">
+        <v>13.6194837</v>
+      </c>
+      <c r="AO136">
+        <v>15.3055437</v>
+      </c>
+      <c r="AP136">
+        <v>12.02674</v>
+      </c>
+      <c r="AQ136">
+        <v>11.3726958</v>
+      </c>
+      <c r="AS136">
+        <v>11.7449412</v>
+      </c>
+      <c r="AT136">
+        <v>17.5838335</v>
+      </c>
+      <c r="AU136">
+        <v>20.8173489</v>
+      </c>
+      <c r="AV136">
+        <v>13.9945432</v>
+      </c>
+      <c r="AW136">
+        <v>16.4032226</v>
+      </c>
+      <c r="AX136">
+        <v>18.6003755</v>
+      </c>
+      <c r="AY136">
+        <v>13.4537752</v>
+      </c>
+      <c r="BA136">
+        <v>8.1673332</v>
+      </c>
+      <c r="BB136">
+        <v>13.2115063</v>
+      </c>
+      <c r="BC136">
+        <v>13.4848592</v>
+      </c>
+      <c r="BD136">
+        <v>13.073168</v>
+      </c>
+      <c r="BE136">
+        <v>13.0956232</v>
+      </c>
+    </row>
+    <row r="137" spans="1:57">
+      <c r="A137" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="138" spans="1:57">
+      <c r="A138" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>Alaska</t>
   </si>
@@ -593,6 +593,24 @@
   </si>
   <si>
     <t>16 06 2020</t>
+  </si>
+  <si>
+    <t>17 06 2020</t>
+  </si>
+  <si>
+    <t>18 06 2020</t>
+  </si>
+  <si>
+    <t>19 06 2020</t>
+  </si>
+  <si>
+    <t>20 06 2020</t>
+  </si>
+  <si>
+    <t>21 06 2020</t>
+  </si>
+  <si>
+    <t>22 06 2020</t>
   </si>
 </sst>
 </file>
@@ -924,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE138"/>
+  <dimension ref="A1:BE144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10323,6 +10341,9 @@
       <c r="AQ131">
         <v>11.6127365</v>
       </c>
+      <c r="AR131">
+        <v>13.3621726</v>
+      </c>
       <c r="AS131">
         <v>13.5426632</v>
       </c>
@@ -10467,7 +10488,7 @@
         <v>13.4878516</v>
       </c>
       <c r="AM132">
-        <v>13.3802825</v>
+        <v>13.3799812</v>
       </c>
       <c r="AN132">
         <v>13.567387</v>
@@ -10480,6 +10501,9 @@
       </c>
       <c r="AQ132">
         <v>11.7041099</v>
+      </c>
+      <c r="AR132">
+        <v>14.6226415</v>
       </c>
       <c r="AS132">
         <v>13.3623027</v>
@@ -10639,6 +10663,9 @@
       <c r="AQ133">
         <v>11.7214128</v>
       </c>
+      <c r="AR133">
+        <v>11.6381778</v>
+      </c>
       <c r="AS133">
         <v>12.9219127</v>
       </c>
@@ -10854,7 +10881,7 @@
         <v>11.4129938</v>
       </c>
       <c r="H135">
-        <v>12.7335787</v>
+        <v>12.7323076</v>
       </c>
       <c r="I135">
         <v>12.680776</v>
@@ -11000,7 +11027,7 @@
         <v>14.9645809</v>
       </c>
       <c r="C136">
-        <v>19.8181272</v>
+        <v>19.8155376</v>
       </c>
       <c r="D136">
         <v>18.4630463</v>
@@ -11009,10 +11036,10 @@
         <v>18.2413088</v>
       </c>
       <c r="G136">
-        <v>11.4578952</v>
+        <v>11.4576207</v>
       </c>
       <c r="H136">
-        <v>12.5188231</v>
+        <v>12.5175809</v>
       </c>
       <c r="I136">
         <v>12.1695906</v>
@@ -11027,7 +11054,7 @@
         <v>11.9147423</v>
       </c>
       <c r="M136">
-        <v>15.2651201</v>
+        <v>15.2638941</v>
       </c>
       <c r="O136">
         <v>8.087130699999999</v>
@@ -11048,7 +11075,7 @@
         <v>14.0283952</v>
       </c>
       <c r="U136">
-        <v>14.5827185</v>
+        <v>14.5807514</v>
       </c>
       <c r="V136">
         <v>18.5492201</v>
@@ -11108,7 +11135,7 @@
         <v>15.3055437</v>
       </c>
       <c r="AP136">
-        <v>12.02674</v>
+        <v>12.0252072</v>
       </c>
       <c r="AQ136">
         <v>11.3726958</v>
@@ -11154,10 +11181,958 @@
       <c r="A137" t="s">
         <v>191</v>
       </c>
+      <c r="B137">
+        <v>15.6149388</v>
+      </c>
+      <c r="C137">
+        <v>19.5283203</v>
+      </c>
+      <c r="D137">
+        <v>18.442629</v>
+      </c>
+      <c r="F137">
+        <v>18.8023214</v>
+      </c>
+      <c r="G137">
+        <v>11.4473773</v>
+      </c>
+      <c r="H137">
+        <v>12.4193695</v>
+      </c>
+      <c r="I137">
+        <v>11.8438359</v>
+      </c>
+      <c r="J137">
+        <v>14.2045455</v>
+      </c>
+      <c r="K137">
+        <v>12.0906236</v>
+      </c>
+      <c r="L137">
+        <v>12.2196539</v>
+      </c>
+      <c r="M137">
+        <v>15.4590936</v>
+      </c>
+      <c r="O137">
+        <v>7.6448498</v>
+      </c>
+      <c r="P137">
+        <v>18.8169343</v>
+      </c>
+      <c r="Q137">
+        <v>14.2532945</v>
+      </c>
+      <c r="R137">
+        <v>13.5544847</v>
+      </c>
+      <c r="S137">
+        <v>18.2489189</v>
+      </c>
+      <c r="T137">
+        <v>14.0046708</v>
+      </c>
+      <c r="U137">
+        <v>14.3636571</v>
+      </c>
+      <c r="V137">
+        <v>18.6298761</v>
+      </c>
+      <c r="W137">
+        <v>13.1804951</v>
+      </c>
+      <c r="X137">
+        <v>14.0895147</v>
+      </c>
+      <c r="Y137">
+        <v>8.690828399999999</v>
+      </c>
+      <c r="Z137">
+        <v>11.2017161</v>
+      </c>
+      <c r="AA137">
+        <v>14.6757238</v>
+      </c>
+      <c r="AB137">
+        <v>14.3026208</v>
+      </c>
+      <c r="AD137">
+        <v>20.7763476</v>
+      </c>
+      <c r="AE137">
+        <v>10.2391625</v>
+      </c>
+      <c r="AF137">
+        <v>14.8888856</v>
+      </c>
+      <c r="AG137">
+        <v>15.7382285</v>
+      </c>
+      <c r="AH137">
+        <v>20.285459</v>
+      </c>
+      <c r="AI137">
+        <v>11.1610793</v>
+      </c>
+      <c r="AJ137">
+        <v>13.4696817</v>
+      </c>
+      <c r="AK137">
+        <v>14.1425695</v>
+      </c>
+      <c r="AL137">
+        <v>12.9820137</v>
+      </c>
+      <c r="AM137">
+        <v>12.4366508</v>
+      </c>
+      <c r="AN137">
+        <v>13.2853985</v>
+      </c>
+      <c r="AO137">
+        <v>15.7899192</v>
+      </c>
+      <c r="AP137">
+        <v>12.0123571</v>
+      </c>
+      <c r="AQ137">
+        <v>11.3780708</v>
+      </c>
+      <c r="AS137">
+        <v>11.8574575</v>
+      </c>
+      <c r="AT137">
+        <v>17.939465</v>
+      </c>
+      <c r="AU137">
+        <v>20.6017187</v>
+      </c>
+      <c r="AV137">
+        <v>13.75597</v>
+      </c>
+      <c r="AW137">
+        <v>16.7361612</v>
+      </c>
+      <c r="AX137">
+        <v>18.5291131</v>
+      </c>
+      <c r="AY137">
+        <v>13.2754233</v>
+      </c>
+      <c r="BA137">
+        <v>7.4195435</v>
+      </c>
+      <c r="BB137">
+        <v>13.4423746</v>
+      </c>
+      <c r="BC137">
+        <v>13.3799606</v>
+      </c>
+      <c r="BD137">
+        <v>13.2352726</v>
+      </c>
+      <c r="BE137">
+        <v>13.8654836</v>
+      </c>
     </row>
     <row r="138" spans="1:57">
       <c r="A138" t="s">
         <v>192</v>
+      </c>
+      <c r="B138">
+        <v>15.0680493</v>
+      </c>
+      <c r="C138">
+        <v>19.6991256</v>
+      </c>
+      <c r="D138">
+        <v>18.7396905</v>
+      </c>
+      <c r="F138">
+        <v>19.0074847</v>
+      </c>
+      <c r="G138">
+        <v>11.4626189</v>
+      </c>
+      <c r="H138">
+        <v>12.5664047</v>
+      </c>
+      <c r="I138">
+        <v>12.0011983</v>
+      </c>
+      <c r="J138">
+        <v>12.8846154</v>
+      </c>
+      <c r="K138">
+        <v>12.2835005</v>
+      </c>
+      <c r="L138">
+        <v>12.3919952</v>
+      </c>
+      <c r="M138">
+        <v>15.8000529</v>
+      </c>
+      <c r="O138">
+        <v>8.358433700000001</v>
+      </c>
+      <c r="P138">
+        <v>19.0493224</v>
+      </c>
+      <c r="Q138">
+        <v>13.9140686</v>
+      </c>
+      <c r="R138">
+        <v>13.4160883</v>
+      </c>
+      <c r="S138">
+        <v>18.4431473</v>
+      </c>
+      <c r="T138">
+        <v>13.8102217</v>
+      </c>
+      <c r="U138">
+        <v>14.8422778</v>
+      </c>
+      <c r="V138">
+        <v>18.9529513</v>
+      </c>
+      <c r="W138">
+        <v>13.2978148</v>
+      </c>
+      <c r="X138">
+        <v>13.8270077</v>
+      </c>
+      <c r="Y138">
+        <v>9.026920199999999</v>
+      </c>
+      <c r="Z138">
+        <v>11.0033129</v>
+      </c>
+      <c r="AA138">
+        <v>14.7446173</v>
+      </c>
+      <c r="AB138">
+        <v>14.3728993</v>
+      </c>
+      <c r="AD138">
+        <v>21.8431047</v>
+      </c>
+      <c r="AE138">
+        <v>10.3112981</v>
+      </c>
+      <c r="AF138">
+        <v>15.225745</v>
+      </c>
+      <c r="AG138">
+        <v>16.4131367</v>
+      </c>
+      <c r="AH138">
+        <v>20.4613024</v>
+      </c>
+      <c r="AI138">
+        <v>11.4009534</v>
+      </c>
+      <c r="AJ138">
+        <v>13.1389045</v>
+      </c>
+      <c r="AK138">
+        <v>14.1548762</v>
+      </c>
+      <c r="AL138">
+        <v>12.9900376</v>
+      </c>
+      <c r="AM138">
+        <v>12.5457224</v>
+      </c>
+      <c r="AN138">
+        <v>13.3639204</v>
+      </c>
+      <c r="AO138">
+        <v>16.1910891</v>
+      </c>
+      <c r="AP138">
+        <v>12.0042083</v>
+      </c>
+      <c r="AQ138">
+        <v>11.3281086</v>
+      </c>
+      <c r="AS138">
+        <v>11.6375364</v>
+      </c>
+      <c r="AT138">
+        <v>18.4908205</v>
+      </c>
+      <c r="AU138">
+        <v>20.4183064</v>
+      </c>
+      <c r="AV138">
+        <v>13.9301211</v>
+      </c>
+      <c r="AW138">
+        <v>17.2901219</v>
+      </c>
+      <c r="AX138">
+        <v>18.8928171</v>
+      </c>
+      <c r="AY138">
+        <v>13.1343996</v>
+      </c>
+      <c r="BA138">
+        <v>8.112098100000001</v>
+      </c>
+      <c r="BB138">
+        <v>13.5410959</v>
+      </c>
+      <c r="BC138">
+        <v>13.5468238</v>
+      </c>
+      <c r="BD138">
+        <v>12.4645669</v>
+      </c>
+      <c r="BE138">
+        <v>14.346529</v>
+      </c>
+    </row>
+    <row r="139" spans="1:57">
+      <c r="A139" t="s">
+        <v>193</v>
+      </c>
+      <c r="B139">
+        <v>15.6052963</v>
+      </c>
+      <c r="C139">
+        <v>20.3457794</v>
+      </c>
+      <c r="D139">
+        <v>18.9336715</v>
+      </c>
+      <c r="F139">
+        <v>19.5502075</v>
+      </c>
+      <c r="G139">
+        <v>11.6152557</v>
+      </c>
+      <c r="H139">
+        <v>12.5942755</v>
+      </c>
+      <c r="I139">
+        <v>12.0476974</v>
+      </c>
+      <c r="J139">
+        <v>13.6822194</v>
+      </c>
+      <c r="K139">
+        <v>12.1043246</v>
+      </c>
+      <c r="L139">
+        <v>12.9842945</v>
+      </c>
+      <c r="M139">
+        <v>15.9223064</v>
+      </c>
+      <c r="O139">
+        <v>8.7925852</v>
+      </c>
+      <c r="P139">
+        <v>19.1730414</v>
+      </c>
+      <c r="Q139">
+        <v>13.6903944</v>
+      </c>
+      <c r="R139">
+        <v>13.4221344</v>
+      </c>
+      <c r="S139">
+        <v>18.7086104</v>
+      </c>
+      <c r="T139">
+        <v>14.41682</v>
+      </c>
+      <c r="U139">
+        <v>15.1817082</v>
+      </c>
+      <c r="V139">
+        <v>19.1760074</v>
+      </c>
+      <c r="W139">
+        <v>12.9771405</v>
+      </c>
+      <c r="X139">
+        <v>13.5839357</v>
+      </c>
+      <c r="Y139">
+        <v>8.8306354</v>
+      </c>
+      <c r="Z139">
+        <v>10.8661799</v>
+      </c>
+      <c r="AA139">
+        <v>14.9491736</v>
+      </c>
+      <c r="AB139">
+        <v>14.6663431</v>
+      </c>
+      <c r="AD139">
+        <v>22.2423731</v>
+      </c>
+      <c r="AE139">
+        <v>10.7033158</v>
+      </c>
+      <c r="AF139">
+        <v>15.5663568</v>
+      </c>
+      <c r="AG139">
+        <v>16.6079784</v>
+      </c>
+      <c r="AH139">
+        <v>19.7499065</v>
+      </c>
+      <c r="AI139">
+        <v>11.2616311</v>
+      </c>
+      <c r="AJ139">
+        <v>13.1114203</v>
+      </c>
+      <c r="AK139">
+        <v>14.437439</v>
+      </c>
+      <c r="AL139">
+        <v>13.1227802</v>
+      </c>
+      <c r="AM139">
+        <v>12.2138494</v>
+      </c>
+      <c r="AN139">
+        <v>13.4502023</v>
+      </c>
+      <c r="AO139">
+        <v>16.5600298</v>
+      </c>
+      <c r="AP139">
+        <v>11.5623539</v>
+      </c>
+      <c r="AQ139">
+        <v>11.2999319</v>
+      </c>
+      <c r="AS139">
+        <v>11.6725328</v>
+      </c>
+      <c r="AT139">
+        <v>18.6366866</v>
+      </c>
+      <c r="AU139">
+        <v>19.9467344</v>
+      </c>
+      <c r="AV139">
+        <v>14.1671142</v>
+      </c>
+      <c r="AW139">
+        <v>18.3555256</v>
+      </c>
+      <c r="AX139">
+        <v>19.0871463</v>
+      </c>
+      <c r="AY139">
+        <v>13.2600756</v>
+      </c>
+      <c r="BA139">
+        <v>8.133823700000001</v>
+      </c>
+      <c r="BB139">
+        <v>13.400099</v>
+      </c>
+      <c r="BC139">
+        <v>13.918514</v>
+      </c>
+      <c r="BD139">
+        <v>12.9388228</v>
+      </c>
+      <c r="BE139">
+        <v>14.6572575</v>
+      </c>
+    </row>
+    <row r="140" spans="1:57">
+      <c r="A140" t="s">
+        <v>194</v>
+      </c>
+      <c r="B140">
+        <v>15.7637076</v>
+      </c>
+      <c r="C140">
+        <v>20.3321878</v>
+      </c>
+      <c r="D140">
+        <v>19.1347461</v>
+      </c>
+      <c r="F140">
+        <v>19.8888276</v>
+      </c>
+      <c r="G140">
+        <v>12.0209684</v>
+      </c>
+      <c r="H140">
+        <v>12.8524218</v>
+      </c>
+      <c r="I140">
+        <v>12.0209689</v>
+      </c>
+      <c r="J140">
+        <v>13.4013605</v>
+      </c>
+      <c r="K140">
+        <v>12.3030584</v>
+      </c>
+      <c r="L140">
+        <v>13.4168713</v>
+      </c>
+      <c r="M140">
+        <v>16.1857632</v>
+      </c>
+      <c r="O140">
+        <v>8.2910751</v>
+      </c>
+      <c r="P140">
+        <v>18.3994708</v>
+      </c>
+      <c r="Q140">
+        <v>14.0356044</v>
+      </c>
+      <c r="R140">
+        <v>13.499991</v>
+      </c>
+      <c r="S140">
+        <v>18.4196807</v>
+      </c>
+      <c r="T140">
+        <v>14.6683156</v>
+      </c>
+      <c r="U140">
+        <v>15.0604059</v>
+      </c>
+      <c r="V140">
+        <v>19.4530328</v>
+      </c>
+      <c r="W140">
+        <v>12.6542629</v>
+      </c>
+      <c r="X140">
+        <v>13.6196414</v>
+      </c>
+      <c r="Y140">
+        <v>9.153005500000001</v>
+      </c>
+      <c r="Z140">
+        <v>10.8909042</v>
+      </c>
+      <c r="AA140">
+        <v>15.0131008</v>
+      </c>
+      <c r="AB140">
+        <v>14.8439265</v>
+      </c>
+      <c r="AD140">
+        <v>22.1329414</v>
+      </c>
+      <c r="AE140">
+        <v>10.691112</v>
+      </c>
+      <c r="AF140">
+        <v>15.5337024</v>
+      </c>
+      <c r="AG140">
+        <v>15.9935856</v>
+      </c>
+      <c r="AH140">
+        <v>19.5951362</v>
+      </c>
+      <c r="AI140">
+        <v>11.1190818</v>
+      </c>
+      <c r="AJ140">
+        <v>12.837067</v>
+      </c>
+      <c r="AK140">
+        <v>14.9511402</v>
+      </c>
+      <c r="AL140">
+        <v>13.6608688</v>
+      </c>
+      <c r="AM140">
+        <v>12.2546746</v>
+      </c>
+      <c r="AN140">
+        <v>13.0820181</v>
+      </c>
+      <c r="AO140">
+        <v>17.6449543</v>
+      </c>
+      <c r="AP140">
+        <v>11.7066135</v>
+      </c>
+      <c r="AQ140">
+        <v>11.2940544</v>
+      </c>
+      <c r="AS140">
+        <v>11.7879966</v>
+      </c>
+      <c r="AT140">
+        <v>19.3322409</v>
+      </c>
+      <c r="AU140">
+        <v>21.1851886</v>
+      </c>
+      <c r="AV140">
+        <v>14.5164984</v>
+      </c>
+      <c r="AW140">
+        <v>19.2173408</v>
+      </c>
+      <c r="AX140">
+        <v>18.9721588</v>
+      </c>
+      <c r="AY140">
+        <v>13.6086623</v>
+      </c>
+      <c r="BA140">
+        <v>9.355458199999999</v>
+      </c>
+      <c r="BB140">
+        <v>13.3346916</v>
+      </c>
+      <c r="BC140">
+        <v>13.5697173</v>
+      </c>
+      <c r="BD140">
+        <v>13.2590809</v>
+      </c>
+      <c r="BE140">
+        <v>14.8673203</v>
+      </c>
+    </row>
+    <row r="141" spans="1:57">
+      <c r="A141" t="s">
+        <v>195</v>
+      </c>
+      <c r="B141">
+        <v>15.6911142</v>
+      </c>
+      <c r="C141">
+        <v>20.5188878</v>
+      </c>
+      <c r="D141">
+        <v>19.4440121</v>
+      </c>
+      <c r="F141">
+        <v>20.4707148</v>
+      </c>
+      <c r="G141">
+        <v>12.0936925</v>
+      </c>
+      <c r="H141">
+        <v>13.0305609</v>
+      </c>
+      <c r="I141">
+        <v>12.1035387</v>
+      </c>
+      <c r="J141">
+        <v>14.4787645</v>
+      </c>
+      <c r="K141">
+        <v>12.8211462</v>
+      </c>
+      <c r="L141">
+        <v>13.8231764</v>
+      </c>
+      <c r="M141">
+        <v>16.5580787</v>
+      </c>
+      <c r="O141">
+        <v>9.0078329</v>
+      </c>
+      <c r="P141">
+        <v>19.2694904</v>
+      </c>
+      <c r="Q141">
+        <v>14.5680868</v>
+      </c>
+      <c r="R141">
+        <v>13.3354445</v>
+      </c>
+      <c r="S141">
+        <v>18.6318073</v>
+      </c>
+      <c r="T141">
+        <v>15.2372502</v>
+      </c>
+      <c r="U141">
+        <v>15.4480315</v>
+      </c>
+      <c r="V141">
+        <v>19.9544709</v>
+      </c>
+      <c r="W141">
+        <v>12.3700826</v>
+      </c>
+      <c r="X141">
+        <v>13.9466109</v>
+      </c>
+      <c r="Y141">
+        <v>8.791691</v>
+      </c>
+      <c r="Z141">
+        <v>10.6963159</v>
+      </c>
+      <c r="AA141">
+        <v>15.139835</v>
+      </c>
+      <c r="AB141">
+        <v>15.4080429</v>
+      </c>
+      <c r="AD141">
+        <v>22.1583041</v>
+      </c>
+      <c r="AE141">
+        <v>11.9398349</v>
+      </c>
+      <c r="AF141">
+        <v>15.6684567</v>
+      </c>
+      <c r="AG141">
+        <v>16.0921332</v>
+      </c>
+      <c r="AH141">
+        <v>18.9478719</v>
+      </c>
+      <c r="AI141">
+        <v>11.3308801</v>
+      </c>
+      <c r="AJ141">
+        <v>12.8977338</v>
+      </c>
+      <c r="AK141">
+        <v>14.2519614</v>
+      </c>
+      <c r="AL141">
+        <v>13.6566247</v>
+      </c>
+      <c r="AM141">
+        <v>12.1808948</v>
+      </c>
+      <c r="AN141">
+        <v>13.0037343</v>
+      </c>
+      <c r="AO141">
+        <v>18.0259254</v>
+      </c>
+      <c r="AP141">
+        <v>11.7626904</v>
+      </c>
+      <c r="AQ141">
+        <v>11.4475768</v>
+      </c>
+      <c r="AS141">
+        <v>11.8889121</v>
+      </c>
+      <c r="AT141">
+        <v>20.2169335</v>
+      </c>
+      <c r="AU141">
+        <v>21.3479031</v>
+      </c>
+      <c r="AV141">
+        <v>14.6958387</v>
+      </c>
+      <c r="AW141">
+        <v>20.1087938</v>
+      </c>
+      <c r="AX141">
+        <v>19.1362719</v>
+      </c>
+      <c r="AY141">
+        <v>13.4989403</v>
+      </c>
+      <c r="BA141">
+        <v>9.2434162</v>
+      </c>
+      <c r="BB141">
+        <v>13.3152779</v>
+      </c>
+      <c r="BC141">
+        <v>13.7299775</v>
+      </c>
+      <c r="BD141">
+        <v>13.1334905</v>
+      </c>
+      <c r="BE141">
+        <v>14.1792196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:57">
+      <c r="A142" t="s">
+        <v>196</v>
+      </c>
+      <c r="B142">
+        <v>15.6647808</v>
+      </c>
+      <c r="C142">
+        <v>20.760556</v>
+      </c>
+      <c r="D142">
+        <v>20.2102959</v>
+      </c>
+      <c r="F142">
+        <v>21.1602242</v>
+      </c>
+      <c r="G142">
+        <v>12.2418795</v>
+      </c>
+      <c r="H142">
+        <v>13.2127952</v>
+      </c>
+      <c r="I142">
+        <v>11.8537964</v>
+      </c>
+      <c r="J142">
+        <v>13.5994587</v>
+      </c>
+      <c r="K142">
+        <v>13.1284916</v>
+      </c>
+      <c r="L142">
+        <v>14.4759983</v>
+      </c>
+      <c r="M142">
+        <v>16.6395388</v>
+      </c>
+      <c r="O142">
+        <v>8.985429</v>
+      </c>
+      <c r="P142">
+        <v>19.5761948</v>
+      </c>
+      <c r="Q142">
+        <v>14.9041295</v>
+      </c>
+      <c r="R142">
+        <v>13.3006391</v>
+      </c>
+      <c r="S142">
+        <v>18.6298605</v>
+      </c>
+      <c r="T142">
+        <v>15.4976721</v>
+      </c>
+      <c r="U142">
+        <v>15.2144724</v>
+      </c>
+      <c r="V142">
+        <v>19.9447108</v>
+      </c>
+      <c r="W142">
+        <v>12.1804351</v>
+      </c>
+      <c r="X142">
+        <v>13.6294858</v>
+      </c>
+      <c r="Y142">
+        <v>9.172030400000001</v>
+      </c>
+      <c r="Z142">
+        <v>10.7757837</v>
+      </c>
+      <c r="AA142">
+        <v>14.9163279</v>
+      </c>
+      <c r="AB142">
+        <v>15.1062203</v>
+      </c>
+      <c r="AD142">
+        <v>22.8177464</v>
+      </c>
+      <c r="AE142">
+        <v>11.1284749</v>
+      </c>
+      <c r="AF142">
+        <v>16.1250255</v>
+      </c>
+      <c r="AG142">
+        <v>17.2779457</v>
+      </c>
+      <c r="AH142">
+        <v>18.8760784</v>
+      </c>
+      <c r="AI142">
+        <v>11.112898</v>
+      </c>
+      <c r="AJ142">
+        <v>12.6808796</v>
+      </c>
+      <c r="AK142">
+        <v>13.8305469</v>
+      </c>
+      <c r="AL142">
+        <v>13.7830959</v>
+      </c>
+      <c r="AM142">
+        <v>12.1841492</v>
+      </c>
+      <c r="AN142">
+        <v>12.7262508</v>
+      </c>
+      <c r="AO142">
+        <v>19.1477569</v>
+      </c>
+      <c r="AP142">
+        <v>11.8581664</v>
+      </c>
+      <c r="AQ142">
+        <v>11.3918073</v>
+      </c>
+      <c r="AS142">
+        <v>11.8782537</v>
+      </c>
+      <c r="AT142">
+        <v>20.9100572</v>
+      </c>
+      <c r="AU142">
+        <v>20.0406169</v>
+      </c>
+      <c r="AV142">
+        <v>15.0080442</v>
+      </c>
+      <c r="AW142">
+        <v>21.0346173</v>
+      </c>
+      <c r="AX142">
+        <v>18.9995117</v>
+      </c>
+      <c r="AY142">
+        <v>13.6588603</v>
+      </c>
+      <c r="BA142">
+        <v>9.3976778</v>
+      </c>
+      <c r="BB142">
+        <v>13.2376404</v>
+      </c>
+      <c r="BC142">
+        <v>13.7470551</v>
+      </c>
+      <c r="BD142">
+        <v>13.0761004</v>
+      </c>
+      <c r="BE142">
+        <v>14.7427201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:57">
+      <c r="A143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:57">
+      <c r="A144" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Alaska</t>
   </si>
@@ -611,6 +611,18 @@
   </si>
   <si>
     <t>22 06 2020</t>
+  </si>
+  <si>
+    <t>23 06 2020</t>
+  </si>
+  <si>
+    <t>24 06 2020</t>
+  </si>
+  <si>
+    <t>25 06 2020</t>
+  </si>
+  <si>
+    <t>26 06 2020</t>
   </si>
 </sst>
 </file>
@@ -942,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE144"/>
+  <dimension ref="A1:BE148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10824,6 +10836,9 @@
       <c r="AQ134">
         <v>11.6616173</v>
       </c>
+      <c r="AR134">
+        <v>8.8462104</v>
+      </c>
       <c r="AS134">
         <v>12.9244698</v>
       </c>
@@ -10982,6 +10997,9 @@
       <c r="AQ135">
         <v>11.4898137</v>
       </c>
+      <c r="AR135">
+        <v>10.5506085</v>
+      </c>
       <c r="AS135">
         <v>11.9037145</v>
       </c>
@@ -11140,6 +11158,9 @@
       <c r="AQ136">
         <v>11.3726958</v>
       </c>
+      <c r="AR136">
+        <v>14.356492</v>
+      </c>
       <c r="AS136">
         <v>11.7449412</v>
       </c>
@@ -11984,7 +12005,7 @@
         <v>21.1602242</v>
       </c>
       <c r="G142">
-        <v>12.2418795</v>
+        <v>12.2405909</v>
       </c>
       <c r="H142">
         <v>13.2127952</v>
@@ -12129,10 +12150,795 @@
       <c r="A143" t="s">
         <v>197</v>
       </c>
+      <c r="B143">
+        <v>16.4300923</v>
+      </c>
+      <c r="C143">
+        <v>21.1817963</v>
+      </c>
+      <c r="D143">
+        <v>20.2397725</v>
+      </c>
+      <c r="F143">
+        <v>22.149584</v>
+      </c>
+      <c r="G143">
+        <v>12.4251331</v>
+      </c>
+      <c r="H143">
+        <v>13.199867</v>
+      </c>
+      <c r="I143">
+        <v>11.9194381</v>
+      </c>
+      <c r="J143">
+        <v>14.3870968</v>
+      </c>
+      <c r="K143">
+        <v>13.1213255</v>
+      </c>
+      <c r="L143">
+        <v>15.0895932</v>
+      </c>
+      <c r="M143">
+        <v>16.8905516</v>
+      </c>
+      <c r="O143">
+        <v>9.6175166</v>
+      </c>
+      <c r="P143">
+        <v>19.5793223</v>
+      </c>
+      <c r="Q143">
+        <v>15.1881238</v>
+      </c>
+      <c r="R143">
+        <v>13.2566567</v>
+      </c>
+      <c r="S143">
+        <v>18.8726161</v>
+      </c>
+      <c r="T143">
+        <v>15.374564</v>
+      </c>
+      <c r="U143">
+        <v>15.7300681</v>
+      </c>
+      <c r="V143">
+        <v>21.0845323</v>
+      </c>
+      <c r="W143">
+        <v>12.2803712</v>
+      </c>
+      <c r="X143">
+        <v>13.4317781</v>
+      </c>
+      <c r="Y143">
+        <v>9.1019311</v>
+      </c>
+      <c r="Z143">
+        <v>10.6787645</v>
+      </c>
+      <c r="AA143">
+        <v>14.4727302</v>
+      </c>
+      <c r="AB143">
+        <v>15.8673754</v>
+      </c>
+      <c r="AD143">
+        <v>23.3105273</v>
+      </c>
+      <c r="AE143">
+        <v>12.0806163</v>
+      </c>
+      <c r="AF143">
+        <v>16.6446172</v>
+      </c>
+      <c r="AG143">
+        <v>16.7647578</v>
+      </c>
+      <c r="AH143">
+        <v>18.7169639</v>
+      </c>
+      <c r="AI143">
+        <v>10.926004</v>
+      </c>
+      <c r="AJ143">
+        <v>12.7245802</v>
+      </c>
+      <c r="AK143">
+        <v>14.3913285</v>
+      </c>
+      <c r="AL143">
+        <v>13.5518031</v>
+      </c>
+      <c r="AM143">
+        <v>12.2356187</v>
+      </c>
+      <c r="AN143">
+        <v>12.9495034</v>
+      </c>
+      <c r="AO143">
+        <v>19.6064668</v>
+      </c>
+      <c r="AP143">
+        <v>11.2915817</v>
+      </c>
+      <c r="AQ143">
+        <v>11.3086483</v>
+      </c>
+      <c r="AS143">
+        <v>11.5487716</v>
+      </c>
+      <c r="AT143">
+        <v>21.9870886</v>
+      </c>
+      <c r="AU143">
+        <v>19.3609592</v>
+      </c>
+      <c r="AV143">
+        <v>15.189681</v>
+      </c>
+      <c r="AW143">
+        <v>22.1632916</v>
+      </c>
+      <c r="AX143">
+        <v>19.5408345</v>
+      </c>
+      <c r="AY143">
+        <v>13.7730427</v>
+      </c>
+      <c r="BA143">
+        <v>10.388223</v>
+      </c>
+      <c r="BB143">
+        <v>13.1412397</v>
+      </c>
+      <c r="BC143">
+        <v>13.8785426</v>
+      </c>
+      <c r="BD143">
+        <v>13.5789521</v>
+      </c>
+      <c r="BE143">
+        <v>15.5949872</v>
+      </c>
     </row>
     <row r="144" spans="1:57">
       <c r="A144" t="s">
         <v>198</v>
+      </c>
+      <c r="B144">
+        <v>17.0463174</v>
+      </c>
+      <c r="C144">
+        <v>21.1564028</v>
+      </c>
+      <c r="D144">
+        <v>20.2310999</v>
+      </c>
+      <c r="F144">
+        <v>23.0040644</v>
+      </c>
+      <c r="G144">
+        <v>12.775418</v>
+      </c>
+      <c r="H144">
+        <v>12.9222858</v>
+      </c>
+      <c r="I144">
+        <v>11.4963504</v>
+      </c>
+      <c r="J144">
+        <v>13.4214186</v>
+      </c>
+      <c r="K144">
+        <v>13.5416667</v>
+      </c>
+      <c r="L144">
+        <v>15.8324116</v>
+      </c>
+      <c r="M144">
+        <v>17.2471243</v>
+      </c>
+      <c r="O144">
+        <v>9.894304200000001</v>
+      </c>
+      <c r="P144">
+        <v>20.1258308</v>
+      </c>
+      <c r="Q144">
+        <v>16.1170344</v>
+      </c>
+      <c r="R144">
+        <v>13.4225995</v>
+      </c>
+      <c r="S144">
+        <v>18.6094995</v>
+      </c>
+      <c r="T144">
+        <v>16.0758593</v>
+      </c>
+      <c r="U144">
+        <v>15.6757648</v>
+      </c>
+      <c r="V144">
+        <v>21.2745764</v>
+      </c>
+      <c r="W144">
+        <v>11.8854505</v>
+      </c>
+      <c r="X144">
+        <v>13.5907417</v>
+      </c>
+      <c r="Y144">
+        <v>9.627515799999999</v>
+      </c>
+      <c r="Z144">
+        <v>10.7857541</v>
+      </c>
+      <c r="AA144">
+        <v>14.4854168</v>
+      </c>
+      <c r="AB144">
+        <v>15.3933595</v>
+      </c>
+      <c r="AD144">
+        <v>24.0709086</v>
+      </c>
+      <c r="AE144">
+        <v>13.2498915</v>
+      </c>
+      <c r="AF144">
+        <v>16.8520224</v>
+      </c>
+      <c r="AG144">
+        <v>17.1252175</v>
+      </c>
+      <c r="AH144">
+        <v>18.0246439</v>
+      </c>
+      <c r="AI144">
+        <v>10.3153304</v>
+      </c>
+      <c r="AJ144">
+        <v>12.4973671</v>
+      </c>
+      <c r="AK144">
+        <v>14.3150808</v>
+      </c>
+      <c r="AL144">
+        <v>14.3441225</v>
+      </c>
+      <c r="AM144">
+        <v>12.1483419</v>
+      </c>
+      <c r="AN144">
+        <v>13.002053</v>
+      </c>
+      <c r="AO144">
+        <v>19.538884</v>
+      </c>
+      <c r="AP144">
+        <v>11.5369845</v>
+      </c>
+      <c r="AQ144">
+        <v>11.3603624</v>
+      </c>
+      <c r="AS144">
+        <v>10.9600925</v>
+      </c>
+      <c r="AT144">
+        <v>22.9594752</v>
+      </c>
+      <c r="AU144">
+        <v>19.4715984</v>
+      </c>
+      <c r="AV144">
+        <v>15.836489</v>
+      </c>
+      <c r="AW144">
+        <v>22.9719406</v>
+      </c>
+      <c r="AX144">
+        <v>19.9300668</v>
+      </c>
+      <c r="AY144">
+        <v>14.1189323</v>
+      </c>
+      <c r="BA144">
+        <v>10.3096462</v>
+      </c>
+      <c r="BB144">
+        <v>13.474175</v>
+      </c>
+      <c r="BC144">
+        <v>14.1179391</v>
+      </c>
+      <c r="BD144">
+        <v>14.2830295</v>
+      </c>
+      <c r="BE144">
+        <v>15.089086</v>
+      </c>
+    </row>
+    <row r="145" spans="1:57">
+      <c r="A145" t="s">
+        <v>199</v>
+      </c>
+      <c r="B145">
+        <v>17.3165138</v>
+      </c>
+      <c r="C145">
+        <v>22.0360745</v>
+      </c>
+      <c r="D145">
+        <v>20.1803961</v>
+      </c>
+      <c r="F145">
+        <v>24.1166012</v>
+      </c>
+      <c r="G145">
+        <v>13.0016802</v>
+      </c>
+      <c r="H145">
+        <v>13.2370663</v>
+      </c>
+      <c r="I145">
+        <v>11.3911743</v>
+      </c>
+      <c r="J145">
+        <v>15.6716418</v>
+      </c>
+      <c r="K145">
+        <v>13.5115725</v>
+      </c>
+      <c r="L145">
+        <v>16.91313</v>
+      </c>
+      <c r="M145">
+        <v>17.6445627</v>
+      </c>
+      <c r="O145">
+        <v>10.3076923</v>
+      </c>
+      <c r="P145">
+        <v>20.4799191</v>
+      </c>
+      <c r="Q145">
+        <v>16.1706377</v>
+      </c>
+      <c r="R145">
+        <v>13.1358945</v>
+      </c>
+      <c r="S145">
+        <v>18.5500694</v>
+      </c>
+      <c r="T145">
+        <v>15.7639909</v>
+      </c>
+      <c r="U145">
+        <v>15.7251752</v>
+      </c>
+      <c r="V145">
+        <v>22.0776219</v>
+      </c>
+      <c r="W145">
+        <v>11.4029664</v>
+      </c>
+      <c r="X145">
+        <v>13.1204554</v>
+      </c>
+      <c r="Y145">
+        <v>9.6080725</v>
+      </c>
+      <c r="Z145">
+        <v>10.848253</v>
+      </c>
+      <c r="AA145">
+        <v>15.1191711</v>
+      </c>
+      <c r="AB145">
+        <v>15.5561748</v>
+      </c>
+      <c r="AD145">
+        <v>24.340724</v>
+      </c>
+      <c r="AE145">
+        <v>13.1766286</v>
+      </c>
+      <c r="AF145">
+        <v>16.9959595</v>
+      </c>
+      <c r="AG145">
+        <v>17.3701245</v>
+      </c>
+      <c r="AH145">
+        <v>18.1533888</v>
+      </c>
+      <c r="AI145">
+        <v>10.3858078</v>
+      </c>
+      <c r="AJ145">
+        <v>12.6874065</v>
+      </c>
+      <c r="AK145">
+        <v>15.0644002</v>
+      </c>
+      <c r="AL145">
+        <v>15.2765066</v>
+      </c>
+      <c r="AM145">
+        <v>12.0733555</v>
+      </c>
+      <c r="AN145">
+        <v>12.9759208</v>
+      </c>
+      <c r="AO145">
+        <v>20.3452846</v>
+      </c>
+      <c r="AP145">
+        <v>11.3683295</v>
+      </c>
+      <c r="AQ145">
+        <v>11.5125593</v>
+      </c>
+      <c r="AS145">
+        <v>10.8506175</v>
+      </c>
+      <c r="AT145">
+        <v>23.40987</v>
+      </c>
+      <c r="AU145">
+        <v>20.7864045</v>
+      </c>
+      <c r="AV145">
+        <v>16.032284</v>
+      </c>
+      <c r="AW145">
+        <v>24.1767046</v>
+      </c>
+      <c r="AX145">
+        <v>20.2066568</v>
+      </c>
+      <c r="AY145">
+        <v>14.1157567</v>
+      </c>
+      <c r="BA145">
+        <v>10.2154649</v>
+      </c>
+      <c r="BB145">
+        <v>13.279306</v>
+      </c>
+      <c r="BC145">
+        <v>13.9073914</v>
+      </c>
+      <c r="BD145">
+        <v>13.5028546</v>
+      </c>
+      <c r="BE145">
+        <v>15.2606344</v>
+      </c>
+    </row>
+    <row r="146" spans="1:57">
+      <c r="A146" t="s">
+        <v>200</v>
+      </c>
+      <c r="B146">
+        <v>17.0936749</v>
+      </c>
+      <c r="C146">
+        <v>22.7740105</v>
+      </c>
+      <c r="D146">
+        <v>21.1436974</v>
+      </c>
+      <c r="F146">
+        <v>25.2981312</v>
+      </c>
+      <c r="G146">
+        <v>13.5824354</v>
+      </c>
+      <c r="H146">
+        <v>13.2388967</v>
+      </c>
+      <c r="I146">
+        <v>11.0983632</v>
+      </c>
+      <c r="J146">
+        <v>15.21181</v>
+      </c>
+      <c r="K146">
+        <v>14.2899761</v>
+      </c>
+      <c r="L146">
+        <v>17.7022691</v>
+      </c>
+      <c r="M146">
+        <v>18.3350568</v>
+      </c>
+      <c r="O146">
+        <v>10.9073959</v>
+      </c>
+      <c r="P146">
+        <v>20.9754309</v>
+      </c>
+      <c r="Q146">
+        <v>17.9560189</v>
+      </c>
+      <c r="R146">
+        <v>12.97533</v>
+      </c>
+      <c r="S146">
+        <v>18.4692339</v>
+      </c>
+      <c r="T146">
+        <v>16.4305433</v>
+      </c>
+      <c r="U146">
+        <v>15.6735795</v>
+      </c>
+      <c r="V146">
+        <v>22.8904417</v>
+      </c>
+      <c r="W146">
+        <v>11.6449151</v>
+      </c>
+      <c r="X146">
+        <v>13.2868916</v>
+      </c>
+      <c r="Y146">
+        <v>9.359681399999999</v>
+      </c>
+      <c r="Z146">
+        <v>10.8732211</v>
+      </c>
+      <c r="AA146">
+        <v>15.0747685</v>
+      </c>
+      <c r="AB146">
+        <v>15.5158109</v>
+      </c>
+      <c r="AD146">
+        <v>24.8879141</v>
+      </c>
+      <c r="AE146">
+        <v>13.1286613</v>
+      </c>
+      <c r="AF146">
+        <v>17.3084322</v>
+      </c>
+      <c r="AG146">
+        <v>16.5407786</v>
+      </c>
+      <c r="AH146">
+        <v>18.2054626</v>
+      </c>
+      <c r="AI146">
+        <v>10.105382</v>
+      </c>
+      <c r="AJ146">
+        <v>12.7694734</v>
+      </c>
+      <c r="AK146">
+        <v>15.3658474</v>
+      </c>
+      <c r="AL146">
+        <v>15.3090244</v>
+      </c>
+      <c r="AM146">
+        <v>12.0433725</v>
+      </c>
+      <c r="AN146">
+        <v>13.181903</v>
+      </c>
+      <c r="AO146">
+        <v>20.2608306</v>
+      </c>
+      <c r="AP146">
+        <v>11.670171</v>
+      </c>
+      <c r="AQ146">
+        <v>11.2953419</v>
+      </c>
+      <c r="AS146">
+        <v>11.2499169</v>
+      </c>
+      <c r="AT146">
+        <v>24.5334944</v>
+      </c>
+      <c r="AU146">
+        <v>20.9010626</v>
+      </c>
+      <c r="AV146">
+        <v>16.1360694</v>
+      </c>
+      <c r="AW146">
+        <v>25.4589453</v>
+      </c>
+      <c r="AX146">
+        <v>20.273411</v>
+      </c>
+      <c r="AY146">
+        <v>13.9455758</v>
+      </c>
+      <c r="BA146">
+        <v>10.5447589</v>
+      </c>
+      <c r="BB146">
+        <v>13.4089693</v>
+      </c>
+      <c r="BC146">
+        <v>13.9999813</v>
+      </c>
+      <c r="BD146">
+        <v>13.6277023</v>
+      </c>
+      <c r="BE146">
+        <v>14.4864613</v>
+      </c>
+    </row>
+    <row r="147" spans="1:57">
+      <c r="A147" t="s">
+        <v>201</v>
+      </c>
+      <c r="B147">
+        <v>16.9937206</v>
+      </c>
+      <c r="C147">
+        <v>23.9362063</v>
+      </c>
+      <c r="D147">
+        <v>21.3845834</v>
+      </c>
+      <c r="F147">
+        <v>26.1843834</v>
+      </c>
+      <c r="G147">
+        <v>13.9620312</v>
+      </c>
+      <c r="H147">
+        <v>12.916085</v>
+      </c>
+      <c r="I147">
+        <v>10.4653022</v>
+      </c>
+      <c r="J147">
+        <v>14.4823067</v>
+      </c>
+      <c r="K147">
+        <v>13.9290012</v>
+      </c>
+      <c r="L147">
+        <v>18.8108153</v>
+      </c>
+      <c r="M147">
+        <v>19.1794568</v>
+      </c>
+      <c r="O147">
+        <v>10.9620419</v>
+      </c>
+      <c r="P147">
+        <v>21.4057367</v>
+      </c>
+      <c r="Q147">
+        <v>18.342754</v>
+      </c>
+      <c r="R147">
+        <v>12.8101213</v>
+      </c>
+      <c r="S147">
+        <v>18.1841856</v>
+      </c>
+      <c r="T147">
+        <v>16.5770114</v>
+      </c>
+      <c r="U147">
+        <v>15.9757011</v>
+      </c>
+      <c r="V147">
+        <v>23.6984248</v>
+      </c>
+      <c r="W147">
+        <v>11.4206894</v>
+      </c>
+      <c r="X147">
+        <v>13.4838192</v>
+      </c>
+      <c r="Y147">
+        <v>10.3614833</v>
+      </c>
+      <c r="Z147">
+        <v>11.2238289</v>
+      </c>
+      <c r="AA147">
+        <v>15.2991228</v>
+      </c>
+      <c r="AB147">
+        <v>16.4231594</v>
+      </c>
+      <c r="AD147">
+        <v>24.2064887</v>
+      </c>
+      <c r="AE147">
+        <v>13.7672723</v>
+      </c>
+      <c r="AF147">
+        <v>17.4648305</v>
+      </c>
+      <c r="AG147">
+        <v>18.0676623</v>
+      </c>
+      <c r="AH147">
+        <v>18.2890104</v>
+      </c>
+      <c r="AI147">
+        <v>9.9858607</v>
+      </c>
+      <c r="AJ147">
+        <v>12.6734429</v>
+      </c>
+      <c r="AK147">
+        <v>15.0338561</v>
+      </c>
+      <c r="AL147">
+        <v>15.7220826</v>
+      </c>
+      <c r="AM147">
+        <v>11.9733308</v>
+      </c>
+      <c r="AN147">
+        <v>13.5822707</v>
+      </c>
+      <c r="AO147">
+        <v>20.8169737</v>
+      </c>
+      <c r="AP147">
+        <v>12.1027921</v>
+      </c>
+      <c r="AQ147">
+        <v>11.3888872</v>
+      </c>
+      <c r="AS147">
+        <v>11.5383538</v>
+      </c>
+      <c r="AT147">
+        <v>25.9422008</v>
+      </c>
+      <c r="AU147">
+        <v>21.1213371</v>
+      </c>
+      <c r="AV147">
+        <v>17.0203399</v>
+      </c>
+      <c r="AW147">
+        <v>26.4850715</v>
+      </c>
+      <c r="AX147">
+        <v>20.9381511</v>
+      </c>
+      <c r="AY147">
+        <v>13.9121521</v>
+      </c>
+      <c r="BA147">
+        <v>10.8428927</v>
+      </c>
+      <c r="BB147">
+        <v>13.3538857</v>
+      </c>
+      <c r="BC147">
+        <v>14.4330377</v>
+      </c>
+      <c r="BD147">
+        <v>13.9714395</v>
+      </c>
+      <c r="BE147">
+        <v>15.4602689</v>
+      </c>
+    </row>
+    <row r="148" spans="1:57">
+      <c r="A148" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
   <si>
     <t>Alaska</t>
   </si>
@@ -656,6 +656,30 @@
   </si>
   <si>
     <t>07 07 2020</t>
+  </si>
+  <si>
+    <t>08 07 2020</t>
+  </si>
+  <si>
+    <t>09 07 2020</t>
+  </si>
+  <si>
+    <t>10 07 2020</t>
+  </si>
+  <si>
+    <t>11 07 2020</t>
+  </si>
+  <si>
+    <t>12 07 2020</t>
+  </si>
+  <si>
+    <t>13 07 2020</t>
+  </si>
+  <si>
+    <t>14 07 2020</t>
+  </si>
+  <si>
+    <t>15 07 2020</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE159"/>
+  <dimension ref="A1:BE167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12157,6 +12181,9 @@
       <c r="AQ142">
         <v>11.3918073</v>
       </c>
+      <c r="AR142">
+        <v>9.6638655</v>
+      </c>
       <c r="AS142">
         <v>11.8782537</v>
       </c>
@@ -12315,6 +12342,9 @@
       <c r="AQ143">
         <v>11.3086483</v>
       </c>
+      <c r="AR143">
+        <v>14.1026846</v>
+      </c>
       <c r="AS143">
         <v>11.5487716</v>
       </c>
@@ -12473,6 +12503,9 @@
       <c r="AQ144">
         <v>11.3603624</v>
       </c>
+      <c r="AR144">
+        <v>12.5000302</v>
+      </c>
       <c r="AS144">
         <v>10.9600925</v>
       </c>
@@ -12631,6 +12664,9 @@
       <c r="AQ145">
         <v>11.5125593</v>
       </c>
+      <c r="AR145">
+        <v>6.3433735</v>
+      </c>
       <c r="AS145">
         <v>10.8506175</v>
       </c>
@@ -12789,6 +12825,9 @@
       <c r="AQ146">
         <v>11.2953419</v>
       </c>
+      <c r="AR146">
+        <v>9.9206349</v>
+      </c>
       <c r="AS146">
         <v>11.2499169</v>
       </c>
@@ -12947,6 +12986,9 @@
       <c r="AQ147">
         <v>11.3888872</v>
       </c>
+      <c r="AR147">
+        <v>12.3188934</v>
+      </c>
       <c r="AS147">
         <v>11.5383538</v>
       </c>
@@ -14262,7 +14304,7 @@
         <v>23.7480299</v>
       </c>
       <c r="F156">
-        <v>32.4680664</v>
+        <v>32.4653096</v>
       </c>
       <c r="G156">
         <v>17.1070357</v>
@@ -14420,7 +14462,7 @@
         <v>23.3882875</v>
       </c>
       <c r="F157">
-        <v>32.7817647</v>
+        <v>32.7789865</v>
       </c>
       <c r="G157">
         <v>17.3981546</v>
@@ -14459,25 +14501,25 @@
         <v>19.6919228</v>
       </c>
       <c r="T157">
-        <v>20.1720122</v>
+        <v>20.1683719</v>
       </c>
       <c r="U157">
         <v>17.691595</v>
       </c>
       <c r="V157">
-        <v>29.4615414</v>
+        <v>29.4708224</v>
       </c>
       <c r="W157">
         <v>10.8001887</v>
       </c>
       <c r="X157">
-        <v>12.8365451</v>
+        <v>12.8346568</v>
       </c>
       <c r="Y157">
         <v>9.204961900000001</v>
       </c>
       <c r="Z157">
-        <v>12.7940221</v>
+        <v>12.7986214</v>
       </c>
       <c r="AA157">
         <v>16.5790662</v>
@@ -14498,7 +14540,7 @@
         <v>17.9027308</v>
       </c>
       <c r="AH157">
-        <v>21.219769</v>
+        <v>21.213696</v>
       </c>
       <c r="AI157">
         <v>9.691144</v>
@@ -14525,7 +14567,7 @@
         <v>12.8146492</v>
       </c>
       <c r="AQ157">
-        <v>12.4915898</v>
+        <v>12.4952696</v>
       </c>
       <c r="AS157">
         <v>10.7712467</v>
@@ -14540,7 +14582,7 @@
         <v>21.4857692</v>
       </c>
       <c r="AW157">
-        <v>33.7060345</v>
+        <v>33.705177</v>
       </c>
       <c r="AX157">
         <v>25.2997092</v>
@@ -14552,7 +14594,7 @@
         <v>9.669817200000001</v>
       </c>
       <c r="BB157">
-        <v>14.908385</v>
+        <v>14.9071715</v>
       </c>
       <c r="BC157">
         <v>16.8518046</v>
@@ -14568,10 +14610,1427 @@
       <c r="A158" t="s">
         <v>212</v>
       </c>
+      <c r="B158">
+        <v>16.9183253</v>
+      </c>
+      <c r="C158">
+        <v>29.5143513</v>
+      </c>
+      <c r="D158">
+        <v>24.107177</v>
+      </c>
+      <c r="F158">
+        <v>33.3704249</v>
+      </c>
+      <c r="G158">
+        <v>17.6924464</v>
+      </c>
+      <c r="H158">
+        <v>14.8147658</v>
+      </c>
+      <c r="I158">
+        <v>10.2229111</v>
+      </c>
+      <c r="J158">
+        <v>13.9324487</v>
+      </c>
+      <c r="K158">
+        <v>14.7277228</v>
+      </c>
+      <c r="L158">
+        <v>26.3150971</v>
+      </c>
+      <c r="M158">
+        <v>25.6116608</v>
+      </c>
+      <c r="O158">
+        <v>10.7705287</v>
+      </c>
+      <c r="P158">
+        <v>24.528655</v>
+      </c>
+      <c r="Q158">
+        <v>25.3590334</v>
+      </c>
+      <c r="R158">
+        <v>13.4592071</v>
+      </c>
+      <c r="S158">
+        <v>19.9827343</v>
+      </c>
+      <c r="T158">
+        <v>20.4922932</v>
+      </c>
+      <c r="U158">
+        <v>17.6406222</v>
+      </c>
+      <c r="V158">
+        <v>30.1696393</v>
+      </c>
+      <c r="W158">
+        <v>10.475409</v>
+      </c>
+      <c r="X158">
+        <v>13.0648484</v>
+      </c>
+      <c r="Y158">
+        <v>9.9</v>
+      </c>
+      <c r="Z158">
+        <v>13.3700591</v>
+      </c>
+      <c r="AA158">
+        <v>16.4760546</v>
+      </c>
+      <c r="AB158">
+        <v>19.1893983</v>
+      </c>
+      <c r="AD158">
+        <v>28.7638491</v>
+      </c>
+      <c r="AE158">
+        <v>18.4329957</v>
+      </c>
+      <c r="AF158">
+        <v>19.6781178</v>
+      </c>
+      <c r="AG158">
+        <v>19.1976577</v>
+      </c>
+      <c r="AH158">
+        <v>21.2905758</v>
+      </c>
+      <c r="AI158">
+        <v>10.0958565</v>
+      </c>
+      <c r="AJ158">
+        <v>11.642863</v>
+      </c>
+      <c r="AK158">
+        <v>16.4989034</v>
+      </c>
+      <c r="AL158">
+        <v>20.0819124</v>
+      </c>
+      <c r="AM158">
+        <v>10.9822438</v>
+      </c>
+      <c r="AN158">
+        <v>15.9457223</v>
+      </c>
+      <c r="AO158">
+        <v>25.3034962</v>
+      </c>
+      <c r="AP158">
+        <v>12.9228472</v>
+      </c>
+      <c r="AQ158">
+        <v>12.7566773</v>
+      </c>
+      <c r="AS158">
+        <v>10.8671279</v>
+      </c>
+      <c r="AT158">
+        <v>30.1666944</v>
+      </c>
+      <c r="AU158">
+        <v>21.6263594</v>
+      </c>
+      <c r="AV158">
+        <v>21.9745574</v>
+      </c>
+      <c r="AW158">
+        <v>34.1965975</v>
+      </c>
+      <c r="AX158">
+        <v>24.8026304</v>
+      </c>
+      <c r="AY158">
+        <v>15.4307353</v>
+      </c>
+      <c r="BA158">
+        <v>9.700578500000001</v>
+      </c>
+      <c r="BB158">
+        <v>15.4091442</v>
+      </c>
+      <c r="BC158">
+        <v>17.1123663</v>
+      </c>
+      <c r="BD158">
+        <v>17.1643016</v>
+      </c>
+      <c r="BE158">
+        <v>15.8328005</v>
+      </c>
     </row>
     <row r="159" spans="1:57">
       <c r="A159" t="s">
         <v>213</v>
+      </c>
+      <c r="B159">
+        <v>18.540096</v>
+      </c>
+      <c r="C159">
+        <v>30.3507816</v>
+      </c>
+      <c r="D159">
+        <v>23.9970369</v>
+      </c>
+      <c r="F159">
+        <v>33.802515</v>
+      </c>
+      <c r="G159">
+        <v>18.0073822</v>
+      </c>
+      <c r="H159">
+        <v>14.8983356</v>
+      </c>
+      <c r="I159">
+        <v>10.1358924</v>
+      </c>
+      <c r="J159">
+        <v>14.1420118</v>
+      </c>
+      <c r="K159">
+        <v>15.097561</v>
+      </c>
+      <c r="L159">
+        <v>26.7837643</v>
+      </c>
+      <c r="M159">
+        <v>26.2870662</v>
+      </c>
+      <c r="O159">
+        <v>11.3264192</v>
+      </c>
+      <c r="P159">
+        <v>24.9419881</v>
+      </c>
+      <c r="Q159">
+        <v>26.7417414</v>
+      </c>
+      <c r="R159">
+        <v>13.8691768</v>
+      </c>
+      <c r="S159">
+        <v>20.102531</v>
+      </c>
+      <c r="T159">
+        <v>21.5423498</v>
+      </c>
+      <c r="U159">
+        <v>18.6622986</v>
+      </c>
+      <c r="V159">
+        <v>31.2915365</v>
+      </c>
+      <c r="W159">
+        <v>10.4951572</v>
+      </c>
+      <c r="X159">
+        <v>13.3537736</v>
+      </c>
+      <c r="Y159">
+        <v>10.1571114</v>
+      </c>
+      <c r="Z159">
+        <v>13.5461185</v>
+      </c>
+      <c r="AA159">
+        <v>16.5215635</v>
+      </c>
+      <c r="AB159">
+        <v>19.7837845</v>
+      </c>
+      <c r="AD159">
+        <v>29.4474594</v>
+      </c>
+      <c r="AE159">
+        <v>18.7756844</v>
+      </c>
+      <c r="AF159">
+        <v>19.9430736</v>
+      </c>
+      <c r="AG159">
+        <v>18.157946</v>
+      </c>
+      <c r="AH159">
+        <v>21.1176784</v>
+      </c>
+      <c r="AI159">
+        <v>10.3566122</v>
+      </c>
+      <c r="AJ159">
+        <v>11.6876809</v>
+      </c>
+      <c r="AK159">
+        <v>17.1188141</v>
+      </c>
+      <c r="AL159">
+        <v>20.2281426</v>
+      </c>
+      <c r="AM159">
+        <v>11.0039296</v>
+      </c>
+      <c r="AN159">
+        <v>16.387481</v>
+      </c>
+      <c r="AO159">
+        <v>25.547398</v>
+      </c>
+      <c r="AP159">
+        <v>13.2311248</v>
+      </c>
+      <c r="AQ159">
+        <v>12.6931724</v>
+      </c>
+      <c r="AS159">
+        <v>10.8970687</v>
+      </c>
+      <c r="AT159">
+        <v>30.105139</v>
+      </c>
+      <c r="AU159">
+        <v>21.9915205</v>
+      </c>
+      <c r="AV159">
+        <v>22.8504615</v>
+      </c>
+      <c r="AW159">
+        <v>34.7858815</v>
+      </c>
+      <c r="AX159">
+        <v>25.0153675</v>
+      </c>
+      <c r="AY159">
+        <v>15.6163363</v>
+      </c>
+      <c r="BA159">
+        <v>8.601823</v>
+      </c>
+      <c r="BB159">
+        <v>15.7853958</v>
+      </c>
+      <c r="BC159">
+        <v>17.3608334</v>
+      </c>
+      <c r="BD159">
+        <v>17.542068</v>
+      </c>
+      <c r="BE159">
+        <v>16.6247329</v>
+      </c>
+    </row>
+    <row r="160" spans="1:57">
+      <c r="A160" t="s">
+        <v>214</v>
+      </c>
+      <c r="B160">
+        <v>18.197634</v>
+      </c>
+      <c r="C160">
+        <v>31.4844674</v>
+      </c>
+      <c r="D160">
+        <v>24.0797015</v>
+      </c>
+      <c r="F160">
+        <v>33.7000066</v>
+      </c>
+      <c r="G160">
+        <v>18.5504864</v>
+      </c>
+      <c r="H160">
+        <v>15.3646456</v>
+      </c>
+      <c r="I160">
+        <v>9.551384499999999</v>
+      </c>
+      <c r="J160">
+        <v>14.0423032</v>
+      </c>
+      <c r="K160">
+        <v>15.4932735</v>
+      </c>
+      <c r="L160">
+        <v>27.3962847</v>
+      </c>
+      <c r="M160">
+        <v>27.3502762</v>
+      </c>
+      <c r="O160">
+        <v>10.3878116</v>
+      </c>
+      <c r="P160">
+        <v>25.839906</v>
+      </c>
+      <c r="Q160">
+        <v>27.6209115</v>
+      </c>
+      <c r="R160">
+        <v>14.2405344</v>
+      </c>
+      <c r="S160">
+        <v>20.382524</v>
+      </c>
+      <c r="T160">
+        <v>21.9070784</v>
+      </c>
+      <c r="U160">
+        <v>18.5532281</v>
+      </c>
+      <c r="V160">
+        <v>31.7126262</v>
+      </c>
+      <c r="W160">
+        <v>10.5243153</v>
+      </c>
+      <c r="X160">
+        <v>13.2871455</v>
+      </c>
+      <c r="Y160">
+        <v>9.926656599999999</v>
+      </c>
+      <c r="Z160">
+        <v>13.7146305</v>
+      </c>
+      <c r="AA160">
+        <v>17.0930184</v>
+      </c>
+      <c r="AB160">
+        <v>19.7885177</v>
+      </c>
+      <c r="AD160">
+        <v>30.3346846</v>
+      </c>
+      <c r="AE160">
+        <v>19.7161342</v>
+      </c>
+      <c r="AF160">
+        <v>19.992823</v>
+      </c>
+      <c r="AG160">
+        <v>18.6846111</v>
+      </c>
+      <c r="AH160">
+        <v>21.4337795</v>
+      </c>
+      <c r="AI160">
+        <v>10.2089805</v>
+      </c>
+      <c r="AJ160">
+        <v>11.7189474</v>
+      </c>
+      <c r="AK160">
+        <v>17.1653453</v>
+      </c>
+      <c r="AL160">
+        <v>21.2486593</v>
+      </c>
+      <c r="AM160">
+        <v>11.1026743</v>
+      </c>
+      <c r="AN160">
+        <v>16.6487976</v>
+      </c>
+      <c r="AO160">
+        <v>26.3150892</v>
+      </c>
+      <c r="AP160">
+        <v>13.8597935</v>
+      </c>
+      <c r="AQ160">
+        <v>12.9421702</v>
+      </c>
+      <c r="AS160">
+        <v>11.1516148</v>
+      </c>
+      <c r="AT160">
+        <v>30.6113227</v>
+      </c>
+      <c r="AU160">
+        <v>21.1885529</v>
+      </c>
+      <c r="AV160">
+        <v>23.4921564</v>
+      </c>
+      <c r="AW160">
+        <v>34.9544485</v>
+      </c>
+      <c r="AX160">
+        <v>25.3308189</v>
+      </c>
+      <c r="AY160">
+        <v>16.1464001</v>
+      </c>
+      <c r="BA160">
+        <v>9.5851764</v>
+      </c>
+      <c r="BB160">
+        <v>16.2511838</v>
+      </c>
+      <c r="BC160">
+        <v>17.4881269</v>
+      </c>
+      <c r="BD160">
+        <v>17.8434843</v>
+      </c>
+      <c r="BE160">
+        <v>16.8749846</v>
+      </c>
+    </row>
+    <row r="161" spans="1:57">
+      <c r="A161" t="s">
+        <v>215</v>
+      </c>
+      <c r="B161">
+        <v>19.7042641</v>
+      </c>
+      <c r="C161">
+        <v>32.5005568</v>
+      </c>
+      <c r="D161">
+        <v>24.4717329</v>
+      </c>
+      <c r="F161">
+        <v>33.663415</v>
+      </c>
+      <c r="G161">
+        <v>18.890091</v>
+      </c>
+      <c r="H161">
+        <v>15.5951172</v>
+      </c>
+      <c r="I161">
+        <v>9.735512999999999</v>
+      </c>
+      <c r="J161">
+        <v>14.5314353</v>
+      </c>
+      <c r="K161">
+        <v>15.7330652</v>
+      </c>
+      <c r="L161">
+        <v>27.6561341</v>
+      </c>
+      <c r="M161">
+        <v>28.3518815</v>
+      </c>
+      <c r="O161">
+        <v>10.5304212</v>
+      </c>
+      <c r="P161">
+        <v>26.249919</v>
+      </c>
+      <c r="Q161">
+        <v>27.8090574</v>
+      </c>
+      <c r="R161">
+        <v>14.8367973</v>
+      </c>
+      <c r="S161">
+        <v>21.1088812</v>
+      </c>
+      <c r="T161">
+        <v>22.8405003</v>
+      </c>
+      <c r="U161">
+        <v>18.8234783</v>
+      </c>
+      <c r="V161">
+        <v>32.50586</v>
+      </c>
+      <c r="W161">
+        <v>10.8127532</v>
+      </c>
+      <c r="X161">
+        <v>13.6640493</v>
+      </c>
+      <c r="Y161">
+        <v>10.6006583</v>
+      </c>
+      <c r="Z161">
+        <v>14.2797998</v>
+      </c>
+      <c r="AA161">
+        <v>17.2841197</v>
+      </c>
+      <c r="AB161">
+        <v>20.654161</v>
+      </c>
+      <c r="AD161">
+        <v>30.5350005</v>
+      </c>
+      <c r="AE161">
+        <v>19.9262169</v>
+      </c>
+      <c r="AF161">
+        <v>20.2679215</v>
+      </c>
+      <c r="AG161">
+        <v>18.5492036</v>
+      </c>
+      <c r="AH161">
+        <v>21.4314004</v>
+      </c>
+      <c r="AI161">
+        <v>10.5608046</v>
+      </c>
+      <c r="AJ161">
+        <v>11.7918518</v>
+      </c>
+      <c r="AK161">
+        <v>16.8835545</v>
+      </c>
+      <c r="AL161">
+        <v>21.3683338</v>
+      </c>
+      <c r="AM161">
+        <v>11.3579482</v>
+      </c>
+      <c r="AN161">
+        <v>16.8949676</v>
+      </c>
+      <c r="AO161">
+        <v>26.9110247</v>
+      </c>
+      <c r="AP161">
+        <v>14.3032515</v>
+      </c>
+      <c r="AQ161">
+        <v>13.2085646</v>
+      </c>
+      <c r="AS161">
+        <v>11.7751507</v>
+      </c>
+      <c r="AT161">
+        <v>30.9650017</v>
+      </c>
+      <c r="AU161">
+        <v>22.6290361</v>
+      </c>
+      <c r="AV161">
+        <v>24.1840717</v>
+      </c>
+      <c r="AW161">
+        <v>35.6002134</v>
+      </c>
+      <c r="AX161">
+        <v>25.122235</v>
+      </c>
+      <c r="AY161">
+        <v>16.1649252</v>
+      </c>
+      <c r="BA161">
+        <v>8.5948767</v>
+      </c>
+      <c r="BB161">
+        <v>16.4536366</v>
+      </c>
+      <c r="BC161">
+        <v>18.0352443</v>
+      </c>
+      <c r="BD161">
+        <v>18.0270042</v>
+      </c>
+      <c r="BE161">
+        <v>17.4189924</v>
+      </c>
+    </row>
+    <row r="162" spans="1:57">
+      <c r="A162" t="s">
+        <v>216</v>
+      </c>
+      <c r="B162">
+        <v>20.382372</v>
+      </c>
+      <c r="C162">
+        <v>32.4618765</v>
+      </c>
+      <c r="D162">
+        <v>24.6116366</v>
+      </c>
+      <c r="F162">
+        <v>34.0362763</v>
+      </c>
+      <c r="G162">
+        <v>19.1068955</v>
+      </c>
+      <c r="H162">
+        <v>15.9813237</v>
+      </c>
+      <c r="I162">
+        <v>9.470913100000001</v>
+      </c>
+      <c r="J162">
+        <v>14.0736342</v>
+      </c>
+      <c r="K162">
+        <v>15.7998252</v>
+      </c>
+      <c r="L162">
+        <v>28.0292812</v>
+      </c>
+      <c r="M162">
+        <v>29.2316447</v>
+      </c>
+      <c r="O162">
+        <v>10.6965174</v>
+      </c>
+      <c r="P162">
+        <v>26.3172584</v>
+      </c>
+      <c r="Q162">
+        <v>28.055521</v>
+      </c>
+      <c r="R162">
+        <v>15.4020479</v>
+      </c>
+      <c r="S162">
+        <v>21.6407044</v>
+      </c>
+      <c r="T162">
+        <v>23.6480803</v>
+      </c>
+      <c r="U162">
+        <v>19.2725137</v>
+      </c>
+      <c r="V162">
+        <v>33.4794689</v>
+      </c>
+      <c r="W162">
+        <v>10.99812</v>
+      </c>
+      <c r="X162">
+        <v>13.6256903</v>
+      </c>
+      <c r="Y162">
+        <v>10.2540355</v>
+      </c>
+      <c r="Z162">
+        <v>14.5724986</v>
+      </c>
+      <c r="AA162">
+        <v>17.7304814</v>
+      </c>
+      <c r="AB162">
+        <v>20.9043963</v>
+      </c>
+      <c r="AD162">
+        <v>31.3898123</v>
+      </c>
+      <c r="AE162">
+        <v>18.7238945</v>
+      </c>
+      <c r="AF162">
+        <v>20.2710843</v>
+      </c>
+      <c r="AG162">
+        <v>20.8673608</v>
+      </c>
+      <c r="AH162">
+        <v>21.6024612</v>
+      </c>
+      <c r="AI162">
+        <v>10.4267425</v>
+      </c>
+      <c r="AJ162">
+        <v>11.7741789</v>
+      </c>
+      <c r="AK162">
+        <v>17.3505791</v>
+      </c>
+      <c r="AL162">
+        <v>22.5339997</v>
+      </c>
+      <c r="AM162">
+        <v>11.5262973</v>
+      </c>
+      <c r="AN162">
+        <v>17.1613543</v>
+      </c>
+      <c r="AO162">
+        <v>27.7904621</v>
+      </c>
+      <c r="AP162">
+        <v>14.2139927</v>
+      </c>
+      <c r="AQ162">
+        <v>13.6003307</v>
+      </c>
+      <c r="AS162">
+        <v>11.6738569</v>
+      </c>
+      <c r="AT162">
+        <v>31.6753206</v>
+      </c>
+      <c r="AU162">
+        <v>22.6671</v>
+      </c>
+      <c r="AV162">
+        <v>24.630052</v>
+      </c>
+      <c r="AW162">
+        <v>36.0287863</v>
+      </c>
+      <c r="AX162">
+        <v>25.8646409</v>
+      </c>
+      <c r="AY162">
+        <v>16.479992</v>
+      </c>
+      <c r="BA162">
+        <v>8.480681499999999</v>
+      </c>
+      <c r="BB162">
+        <v>16.9239729</v>
+      </c>
+      <c r="BC162">
+        <v>18.8778053</v>
+      </c>
+      <c r="BD162">
+        <v>18.4857864</v>
+      </c>
+      <c r="BE162">
+        <v>19.0715124</v>
+      </c>
+    </row>
+    <row r="163" spans="1:57">
+      <c r="A163" t="s">
+        <v>217</v>
+      </c>
+      <c r="B163">
+        <v>20.1459391</v>
+      </c>
+      <c r="C163">
+        <v>33.1856147</v>
+      </c>
+      <c r="D163">
+        <v>24.9718846</v>
+      </c>
+      <c r="F163">
+        <v>33.675882</v>
+      </c>
+      <c r="G163">
+        <v>19.5523072</v>
+      </c>
+      <c r="H163">
+        <v>16.1401716</v>
+      </c>
+      <c r="I163">
+        <v>9.980370499999999</v>
+      </c>
+      <c r="J163">
+        <v>14.0642939</v>
+      </c>
+      <c r="K163">
+        <v>16.0867698</v>
+      </c>
+      <c r="L163">
+        <v>28.4399577</v>
+      </c>
+      <c r="M163">
+        <v>29.8730243</v>
+      </c>
+      <c r="O163">
+        <v>11.0353535</v>
+      </c>
+      <c r="P163">
+        <v>26.8472813</v>
+      </c>
+      <c r="Q163">
+        <v>28.4823756</v>
+      </c>
+      <c r="R163">
+        <v>15.9794238</v>
+      </c>
+      <c r="S163">
+        <v>21.5582374</v>
+      </c>
+      <c r="T163">
+        <v>23.9433336</v>
+      </c>
+      <c r="U163">
+        <v>19.3815299</v>
+      </c>
+      <c r="V163">
+        <v>33.7468987</v>
+      </c>
+      <c r="W163">
+        <v>10.8430414</v>
+      </c>
+      <c r="X163">
+        <v>13.7605188</v>
+      </c>
+      <c r="Y163">
+        <v>10.3998961</v>
+      </c>
+      <c r="Z163">
+        <v>14.7176725</v>
+      </c>
+      <c r="AA163">
+        <v>18.0537978</v>
+      </c>
+      <c r="AB163">
+        <v>21.2060415</v>
+      </c>
+      <c r="AD163">
+        <v>31.7221948</v>
+      </c>
+      <c r="AE163">
+        <v>19.8526649</v>
+      </c>
+      <c r="AF163">
+        <v>20.4488728</v>
+      </c>
+      <c r="AG163">
+        <v>19.7551759</v>
+      </c>
+      <c r="AH163">
+        <v>21.710834</v>
+      </c>
+      <c r="AI163">
+        <v>10.1017042</v>
+      </c>
+      <c r="AJ163">
+        <v>11.8543623</v>
+      </c>
+      <c r="AK163">
+        <v>17.7799838</v>
+      </c>
+      <c r="AL163">
+        <v>23.3497166</v>
+      </c>
+      <c r="AM163">
+        <v>11.7677035</v>
+      </c>
+      <c r="AN163">
+        <v>17.6238576</v>
+      </c>
+      <c r="AO163">
+        <v>27.6707333</v>
+      </c>
+      <c r="AP163">
+        <v>14.5636303</v>
+      </c>
+      <c r="AQ163">
+        <v>13.675631</v>
+      </c>
+      <c r="AS163">
+        <v>11.8656667</v>
+      </c>
+      <c r="AT163">
+        <v>31.8462533</v>
+      </c>
+      <c r="AU163">
+        <v>23.1889159</v>
+      </c>
+      <c r="AV163">
+        <v>24.8443858</v>
+      </c>
+      <c r="AW163">
+        <v>36.6818059</v>
+      </c>
+      <c r="AX163">
+        <v>25.6927497</v>
+      </c>
+      <c r="AY163">
+        <v>16.6324797</v>
+      </c>
+      <c r="BA163">
+        <v>9.6381801</v>
+      </c>
+      <c r="BB163">
+        <v>17.0988719</v>
+      </c>
+      <c r="BC163">
+        <v>19.4696877</v>
+      </c>
+      <c r="BD163">
+        <v>18.5877909</v>
+      </c>
+      <c r="BE163">
+        <v>19.2370293</v>
+      </c>
+    </row>
+    <row r="164" spans="1:57">
+      <c r="A164" t="s">
+        <v>218</v>
+      </c>
+      <c r="B164">
+        <v>21.0140306</v>
+      </c>
+      <c r="C164">
+        <v>33.6131484</v>
+      </c>
+      <c r="D164">
+        <v>25.1359934</v>
+      </c>
+      <c r="F164">
+        <v>34.0000635</v>
+      </c>
+      <c r="G164">
+        <v>19.8873091</v>
+      </c>
+      <c r="H164">
+        <v>16.1697976</v>
+      </c>
+      <c r="I164">
+        <v>9.966300499999999</v>
+      </c>
+      <c r="J164">
+        <v>13.396861</v>
+      </c>
+      <c r="K164">
+        <v>16.8050699</v>
+      </c>
+      <c r="L164">
+        <v>28.7717943</v>
+      </c>
+      <c r="M164">
+        <v>30.6282619</v>
+      </c>
+      <c r="O164">
+        <v>11.1602497</v>
+      </c>
+      <c r="P164">
+        <v>27.3507073</v>
+      </c>
+      <c r="Q164">
+        <v>29.102253</v>
+      </c>
+      <c r="R164">
+        <v>16.2861879</v>
+      </c>
+      <c r="S164">
+        <v>22.1573037</v>
+      </c>
+      <c r="T164">
+        <v>24.7486555</v>
+      </c>
+      <c r="U164">
+        <v>20.0155098</v>
+      </c>
+      <c r="V164">
+        <v>34.0333781</v>
+      </c>
+      <c r="W164">
+        <v>11.041463</v>
+      </c>
+      <c r="X164">
+        <v>14.2828296</v>
+      </c>
+      <c r="Y164">
+        <v>10.9900457</v>
+      </c>
+      <c r="Z164">
+        <v>15.0396092</v>
+      </c>
+      <c r="AA164">
+        <v>18.4962669</v>
+      </c>
+      <c r="AB164">
+        <v>21.8253941</v>
+      </c>
+      <c r="AD164">
+        <v>33.1677202</v>
+      </c>
+      <c r="AE164">
+        <v>19.2988576</v>
+      </c>
+      <c r="AF164">
+        <v>20.6208636</v>
+      </c>
+      <c r="AG164">
+        <v>21.0689236</v>
+      </c>
+      <c r="AH164">
+        <v>21.7470439</v>
+      </c>
+      <c r="AI164">
+        <v>10.2026457</v>
+      </c>
+      <c r="AJ164">
+        <v>11.8747435</v>
+      </c>
+      <c r="AK164">
+        <v>17.6386579</v>
+      </c>
+      <c r="AL164">
+        <v>23.367593</v>
+      </c>
+      <c r="AM164">
+        <v>11.9330541</v>
+      </c>
+      <c r="AN164">
+        <v>18.3314672</v>
+      </c>
+      <c r="AO164">
+        <v>27.9180883</v>
+      </c>
+      <c r="AP164">
+        <v>15.0514105</v>
+      </c>
+      <c r="AQ164">
+        <v>13.736239</v>
+      </c>
+      <c r="AS164">
+        <v>11.389702</v>
+      </c>
+      <c r="AT164">
+        <v>32.2731426</v>
+      </c>
+      <c r="AU164">
+        <v>23.2163726</v>
+      </c>
+      <c r="AV164">
+        <v>25.7752316</v>
+      </c>
+      <c r="AW164">
+        <v>36.8295252</v>
+      </c>
+      <c r="AX164">
+        <v>26.2702635</v>
+      </c>
+      <c r="AY164">
+        <v>16.906638</v>
+      </c>
+      <c r="BA164">
+        <v>8.4644455</v>
+      </c>
+      <c r="BB164">
+        <v>16.9925478</v>
+      </c>
+      <c r="BC164">
+        <v>19.5397754</v>
+      </c>
+      <c r="BD164">
+        <v>19.4989579</v>
+      </c>
+      <c r="BE164">
+        <v>19.7099731</v>
+      </c>
+    </row>
+    <row r="165" spans="1:57">
+      <c r="A165" t="s">
+        <v>219</v>
+      </c>
+      <c r="B165">
+        <v>21.0707577</v>
+      </c>
+      <c r="C165">
+        <v>35.0592101</v>
+      </c>
+      <c r="D165">
+        <v>25.6044353</v>
+      </c>
+      <c r="F165">
+        <v>33.9178388</v>
+      </c>
+      <c r="G165">
+        <v>20.1835229</v>
+      </c>
+      <c r="H165">
+        <v>16.2827761</v>
+      </c>
+      <c r="I165">
+        <v>10.2342095</v>
+      </c>
+      <c r="J165">
+        <v>12.962963</v>
+      </c>
+      <c r="K165">
+        <v>16.7743325</v>
+      </c>
+      <c r="L165">
+        <v>29.3247194</v>
+      </c>
+      <c r="M165">
+        <v>31.2932619</v>
+      </c>
+      <c r="O165">
+        <v>11.316568</v>
+      </c>
+      <c r="P165">
+        <v>27.87526</v>
+      </c>
+      <c r="Q165">
+        <v>30.4004959</v>
+      </c>
+      <c r="R165">
+        <v>16.674027</v>
+      </c>
+      <c r="S165">
+        <v>22.1782766</v>
+      </c>
+      <c r="T165">
+        <v>25.2930529</v>
+      </c>
+      <c r="U165">
+        <v>20.4806406</v>
+      </c>
+      <c r="V165">
+        <v>34.3886942</v>
+      </c>
+      <c r="W165">
+        <v>11.0236526</v>
+      </c>
+      <c r="X165">
+        <v>14.2162917</v>
+      </c>
+      <c r="Y165">
+        <v>10.8833242</v>
+      </c>
+      <c r="Z165">
+        <v>15.0813544</v>
+      </c>
+      <c r="AA165">
+        <v>19.2787578</v>
+      </c>
+      <c r="AB165">
+        <v>22.2925693</v>
+      </c>
+      <c r="AD165">
+        <v>33.0277497</v>
+      </c>
+      <c r="AE165">
+        <v>20.0907005</v>
+      </c>
+      <c r="AF165">
+        <v>20.6148735</v>
+      </c>
+      <c r="AG165">
+        <v>21.0551163</v>
+      </c>
+      <c r="AH165">
+        <v>22.4085361</v>
+      </c>
+      <c r="AI165">
+        <v>10.3627672</v>
+      </c>
+      <c r="AJ165">
+        <v>11.8702682</v>
+      </c>
+      <c r="AK165">
+        <v>17.8907546</v>
+      </c>
+      <c r="AL165">
+        <v>24.1088139</v>
+      </c>
+      <c r="AM165">
+        <v>11.8892303</v>
+      </c>
+      <c r="AN165">
+        <v>18.677243</v>
+      </c>
+      <c r="AO165">
+        <v>27.9416774</v>
+      </c>
+      <c r="AP165">
+        <v>15.2937178</v>
+      </c>
+      <c r="AQ165">
+        <v>13.8130742</v>
+      </c>
+      <c r="AS165">
+        <v>11.4429624</v>
+      </c>
+      <c r="AT165">
+        <v>32.4104225</v>
+      </c>
+      <c r="AU165">
+        <v>22.8237693</v>
+      </c>
+      <c r="AV165">
+        <v>26.2592025</v>
+      </c>
+      <c r="AW165">
+        <v>36.5479858</v>
+      </c>
+      <c r="AX165">
+        <v>27.3497737</v>
+      </c>
+      <c r="AY165">
+        <v>17.3724394</v>
+      </c>
+      <c r="BA165">
+        <v>8.964498799999999</v>
+      </c>
+      <c r="BB165">
+        <v>17.1777709</v>
+      </c>
+      <c r="BC165">
+        <v>20.1971216</v>
+      </c>
+      <c r="BD165">
+        <v>19.1533166</v>
+      </c>
+      <c r="BE165">
+        <v>19.6826186</v>
+      </c>
+    </row>
+    <row r="166" spans="1:57">
+      <c r="A166" t="s">
+        <v>220</v>
+      </c>
+      <c r="B166">
+        <v>21.1761121</v>
+      </c>
+      <c r="C166">
+        <v>35.4318376</v>
+      </c>
+      <c r="D166">
+        <v>25.7271968</v>
+      </c>
+      <c r="F166">
+        <v>33.7522053</v>
+      </c>
+      <c r="G166">
+        <v>20.4414942</v>
+      </c>
+      <c r="H166">
+        <v>16.6002548</v>
+      </c>
+      <c r="I166">
+        <v>10.3587963</v>
+      </c>
+      <c r="J166">
+        <v>13.368669</v>
+      </c>
+      <c r="K166">
+        <v>17.0693028</v>
+      </c>
+      <c r="L166">
+        <v>29.6575934</v>
+      </c>
+      <c r="M166">
+        <v>31.6967999</v>
+      </c>
+      <c r="O166">
+        <v>11.3525391</v>
+      </c>
+      <c r="P166">
+        <v>27.8229325</v>
+      </c>
+      <c r="Q166">
+        <v>31.2854616</v>
+      </c>
+      <c r="R166">
+        <v>16.8814154</v>
+      </c>
+      <c r="S166">
+        <v>22.7565397</v>
+      </c>
+      <c r="T166">
+        <v>25.4999925</v>
+      </c>
+      <c r="U166">
+        <v>20.702807</v>
+      </c>
+      <c r="V166">
+        <v>34.0504716</v>
+      </c>
+      <c r="W166">
+        <v>11.1837746</v>
+      </c>
+      <c r="X166">
+        <v>14.251715</v>
+      </c>
+      <c r="Y166">
+        <v>10.543989</v>
+      </c>
+      <c r="Z166">
+        <v>15.2867517</v>
+      </c>
+      <c r="AA166">
+        <v>19.2937183</v>
+      </c>
+      <c r="AB166">
+        <v>22.1773134</v>
+      </c>
+      <c r="AD166">
+        <v>33.6324745</v>
+      </c>
+      <c r="AE166">
+        <v>19.8004753</v>
+      </c>
+      <c r="AF166">
+        <v>21.0336649</v>
+      </c>
+      <c r="AG166">
+        <v>20.937093</v>
+      </c>
+      <c r="AH166">
+        <v>22.4269818</v>
+      </c>
+      <c r="AI166">
+        <v>10.1571899</v>
+      </c>
+      <c r="AJ166">
+        <v>12.2255893</v>
+      </c>
+      <c r="AK166">
+        <v>18.6536533</v>
+      </c>
+      <c r="AL166">
+        <v>24.0143003</v>
+      </c>
+      <c r="AM166">
+        <v>11.6886585</v>
+      </c>
+      <c r="AN166">
+        <v>19.1965769</v>
+      </c>
+      <c r="AO166">
+        <v>28.1369815</v>
+      </c>
+      <c r="AP166">
+        <v>15.0680596</v>
+      </c>
+      <c r="AQ166">
+        <v>14.0810271</v>
+      </c>
+      <c r="AS166">
+        <v>11.2094101</v>
+      </c>
+      <c r="AT166">
+        <v>32.7838938</v>
+      </c>
+      <c r="AU166">
+        <v>24.5317403</v>
+      </c>
+      <c r="AV166">
+        <v>26.5720371</v>
+      </c>
+      <c r="AW166">
+        <v>36.6617892</v>
+      </c>
+      <c r="AX166">
+        <v>26.8216569</v>
+      </c>
+      <c r="AY166">
+        <v>17.6626752</v>
+      </c>
+      <c r="BA166">
+        <v>8.6423404</v>
+      </c>
+      <c r="BB166">
+        <v>17.3735058</v>
+      </c>
+      <c r="BC166">
+        <v>20.3850363</v>
+      </c>
+      <c r="BD166">
+        <v>19.1470154</v>
+      </c>
+      <c r="BE166">
+        <v>20.4452796</v>
+      </c>
+    </row>
+    <row r="167" spans="1:57">
+      <c r="A167" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>Alaska</t>
   </si>
@@ -680,6 +680,42 @@
   </si>
   <si>
     <t>15 07 2020</t>
+  </si>
+  <si>
+    <t>16 07 2020</t>
+  </si>
+  <si>
+    <t>17 07 2020</t>
+  </si>
+  <si>
+    <t>18 07 2020</t>
+  </si>
+  <si>
+    <t>19 07 2020</t>
+  </si>
+  <si>
+    <t>20 07 2020</t>
+  </si>
+  <si>
+    <t>21 07 2020</t>
+  </si>
+  <si>
+    <t>22 07 2020</t>
+  </si>
+  <si>
+    <t>23 07 2020</t>
+  </si>
+  <si>
+    <t>24 07 2020</t>
+  </si>
+  <si>
+    <t>25 07 2020</t>
+  </si>
+  <si>
+    <t>26 07 2020</t>
+  </si>
+  <si>
+    <t>27 07 2020</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE167"/>
+  <dimension ref="A1:BE179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13147,6 +13183,9 @@
       <c r="AQ148">
         <v>11.4180707</v>
       </c>
+      <c r="AR148">
+        <v>10.8000064</v>
+      </c>
       <c r="AS148">
         <v>10.9438953</v>
       </c>
@@ -13305,6 +13344,9 @@
       <c r="AQ149">
         <v>11.4588322</v>
       </c>
+      <c r="AR149">
+        <v>8.750039599999999</v>
+      </c>
       <c r="AS149">
         <v>10.6871981</v>
       </c>
@@ -13463,6 +13505,9 @@
       <c r="AQ150">
         <v>11.6316594</v>
       </c>
+      <c r="AR150">
+        <v>14.028734</v>
+      </c>
       <c r="AS150">
         <v>10.5516574</v>
       </c>
@@ -13621,6 +13666,9 @@
       <c r="AQ151">
         <v>11.7973133</v>
       </c>
+      <c r="AR151">
+        <v>16.6666667</v>
+      </c>
       <c r="AS151">
         <v>11.1322056</v>
       </c>
@@ -13779,6 +13827,9 @@
       <c r="AQ152">
         <v>12.1040718</v>
       </c>
+      <c r="AR152">
+        <v>11.3013103</v>
+      </c>
       <c r="AS152">
         <v>10.6177081</v>
       </c>
@@ -13937,6 +13988,9 @@
       <c r="AQ153">
         <v>12.2248164</v>
       </c>
+      <c r="AR153">
+        <v>15.1784705</v>
+      </c>
       <c r="AS153">
         <v>10.1468326</v>
       </c>
@@ -14095,6 +14149,9 @@
       <c r="AQ154">
         <v>12.2470681</v>
       </c>
+      <c r="AR154">
+        <v>16.956451</v>
+      </c>
       <c r="AS154">
         <v>9.7646856</v>
       </c>
@@ -14253,6 +14310,9 @@
       <c r="AQ155">
         <v>12.4299543</v>
       </c>
+      <c r="AR155">
+        <v>13.9423368</v>
+      </c>
       <c r="AS155">
         <v>9.405063</v>
       </c>
@@ -15917,7 +15977,7 @@
         <v>31.2854616</v>
       </c>
       <c r="R166">
-        <v>16.8814154</v>
+        <v>16.8805821</v>
       </c>
       <c r="S166">
         <v>22.7565397</v>
@@ -15956,7 +16016,7 @@
         <v>19.8004753</v>
       </c>
       <c r="AF166">
-        <v>21.0336649</v>
+        <v>21.0325248</v>
       </c>
       <c r="AG166">
         <v>20.937093</v>
@@ -16013,7 +16073,7 @@
         <v>17.6626752</v>
       </c>
       <c r="BA166">
-        <v>8.6423404</v>
+        <v>8.637174699999999</v>
       </c>
       <c r="BB166">
         <v>17.3735058</v>
@@ -16022,7 +16082,7 @@
         <v>20.3850363</v>
       </c>
       <c r="BD166">
-        <v>19.1470154</v>
+        <v>19.1429942</v>
       </c>
       <c r="BE166">
         <v>20.4452796</v>
@@ -16031,6 +16091,1902 @@
     <row r="167" spans="1:57">
       <c r="A167" t="s">
         <v>221</v>
+      </c>
+      <c r="B167">
+        <v>20.9634551</v>
+      </c>
+      <c r="C167">
+        <v>36.176473</v>
+      </c>
+      <c r="D167">
+        <v>25.9486491</v>
+      </c>
+      <c r="F167">
+        <v>34.0381074</v>
+      </c>
+      <c r="G167">
+        <v>20.5498177</v>
+      </c>
+      <c r="H167">
+        <v>16.7717773</v>
+      </c>
+      <c r="I167">
+        <v>10.8915502</v>
+      </c>
+      <c r="J167">
+        <v>13.8470452</v>
+      </c>
+      <c r="K167">
+        <v>17.4376417</v>
+      </c>
+      <c r="L167">
+        <v>29.6432751</v>
+      </c>
+      <c r="M167">
+        <v>32.2799256</v>
+      </c>
+      <c r="O167">
+        <v>11.7571721</v>
+      </c>
+      <c r="P167">
+        <v>27.3580356</v>
+      </c>
+      <c r="Q167">
+        <v>31.0349362</v>
+      </c>
+      <c r="R167">
+        <v>17.0178476</v>
+      </c>
+      <c r="S167">
+        <v>23.4725901</v>
+      </c>
+      <c r="T167">
+        <v>25.5710527</v>
+      </c>
+      <c r="U167">
+        <v>21.5699413</v>
+      </c>
+      <c r="V167">
+        <v>34.6582026</v>
+      </c>
+      <c r="W167">
+        <v>11.0698455</v>
+      </c>
+      <c r="X167">
+        <v>14.6009844</v>
+      </c>
+      <c r="Y167">
+        <v>9.7190692</v>
+      </c>
+      <c r="Z167">
+        <v>15.4715157</v>
+      </c>
+      <c r="AA167">
+        <v>19.7066447</v>
+      </c>
+      <c r="AB167">
+        <v>22.7272711</v>
+      </c>
+      <c r="AD167">
+        <v>33.2671968</v>
+      </c>
+      <c r="AE167">
+        <v>20.7788919</v>
+      </c>
+      <c r="AF167">
+        <v>20.7916107</v>
+      </c>
+      <c r="AG167">
+        <v>21.0332839</v>
+      </c>
+      <c r="AH167">
+        <v>22.4053014</v>
+      </c>
+      <c r="AI167">
+        <v>10.3198105</v>
+      </c>
+      <c r="AJ167">
+        <v>12.3331066</v>
+      </c>
+      <c r="AK167">
+        <v>18.4501727</v>
+      </c>
+      <c r="AL167">
+        <v>24.1709886</v>
+      </c>
+      <c r="AM167">
+        <v>11.8392583</v>
+      </c>
+      <c r="AN167">
+        <v>19.4512794</v>
+      </c>
+      <c r="AO167">
+        <v>28.4700053</v>
+      </c>
+      <c r="AP167">
+        <v>15.3193151</v>
+      </c>
+      <c r="AQ167">
+        <v>14.4077392</v>
+      </c>
+      <c r="AS167">
+        <v>11.8999945</v>
+      </c>
+      <c r="AT167">
+        <v>33.1017867</v>
+      </c>
+      <c r="AU167">
+        <v>24.0669851</v>
+      </c>
+      <c r="AV167">
+        <v>27.2824912</v>
+      </c>
+      <c r="AW167">
+        <v>36.6657798</v>
+      </c>
+      <c r="AX167">
+        <v>27.2207801</v>
+      </c>
+      <c r="AY167">
+        <v>17.8899276</v>
+      </c>
+      <c r="BA167">
+        <v>8.8645418</v>
+      </c>
+      <c r="BB167">
+        <v>16.6186688</v>
+      </c>
+      <c r="BC167">
+        <v>20.5327974</v>
+      </c>
+      <c r="BD167">
+        <v>18.9212004</v>
+      </c>
+      <c r="BE167">
+        <v>20.3535816</v>
+      </c>
+    </row>
+    <row r="168" spans="1:57">
+      <c r="A168" t="s">
+        <v>222</v>
+      </c>
+      <c r="B168">
+        <v>20.9810127</v>
+      </c>
+      <c r="C168">
+        <v>36.5800325</v>
+      </c>
+      <c r="D168">
+        <v>26.9244857</v>
+      </c>
+      <c r="F168">
+        <v>33.8956668</v>
+      </c>
+      <c r="G168">
+        <v>20.8743896</v>
+      </c>
+      <c r="H168">
+        <v>17.2911301</v>
+      </c>
+      <c r="I168">
+        <v>10.6476616</v>
+      </c>
+      <c r="J168">
+        <v>13.3219955</v>
+      </c>
+      <c r="K168">
+        <v>16.8478749</v>
+      </c>
+      <c r="L168">
+        <v>29.8378152</v>
+      </c>
+      <c r="M168">
+        <v>32.8302105</v>
+      </c>
+      <c r="O168">
+        <v>12.1770203</v>
+      </c>
+      <c r="P168">
+        <v>28.0607116</v>
+      </c>
+      <c r="Q168">
+        <v>31.2108889</v>
+      </c>
+      <c r="R168">
+        <v>16.8553807</v>
+      </c>
+      <c r="S168">
+        <v>23.5752973</v>
+      </c>
+      <c r="T168">
+        <v>25.7097227</v>
+      </c>
+      <c r="U168">
+        <v>22.2053123</v>
+      </c>
+      <c r="V168">
+        <v>34.8165197</v>
+      </c>
+      <c r="W168">
+        <v>10.9510231</v>
+      </c>
+      <c r="X168">
+        <v>14.8539943</v>
+      </c>
+      <c r="Y168">
+        <v>10.2292513</v>
+      </c>
+      <c r="Z168">
+        <v>15.4410742</v>
+      </c>
+      <c r="AA168">
+        <v>19.9101055</v>
+      </c>
+      <c r="AB168">
+        <v>23.017048</v>
+      </c>
+      <c r="AD168">
+        <v>34.1823162</v>
+      </c>
+      <c r="AE168">
+        <v>21.4558315</v>
+      </c>
+      <c r="AF168">
+        <v>20.8227507</v>
+      </c>
+      <c r="AG168">
+        <v>21.6273672</v>
+      </c>
+      <c r="AH168">
+        <v>23.8205061</v>
+      </c>
+      <c r="AI168">
+        <v>9.6587537</v>
+      </c>
+      <c r="AJ168">
+        <v>12.1470127</v>
+      </c>
+      <c r="AK168">
+        <v>19.0256151</v>
+      </c>
+      <c r="AL168">
+        <v>25.0020989</v>
+      </c>
+      <c r="AM168">
+        <v>11.7908004</v>
+      </c>
+      <c r="AN168">
+        <v>19.8326049</v>
+      </c>
+      <c r="AO168">
+        <v>29.1869143</v>
+      </c>
+      <c r="AP168">
+        <v>15.5996863</v>
+      </c>
+      <c r="AQ168">
+        <v>14.662432</v>
+      </c>
+      <c r="AS168">
+        <v>12.4618018</v>
+      </c>
+      <c r="AT168">
+        <v>32.764677</v>
+      </c>
+      <c r="AU168">
+        <v>23.509585</v>
+      </c>
+      <c r="AV168">
+        <v>27.911197</v>
+      </c>
+      <c r="AW168">
+        <v>36.66942</v>
+      </c>
+      <c r="AX168">
+        <v>27.6354799</v>
+      </c>
+      <c r="AY168">
+        <v>18.1403107</v>
+      </c>
+      <c r="BA168">
+        <v>8.938723899999999</v>
+      </c>
+      <c r="BB168">
+        <v>17.1337488</v>
+      </c>
+      <c r="BC168">
+        <v>20.8760957</v>
+      </c>
+      <c r="BD168">
+        <v>19.5783342</v>
+      </c>
+      <c r="BE168">
+        <v>20.3767508</v>
+      </c>
+    </row>
+    <row r="169" spans="1:57">
+      <c r="A169" t="s">
+        <v>223</v>
+      </c>
+      <c r="B169">
+        <v>20.7836991</v>
+      </c>
+      <c r="C169">
+        <v>37.1202711</v>
+      </c>
+      <c r="D169">
+        <v>27.1368241</v>
+      </c>
+      <c r="F169">
+        <v>33.7919947</v>
+      </c>
+      <c r="G169">
+        <v>21.0765367</v>
+      </c>
+      <c r="H169">
+        <v>17.4098499</v>
+      </c>
+      <c r="I169">
+        <v>10.8470652</v>
+      </c>
+      <c r="J169">
+        <v>13.4232122</v>
+      </c>
+      <c r="K169">
+        <v>17.3454571</v>
+      </c>
+      <c r="L169">
+        <v>29.9473859</v>
+      </c>
+      <c r="M169">
+        <v>32.7372397</v>
+      </c>
+      <c r="O169">
+        <v>12.7238199</v>
+      </c>
+      <c r="P169">
+        <v>27.6917538</v>
+      </c>
+      <c r="Q169">
+        <v>31.6112281</v>
+      </c>
+      <c r="R169">
+        <v>16.8777542</v>
+      </c>
+      <c r="S169">
+        <v>23.4272385</v>
+      </c>
+      <c r="T169">
+        <v>25.9326507</v>
+      </c>
+      <c r="U169">
+        <v>22.6321818</v>
+      </c>
+      <c r="V169">
+        <v>35.199652</v>
+      </c>
+      <c r="W169">
+        <v>11.1591541</v>
+      </c>
+      <c r="X169">
+        <v>14.9703104</v>
+      </c>
+      <c r="Y169">
+        <v>9.757814700000001</v>
+      </c>
+      <c r="Z169">
+        <v>15.5485822</v>
+      </c>
+      <c r="AA169">
+        <v>20.2241192</v>
+      </c>
+      <c r="AB169">
+        <v>23.4624913</v>
+      </c>
+      <c r="AD169">
+        <v>34.6913399</v>
+      </c>
+      <c r="AE169">
+        <v>22.323764</v>
+      </c>
+      <c r="AF169">
+        <v>21.3693666</v>
+      </c>
+      <c r="AG169">
+        <v>21.6386305</v>
+      </c>
+      <c r="AH169">
+        <v>23.4869653</v>
+      </c>
+      <c r="AI169">
+        <v>10.1569574</v>
+      </c>
+      <c r="AJ169">
+        <v>12.1459407</v>
+      </c>
+      <c r="AK169">
+        <v>19.4087796</v>
+      </c>
+      <c r="AL169">
+        <v>24.7309051</v>
+      </c>
+      <c r="AM169">
+        <v>11.9149908</v>
+      </c>
+      <c r="AN169">
+        <v>20.0488065</v>
+      </c>
+      <c r="AO169">
+        <v>29.4745273</v>
+      </c>
+      <c r="AP169">
+        <v>15.5199907</v>
+      </c>
+      <c r="AQ169">
+        <v>14.6908293</v>
+      </c>
+      <c r="AS169">
+        <v>12.3703333</v>
+      </c>
+      <c r="AT169">
+        <v>32.5117422</v>
+      </c>
+      <c r="AU169">
+        <v>25.3288339</v>
+      </c>
+      <c r="AV169">
+        <v>28.5577896</v>
+      </c>
+      <c r="AW169">
+        <v>36.422936</v>
+      </c>
+      <c r="AX169">
+        <v>27.6682565</v>
+      </c>
+      <c r="AY169">
+        <v>18.5402588</v>
+      </c>
+      <c r="BA169">
+        <v>9.610303800000001</v>
+      </c>
+      <c r="BB169">
+        <v>16.9591807</v>
+      </c>
+      <c r="BC169">
+        <v>21.1913794</v>
+      </c>
+      <c r="BD169">
+        <v>20.0395435</v>
+      </c>
+      <c r="BE169">
+        <v>20.3716964</v>
+      </c>
+    </row>
+    <row r="170" spans="1:57">
+      <c r="A170" t="s">
+        <v>224</v>
+      </c>
+      <c r="B170">
+        <v>21.1036789</v>
+      </c>
+      <c r="C170">
+        <v>37.0099496</v>
+      </c>
+      <c r="D170">
+        <v>27.4880258</v>
+      </c>
+      <c r="F170">
+        <v>33.7252978</v>
+      </c>
+      <c r="G170">
+        <v>21.0485953</v>
+      </c>
+      <c r="H170">
+        <v>17.5173576</v>
+      </c>
+      <c r="I170">
+        <v>10.2508408</v>
+      </c>
+      <c r="J170">
+        <v>13.2984901</v>
+      </c>
+      <c r="K170">
+        <v>17.6900457</v>
+      </c>
+      <c r="L170">
+        <v>30.0488487</v>
+      </c>
+      <c r="M170">
+        <v>33.067389</v>
+      </c>
+      <c r="O170">
+        <v>12.8763441</v>
+      </c>
+      <c r="P170">
+        <v>28.6700136</v>
+      </c>
+      <c r="Q170">
+        <v>31.6827435</v>
+      </c>
+      <c r="R170">
+        <v>17.1062705</v>
+      </c>
+      <c r="S170">
+        <v>24.1647604</v>
+      </c>
+      <c r="T170">
+        <v>25.8272819</v>
+      </c>
+      <c r="U170">
+        <v>23.2211663</v>
+      </c>
+      <c r="V170">
+        <v>34.9665456</v>
+      </c>
+      <c r="W170">
+        <v>11.4150275</v>
+      </c>
+      <c r="X170">
+        <v>15.4493573</v>
+      </c>
+      <c r="Y170">
+        <v>10.1601899</v>
+      </c>
+      <c r="Z170">
+        <v>15.9683154</v>
+      </c>
+      <c r="AA170">
+        <v>20.6102777</v>
+      </c>
+      <c r="AB170">
+        <v>23.562703</v>
+      </c>
+      <c r="AD170">
+        <v>34.6503967</v>
+      </c>
+      <c r="AE170">
+        <v>23.0773771</v>
+      </c>
+      <c r="AF170">
+        <v>21.1708846</v>
+      </c>
+      <c r="AG170">
+        <v>21.4107288</v>
+      </c>
+      <c r="AH170">
+        <v>24.3470559</v>
+      </c>
+      <c r="AI170">
+        <v>9.981138</v>
+      </c>
+      <c r="AJ170">
+        <v>12.0217371</v>
+      </c>
+      <c r="AK170">
+        <v>18.9159857</v>
+      </c>
+      <c r="AL170">
+        <v>24.8232386</v>
+      </c>
+      <c r="AM170">
+        <v>11.7155246</v>
+      </c>
+      <c r="AN170">
+        <v>20.4782712</v>
+      </c>
+      <c r="AO170">
+        <v>29.2479412</v>
+      </c>
+      <c r="AP170">
+        <v>15.3427184</v>
+      </c>
+      <c r="AQ170">
+        <v>14.6457397</v>
+      </c>
+      <c r="AS170">
+        <v>12.887171</v>
+      </c>
+      <c r="AT170">
+        <v>32.616001</v>
+      </c>
+      <c r="AU170">
+        <v>26.3601207</v>
+      </c>
+      <c r="AV170">
+        <v>29.2423642</v>
+      </c>
+      <c r="AW170">
+        <v>36.5479565</v>
+      </c>
+      <c r="AX170">
+        <v>28.0587459</v>
+      </c>
+      <c r="AY170">
+        <v>19.102365</v>
+      </c>
+      <c r="BA170">
+        <v>8.893638299999999</v>
+      </c>
+      <c r="BB170">
+        <v>17.0444967</v>
+      </c>
+      <c r="BC170">
+        <v>20.90247</v>
+      </c>
+      <c r="BD170">
+        <v>21.3005719</v>
+      </c>
+      <c r="BE170">
+        <v>18.8474851</v>
+      </c>
+    </row>
+    <row r="171" spans="1:57">
+      <c r="A171" t="s">
+        <v>225</v>
+      </c>
+      <c r="B171">
+        <v>20.6564987</v>
+      </c>
+      <c r="C171">
+        <v>37.1445872</v>
+      </c>
+      <c r="D171">
+        <v>28.0157224</v>
+      </c>
+      <c r="F171">
+        <v>33.6826356</v>
+      </c>
+      <c r="G171">
+        <v>21.0841306</v>
+      </c>
+      <c r="H171">
+        <v>17.9184623</v>
+      </c>
+      <c r="I171">
+        <v>10.1307649</v>
+      </c>
+      <c r="J171">
+        <v>13.3215962</v>
+      </c>
+      <c r="K171">
+        <v>16.8089142</v>
+      </c>
+      <c r="L171">
+        <v>30.3282465</v>
+      </c>
+      <c r="M171">
+        <v>32.6645407</v>
+      </c>
+      <c r="O171">
+        <v>12.2187336</v>
+      </c>
+      <c r="P171">
+        <v>28.6461532</v>
+      </c>
+      <c r="Q171">
+        <v>31.9617629</v>
+      </c>
+      <c r="R171">
+        <v>17.2012789</v>
+      </c>
+      <c r="S171">
+        <v>23.9312115</v>
+      </c>
+      <c r="T171">
+        <v>25.559883</v>
+      </c>
+      <c r="U171">
+        <v>22.9738097</v>
+      </c>
+      <c r="V171">
+        <v>35.6887991</v>
+      </c>
+      <c r="W171">
+        <v>11.3389956</v>
+      </c>
+      <c r="X171">
+        <v>15.873583</v>
+      </c>
+      <c r="Y171">
+        <v>9.9023901</v>
+      </c>
+      <c r="Z171">
+        <v>16.2311172</v>
+      </c>
+      <c r="AA171">
+        <v>20.8786911</v>
+      </c>
+      <c r="AB171">
+        <v>23.4961425</v>
+      </c>
+      <c r="AD171">
+        <v>35.4932679</v>
+      </c>
+      <c r="AE171">
+        <v>23.0783224</v>
+      </c>
+      <c r="AF171">
+        <v>21.564048</v>
+      </c>
+      <c r="AG171">
+        <v>22.4841169</v>
+      </c>
+      <c r="AH171">
+        <v>23.849223</v>
+      </c>
+      <c r="AI171">
+        <v>10.3850145</v>
+      </c>
+      <c r="AJ171">
+        <v>12.062204</v>
+      </c>
+      <c r="AK171">
+        <v>19.3158065</v>
+      </c>
+      <c r="AL171">
+        <v>24.7838574</v>
+      </c>
+      <c r="AM171">
+        <v>11.7975096</v>
+      </c>
+      <c r="AN171">
+        <v>20.4995458</v>
+      </c>
+      <c r="AO171">
+        <v>30.0013475</v>
+      </c>
+      <c r="AP171">
+        <v>15.4203655</v>
+      </c>
+      <c r="AQ171">
+        <v>14.9426015</v>
+      </c>
+      <c r="AS171">
+        <v>12.1171559</v>
+      </c>
+      <c r="AT171">
+        <v>32.8069147</v>
+      </c>
+      <c r="AU171">
+        <v>25.4742973</v>
+      </c>
+      <c r="AV171">
+        <v>29.3945564</v>
+      </c>
+      <c r="AW171">
+        <v>36.2013609</v>
+      </c>
+      <c r="AX171">
+        <v>28.0925071</v>
+      </c>
+      <c r="AY171">
+        <v>19.484692</v>
+      </c>
+      <c r="BA171">
+        <v>9.3537362</v>
+      </c>
+      <c r="BB171">
+        <v>17.2683737</v>
+      </c>
+      <c r="BC171">
+        <v>20.9893938</v>
+      </c>
+      <c r="BD171">
+        <v>20.8087612</v>
+      </c>
+      <c r="BE171">
+        <v>18.8759155</v>
+      </c>
+    </row>
+    <row r="172" spans="1:57">
+      <c r="A172" t="s">
+        <v>226</v>
+      </c>
+      <c r="B172">
+        <v>20.5624543</v>
+      </c>
+      <c r="C172">
+        <v>37.9770164</v>
+      </c>
+      <c r="D172">
+        <v>27.676329</v>
+      </c>
+      <c r="F172">
+        <v>33.4696322</v>
+      </c>
+      <c r="G172">
+        <v>21.119106</v>
+      </c>
+      <c r="H172">
+        <v>18.5369533</v>
+      </c>
+      <c r="I172">
+        <v>10.2253157</v>
+      </c>
+      <c r="J172">
+        <v>14.0853659</v>
+      </c>
+      <c r="K172">
+        <v>17.0367791</v>
+      </c>
+      <c r="L172">
+        <v>30.0692529</v>
+      </c>
+      <c r="M172">
+        <v>32.8959424</v>
+      </c>
+      <c r="O172">
+        <v>12.4787776</v>
+      </c>
+      <c r="P172">
+        <v>29.0215402</v>
+      </c>
+      <c r="Q172">
+        <v>32.2182125</v>
+      </c>
+      <c r="R172">
+        <v>17.5189448</v>
+      </c>
+      <c r="S172">
+        <v>24.1461199</v>
+      </c>
+      <c r="T172">
+        <v>26.2491377</v>
+      </c>
+      <c r="U172">
+        <v>23.2754934</v>
+      </c>
+      <c r="V172">
+        <v>36.2413892</v>
+      </c>
+      <c r="W172">
+        <v>11.2600686</v>
+      </c>
+      <c r="X172">
+        <v>15.544593</v>
+      </c>
+      <c r="Y172">
+        <v>10.2139508</v>
+      </c>
+      <c r="Z172">
+        <v>16.3907582</v>
+      </c>
+      <c r="AA172">
+        <v>20.5094419</v>
+      </c>
+      <c r="AB172">
+        <v>24.6743825</v>
+      </c>
+      <c r="AD172">
+        <v>35.0922455</v>
+      </c>
+      <c r="AE172">
+        <v>23.5959114</v>
+      </c>
+      <c r="AF172">
+        <v>21.6150916</v>
+      </c>
+      <c r="AG172">
+        <v>22.9094611</v>
+      </c>
+      <c r="AH172">
+        <v>24.1299415</v>
+      </c>
+      <c r="AI172">
+        <v>11.1165206</v>
+      </c>
+      <c r="AJ172">
+        <v>12.1742658</v>
+      </c>
+      <c r="AK172">
+        <v>19.2649688</v>
+      </c>
+      <c r="AL172">
+        <v>24.9282212</v>
+      </c>
+      <c r="AM172">
+        <v>11.9814733</v>
+      </c>
+      <c r="AN172">
+        <v>20.9257518</v>
+      </c>
+      <c r="AO172">
+        <v>29.6524995</v>
+      </c>
+      <c r="AP172">
+        <v>15.4477646</v>
+      </c>
+      <c r="AQ172">
+        <v>15.0530067</v>
+      </c>
+      <c r="AS172">
+        <v>12.6057296</v>
+      </c>
+      <c r="AT172">
+        <v>33.0346629</v>
+      </c>
+      <c r="AU172">
+        <v>25.3138286</v>
+      </c>
+      <c r="AV172">
+        <v>29.5897703</v>
+      </c>
+      <c r="AW172">
+        <v>36.5109642</v>
+      </c>
+      <c r="AX172">
+        <v>27.6942607</v>
+      </c>
+      <c r="AY172">
+        <v>19.6163134</v>
+      </c>
+      <c r="BA172">
+        <v>8.8865035</v>
+      </c>
+      <c r="BB172">
+        <v>17.1644629</v>
+      </c>
+      <c r="BC172">
+        <v>20.9998046</v>
+      </c>
+      <c r="BD172">
+        <v>21.3407841</v>
+      </c>
+      <c r="BE172">
+        <v>19.2914508</v>
+      </c>
+    </row>
+    <row r="173" spans="1:57">
+      <c r="A173" t="s">
+        <v>227</v>
+      </c>
+      <c r="B173">
+        <v>20.0507614</v>
+      </c>
+      <c r="C173">
+        <v>36.6192559</v>
+      </c>
+      <c r="D173">
+        <v>28.4496005</v>
+      </c>
+      <c r="F173">
+        <v>33.6542378</v>
+      </c>
+      <c r="G173">
+        <v>21.3177498</v>
+      </c>
+      <c r="H173">
+        <v>18.5702472</v>
+      </c>
+      <c r="I173">
+        <v>9.9044118</v>
+      </c>
+      <c r="J173">
+        <v>14.0192539</v>
+      </c>
+      <c r="K173">
+        <v>16.4160401</v>
+      </c>
+      <c r="L173">
+        <v>30.2653112</v>
+      </c>
+      <c r="M173">
+        <v>33.3071226</v>
+      </c>
+      <c r="O173">
+        <v>12.7439385</v>
+      </c>
+      <c r="P173">
+        <v>29.2207622</v>
+      </c>
+      <c r="Q173">
+        <v>31.9692961</v>
+      </c>
+      <c r="R173">
+        <v>17.4447096</v>
+      </c>
+      <c r="S173">
+        <v>24.3818284</v>
+      </c>
+      <c r="T173">
+        <v>26.2216542</v>
+      </c>
+      <c r="U173">
+        <v>23.2231997</v>
+      </c>
+      <c r="V173">
+        <v>36.9147528</v>
+      </c>
+      <c r="W173">
+        <v>11.5239694</v>
+      </c>
+      <c r="X173">
+        <v>15.5588946</v>
+      </c>
+      <c r="Y173">
+        <v>10.5394605</v>
+      </c>
+      <c r="Z173">
+        <v>16.4867858</v>
+      </c>
+      <c r="AA173">
+        <v>20.5518585</v>
+      </c>
+      <c r="AB173">
+        <v>25.0196415</v>
+      </c>
+      <c r="AD173">
+        <v>36.0447381</v>
+      </c>
+      <c r="AE173">
+        <v>23.3910139</v>
+      </c>
+      <c r="AF173">
+        <v>21.3513379</v>
+      </c>
+      <c r="AG173">
+        <v>23.2418306</v>
+      </c>
+      <c r="AH173">
+        <v>24.1282585</v>
+      </c>
+      <c r="AI173">
+        <v>9.8489933</v>
+      </c>
+      <c r="AJ173">
+        <v>12.2117247</v>
+      </c>
+      <c r="AK173">
+        <v>18.7341229</v>
+      </c>
+      <c r="AL173">
+        <v>24.9569838</v>
+      </c>
+      <c r="AM173">
+        <v>11.9929087</v>
+      </c>
+      <c r="AN173">
+        <v>21.0810596</v>
+      </c>
+      <c r="AO173">
+        <v>29.9518646</v>
+      </c>
+      <c r="AP173">
+        <v>15.885797</v>
+      </c>
+      <c r="AQ173">
+        <v>15.1489461</v>
+      </c>
+      <c r="AS173">
+        <v>12.389654</v>
+      </c>
+      <c r="AT173">
+        <v>33.0529779</v>
+      </c>
+      <c r="AU173">
+        <v>24.7774676</v>
+      </c>
+      <c r="AV173">
+        <v>30.223336</v>
+      </c>
+      <c r="AW173">
+        <v>36.3402799</v>
+      </c>
+      <c r="AX173">
+        <v>28.1616986</v>
+      </c>
+      <c r="AY173">
+        <v>19.7428625</v>
+      </c>
+      <c r="BA173">
+        <v>8.7425494</v>
+      </c>
+      <c r="BB173">
+        <v>17.5329349</v>
+      </c>
+      <c r="BC173">
+        <v>21.0899152</v>
+      </c>
+      <c r="BD173">
+        <v>21.8218954</v>
+      </c>
+      <c r="BE173">
+        <v>18.5831544</v>
+      </c>
+    </row>
+    <row r="174" spans="1:57">
+      <c r="A174" t="s">
+        <v>228</v>
+      </c>
+      <c r="B174">
+        <v>20.3433163</v>
+      </c>
+      <c r="C174">
+        <v>36.5462508</v>
+      </c>
+      <c r="D174">
+        <v>27.7275786</v>
+      </c>
+      <c r="F174">
+        <v>32.873448</v>
+      </c>
+      <c r="G174">
+        <v>21.4010538</v>
+      </c>
+      <c r="H174">
+        <v>18.4135817</v>
+      </c>
+      <c r="I174">
+        <v>10.0525526</v>
+      </c>
+      <c r="J174">
+        <v>14.9154589</v>
+      </c>
+      <c r="K174">
+        <v>16.6323291</v>
+      </c>
+      <c r="L174">
+        <v>30.3540402</v>
+      </c>
+      <c r="M174">
+        <v>33.4236949</v>
+      </c>
+      <c r="O174">
+        <v>13.7151703</v>
+      </c>
+      <c r="P174">
+        <v>29.7568366</v>
+      </c>
+      <c r="Q174">
+        <v>31.4531528</v>
+      </c>
+      <c r="R174">
+        <v>17.5478776</v>
+      </c>
+      <c r="S174">
+        <v>24.2256278</v>
+      </c>
+      <c r="T174">
+        <v>26.8717968</v>
+      </c>
+      <c r="U174">
+        <v>23.5235435</v>
+      </c>
+      <c r="V174">
+        <v>37.0291262</v>
+      </c>
+      <c r="W174">
+        <v>11.489142</v>
+      </c>
+      <c r="X174">
+        <v>15.9040743</v>
+      </c>
+      <c r="Y174">
+        <v>9.878007500000001</v>
+      </c>
+      <c r="Z174">
+        <v>16.6016865</v>
+      </c>
+      <c r="AA174">
+        <v>20.9031039</v>
+      </c>
+      <c r="AB174">
+        <v>24.7008824</v>
+      </c>
+      <c r="AD174">
+        <v>36.9145712</v>
+      </c>
+      <c r="AE174">
+        <v>23.9504456</v>
+      </c>
+      <c r="AF174">
+        <v>21.3809958</v>
+      </c>
+      <c r="AG174">
+        <v>23.1036429</v>
+      </c>
+      <c r="AH174">
+        <v>24.1092553</v>
+      </c>
+      <c r="AI174">
+        <v>10.106383</v>
+      </c>
+      <c r="AJ174">
+        <v>12.1193888</v>
+      </c>
+      <c r="AK174">
+        <v>19.0499824</v>
+      </c>
+      <c r="AL174">
+        <v>25.0268786</v>
+      </c>
+      <c r="AM174">
+        <v>12.2491723</v>
+      </c>
+      <c r="AN174">
+        <v>21.456103</v>
+      </c>
+      <c r="AO174">
+        <v>30.2407276</v>
+      </c>
+      <c r="AP174">
+        <v>15.9613956</v>
+      </c>
+      <c r="AQ174">
+        <v>15.0439494</v>
+      </c>
+      <c r="AS174">
+        <v>12.1770228</v>
+      </c>
+      <c r="AT174">
+        <v>32.7695317</v>
+      </c>
+      <c r="AU174">
+        <v>23.4592827</v>
+      </c>
+      <c r="AV174">
+        <v>29.8764475</v>
+      </c>
+      <c r="AW174">
+        <v>36.2759804</v>
+      </c>
+      <c r="AX174">
+        <v>28.4567282</v>
+      </c>
+      <c r="AY174">
+        <v>19.9742354</v>
+      </c>
+      <c r="BA174">
+        <v>9.2525399</v>
+      </c>
+      <c r="BB174">
+        <v>17.2353681</v>
+      </c>
+      <c r="BC174">
+        <v>21.1915304</v>
+      </c>
+      <c r="BD174">
+        <v>21.8981485</v>
+      </c>
+      <c r="BE174">
+        <v>18.514042</v>
+      </c>
+    </row>
+    <row r="175" spans="1:57">
+      <c r="A175" t="s">
+        <v>229</v>
+      </c>
+      <c r="B175">
+        <v>19.9606299</v>
+      </c>
+      <c r="C175">
+        <v>36.4088779</v>
+      </c>
+      <c r="D175">
+        <v>28.3410151</v>
+      </c>
+      <c r="F175">
+        <v>32.9113097</v>
+      </c>
+      <c r="G175">
+        <v>21.2611469</v>
+      </c>
+      <c r="H175">
+        <v>18.1729564</v>
+      </c>
+      <c r="I175">
+        <v>9.940466900000001</v>
+      </c>
+      <c r="J175">
+        <v>16.6666667</v>
+      </c>
+      <c r="K175">
+        <v>16.7870036</v>
+      </c>
+      <c r="L175">
+        <v>30.2604256</v>
+      </c>
+      <c r="M175">
+        <v>33.5946076</v>
+      </c>
+      <c r="O175">
+        <v>13.4728774</v>
+      </c>
+      <c r="P175">
+        <v>29.633422</v>
+      </c>
+      <c r="Q175">
+        <v>32.6185798</v>
+      </c>
+      <c r="R175">
+        <v>17.7412936</v>
+      </c>
+      <c r="S175">
+        <v>23.6510898</v>
+      </c>
+      <c r="T175">
+        <v>27.6316564</v>
+      </c>
+      <c r="U175">
+        <v>23.6803952</v>
+      </c>
+      <c r="V175">
+        <v>37.3958673</v>
+      </c>
+      <c r="W175">
+        <v>11.6481548</v>
+      </c>
+      <c r="X175">
+        <v>15.8691827</v>
+      </c>
+      <c r="Y175">
+        <v>10.7177498</v>
+      </c>
+      <c r="Z175">
+        <v>16.7888472</v>
+      </c>
+      <c r="AA175">
+        <v>21.0767884</v>
+      </c>
+      <c r="AB175">
+        <v>24.7770311</v>
+      </c>
+      <c r="AD175">
+        <v>37.8244223</v>
+      </c>
+      <c r="AE175">
+        <v>24.4223632</v>
+      </c>
+      <c r="AF175">
+        <v>21.5822546</v>
+      </c>
+      <c r="AG175">
+        <v>24.6279745</v>
+      </c>
+      <c r="AH175">
+        <v>24.1104866</v>
+      </c>
+      <c r="AI175">
+        <v>10.3820304</v>
+      </c>
+      <c r="AJ175">
+        <v>12.209468</v>
+      </c>
+      <c r="AK175">
+        <v>18.9144027</v>
+      </c>
+      <c r="AL175">
+        <v>24.2443417</v>
+      </c>
+      <c r="AM175">
+        <v>12.2004609</v>
+      </c>
+      <c r="AN175">
+        <v>21.6764079</v>
+      </c>
+      <c r="AO175">
+        <v>30.8433269</v>
+      </c>
+      <c r="AP175">
+        <v>15.8938147</v>
+      </c>
+      <c r="AQ175">
+        <v>15.0341918</v>
+      </c>
+      <c r="AS175">
+        <v>12.0766496</v>
+      </c>
+      <c r="AT175">
+        <v>33.2393211</v>
+      </c>
+      <c r="AU175">
+        <v>24.3564855</v>
+      </c>
+      <c r="AV175">
+        <v>29.7343783</v>
+      </c>
+      <c r="AW175">
+        <v>35.8894708</v>
+      </c>
+      <c r="AX175">
+        <v>28.0582305</v>
+      </c>
+      <c r="AY175">
+        <v>20.0395988</v>
+      </c>
+      <c r="BA175">
+        <v>9.0320345</v>
+      </c>
+      <c r="BB175">
+        <v>17.365274</v>
+      </c>
+      <c r="BC175">
+        <v>21.2786253</v>
+      </c>
+      <c r="BD175">
+        <v>21.7207298</v>
+      </c>
+      <c r="BE175">
+        <v>18.1757466</v>
+      </c>
+    </row>
+    <row r="176" spans="1:57">
+      <c r="A176" t="s">
+        <v>230</v>
+      </c>
+      <c r="B176">
+        <v>20.4219745</v>
+      </c>
+      <c r="C176">
+        <v>36.7897709</v>
+      </c>
+      <c r="D176">
+        <v>28.0039894</v>
+      </c>
+      <c r="F176">
+        <v>32.0838942</v>
+      </c>
+      <c r="G176">
+        <v>21.2916087</v>
+      </c>
+      <c r="H176">
+        <v>18.1893753</v>
+      </c>
+      <c r="I176">
+        <v>9.9042829</v>
+      </c>
+      <c r="J176">
+        <v>16.0996355</v>
+      </c>
+      <c r="K176">
+        <v>16.3315217</v>
+      </c>
+      <c r="L176">
+        <v>30.3748189</v>
+      </c>
+      <c r="M176">
+        <v>33.7713458</v>
+      </c>
+      <c r="O176">
+        <v>12.6979294</v>
+      </c>
+      <c r="P176">
+        <v>29.1239577</v>
+      </c>
+      <c r="Q176">
+        <v>32.0718842</v>
+      </c>
+      <c r="R176">
+        <v>17.9415885</v>
+      </c>
+      <c r="S176">
+        <v>22.9782182</v>
+      </c>
+      <c r="T176">
+        <v>27.2315309</v>
+      </c>
+      <c r="U176">
+        <v>24.1684067</v>
+      </c>
+      <c r="V176">
+        <v>37.2072208</v>
+      </c>
+      <c r="W176">
+        <v>11.7338018</v>
+      </c>
+      <c r="X176">
+        <v>15.7968222</v>
+      </c>
+      <c r="Y176">
+        <v>10.9401953</v>
+      </c>
+      <c r="Z176">
+        <v>16.3307133</v>
+      </c>
+      <c r="AA176">
+        <v>21.2032961</v>
+      </c>
+      <c r="AB176">
+        <v>25.5955424</v>
+      </c>
+      <c r="AD176">
+        <v>37.8659585</v>
+      </c>
+      <c r="AE176">
+        <v>25.0686915</v>
+      </c>
+      <c r="AF176">
+        <v>21.3822178</v>
+      </c>
+      <c r="AG176">
+        <v>24.6234113</v>
+      </c>
+      <c r="AH176">
+        <v>24.6101589</v>
+      </c>
+      <c r="AI176">
+        <v>10.2910892</v>
+      </c>
+      <c r="AJ176">
+        <v>12.2787697</v>
+      </c>
+      <c r="AK176">
+        <v>18.5980028</v>
+      </c>
+      <c r="AL176">
+        <v>24.8329424</v>
+      </c>
+      <c r="AM176">
+        <v>12.1298134</v>
+      </c>
+      <c r="AN176">
+        <v>21.4612624</v>
+      </c>
+      <c r="AO176">
+        <v>30.8373343</v>
+      </c>
+      <c r="AP176">
+        <v>15.6487843</v>
+      </c>
+      <c r="AQ176">
+        <v>14.8805072</v>
+      </c>
+      <c r="AS176">
+        <v>11.9211436</v>
+      </c>
+      <c r="AT176">
+        <v>32.9878487</v>
+      </c>
+      <c r="AU176">
+        <v>21.2831254</v>
+      </c>
+      <c r="AV176">
+        <v>30.1247825</v>
+      </c>
+      <c r="AW176">
+        <v>35.5837878</v>
+      </c>
+      <c r="AX176">
+        <v>28.0718513</v>
+      </c>
+      <c r="AY176">
+        <v>19.8204557</v>
+      </c>
+      <c r="BA176">
+        <v>9.537105199999999</v>
+      </c>
+      <c r="BB176">
+        <v>17.6164092</v>
+      </c>
+      <c r="BC176">
+        <v>20.8443939</v>
+      </c>
+      <c r="BD176">
+        <v>22.8811162</v>
+      </c>
+      <c r="BE176">
+        <v>16.2925675</v>
+      </c>
+    </row>
+    <row r="177" spans="1:57">
+      <c r="A177" t="s">
+        <v>231</v>
+      </c>
+      <c r="B177">
+        <v>22.2089314</v>
+      </c>
+      <c r="C177">
+        <v>36.7287942</v>
+      </c>
+      <c r="D177">
+        <v>28.085283</v>
+      </c>
+      <c r="F177">
+        <v>31.3891655</v>
+      </c>
+      <c r="G177">
+        <v>21.293475</v>
+      </c>
+      <c r="H177">
+        <v>18.1445765</v>
+      </c>
+      <c r="I177">
+        <v>10.2874812</v>
+      </c>
+      <c r="J177">
+        <v>16.5471924</v>
+      </c>
+      <c r="K177">
+        <v>15.8987486</v>
+      </c>
+      <c r="L177">
+        <v>30.1791148</v>
+      </c>
+      <c r="M177">
+        <v>34.1650242</v>
+      </c>
+      <c r="O177">
+        <v>12.9664179</v>
+      </c>
+      <c r="P177">
+        <v>28.2506199</v>
+      </c>
+      <c r="Q177">
+        <v>32.1458463</v>
+      </c>
+      <c r="R177">
+        <v>18.0854533</v>
+      </c>
+      <c r="S177">
+        <v>23.2388955</v>
+      </c>
+      <c r="T177">
+        <v>27.5272892</v>
+      </c>
+      <c r="U177">
+        <v>23.864493</v>
+      </c>
+      <c r="V177">
+        <v>36.8512999</v>
+      </c>
+      <c r="W177">
+        <v>11.5159156</v>
+      </c>
+      <c r="X177">
+        <v>15.922858</v>
+      </c>
+      <c r="Y177">
+        <v>11.14682</v>
+      </c>
+      <c r="Z177">
+        <v>16.3322939</v>
+      </c>
+      <c r="AA177">
+        <v>21.1589998</v>
+      </c>
+      <c r="AB177">
+        <v>25.6459902</v>
+      </c>
+      <c r="AD177">
+        <v>38.4787021</v>
+      </c>
+      <c r="AE177">
+        <v>24.2069382</v>
+      </c>
+      <c r="AF177">
+        <v>21.864621</v>
+      </c>
+      <c r="AG177">
+        <v>25.8812292</v>
+      </c>
+      <c r="AH177">
+        <v>25.2444528</v>
+      </c>
+      <c r="AI177">
+        <v>10.0104094</v>
+      </c>
+      <c r="AJ177">
+        <v>12.3208734</v>
+      </c>
+      <c r="AK177">
+        <v>19.019119</v>
+      </c>
+      <c r="AL177">
+        <v>25.2152617</v>
+      </c>
+      <c r="AM177">
+        <v>12.2725135</v>
+      </c>
+      <c r="AN177">
+        <v>21.8120539</v>
+      </c>
+      <c r="AO177">
+        <v>30.5712035</v>
+      </c>
+      <c r="AP177">
+        <v>15.76914</v>
+      </c>
+      <c r="AQ177">
+        <v>15.0240827</v>
+      </c>
+      <c r="AS177">
+        <v>11.3729495</v>
+      </c>
+      <c r="AT177">
+        <v>32.0650081</v>
+      </c>
+      <c r="AU177">
+        <v>23.3260131</v>
+      </c>
+      <c r="AV177">
+        <v>29.8231061</v>
+      </c>
+      <c r="AW177">
+        <v>35.27649</v>
+      </c>
+      <c r="AX177">
+        <v>27.1021991</v>
+      </c>
+      <c r="AY177">
+        <v>19.718754</v>
+      </c>
+      <c r="BA177">
+        <v>9.0650355</v>
+      </c>
+      <c r="BB177">
+        <v>17.6657016</v>
+      </c>
+      <c r="BC177">
+        <v>21.5201722</v>
+      </c>
+      <c r="BD177">
+        <v>22.872205</v>
+      </c>
+      <c r="BE177">
+        <v>18.1048543</v>
+      </c>
+    </row>
+    <row r="178" spans="1:57">
+      <c r="A178" t="s">
+        <v>232</v>
+      </c>
+      <c r="B178">
+        <v>23.0984788</v>
+      </c>
+      <c r="C178">
+        <v>36.6615753</v>
+      </c>
+      <c r="D178">
+        <v>28.6587969</v>
+      </c>
+      <c r="F178">
+        <v>31.0134568</v>
+      </c>
+      <c r="G178">
+        <v>21.3492279</v>
+      </c>
+      <c r="H178">
+        <v>18.1872111</v>
+      </c>
+      <c r="I178">
+        <v>10.6710394</v>
+      </c>
+      <c r="J178">
+        <v>16.6666667</v>
+      </c>
+      <c r="K178">
+        <v>15.6137184</v>
+      </c>
+      <c r="L178">
+        <v>29.8123291</v>
+      </c>
+      <c r="M178">
+        <v>33.9440565</v>
+      </c>
+      <c r="O178">
+        <v>13.5545906</v>
+      </c>
+      <c r="P178">
+        <v>28.4525484</v>
+      </c>
+      <c r="Q178">
+        <v>33.022448</v>
+      </c>
+      <c r="R178">
+        <v>18.0081749</v>
+      </c>
+      <c r="S178">
+        <v>22.85674</v>
+      </c>
+      <c r="T178">
+        <v>27.0973789</v>
+      </c>
+      <c r="U178">
+        <v>24.2424795</v>
+      </c>
+      <c r="V178">
+        <v>36.7705891</v>
+      </c>
+      <c r="W178">
+        <v>11.8529773</v>
+      </c>
+      <c r="X178">
+        <v>16.1906826</v>
+      </c>
+      <c r="Y178">
+        <v>10.3880071</v>
+      </c>
+      <c r="Z178">
+        <v>16.3988343</v>
+      </c>
+      <c r="AA178">
+        <v>21.2540916</v>
+      </c>
+      <c r="AB178">
+        <v>26.0466639</v>
+      </c>
+      <c r="AD178">
+        <v>38.7060323</v>
+      </c>
+      <c r="AE178">
+        <v>24.6056435</v>
+      </c>
+      <c r="AF178">
+        <v>21.4158686</v>
+      </c>
+      <c r="AG178">
+        <v>26.0761729</v>
+      </c>
+      <c r="AH178">
+        <v>25.2848203</v>
+      </c>
+      <c r="AI178">
+        <v>10.1391304</v>
+      </c>
+      <c r="AJ178">
+        <v>12.405322</v>
+      </c>
+      <c r="AK178">
+        <v>18.9622236</v>
+      </c>
+      <c r="AL178">
+        <v>24.8754681</v>
+      </c>
+      <c r="AM178">
+        <v>11.9798604</v>
+      </c>
+      <c r="AN178">
+        <v>21.3033361</v>
+      </c>
+      <c r="AO178">
+        <v>30.4800356</v>
+      </c>
+      <c r="AP178">
+        <v>15.8336213</v>
+      </c>
+      <c r="AQ178">
+        <v>15.0170541</v>
+      </c>
+      <c r="AS178">
+        <v>12.4846869</v>
+      </c>
+      <c r="AT178">
+        <v>32.5269817</v>
+      </c>
+      <c r="AU178">
+        <v>22.2823893</v>
+      </c>
+      <c r="AV178">
+        <v>30.0928821</v>
+      </c>
+      <c r="AW178">
+        <v>34.966074</v>
+      </c>
+      <c r="AX178">
+        <v>26.390568</v>
+      </c>
+      <c r="AY178">
+        <v>19.4695186</v>
+      </c>
+      <c r="BA178">
+        <v>9.0945778</v>
+      </c>
+      <c r="BB178">
+        <v>17.3553227</v>
+      </c>
+      <c r="BC178">
+        <v>21.2302056</v>
+      </c>
+      <c r="BD178">
+        <v>21.6975608</v>
+      </c>
+      <c r="BE178">
+        <v>16.6662134</v>
+      </c>
+    </row>
+    <row r="179" spans="1:57">
+      <c r="A179" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>Alaska</t>
   </si>
@@ -716,6 +716,33 @@
   </si>
   <si>
     <t>27 07 2020</t>
+  </si>
+  <si>
+    <t>28 07 2020</t>
+  </si>
+  <si>
+    <t>29 07 2020</t>
+  </si>
+  <si>
+    <t>30 07 2020</t>
+  </si>
+  <si>
+    <t>31 07 2020</t>
+  </si>
+  <si>
+    <t>01 08 2020</t>
+  </si>
+  <si>
+    <t>02 08 2020</t>
+  </si>
+  <si>
+    <t>03 08 2020</t>
+  </si>
+  <si>
+    <t>04 08 2020</t>
+  </si>
+  <si>
+    <t>05 08 2020</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE179"/>
+  <dimension ref="A1:BE188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14471,6 +14498,9 @@
       <c r="AQ156">
         <v>12.4649505</v>
       </c>
+      <c r="AR156">
+        <v>17.2896458</v>
+      </c>
       <c r="AS156">
         <v>9.761963</v>
       </c>
@@ -14629,6 +14659,9 @@
       <c r="AQ157">
         <v>12.4952696</v>
       </c>
+      <c r="AR157">
+        <v>10.6618117</v>
+      </c>
       <c r="AS157">
         <v>10.7712467</v>
       </c>
@@ -14787,6 +14820,9 @@
       <c r="AQ158">
         <v>12.7566773</v>
       </c>
+      <c r="AR158">
+        <v>13.1818351</v>
+      </c>
       <c r="AS158">
         <v>10.8671279</v>
       </c>
@@ -17861,7 +17897,7 @@
         <v>29.8123291</v>
       </c>
       <c r="M178">
-        <v>33.9440565</v>
+        <v>33.941274</v>
       </c>
       <c r="O178">
         <v>13.5545906</v>
@@ -17888,7 +17924,7 @@
         <v>36.7705891</v>
       </c>
       <c r="W178">
-        <v>11.8529773</v>
+        <v>11.8515132</v>
       </c>
       <c r="X178">
         <v>16.1906826</v>
@@ -17939,7 +17975,7 @@
         <v>21.3033361</v>
       </c>
       <c r="AO178">
-        <v>30.4800356</v>
+        <v>30.4751199</v>
       </c>
       <c r="AP178">
         <v>15.8336213</v>
@@ -17957,10 +17993,10 @@
         <v>22.2823893</v>
       </c>
       <c r="AV178">
-        <v>30.0928821</v>
+        <v>30.1001694</v>
       </c>
       <c r="AW178">
-        <v>34.966074</v>
+        <v>34.965013</v>
       </c>
       <c r="AX178">
         <v>26.390568</v>
@@ -17972,7 +18008,7 @@
         <v>9.0945778</v>
       </c>
       <c r="BB178">
-        <v>17.3553227</v>
+        <v>17.3627136</v>
       </c>
       <c r="BC178">
         <v>21.2302056</v>
@@ -17987,6 +18023,1275 @@
     <row r="179" spans="1:57">
       <c r="A179" t="s">
         <v>233</v>
+      </c>
+      <c r="B179">
+        <v>23.2722731</v>
+      </c>
+      <c r="C179">
+        <v>37.207655</v>
+      </c>
+      <c r="D179">
+        <v>28.1990124</v>
+      </c>
+      <c r="F179">
+        <v>31.3528597</v>
+      </c>
+      <c r="G179">
+        <v>21.3723123</v>
+      </c>
+      <c r="H179">
+        <v>18.2413855</v>
+      </c>
+      <c r="I179">
+        <v>10.5285665</v>
+      </c>
+      <c r="J179">
+        <v>16.5088757</v>
+      </c>
+      <c r="K179">
+        <v>15.8197217</v>
+      </c>
+      <c r="L179">
+        <v>29.5329248</v>
+      </c>
+      <c r="M179">
+        <v>34.3384716</v>
+      </c>
+      <c r="O179">
+        <v>13.1493506</v>
+      </c>
+      <c r="P179">
+        <v>28.9971283</v>
+      </c>
+      <c r="Q179">
+        <v>33.1745067</v>
+      </c>
+      <c r="R179">
+        <v>18.1922995</v>
+      </c>
+      <c r="S179">
+        <v>23.0880374</v>
+      </c>
+      <c r="T179">
+        <v>27.7967528</v>
+      </c>
+      <c r="U179">
+        <v>24.7203455</v>
+      </c>
+      <c r="V179">
+        <v>36.3187442</v>
+      </c>
+      <c r="W179">
+        <v>11.5554747</v>
+      </c>
+      <c r="X179">
+        <v>16.1430649</v>
+      </c>
+      <c r="Y179">
+        <v>10.4112694</v>
+      </c>
+      <c r="Z179">
+        <v>16.117721</v>
+      </c>
+      <c r="AA179">
+        <v>20.7499974</v>
+      </c>
+      <c r="AB179">
+        <v>25.8491547</v>
+      </c>
+      <c r="AD179">
+        <v>38.0403174</v>
+      </c>
+      <c r="AE179">
+        <v>24.1585283</v>
+      </c>
+      <c r="AF179">
+        <v>21.6722813</v>
+      </c>
+      <c r="AG179">
+        <v>26.1865129</v>
+      </c>
+      <c r="AH179">
+        <v>25.5745397</v>
+      </c>
+      <c r="AI179">
+        <v>10.3998597</v>
+      </c>
+      <c r="AJ179">
+        <v>12.4438023</v>
+      </c>
+      <c r="AK179">
+        <v>19.5587566</v>
+      </c>
+      <c r="AL179">
+        <v>24.7343903</v>
+      </c>
+      <c r="AM179">
+        <v>11.9620868</v>
+      </c>
+      <c r="AN179">
+        <v>21.2973936</v>
+      </c>
+      <c r="AO179">
+        <v>29.9100179</v>
+      </c>
+      <c r="AP179">
+        <v>16.5792233</v>
+      </c>
+      <c r="AQ179">
+        <v>15.115563</v>
+      </c>
+      <c r="AS179">
+        <v>13.4042867</v>
+      </c>
+      <c r="AT179">
+        <v>32.1506334</v>
+      </c>
+      <c r="AU179">
+        <v>23.1461725</v>
+      </c>
+      <c r="AV179">
+        <v>30.2285282</v>
+      </c>
+      <c r="AW179">
+        <v>34.3201445</v>
+      </c>
+      <c r="AX179">
+        <v>26.5992246</v>
+      </c>
+      <c r="AY179">
+        <v>19.3270404</v>
+      </c>
+      <c r="BA179">
+        <v>8.157685000000001</v>
+      </c>
+      <c r="BB179">
+        <v>17.1632997</v>
+      </c>
+      <c r="BC179">
+        <v>21.2253494</v>
+      </c>
+      <c r="BD179">
+        <v>21.9692679</v>
+      </c>
+      <c r="BE179">
+        <v>17.3675279</v>
+      </c>
+    </row>
+    <row r="180" spans="1:57">
+      <c r="A180" t="s">
+        <v>234</v>
+      </c>
+      <c r="B180">
+        <v>23.3535529</v>
+      </c>
+      <c r="C180">
+        <v>37.5869583</v>
+      </c>
+      <c r="D180">
+        <v>28.9426303</v>
+      </c>
+      <c r="F180">
+        <v>30.840195</v>
+      </c>
+      <c r="G180">
+        <v>21.3034525</v>
+      </c>
+      <c r="H180">
+        <v>18.1961511</v>
+      </c>
+      <c r="I180">
+        <v>10.1993068</v>
+      </c>
+      <c r="J180">
+        <v>16.3647343</v>
+      </c>
+      <c r="K180">
+        <v>16.2661196</v>
+      </c>
+      <c r="L180">
+        <v>29.0400876</v>
+      </c>
+      <c r="M180">
+        <v>33.9439115</v>
+      </c>
+      <c r="O180">
+        <v>13.0089059</v>
+      </c>
+      <c r="P180">
+        <v>28.3865655</v>
+      </c>
+      <c r="Q180">
+        <v>33.0228138</v>
+      </c>
+      <c r="R180">
+        <v>18.1438213</v>
+      </c>
+      <c r="S180">
+        <v>23.015616</v>
+      </c>
+      <c r="T180">
+        <v>27.6235108</v>
+      </c>
+      <c r="U180">
+        <v>24.6648119</v>
+      </c>
+      <c r="V180">
+        <v>35.8821955</v>
+      </c>
+      <c r="W180">
+        <v>11.3176299</v>
+      </c>
+      <c r="X180">
+        <v>16.6176227</v>
+      </c>
+      <c r="Y180">
+        <v>11.2726651</v>
+      </c>
+      <c r="Z180">
+        <v>16.3361849</v>
+      </c>
+      <c r="AA180">
+        <v>21.1270903</v>
+      </c>
+      <c r="AB180">
+        <v>26.0255015</v>
+      </c>
+      <c r="AD180">
+        <v>36.9573422</v>
+      </c>
+      <c r="AE180">
+        <v>25.3901903</v>
+      </c>
+      <c r="AF180">
+        <v>21.7194777</v>
+      </c>
+      <c r="AG180">
+        <v>26.1150565</v>
+      </c>
+      <c r="AH180">
+        <v>26.0925525</v>
+      </c>
+      <c r="AI180">
+        <v>10.7970506</v>
+      </c>
+      <c r="AJ180">
+        <v>12.2027682</v>
+      </c>
+      <c r="AK180">
+        <v>19.4235261</v>
+      </c>
+      <c r="AL180">
+        <v>24.671335</v>
+      </c>
+      <c r="AM180">
+        <v>11.9630724</v>
+      </c>
+      <c r="AN180">
+        <v>21.2541906</v>
+      </c>
+      <c r="AO180">
+        <v>30.037442</v>
+      </c>
+      <c r="AP180">
+        <v>16.805486</v>
+      </c>
+      <c r="AQ180">
+        <v>14.9360171</v>
+      </c>
+      <c r="AS180">
+        <v>13.1231464</v>
+      </c>
+      <c r="AT180">
+        <v>31.4405498</v>
+      </c>
+      <c r="AU180">
+        <v>21.7611024</v>
+      </c>
+      <c r="AV180">
+        <v>30.189567</v>
+      </c>
+      <c r="AW180">
+        <v>34.0038966</v>
+      </c>
+      <c r="AX180">
+        <v>26.134996</v>
+      </c>
+      <c r="AY180">
+        <v>19.2295393</v>
+      </c>
+      <c r="BA180">
+        <v>8.5203696</v>
+      </c>
+      <c r="BB180">
+        <v>17.5279079</v>
+      </c>
+      <c r="BC180">
+        <v>21.4613191</v>
+      </c>
+      <c r="BD180">
+        <v>21.0156045</v>
+      </c>
+      <c r="BE180">
+        <v>17.4617931</v>
+      </c>
+    </row>
+    <row r="181" spans="1:57">
+      <c r="A181" t="s">
+        <v>235</v>
+      </c>
+      <c r="B181">
+        <v>22.6538462</v>
+      </c>
+      <c r="C181">
+        <v>38.0744638</v>
+      </c>
+      <c r="D181">
+        <v>28.9353308</v>
+      </c>
+      <c r="F181">
+        <v>30.2467095</v>
+      </c>
+      <c r="G181">
+        <v>21.189032</v>
+      </c>
+      <c r="H181">
+        <v>18.2528109</v>
+      </c>
+      <c r="I181">
+        <v>10.1231783</v>
+      </c>
+      <c r="J181">
+        <v>15.1678657</v>
+      </c>
+      <c r="K181">
+        <v>16.6369394</v>
+      </c>
+      <c r="L181">
+        <v>28.7196227</v>
+      </c>
+      <c r="M181">
+        <v>33.7977871</v>
+      </c>
+      <c r="O181">
+        <v>13.0363036</v>
+      </c>
+      <c r="P181">
+        <v>27.5866433</v>
+      </c>
+      <c r="Q181">
+        <v>33.0303248</v>
+      </c>
+      <c r="R181">
+        <v>18.2868178</v>
+      </c>
+      <c r="S181">
+        <v>23.0304971</v>
+      </c>
+      <c r="T181">
+        <v>26.9522131</v>
+      </c>
+      <c r="U181">
+        <v>24.4379686</v>
+      </c>
+      <c r="V181">
+        <v>35.6824533</v>
+      </c>
+      <c r="W181">
+        <v>11.5412586</v>
+      </c>
+      <c r="X181">
+        <v>16.2966909</v>
+      </c>
+      <c r="Y181">
+        <v>10.3165651</v>
+      </c>
+      <c r="Z181">
+        <v>16.3947097</v>
+      </c>
+      <c r="AA181">
+        <v>21.0320772</v>
+      </c>
+      <c r="AB181">
+        <v>26.0832501</v>
+      </c>
+      <c r="AD181">
+        <v>36.7164578</v>
+      </c>
+      <c r="AE181">
+        <v>24.1969618</v>
+      </c>
+      <c r="AF181">
+        <v>21.8057148</v>
+      </c>
+      <c r="AG181">
+        <v>25.2861559</v>
+      </c>
+      <c r="AH181">
+        <v>26.4557452</v>
+      </c>
+      <c r="AI181">
+        <v>10.8064986</v>
+      </c>
+      <c r="AJ181">
+        <v>12.3002424</v>
+      </c>
+      <c r="AK181">
+        <v>19.7415905</v>
+      </c>
+      <c r="AL181">
+        <v>24.8328892</v>
+      </c>
+      <c r="AM181">
+        <v>11.8285604</v>
+      </c>
+      <c r="AN181">
+        <v>21.0828784</v>
+      </c>
+      <c r="AO181">
+        <v>29.5949861</v>
+      </c>
+      <c r="AP181">
+        <v>16.4016042</v>
+      </c>
+      <c r="AQ181">
+        <v>14.6768578</v>
+      </c>
+      <c r="AS181">
+        <v>13.7097463</v>
+      </c>
+      <c r="AT181">
+        <v>31.1087288</v>
+      </c>
+      <c r="AU181">
+        <v>22.7306608</v>
+      </c>
+      <c r="AV181">
+        <v>30.1394756</v>
+      </c>
+      <c r="AW181">
+        <v>33.5128643</v>
+      </c>
+      <c r="AX181">
+        <v>26.6742385</v>
+      </c>
+      <c r="AY181">
+        <v>19.031965</v>
+      </c>
+      <c r="BA181">
+        <v>7.913961</v>
+      </c>
+      <c r="BB181">
+        <v>17.6198862</v>
+      </c>
+      <c r="BC181">
+        <v>21.609292</v>
+      </c>
+      <c r="BD181">
+        <v>22.0214023</v>
+      </c>
+      <c r="BE181">
+        <v>19.0949462</v>
+      </c>
+    </row>
+    <row r="182" spans="1:57">
+      <c r="A182" t="s">
+        <v>236</v>
+      </c>
+      <c r="B182">
+        <v>22.1991701</v>
+      </c>
+      <c r="C182">
+        <v>36.5938748</v>
+      </c>
+      <c r="D182">
+        <v>28.9641188</v>
+      </c>
+      <c r="F182">
+        <v>29.6811328</v>
+      </c>
+      <c r="G182">
+        <v>21.1364448</v>
+      </c>
+      <c r="H182">
+        <v>18.3577128</v>
+      </c>
+      <c r="I182">
+        <v>9.952731099999999</v>
+      </c>
+      <c r="J182">
+        <v>13.5118306</v>
+      </c>
+      <c r="K182">
+        <v>16.7149479</v>
+      </c>
+      <c r="L182">
+        <v>28.6191258</v>
+      </c>
+      <c r="M182">
+        <v>33.5149611</v>
+      </c>
+      <c r="O182">
+        <v>12.273033</v>
+      </c>
+      <c r="P182">
+        <v>27.9940068</v>
+      </c>
+      <c r="Q182">
+        <v>33.338876</v>
+      </c>
+      <c r="R182">
+        <v>18.2910731</v>
+      </c>
+      <c r="S182">
+        <v>23.4382866</v>
+      </c>
+      <c r="T182">
+        <v>26.6107881</v>
+      </c>
+      <c r="U182">
+        <v>24.901015</v>
+      </c>
+      <c r="V182">
+        <v>36.0120962</v>
+      </c>
+      <c r="W182">
+        <v>11.457054</v>
+      </c>
+      <c r="X182">
+        <v>16.4098504</v>
+      </c>
+      <c r="Y182">
+        <v>10.8931241</v>
+      </c>
+      <c r="Z182">
+        <v>16.4516333</v>
+      </c>
+      <c r="AA182">
+        <v>21.0501156</v>
+      </c>
+      <c r="AB182">
+        <v>25.6821463</v>
+      </c>
+      <c r="AD182">
+        <v>36.5499902</v>
+      </c>
+      <c r="AE182">
+        <v>25.26119</v>
+      </c>
+      <c r="AF182">
+        <v>21.5392802</v>
+      </c>
+      <c r="AG182">
+        <v>25.1260257</v>
+      </c>
+      <c r="AH182">
+        <v>26.2642518</v>
+      </c>
+      <c r="AI182">
+        <v>10.6395578</v>
+      </c>
+      <c r="AJ182">
+        <v>12.2963799</v>
+      </c>
+      <c r="AK182">
+        <v>19.2829876</v>
+      </c>
+      <c r="AL182">
+        <v>24.1256961</v>
+      </c>
+      <c r="AM182">
+        <v>11.7403202</v>
+      </c>
+      <c r="AN182">
+        <v>21.0345974</v>
+      </c>
+      <c r="AO182">
+        <v>29.2196056</v>
+      </c>
+      <c r="AP182">
+        <v>16.4370176</v>
+      </c>
+      <c r="AQ182">
+        <v>14.5271234</v>
+      </c>
+      <c r="AS182">
+        <v>13.4429931</v>
+      </c>
+      <c r="AT182">
+        <v>30.0801317</v>
+      </c>
+      <c r="AU182">
+        <v>23.5865784</v>
+      </c>
+      <c r="AV182">
+        <v>30.6738652</v>
+      </c>
+      <c r="AW182">
+        <v>33.119137</v>
+      </c>
+      <c r="AX182">
+        <v>26.9256295</v>
+      </c>
+      <c r="AY182">
+        <v>18.817062</v>
+      </c>
+      <c r="BA182">
+        <v>8.6054762</v>
+      </c>
+      <c r="BB182">
+        <v>17.8040298</v>
+      </c>
+      <c r="BC182">
+        <v>21.6342954</v>
+      </c>
+      <c r="BD182">
+        <v>22.3370754</v>
+      </c>
+      <c r="BE182">
+        <v>19.5756122</v>
+      </c>
+    </row>
+    <row r="183" spans="1:57">
+      <c r="A183" t="s">
+        <v>237</v>
+      </c>
+      <c r="B183">
+        <v>23.6996644</v>
+      </c>
+      <c r="C183">
+        <v>36.882389</v>
+      </c>
+      <c r="D183">
+        <v>28.4247365</v>
+      </c>
+      <c r="F183">
+        <v>28.9708673</v>
+      </c>
+      <c r="G183">
+        <v>20.9905935</v>
+      </c>
+      <c r="H183">
+        <v>18.4982598</v>
+      </c>
+      <c r="I183">
+        <v>9.8568751</v>
+      </c>
+      <c r="J183">
+        <v>13.2653061</v>
+      </c>
+      <c r="K183">
+        <v>16.8789809</v>
+      </c>
+      <c r="L183">
+        <v>28.136063</v>
+      </c>
+      <c r="M183">
+        <v>33.0112949</v>
+      </c>
+      <c r="O183">
+        <v>13.2343651</v>
+      </c>
+      <c r="P183">
+        <v>28.8718424</v>
+      </c>
+      <c r="Q183">
+        <v>33.3502634</v>
+      </c>
+      <c r="R183">
+        <v>18.5549258</v>
+      </c>
+      <c r="S183">
+        <v>24.2456447</v>
+      </c>
+      <c r="T183">
+        <v>27.3062209</v>
+      </c>
+      <c r="U183">
+        <v>24.683321</v>
+      </c>
+      <c r="V183">
+        <v>36.0861423</v>
+      </c>
+      <c r="W183">
+        <v>11.4769717</v>
+      </c>
+      <c r="X183">
+        <v>16.3204095</v>
+      </c>
+      <c r="Y183">
+        <v>10.366511</v>
+      </c>
+      <c r="Z183">
+        <v>16.7361767</v>
+      </c>
+      <c r="AA183">
+        <v>20.7366986</v>
+      </c>
+      <c r="AB183">
+        <v>25.6147101</v>
+      </c>
+      <c r="AD183">
+        <v>36.9825016</v>
+      </c>
+      <c r="AE183">
+        <v>24.0077048</v>
+      </c>
+      <c r="AF183">
+        <v>21.4794335</v>
+      </c>
+      <c r="AG183">
+        <v>26.1290907</v>
+      </c>
+      <c r="AH183">
+        <v>25.5467493</v>
+      </c>
+      <c r="AI183">
+        <v>11.0631104</v>
+      </c>
+      <c r="AJ183">
+        <v>12.2391221</v>
+      </c>
+      <c r="AK183">
+        <v>19.8519229</v>
+      </c>
+      <c r="AL183">
+        <v>24.4464509</v>
+      </c>
+      <c r="AM183">
+        <v>11.5745927</v>
+      </c>
+      <c r="AN183">
+        <v>21.3513204</v>
+      </c>
+      <c r="AO183">
+        <v>29.4102707</v>
+      </c>
+      <c r="AP183">
+        <v>16.336303</v>
+      </c>
+      <c r="AQ183">
+        <v>14.5604111</v>
+      </c>
+      <c r="AS183">
+        <v>14.1410496</v>
+      </c>
+      <c r="AT183">
+        <v>30.0262553</v>
+      </c>
+      <c r="AU183">
+        <v>22.3931185</v>
+      </c>
+      <c r="AV183">
+        <v>30.2534635</v>
+      </c>
+      <c r="AW183">
+        <v>32.5307177</v>
+      </c>
+      <c r="AX183">
+        <v>26.6186647</v>
+      </c>
+      <c r="AY183">
+        <v>18.8578985</v>
+      </c>
+      <c r="BA183">
+        <v>8.137343</v>
+      </c>
+      <c r="BB183">
+        <v>18.0277284</v>
+      </c>
+      <c r="BC183">
+        <v>21.6508977</v>
+      </c>
+      <c r="BD183">
+        <v>21.0499795</v>
+      </c>
+      <c r="BE183">
+        <v>20.2939183</v>
+      </c>
+    </row>
+    <row r="184" spans="1:57">
+      <c r="A184" t="s">
+        <v>238</v>
+      </c>
+      <c r="B184">
+        <v>21.2204724</v>
+      </c>
+      <c r="C184">
+        <v>36.5460141</v>
+      </c>
+      <c r="D184">
+        <v>28.2646909</v>
+      </c>
+      <c r="F184">
+        <v>28.4173855</v>
+      </c>
+      <c r="G184">
+        <v>20.8859919</v>
+      </c>
+      <c r="H184">
+        <v>18.5661379</v>
+      </c>
+      <c r="I184">
+        <v>9.758887700000001</v>
+      </c>
+      <c r="J184">
+        <v>13.2552404</v>
+      </c>
+      <c r="K184">
+        <v>16.704481</v>
+      </c>
+      <c r="L184">
+        <v>27.9296046</v>
+      </c>
+      <c r="M184">
+        <v>32.7520169</v>
+      </c>
+      <c r="O184">
+        <v>12.8764597</v>
+      </c>
+      <c r="P184">
+        <v>28.1422174</v>
+      </c>
+      <c r="Q184">
+        <v>32.6668298</v>
+      </c>
+      <c r="R184">
+        <v>18.5199444</v>
+      </c>
+      <c r="S184">
+        <v>24.3418949</v>
+      </c>
+      <c r="T184">
+        <v>27.2134091</v>
+      </c>
+      <c r="U184">
+        <v>24.5835014</v>
+      </c>
+      <c r="V184">
+        <v>36.2889455</v>
+      </c>
+      <c r="W184">
+        <v>11.3178522</v>
+      </c>
+      <c r="X184">
+        <v>16.2219007</v>
+      </c>
+      <c r="Y184">
+        <v>10.2540501</v>
+      </c>
+      <c r="Z184">
+        <v>16.5892754</v>
+      </c>
+      <c r="AA184">
+        <v>20.8838102</v>
+      </c>
+      <c r="AB184">
+        <v>25.6044215</v>
+      </c>
+      <c r="AD184">
+        <v>36.7971856</v>
+      </c>
+      <c r="AE184">
+        <v>24.6052772</v>
+      </c>
+      <c r="AF184">
+        <v>21.3074439</v>
+      </c>
+      <c r="AG184">
+        <v>25.9072332</v>
+      </c>
+      <c r="AH184">
+        <v>25.424786</v>
+      </c>
+      <c r="AI184">
+        <v>10.7748651</v>
+      </c>
+      <c r="AJ184">
+        <v>12.1843797</v>
+      </c>
+      <c r="AK184">
+        <v>19.4123646</v>
+      </c>
+      <c r="AL184">
+        <v>23.9569418</v>
+      </c>
+      <c r="AM184">
+        <v>11.5081398</v>
+      </c>
+      <c r="AN184">
+        <v>21.2748349</v>
+      </c>
+      <c r="AO184">
+        <v>28.7830837</v>
+      </c>
+      <c r="AP184">
+        <v>16.0630317</v>
+      </c>
+      <c r="AQ184">
+        <v>14.6474637</v>
+      </c>
+      <c r="AS184">
+        <v>13.6279005</v>
+      </c>
+      <c r="AT184">
+        <v>30.2957086</v>
+      </c>
+      <c r="AU184">
+        <v>24.1167379</v>
+      </c>
+      <c r="AV184">
+        <v>30.2964955</v>
+      </c>
+      <c r="AW184">
+        <v>32.3372983</v>
+      </c>
+      <c r="AX184">
+        <v>26.8830308</v>
+      </c>
+      <c r="AY184">
+        <v>18.7681472</v>
+      </c>
+      <c r="BA184">
+        <v>6.9927241</v>
+      </c>
+      <c r="BB184">
+        <v>17.7678466</v>
+      </c>
+      <c r="BC184">
+        <v>21.1001513</v>
+      </c>
+      <c r="BD184">
+        <v>21.8926953</v>
+      </c>
+      <c r="BE184">
+        <v>20.6200192</v>
+      </c>
+    </row>
+    <row r="185" spans="1:57">
+      <c r="A185" t="s">
+        <v>239</v>
+      </c>
+      <c r="B185">
+        <v>20.9347997</v>
+      </c>
+      <c r="C185">
+        <v>36.6477283</v>
+      </c>
+      <c r="D185">
+        <v>28.7608513</v>
+      </c>
+      <c r="F185">
+        <v>28.1847403</v>
+      </c>
+      <c r="G185">
+        <v>20.7713579</v>
+      </c>
+      <c r="H185">
+        <v>18.4094009</v>
+      </c>
+      <c r="I185">
+        <v>9.4290071</v>
+      </c>
+      <c r="J185">
+        <v>12.7068558</v>
+      </c>
+      <c r="K185">
+        <v>17.4721318</v>
+      </c>
+      <c r="L185">
+        <v>27.6205901</v>
+      </c>
+      <c r="M185">
+        <v>32.4350923</v>
+      </c>
+      <c r="O185">
+        <v>13.1578947</v>
+      </c>
+      <c r="P185">
+        <v>28.3752279</v>
+      </c>
+      <c r="Q185">
+        <v>31.8936125</v>
+      </c>
+      <c r="R185">
+        <v>18.9735377</v>
+      </c>
+      <c r="S185">
+        <v>24.6284958</v>
+      </c>
+      <c r="T185">
+        <v>26.14837</v>
+      </c>
+      <c r="U185">
+        <v>24.9738224</v>
+      </c>
+      <c r="V185">
+        <v>35.3658584</v>
+      </c>
+      <c r="W185">
+        <v>11.0353969</v>
+      </c>
+      <c r="X185">
+        <v>15.9726297</v>
+      </c>
+      <c r="Y185">
+        <v>10.2188493</v>
+      </c>
+      <c r="Z185">
+        <v>16.6346916</v>
+      </c>
+      <c r="AA185">
+        <v>20.6548986</v>
+      </c>
+      <c r="AB185">
+        <v>25.4929815</v>
+      </c>
+      <c r="AD185">
+        <v>37.0307178</v>
+      </c>
+      <c r="AE185">
+        <v>25.3123052</v>
+      </c>
+      <c r="AF185">
+        <v>21.2671814</v>
+      </c>
+      <c r="AG185">
+        <v>25.3886855</v>
+      </c>
+      <c r="AH185">
+        <v>25.6816512</v>
+      </c>
+      <c r="AI185">
+        <v>10.3773585</v>
+      </c>
+      <c r="AJ185">
+        <v>11.9818565</v>
+      </c>
+      <c r="AK185">
+        <v>18.4527316</v>
+      </c>
+      <c r="AL185">
+        <v>23.4478399</v>
+      </c>
+      <c r="AM185">
+        <v>11.7444509</v>
+      </c>
+      <c r="AN185">
+        <v>21.6656597</v>
+      </c>
+      <c r="AO185">
+        <v>29.132302</v>
+      </c>
+      <c r="AP185">
+        <v>15.4569926</v>
+      </c>
+      <c r="AQ185">
+        <v>14.515818</v>
+      </c>
+      <c r="AS185">
+        <v>13.504236</v>
+      </c>
+      <c r="AT185">
+        <v>29.7023328</v>
+      </c>
+      <c r="AU185">
+        <v>22.4352593</v>
+      </c>
+      <c r="AV185">
+        <v>30.3552956</v>
+      </c>
+      <c r="AW185">
+        <v>31.7044423</v>
+      </c>
+      <c r="AX185">
+        <v>27.049002</v>
+      </c>
+      <c r="AY185">
+        <v>18.5329562</v>
+      </c>
+      <c r="BA185">
+        <v>8.3680238</v>
+      </c>
+      <c r="BB185">
+        <v>17.8136131</v>
+      </c>
+      <c r="BC185">
+        <v>21.0273407</v>
+      </c>
+      <c r="BD185">
+        <v>22.6753</v>
+      </c>
+      <c r="BE185">
+        <v>22.7153665</v>
+      </c>
+    </row>
+    <row r="186" spans="1:57">
+      <c r="A186" t="s">
+        <v>240</v>
+      </c>
+      <c r="B186">
+        <v>20.7021792</v>
+      </c>
+      <c r="C186">
+        <v>36.4498671</v>
+      </c>
+      <c r="D186">
+        <v>29.0991779</v>
+      </c>
+      <c r="F186">
+        <v>27.2690791</v>
+      </c>
+      <c r="G186">
+        <v>20.6404813</v>
+      </c>
+      <c r="H186">
+        <v>18.3837893</v>
+      </c>
+      <c r="I186">
+        <v>9.3948771</v>
+      </c>
+      <c r="J186">
+        <v>12.6682987</v>
+      </c>
+      <c r="K186">
+        <v>16.4766558</v>
+      </c>
+      <c r="L186">
+        <v>27.4637072</v>
+      </c>
+      <c r="M186">
+        <v>32.4534326</v>
+      </c>
+      <c r="O186">
+        <v>13.9813193</v>
+      </c>
+      <c r="P186">
+        <v>28.1873626</v>
+      </c>
+      <c r="Q186">
+        <v>32.362727</v>
+      </c>
+      <c r="R186">
+        <v>19.1834241</v>
+      </c>
+      <c r="S186">
+        <v>24.7071328</v>
+      </c>
+      <c r="T186">
+        <v>26.3381532</v>
+      </c>
+      <c r="U186">
+        <v>24.8531019</v>
+      </c>
+      <c r="V186">
+        <v>35.1411825</v>
+      </c>
+      <c r="W186">
+        <v>11.2826416</v>
+      </c>
+      <c r="X186">
+        <v>15.6429842</v>
+      </c>
+      <c r="Y186">
+        <v>10.3867214</v>
+      </c>
+      <c r="Z186">
+        <v>16.8416103</v>
+      </c>
+      <c r="AA186">
+        <v>21.1931739</v>
+      </c>
+      <c r="AB186">
+        <v>25.4863863</v>
+      </c>
+      <c r="AD186">
+        <v>36.6711853</v>
+      </c>
+      <c r="AE186">
+        <v>24.4715227</v>
+      </c>
+      <c r="AF186">
+        <v>21.0663477</v>
+      </c>
+      <c r="AG186">
+        <v>26.188426</v>
+      </c>
+      <c r="AH186">
+        <v>26.3388391</v>
+      </c>
+      <c r="AI186">
+        <v>10.1258581</v>
+      </c>
+      <c r="AJ186">
+        <v>12.0852196</v>
+      </c>
+      <c r="AK186">
+        <v>19.0366994</v>
+      </c>
+      <c r="AL186">
+        <v>23.9734002</v>
+      </c>
+      <c r="AM186">
+        <v>11.7139513</v>
+      </c>
+      <c r="AN186">
+        <v>21.6547488</v>
+      </c>
+      <c r="AO186">
+        <v>29.3228571</v>
+      </c>
+      <c r="AP186">
+        <v>15.1720903</v>
+      </c>
+      <c r="AQ186">
+        <v>14.6270193</v>
+      </c>
+      <c r="AS186">
+        <v>14.0551491</v>
+      </c>
+      <c r="AT186">
+        <v>29.7531213</v>
+      </c>
+      <c r="AU186">
+        <v>23.7572351</v>
+      </c>
+      <c r="AV186">
+        <v>29.7842703</v>
+      </c>
+      <c r="AW186">
+        <v>31.2136246</v>
+      </c>
+      <c r="AX186">
+        <v>26.9166807</v>
+      </c>
+      <c r="AY186">
+        <v>18.7451017</v>
+      </c>
+      <c r="BA186">
+        <v>7.6656442</v>
+      </c>
+      <c r="BB186">
+        <v>17.489207</v>
+      </c>
+      <c r="BC186">
+        <v>20.7549912</v>
+      </c>
+      <c r="BD186">
+        <v>22.5386432</v>
+      </c>
+      <c r="BE186">
+        <v>22.1575372</v>
+      </c>
+    </row>
+    <row r="187" spans="1:57">
+      <c r="A187" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:57">
+      <c r="A188" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>Alaska</t>
   </si>
@@ -743,6 +743,21 @@
   </si>
   <si>
     <t>05 08 2020</t>
+  </si>
+  <si>
+    <t>06 08 2020</t>
+  </si>
+  <si>
+    <t>07 08 2020</t>
+  </si>
+  <si>
+    <t>08 08 2020</t>
+  </si>
+  <si>
+    <t>09 08 2020</t>
+  </si>
+  <si>
+    <t>10 08 2020</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE188"/>
+  <dimension ref="A1:BE193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14981,6 +14996,9 @@
       <c r="AQ159">
         <v>12.6931724</v>
       </c>
+      <c r="AR159">
+        <v>18.6363636</v>
+      </c>
       <c r="AS159">
         <v>10.8970687</v>
       </c>
@@ -15139,6 +15157,9 @@
       <c r="AQ160">
         <v>12.9421702</v>
       </c>
+      <c r="AR160">
+        <v>11.832048</v>
+      </c>
       <c r="AS160">
         <v>11.1516148</v>
       </c>
@@ -15297,6 +15318,9 @@
       <c r="AQ161">
         <v>13.2085646</v>
       </c>
+      <c r="AR161">
+        <v>11.3282489</v>
+      </c>
       <c r="AS161">
         <v>11.7751507</v>
       </c>
@@ -15455,6 +15479,9 @@
       <c r="AQ162">
         <v>13.6003307</v>
       </c>
+      <c r="AR162">
+        <v>16.4</v>
+      </c>
       <c r="AS162">
         <v>11.6738569</v>
       </c>
@@ -19188,7 +19215,7 @@
         <v>35.1411825</v>
       </c>
       <c r="W186">
-        <v>11.2826416</v>
+        <v>11.2812968</v>
       </c>
       <c r="X186">
         <v>15.6429842</v>
@@ -19203,7 +19230,7 @@
         <v>21.1931739</v>
       </c>
       <c r="AB186">
-        <v>25.4863863</v>
+        <v>25.4832589</v>
       </c>
       <c r="AD186">
         <v>36.6711853</v>
@@ -19263,7 +19290,7 @@
         <v>31.2136246</v>
       </c>
       <c r="AX186">
-        <v>26.9166807</v>
+        <v>26.9105303</v>
       </c>
       <c r="AY186">
         <v>18.7451017</v>
@@ -19288,10 +19315,953 @@
       <c r="A187" t="s">
         <v>241</v>
       </c>
+      <c r="B187">
+        <v>20.3557312</v>
+      </c>
+      <c r="C187">
+        <v>35.7011163</v>
+      </c>
+      <c r="D187">
+        <v>28.3207753</v>
+      </c>
+      <c r="F187">
+        <v>26.6510193</v>
+      </c>
+      <c r="G187">
+        <v>20.2793995</v>
+      </c>
+      <c r="H187">
+        <v>18.5995839</v>
+      </c>
+      <c r="I187">
+        <v>9.389219499999999</v>
+      </c>
+      <c r="J187">
+        <v>13.4101942</v>
+      </c>
+      <c r="K187">
+        <v>17.1052632</v>
+      </c>
+      <c r="L187">
+        <v>27.2699425</v>
+      </c>
+      <c r="M187">
+        <v>32.5519121</v>
+      </c>
+      <c r="O187">
+        <v>14.2563198</v>
+      </c>
+      <c r="P187">
+        <v>28.5352863</v>
+      </c>
+      <c r="Q187">
+        <v>31.8284205</v>
+      </c>
+      <c r="R187">
+        <v>19.4136951</v>
+      </c>
+      <c r="S187">
+        <v>24.5046699</v>
+      </c>
+      <c r="T187">
+        <v>26.2906227</v>
+      </c>
+      <c r="U187">
+        <v>25.4281233</v>
+      </c>
+      <c r="V187">
+        <v>34.8426969</v>
+      </c>
+      <c r="W187">
+        <v>11.2971668</v>
+      </c>
+      <c r="X187">
+        <v>15.5127651</v>
+      </c>
+      <c r="Y187">
+        <v>9.913322600000001</v>
+      </c>
+      <c r="Z187">
+        <v>16.6008978</v>
+      </c>
+      <c r="AA187">
+        <v>20.7643292</v>
+      </c>
+      <c r="AB187">
+        <v>25.3432738</v>
+      </c>
+      <c r="AD187">
+        <v>37.2834541</v>
+      </c>
+      <c r="AE187">
+        <v>24.1856456</v>
+      </c>
+      <c r="AF187">
+        <v>20.7421065</v>
+      </c>
+      <c r="AG187">
+        <v>25.1169563</v>
+      </c>
+      <c r="AH187">
+        <v>25.3340167</v>
+      </c>
+      <c r="AI187">
+        <v>10.1552043</v>
+      </c>
+      <c r="AJ187">
+        <v>11.8648329</v>
+      </c>
+      <c r="AK187">
+        <v>18.7568802</v>
+      </c>
+      <c r="AL187">
+        <v>23.8476356</v>
+      </c>
+      <c r="AM187">
+        <v>11.6539355</v>
+      </c>
+      <c r="AN187">
+        <v>21.7925562</v>
+      </c>
+      <c r="AO187">
+        <v>29.5966904</v>
+      </c>
+      <c r="AP187">
+        <v>14.9991643</v>
+      </c>
+      <c r="AQ187">
+        <v>14.366885</v>
+      </c>
+      <c r="AS187">
+        <v>14.3772381</v>
+      </c>
+      <c r="AT187">
+        <v>29.5169825</v>
+      </c>
+      <c r="AU187">
+        <v>23.7142107</v>
+      </c>
+      <c r="AV187">
+        <v>29.946227</v>
+      </c>
+      <c r="AW187">
+        <v>30.8981091</v>
+      </c>
+      <c r="AX187">
+        <v>27.1207642</v>
+      </c>
+      <c r="AY187">
+        <v>18.6137295</v>
+      </c>
+      <c r="BA187">
+        <v>8.638551100000001</v>
+      </c>
+      <c r="BB187">
+        <v>17.0405936</v>
+      </c>
+      <c r="BC187">
+        <v>21.2255787</v>
+      </c>
+      <c r="BD187">
+        <v>21.5841355</v>
+      </c>
+      <c r="BE187">
+        <v>21.8377106</v>
+      </c>
     </row>
     <row r="188" spans="1:57">
       <c r="A188" t="s">
         <v>242</v>
+      </c>
+      <c r="B188">
+        <v>20.9615385</v>
+      </c>
+      <c r="C188">
+        <v>35.9064994</v>
+      </c>
+      <c r="D188">
+        <v>28.7458818</v>
+      </c>
+      <c r="F188">
+        <v>26.4814908</v>
+      </c>
+      <c r="G188">
+        <v>20.0646674</v>
+      </c>
+      <c r="H188">
+        <v>18.5354695</v>
+      </c>
+      <c r="I188">
+        <v>9.342936099999999</v>
+      </c>
+      <c r="J188">
+        <v>13.3605601</v>
+      </c>
+      <c r="K188">
+        <v>17.1173763</v>
+      </c>
+      <c r="L188">
+        <v>27.0046123</v>
+      </c>
+      <c r="M188">
+        <v>32.1605344</v>
+      </c>
+      <c r="O188">
+        <v>14.4533486</v>
+      </c>
+      <c r="P188">
+        <v>28.214731</v>
+      </c>
+      <c r="Q188">
+        <v>31.8266377</v>
+      </c>
+      <c r="R188">
+        <v>19.3933465</v>
+      </c>
+      <c r="S188">
+        <v>24.6730327</v>
+      </c>
+      <c r="T188">
+        <v>27.2088415</v>
+      </c>
+      <c r="U188">
+        <v>25.5517724</v>
+      </c>
+      <c r="V188">
+        <v>34.2205393</v>
+      </c>
+      <c r="W188">
+        <v>11.1666199</v>
+      </c>
+      <c r="X188">
+        <v>15.7333125</v>
+      </c>
+      <c r="Y188">
+        <v>9.347982699999999</v>
+      </c>
+      <c r="Z188">
+        <v>16.5564355</v>
+      </c>
+      <c r="AA188">
+        <v>21.165553</v>
+      </c>
+      <c r="AB188">
+        <v>25.7079996</v>
+      </c>
+      <c r="AD188">
+        <v>36.8244932</v>
+      </c>
+      <c r="AE188">
+        <v>25.5614527</v>
+      </c>
+      <c r="AF188">
+        <v>20.8144657</v>
+      </c>
+      <c r="AG188">
+        <v>25.6123352</v>
+      </c>
+      <c r="AH188">
+        <v>26.5705539</v>
+      </c>
+      <c r="AI188">
+        <v>9.7436864</v>
+      </c>
+      <c r="AJ188">
+        <v>11.8298294</v>
+      </c>
+      <c r="AK188">
+        <v>18.3476935</v>
+      </c>
+      <c r="AL188">
+        <v>24.543586</v>
+      </c>
+      <c r="AM188">
+        <v>11.6203848</v>
+      </c>
+      <c r="AN188">
+        <v>21.709507</v>
+      </c>
+      <c r="AO188">
+        <v>29.8252549</v>
+      </c>
+      <c r="AP188">
+        <v>14.919132</v>
+      </c>
+      <c r="AQ188">
+        <v>14.8106893</v>
+      </c>
+      <c r="AS188">
+        <v>13.3874395</v>
+      </c>
+      <c r="AT188">
+        <v>30.0487507</v>
+      </c>
+      <c r="AU188">
+        <v>24.0628165</v>
+      </c>
+      <c r="AV188">
+        <v>29.8433123</v>
+      </c>
+      <c r="AW188">
+        <v>30.2114157</v>
+      </c>
+      <c r="AX188">
+        <v>26.5512724</v>
+      </c>
+      <c r="AY188">
+        <v>18.5047112</v>
+      </c>
+      <c r="BA188">
+        <v>9.195845</v>
+      </c>
+      <c r="BB188">
+        <v>17.3285811</v>
+      </c>
+      <c r="BC188">
+        <v>20.7821335</v>
+      </c>
+      <c r="BD188">
+        <v>22.6614474</v>
+      </c>
+      <c r="BE188">
+        <v>20.5592813</v>
+      </c>
+    </row>
+    <row r="189" spans="1:57">
+      <c r="A189" t="s">
+        <v>243</v>
+      </c>
+      <c r="B189">
+        <v>20.2323718</v>
+      </c>
+      <c r="C189">
+        <v>34.8864049</v>
+      </c>
+      <c r="D189">
+        <v>29.1666673</v>
+      </c>
+      <c r="F189">
+        <v>26.2362149</v>
+      </c>
+      <c r="G189">
+        <v>19.9550069</v>
+      </c>
+      <c r="H189">
+        <v>17.9468251</v>
+      </c>
+      <c r="I189">
+        <v>9.917934300000001</v>
+      </c>
+      <c r="J189">
+        <v>13.7152778</v>
+      </c>
+      <c r="K189">
+        <v>15.9334461</v>
+      </c>
+      <c r="L189">
+        <v>26.8284194</v>
+      </c>
+      <c r="M189">
+        <v>32.4997761</v>
+      </c>
+      <c r="O189">
+        <v>14.8011364</v>
+      </c>
+      <c r="P189">
+        <v>28.3188429</v>
+      </c>
+      <c r="Q189">
+        <v>30.9130974</v>
+      </c>
+      <c r="R189">
+        <v>19.6469514</v>
+      </c>
+      <c r="S189">
+        <v>25.1457936</v>
+      </c>
+      <c r="T189">
+        <v>26.4153</v>
+      </c>
+      <c r="U189">
+        <v>26.1302564</v>
+      </c>
+      <c r="V189">
+        <v>34.206333</v>
+      </c>
+      <c r="W189">
+        <v>10.7842124</v>
+      </c>
+      <c r="X189">
+        <v>15.4791993</v>
+      </c>
+      <c r="Y189">
+        <v>10.4313871</v>
+      </c>
+      <c r="Z189">
+        <v>16.7483337</v>
+      </c>
+      <c r="AA189">
+        <v>20.5368202</v>
+      </c>
+      <c r="AB189">
+        <v>25.6943563</v>
+      </c>
+      <c r="AD189">
+        <v>36.1808014</v>
+      </c>
+      <c r="AE189">
+        <v>24.4569456</v>
+      </c>
+      <c r="AF189">
+        <v>20.6513023</v>
+      </c>
+      <c r="AG189">
+        <v>26.9272471</v>
+      </c>
+      <c r="AH189">
+        <v>27.4644938</v>
+      </c>
+      <c r="AI189">
+        <v>9.996009600000001</v>
+      </c>
+      <c r="AJ189">
+        <v>11.9295588</v>
+      </c>
+      <c r="AK189">
+        <v>19.1843197</v>
+      </c>
+      <c r="AL189">
+        <v>24.7130041</v>
+      </c>
+      <c r="AM189">
+        <v>11.492425</v>
+      </c>
+      <c r="AN189">
+        <v>21.7834778</v>
+      </c>
+      <c r="AO189">
+        <v>29.8271828</v>
+      </c>
+      <c r="AP189">
+        <v>14.7566226</v>
+      </c>
+      <c r="AQ189">
+        <v>14.8538277</v>
+      </c>
+      <c r="AS189">
+        <v>13.456802</v>
+      </c>
+      <c r="AT189">
+        <v>29.9102766</v>
+      </c>
+      <c r="AU189">
+        <v>25.3737107</v>
+      </c>
+      <c r="AV189">
+        <v>29.8950326</v>
+      </c>
+      <c r="AW189">
+        <v>30.0509898</v>
+      </c>
+      <c r="AX189">
+        <v>26.3290567</v>
+      </c>
+      <c r="AY189">
+        <v>18.5002105</v>
+      </c>
+      <c r="BA189">
+        <v>8.263513</v>
+      </c>
+      <c r="BB189">
+        <v>17.340269</v>
+      </c>
+      <c r="BC189">
+        <v>20.7120269</v>
+      </c>
+      <c r="BD189">
+        <v>22.2560424</v>
+      </c>
+      <c r="BE189">
+        <v>21.9352936</v>
+      </c>
+    </row>
+    <row r="190" spans="1:57">
+      <c r="A190" t="s">
+        <v>244</v>
+      </c>
+      <c r="B190">
+        <v>20.081663</v>
+      </c>
+      <c r="C190">
+        <v>35.0305403</v>
+      </c>
+      <c r="D190">
+        <v>29.002053</v>
+      </c>
+      <c r="F190">
+        <v>26.0933777</v>
+      </c>
+      <c r="G190">
+        <v>19.7633532</v>
+      </c>
+      <c r="H190">
+        <v>17.5124234</v>
+      </c>
+      <c r="I190">
+        <v>9.914285700000001</v>
+      </c>
+      <c r="J190">
+        <v>13.6206897</v>
+      </c>
+      <c r="K190">
+        <v>15.4996826</v>
+      </c>
+      <c r="L190">
+        <v>26.4308234</v>
+      </c>
+      <c r="M190">
+        <v>32.1094825</v>
+      </c>
+      <c r="O190">
+        <v>14.8708081</v>
+      </c>
+      <c r="P190">
+        <v>27.7252229</v>
+      </c>
+      <c r="Q190">
+        <v>30.4400575</v>
+      </c>
+      <c r="R190">
+        <v>19.7355959</v>
+      </c>
+      <c r="S190">
+        <v>24.5584956</v>
+      </c>
+      <c r="T190">
+        <v>25.7054229</v>
+      </c>
+      <c r="U190">
+        <v>26.1140484</v>
+      </c>
+      <c r="V190">
+        <v>34.0206967</v>
+      </c>
+      <c r="W190">
+        <v>10.8152434</v>
+      </c>
+      <c r="X190">
+        <v>15.6529988</v>
+      </c>
+      <c r="Y190">
+        <v>10.4923184</v>
+      </c>
+      <c r="Z190">
+        <v>16.7649258</v>
+      </c>
+      <c r="AA190">
+        <v>20.92824</v>
+      </c>
+      <c r="AB190">
+        <v>26.5155362</v>
+      </c>
+      <c r="AD190">
+        <v>36.2971219</v>
+      </c>
+      <c r="AE190">
+        <v>25.7843051</v>
+      </c>
+      <c r="AF190">
+        <v>20.3181243</v>
+      </c>
+      <c r="AG190">
+        <v>25.3499071</v>
+      </c>
+      <c r="AH190">
+        <v>26.7977587</v>
+      </c>
+      <c r="AI190">
+        <v>10.2930267</v>
+      </c>
+      <c r="AJ190">
+        <v>11.8354834</v>
+      </c>
+      <c r="AK190">
+        <v>19.3668077</v>
+      </c>
+      <c r="AL190">
+        <v>24.7010005</v>
+      </c>
+      <c r="AM190">
+        <v>11.724194</v>
+      </c>
+      <c r="AN190">
+        <v>21.7565851</v>
+      </c>
+      <c r="AO190">
+        <v>30.2633993</v>
+      </c>
+      <c r="AP190">
+        <v>14.822062</v>
+      </c>
+      <c r="AQ190">
+        <v>14.7155146</v>
+      </c>
+      <c r="AS190">
+        <v>13.1936266</v>
+      </c>
+      <c r="AT190">
+        <v>29.5462766</v>
+      </c>
+      <c r="AU190">
+        <v>24.3514678</v>
+      </c>
+      <c r="AV190">
+        <v>29.9090546</v>
+      </c>
+      <c r="AW190">
+        <v>29.7899525</v>
+      </c>
+      <c r="AX190">
+        <v>25.9627901</v>
+      </c>
+      <c r="AY190">
+        <v>18.5381088</v>
+      </c>
+      <c r="BA190">
+        <v>9.8120388</v>
+      </c>
+      <c r="BB190">
+        <v>17.3004219</v>
+      </c>
+      <c r="BC190">
+        <v>20.9679286</v>
+      </c>
+      <c r="BD190">
+        <v>22.1188847</v>
+      </c>
+      <c r="BE190">
+        <v>20.801157</v>
+      </c>
+    </row>
+    <row r="191" spans="1:57">
+      <c r="A191" t="s">
+        <v>245</v>
+      </c>
+      <c r="B191">
+        <v>20.0242718</v>
+      </c>
+      <c r="C191">
+        <v>34.815552</v>
+      </c>
+      <c r="D191">
+        <v>29.0144283</v>
+      </c>
+      <c r="F191">
+        <v>25.5482216</v>
+      </c>
+      <c r="G191">
+        <v>19.6736523</v>
+      </c>
+      <c r="H191">
+        <v>17.2241917</v>
+      </c>
+      <c r="I191">
+        <v>10.0829795</v>
+      </c>
+      <c r="J191">
+        <v>13.2738095</v>
+      </c>
+      <c r="K191">
+        <v>15.7110327</v>
+      </c>
+      <c r="L191">
+        <v>25.9399211</v>
+      </c>
+      <c r="M191">
+        <v>31.7708947</v>
+      </c>
+      <c r="O191">
+        <v>15.323026</v>
+      </c>
+      <c r="P191">
+        <v>27.4219389</v>
+      </c>
+      <c r="Q191">
+        <v>30.993375</v>
+      </c>
+      <c r="R191">
+        <v>19.8870186</v>
+      </c>
+      <c r="S191">
+        <v>24.5077037</v>
+      </c>
+      <c r="T191">
+        <v>25.5518819</v>
+      </c>
+      <c r="U191">
+        <v>26.4600273</v>
+      </c>
+      <c r="V191">
+        <v>33.9481835</v>
+      </c>
+      <c r="W191">
+        <v>10.7680299</v>
+      </c>
+      <c r="X191">
+        <v>15.0109604</v>
+      </c>
+      <c r="Y191">
+        <v>10.7091433</v>
+      </c>
+      <c r="Z191">
+        <v>16.7964911</v>
+      </c>
+      <c r="AA191">
+        <v>20.9797716</v>
+      </c>
+      <c r="AB191">
+        <v>25.5447154</v>
+      </c>
+      <c r="AD191">
+        <v>36.8428023</v>
+      </c>
+      <c r="AE191">
+        <v>24.735524</v>
+      </c>
+      <c r="AF191">
+        <v>20.8978711</v>
+      </c>
+      <c r="AG191">
+        <v>26.3059082</v>
+      </c>
+      <c r="AH191">
+        <v>27.5909316</v>
+      </c>
+      <c r="AI191">
+        <v>10.5971897</v>
+      </c>
+      <c r="AJ191">
+        <v>11.8298617</v>
+      </c>
+      <c r="AK191">
+        <v>18.8525915</v>
+      </c>
+      <c r="AL191">
+        <v>24.9207334</v>
+      </c>
+      <c r="AM191">
+        <v>11.7340101</v>
+      </c>
+      <c r="AN191">
+        <v>21.7213358</v>
+      </c>
+      <c r="AO191">
+        <v>29.3569052</v>
+      </c>
+      <c r="AP191">
+        <v>14.8383017</v>
+      </c>
+      <c r="AQ191">
+        <v>14.8056069</v>
+      </c>
+      <c r="AS191">
+        <v>13.6640075</v>
+      </c>
+      <c r="AT191">
+        <v>29.4157197</v>
+      </c>
+      <c r="AU191">
+        <v>23.3646901</v>
+      </c>
+      <c r="AV191">
+        <v>29.0117651</v>
+      </c>
+      <c r="AW191">
+        <v>29.5754224</v>
+      </c>
+      <c r="AX191">
+        <v>26.2180531</v>
+      </c>
+      <c r="AY191">
+        <v>18.634555</v>
+      </c>
+      <c r="BA191">
+        <v>9.983718</v>
+      </c>
+      <c r="BB191">
+        <v>17.2370206</v>
+      </c>
+      <c r="BC191">
+        <v>20.9881611</v>
+      </c>
+      <c r="BD191">
+        <v>20.9211204</v>
+      </c>
+      <c r="BE191">
+        <v>20.353184</v>
+      </c>
+    </row>
+    <row r="192" spans="1:57">
+      <c r="A192" t="s">
+        <v>246</v>
+      </c>
+      <c r="B192">
+        <v>19.7665663</v>
+      </c>
+      <c r="C192">
+        <v>33.9954347</v>
+      </c>
+      <c r="D192">
+        <v>28.9760418</v>
+      </c>
+      <c r="F192">
+        <v>25.4486435</v>
+      </c>
+      <c r="G192">
+        <v>19.4227517</v>
+      </c>
+      <c r="H192">
+        <v>17.1530023</v>
+      </c>
+      <c r="I192">
+        <v>10.0289017</v>
+      </c>
+      <c r="J192">
+        <v>14.0022676</v>
+      </c>
+      <c r="K192">
+        <v>15.0575375</v>
+      </c>
+      <c r="L192">
+        <v>25.9505333</v>
+      </c>
+      <c r="M192">
+        <v>31.8989296</v>
+      </c>
+      <c r="O192">
+        <v>15.2233115</v>
+      </c>
+      <c r="P192">
+        <v>27.4019876</v>
+      </c>
+      <c r="Q192">
+        <v>30.6362489</v>
+      </c>
+      <c r="R192">
+        <v>20.0534445</v>
+      </c>
+      <c r="S192">
+        <v>24.4245511</v>
+      </c>
+      <c r="T192">
+        <v>26.1036784</v>
+      </c>
+      <c r="U192">
+        <v>26.5472952</v>
+      </c>
+      <c r="V192">
+        <v>33.6057561</v>
+      </c>
+      <c r="W192">
+        <v>10.6418086</v>
+      </c>
+      <c r="X192">
+        <v>14.7220758</v>
+      </c>
+      <c r="Y192">
+        <v>10.5008945</v>
+      </c>
+      <c r="Z192">
+        <v>16.6583151</v>
+      </c>
+      <c r="AA192">
+        <v>20.4308228</v>
+      </c>
+      <c r="AB192">
+        <v>25.8887085</v>
+      </c>
+      <c r="AD192">
+        <v>35.7021528</v>
+      </c>
+      <c r="AE192">
+        <v>24.2662218</v>
+      </c>
+      <c r="AF192">
+        <v>20.6905413</v>
+      </c>
+      <c r="AG192">
+        <v>25.2791554</v>
+      </c>
+      <c r="AH192">
+        <v>27.5583378</v>
+      </c>
+      <c r="AI192">
+        <v>9.877212</v>
+      </c>
+      <c r="AJ192">
+        <v>11.9388498</v>
+      </c>
+      <c r="AK192">
+        <v>19.2530937</v>
+      </c>
+      <c r="AL192">
+        <v>25.0687272</v>
+      </c>
+      <c r="AM192">
+        <v>11.2951314</v>
+      </c>
+      <c r="AN192">
+        <v>21.4788104</v>
+      </c>
+      <c r="AO192">
+        <v>29.5767771</v>
+      </c>
+      <c r="AP192">
+        <v>15.2125601</v>
+      </c>
+      <c r="AQ192">
+        <v>14.8439081</v>
+      </c>
+      <c r="AS192">
+        <v>13.2873839</v>
+      </c>
+      <c r="AT192">
+        <v>28.4475278</v>
+      </c>
+      <c r="AU192">
+        <v>23.1972295</v>
+      </c>
+      <c r="AV192">
+        <v>29.2849651</v>
+      </c>
+      <c r="AW192">
+        <v>29.0155968</v>
+      </c>
+      <c r="AX192">
+        <v>25.7695746</v>
+      </c>
+      <c r="AY192">
+        <v>18.4505202</v>
+      </c>
+      <c r="BA192">
+        <v>9.4638692</v>
+      </c>
+      <c r="BB192">
+        <v>17.0900662</v>
+      </c>
+      <c r="BC192">
+        <v>20.8283298</v>
+      </c>
+      <c r="BD192">
+        <v>21.648955</v>
+      </c>
+      <c r="BE192">
+        <v>20.0499912</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Alaska</t>
   </si>
@@ -758,6 +758,27 @@
   </si>
   <si>
     <t>10 08 2020</t>
+  </si>
+  <si>
+    <t>11 08 2020</t>
+  </si>
+  <si>
+    <t>12 08 2020</t>
+  </si>
+  <si>
+    <t>13 08 2020</t>
+  </si>
+  <si>
+    <t>14 08 2020</t>
+  </si>
+  <si>
+    <t>15 08 2020</t>
+  </si>
+  <si>
+    <t>16 08 2020</t>
+  </si>
+  <si>
+    <t>17 08 2020</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE193"/>
+  <dimension ref="A1:BE200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15640,6 +15661,9 @@
       <c r="AQ163">
         <v>13.675631</v>
       </c>
+      <c r="AR163">
+        <v>15.4762831</v>
+      </c>
       <c r="AS163">
         <v>11.8656667</v>
       </c>
@@ -20118,7 +20142,7 @@
         <v>25.4486435</v>
       </c>
       <c r="G192">
-        <v>19.4227517</v>
+        <v>19.4216679</v>
       </c>
       <c r="H192">
         <v>17.1530023</v>
@@ -20196,7 +20220,7 @@
         <v>27.5583378</v>
       </c>
       <c r="AI192">
-        <v>9.877212</v>
+        <v>9.909747299999999</v>
       </c>
       <c r="AJ192">
         <v>11.9388498</v>
@@ -20235,7 +20259,7 @@
         <v>29.2849651</v>
       </c>
       <c r="AW192">
-        <v>29.0155968</v>
+        <v>29.0146201</v>
       </c>
       <c r="AX192">
         <v>25.7695746</v>
@@ -20247,7 +20271,7 @@
         <v>9.4638692</v>
       </c>
       <c r="BB192">
-        <v>17.0900662</v>
+        <v>17.0977809</v>
       </c>
       <c r="BC192">
         <v>20.8283298</v>
@@ -20259,9 +20283,1115 @@
         <v>20.0499912</v>
       </c>
     </row>
-    <row r="193" spans="1:1">
+    <row r="193" spans="1:57">
       <c r="A193" t="s">
         <v>247</v>
+      </c>
+      <c r="B193">
+        <v>19.6052632</v>
+      </c>
+      <c r="C193">
+        <v>34.2661769</v>
+      </c>
+      <c r="D193">
+        <v>29.2593466</v>
+      </c>
+      <c r="F193">
+        <v>24.9705315</v>
+      </c>
+      <c r="G193">
+        <v>19.1479942</v>
+      </c>
+      <c r="H193">
+        <v>16.7845788</v>
+      </c>
+      <c r="I193">
+        <v>9.848635700000001</v>
+      </c>
+      <c r="J193">
+        <v>13.6963696</v>
+      </c>
+      <c r="K193">
+        <v>15.5461824</v>
+      </c>
+      <c r="L193">
+        <v>25.927384</v>
+      </c>
+      <c r="M193">
+        <v>31.3099781</v>
+      </c>
+      <c r="O193">
+        <v>15.1958081</v>
+      </c>
+      <c r="P193">
+        <v>27.3616873</v>
+      </c>
+      <c r="Q193">
+        <v>30.0733337</v>
+      </c>
+      <c r="R193">
+        <v>20.1294749</v>
+      </c>
+      <c r="S193">
+        <v>24.8541971</v>
+      </c>
+      <c r="T193">
+        <v>25.5222509</v>
+      </c>
+      <c r="U193">
+        <v>26.3444579</v>
+      </c>
+      <c r="V193">
+        <v>33.3808065</v>
+      </c>
+      <c r="W193">
+        <v>10.9760642</v>
+      </c>
+      <c r="X193">
+        <v>14.8123237</v>
+      </c>
+      <c r="Y193">
+        <v>10.47994</v>
+      </c>
+      <c r="Z193">
+        <v>16.5274594</v>
+      </c>
+      <c r="AA193">
+        <v>20.1939928</v>
+      </c>
+      <c r="AB193">
+        <v>25.0355124</v>
+      </c>
+      <c r="AD193">
+        <v>36.1420749</v>
+      </c>
+      <c r="AE193">
+        <v>25.1103446</v>
+      </c>
+      <c r="AF193">
+        <v>20.5472858</v>
+      </c>
+      <c r="AG193">
+        <v>24.6669186</v>
+      </c>
+      <c r="AH193">
+        <v>26.8841593</v>
+      </c>
+      <c r="AI193">
+        <v>10.5946556</v>
+      </c>
+      <c r="AJ193">
+        <v>11.7983444</v>
+      </c>
+      <c r="AK193">
+        <v>18.216194</v>
+      </c>
+      <c r="AL193">
+        <v>25.2037305</v>
+      </c>
+      <c r="AM193">
+        <v>11.0392656</v>
+      </c>
+      <c r="AN193">
+        <v>21.4413704</v>
+      </c>
+      <c r="AO193">
+        <v>28.8569511</v>
+      </c>
+      <c r="AP193">
+        <v>14.9500496</v>
+      </c>
+      <c r="AQ193">
+        <v>14.6292209</v>
+      </c>
+      <c r="AS193">
+        <v>12.956355</v>
+      </c>
+      <c r="AT193">
+        <v>28.2340734</v>
+      </c>
+      <c r="AU193">
+        <v>22.967095</v>
+      </c>
+      <c r="AV193">
+        <v>29.4090157</v>
+      </c>
+      <c r="AW193">
+        <v>28.8600958</v>
+      </c>
+      <c r="AX193">
+        <v>25.8212266</v>
+      </c>
+      <c r="AY193">
+        <v>18.2934525</v>
+      </c>
+      <c r="BA193">
+        <v>8.7250996</v>
+      </c>
+      <c r="BB193">
+        <v>17.4668029</v>
+      </c>
+      <c r="BC193">
+        <v>20.5820599</v>
+      </c>
+      <c r="BD193">
+        <v>20.430414</v>
+      </c>
+      <c r="BE193">
+        <v>18.9908921</v>
+      </c>
+    </row>
+    <row r="194" spans="1:57">
+      <c r="A194" t="s">
+        <v>248</v>
+      </c>
+      <c r="B194">
+        <v>19.6826758</v>
+      </c>
+      <c r="C194">
+        <v>33.8765221</v>
+      </c>
+      <c r="D194">
+        <v>28.32004</v>
+      </c>
+      <c r="F194">
+        <v>24.23096</v>
+      </c>
+      <c r="G194">
+        <v>18.9054907</v>
+      </c>
+      <c r="H194">
+        <v>17.0580532</v>
+      </c>
+      <c r="I194">
+        <v>9.935961600000001</v>
+      </c>
+      <c r="J194">
+        <v>13.3215962</v>
+      </c>
+      <c r="K194">
+        <v>14.571263</v>
+      </c>
+      <c r="L194">
+        <v>25.7175926</v>
+      </c>
+      <c r="M194">
+        <v>31.0010299</v>
+      </c>
+      <c r="O194">
+        <v>13.9184397</v>
+      </c>
+      <c r="P194">
+        <v>27.1160785</v>
+      </c>
+      <c r="Q194">
+        <v>30.3600343</v>
+      </c>
+      <c r="R194">
+        <v>19.982742</v>
+      </c>
+      <c r="S194">
+        <v>25.2478949</v>
+      </c>
+      <c r="T194">
+        <v>24.6751869</v>
+      </c>
+      <c r="U194">
+        <v>25.528797</v>
+      </c>
+      <c r="V194">
+        <v>32.7764527</v>
+      </c>
+      <c r="W194">
+        <v>11.0868691</v>
+      </c>
+      <c r="X194">
+        <v>14.3528896</v>
+      </c>
+      <c r="Y194">
+        <v>10.5667078</v>
+      </c>
+      <c r="Z194">
+        <v>16.7785443</v>
+      </c>
+      <c r="AA194">
+        <v>20.3893285</v>
+      </c>
+      <c r="AB194">
+        <v>24.7302256</v>
+      </c>
+      <c r="AD194">
+        <v>35.2059278</v>
+      </c>
+      <c r="AE194">
+        <v>24.0510772</v>
+      </c>
+      <c r="AF194">
+        <v>20.7663675</v>
+      </c>
+      <c r="AG194">
+        <v>24.7432755</v>
+      </c>
+      <c r="AH194">
+        <v>26.5367746</v>
+      </c>
+      <c r="AI194">
+        <v>10.1242443</v>
+      </c>
+      <c r="AJ194">
+        <v>11.9191606</v>
+      </c>
+      <c r="AK194">
+        <v>18.5240634</v>
+      </c>
+      <c r="AL194">
+        <v>25.3750702</v>
+      </c>
+      <c r="AM194">
+        <v>11.1327329</v>
+      </c>
+      <c r="AN194">
+        <v>21.0373579</v>
+      </c>
+      <c r="AO194">
+        <v>28.9029094</v>
+      </c>
+      <c r="AP194">
+        <v>14.8865666</v>
+      </c>
+      <c r="AQ194">
+        <v>14.5729544</v>
+      </c>
+      <c r="AS194">
+        <v>11.8461968</v>
+      </c>
+      <c r="AT194">
+        <v>27.6780118</v>
+      </c>
+      <c r="AU194">
+        <v>24.8410146</v>
+      </c>
+      <c r="AV194">
+        <v>29.4496858</v>
+      </c>
+      <c r="AW194">
+        <v>28.3820293</v>
+      </c>
+      <c r="AX194">
+        <v>25.6661444</v>
+      </c>
+      <c r="AY194">
+        <v>18.3346009</v>
+      </c>
+      <c r="BA194">
+        <v>10.1078282</v>
+      </c>
+      <c r="BB194">
+        <v>17.3257563</v>
+      </c>
+      <c r="BC194">
+        <v>20.3933499</v>
+      </c>
+      <c r="BD194">
+        <v>21.64249</v>
+      </c>
+      <c r="BE194">
+        <v>19.2265712</v>
+      </c>
+    </row>
+    <row r="195" spans="1:57">
+      <c r="A195" t="s">
+        <v>249</v>
+      </c>
+      <c r="B195">
+        <v>19.4235589</v>
+      </c>
+      <c r="C195">
+        <v>33.9847951</v>
+      </c>
+      <c r="D195">
+        <v>28.1400731</v>
+      </c>
+      <c r="F195">
+        <v>23.9119698</v>
+      </c>
+      <c r="G195">
+        <v>18.7414373</v>
+      </c>
+      <c r="H195">
+        <v>16.7848279</v>
+      </c>
+      <c r="I195">
+        <v>10.3551438</v>
+      </c>
+      <c r="J195">
+        <v>13.4439359</v>
+      </c>
+      <c r="K195">
+        <v>13.8987609</v>
+      </c>
+      <c r="L195">
+        <v>25.2462839</v>
+      </c>
+      <c r="M195">
+        <v>30.46785</v>
+      </c>
+      <c r="O195">
+        <v>15</v>
+      </c>
+      <c r="P195">
+        <v>26.4654174</v>
+      </c>
+      <c r="Q195">
+        <v>30.4311724</v>
+      </c>
+      <c r="R195">
+        <v>19.3729531</v>
+      </c>
+      <c r="S195">
+        <v>24.7837624</v>
+      </c>
+      <c r="T195">
+        <v>24.6845356</v>
+      </c>
+      <c r="U195">
+        <v>26.6649871</v>
+      </c>
+      <c r="V195">
+        <v>33.0114805</v>
+      </c>
+      <c r="W195">
+        <v>10.9608671</v>
+      </c>
+      <c r="X195">
+        <v>14.1634027</v>
+      </c>
+      <c r="Y195">
+        <v>11.0333081</v>
+      </c>
+      <c r="Z195">
+        <v>17.0224811</v>
+      </c>
+      <c r="AA195">
+        <v>20.0185566</v>
+      </c>
+      <c r="AB195">
+        <v>25.3678791</v>
+      </c>
+      <c r="AD195">
+        <v>35.7270295</v>
+      </c>
+      <c r="AE195">
+        <v>24.1301568</v>
+      </c>
+      <c r="AF195">
+        <v>20.7941167</v>
+      </c>
+      <c r="AG195">
+        <v>26.345527</v>
+      </c>
+      <c r="AH195">
+        <v>25.7799169</v>
+      </c>
+      <c r="AI195">
+        <v>10.3171496</v>
+      </c>
+      <c r="AJ195">
+        <v>11.8360585</v>
+      </c>
+      <c r="AK195">
+        <v>18.0696453</v>
+      </c>
+      <c r="AL195">
+        <v>24.2451588</v>
+      </c>
+      <c r="AM195">
+        <v>10.894872</v>
+      </c>
+      <c r="AN195">
+        <v>21.1051047</v>
+      </c>
+      <c r="AO195">
+        <v>28.0096818</v>
+      </c>
+      <c r="AP195">
+        <v>15.039184</v>
+      </c>
+      <c r="AQ195">
+        <v>14.2700365</v>
+      </c>
+      <c r="AS195">
+        <v>12.9001579</v>
+      </c>
+      <c r="AT195">
+        <v>27.249707</v>
+      </c>
+      <c r="AU195">
+        <v>23.8585882</v>
+      </c>
+      <c r="AV195">
+        <v>29.0621821</v>
+      </c>
+      <c r="AW195">
+        <v>27.8900001</v>
+      </c>
+      <c r="AX195">
+        <v>26.0379488</v>
+      </c>
+      <c r="AY195">
+        <v>18.2607489</v>
+      </c>
+      <c r="BA195">
+        <v>9.922699400000001</v>
+      </c>
+      <c r="BB195">
+        <v>17.5036242</v>
+      </c>
+      <c r="BC195">
+        <v>20.7147663</v>
+      </c>
+      <c r="BD195">
+        <v>21.1693121</v>
+      </c>
+      <c r="BE195">
+        <v>18.5597218</v>
+      </c>
+    </row>
+    <row r="196" spans="1:57">
+      <c r="A196" t="s">
+        <v>250</v>
+      </c>
+      <c r="B196">
+        <v>18.6936937</v>
+      </c>
+      <c r="C196">
+        <v>33.7821909</v>
+      </c>
+      <c r="D196">
+        <v>28.0666772</v>
+      </c>
+      <c r="F196">
+        <v>23.3087473</v>
+      </c>
+      <c r="G196">
+        <v>18.6588514</v>
+      </c>
+      <c r="H196">
+        <v>16.8359336</v>
+      </c>
+      <c r="I196">
+        <v>9.821770799999999</v>
+      </c>
+      <c r="J196">
+        <v>12.71777</v>
+      </c>
+      <c r="K196">
+        <v>13.4557495</v>
+      </c>
+      <c r="L196">
+        <v>24.9574225</v>
+      </c>
+      <c r="M196">
+        <v>30.4019733</v>
+      </c>
+      <c r="O196">
+        <v>15.5840286</v>
+      </c>
+      <c r="P196">
+        <v>26.828655</v>
+      </c>
+      <c r="Q196">
+        <v>29.1936302</v>
+      </c>
+      <c r="R196">
+        <v>19.3952905</v>
+      </c>
+      <c r="S196">
+        <v>24.5529044</v>
+      </c>
+      <c r="T196">
+        <v>25.0408435</v>
+      </c>
+      <c r="U196">
+        <v>25.7780475</v>
+      </c>
+      <c r="V196">
+        <v>32.1366465</v>
+      </c>
+      <c r="W196">
+        <v>11.0280196</v>
+      </c>
+      <c r="X196">
+        <v>14.5178753</v>
+      </c>
+      <c r="Y196">
+        <v>11.0250298</v>
+      </c>
+      <c r="Z196">
+        <v>16.8503228</v>
+      </c>
+      <c r="AA196">
+        <v>19.8465747</v>
+      </c>
+      <c r="AB196">
+        <v>25.4309807</v>
+      </c>
+      <c r="AD196">
+        <v>34.6822104</v>
+      </c>
+      <c r="AE196">
+        <v>24.7782138</v>
+      </c>
+      <c r="AF196">
+        <v>20.2788918</v>
+      </c>
+      <c r="AG196">
+        <v>25.7583316</v>
+      </c>
+      <c r="AH196">
+        <v>25.6112411</v>
+      </c>
+      <c r="AI196">
+        <v>10.4150198</v>
+      </c>
+      <c r="AJ196">
+        <v>11.5306769</v>
+      </c>
+      <c r="AK196">
+        <v>17.5847567</v>
+      </c>
+      <c r="AL196">
+        <v>24.1996708</v>
+      </c>
+      <c r="AM196">
+        <v>10.9004385</v>
+      </c>
+      <c r="AN196">
+        <v>21.1175646</v>
+      </c>
+      <c r="AO196">
+        <v>28.2063465</v>
+      </c>
+      <c r="AP196">
+        <v>14.9578234</v>
+      </c>
+      <c r="AQ196">
+        <v>14.1791869</v>
+      </c>
+      <c r="AS196">
+        <v>12.3592479</v>
+      </c>
+      <c r="AT196">
+        <v>26.9412275</v>
+      </c>
+      <c r="AU196">
+        <v>24.1123584</v>
+      </c>
+      <c r="AV196">
+        <v>29.572785</v>
+      </c>
+      <c r="AW196">
+        <v>27.368372</v>
+      </c>
+      <c r="AX196">
+        <v>25.41985</v>
+      </c>
+      <c r="AY196">
+        <v>17.9813365</v>
+      </c>
+      <c r="BA196">
+        <v>10.2067241</v>
+      </c>
+      <c r="BB196">
+        <v>17.3355876</v>
+      </c>
+      <c r="BC196">
+        <v>20.751151</v>
+      </c>
+      <c r="BD196">
+        <v>20.3526514</v>
+      </c>
+      <c r="BE196">
+        <v>16.7832372</v>
+      </c>
+    </row>
+    <row r="197" spans="1:57">
+      <c r="A197" t="s">
+        <v>251</v>
+      </c>
+      <c r="B197">
+        <v>19.1838649</v>
+      </c>
+      <c r="C197">
+        <v>33.427832</v>
+      </c>
+      <c r="D197">
+        <v>27.7531198</v>
+      </c>
+      <c r="F197">
+        <v>22.9382747</v>
+      </c>
+      <c r="G197">
+        <v>18.4053191</v>
+      </c>
+      <c r="H197">
+        <v>16.4702784</v>
+      </c>
+      <c r="I197">
+        <v>9.966548599999999</v>
+      </c>
+      <c r="J197">
+        <v>11.9930475</v>
+      </c>
+      <c r="K197">
+        <v>13.2533825</v>
+      </c>
+      <c r="L197">
+        <v>24.9258695</v>
+      </c>
+      <c r="M197">
+        <v>30.527199</v>
+      </c>
+      <c r="O197">
+        <v>15.3644315</v>
+      </c>
+      <c r="P197">
+        <v>25.560564</v>
+      </c>
+      <c r="Q197">
+        <v>29.4251373</v>
+      </c>
+      <c r="R197">
+        <v>19.3837299</v>
+      </c>
+      <c r="S197">
+        <v>24.4544311</v>
+      </c>
+      <c r="T197">
+        <v>25.3868491</v>
+      </c>
+      <c r="U197">
+        <v>26.174588</v>
+      </c>
+      <c r="V197">
+        <v>32.1311277</v>
+      </c>
+      <c r="W197">
+        <v>11.2599488</v>
+      </c>
+      <c r="X197">
+        <v>14.1990365</v>
+      </c>
+      <c r="Y197">
+        <v>10.617236</v>
+      </c>
+      <c r="Z197">
+        <v>16.7923574</v>
+      </c>
+      <c r="AA197">
+        <v>19.3419711</v>
+      </c>
+      <c r="AB197">
+        <v>25.6342516</v>
+      </c>
+      <c r="AD197">
+        <v>35.689749</v>
+      </c>
+      <c r="AE197">
+        <v>23.7015114</v>
+      </c>
+      <c r="AF197">
+        <v>19.9852792</v>
+      </c>
+      <c r="AG197">
+        <v>25.8311965</v>
+      </c>
+      <c r="AH197">
+        <v>25.8096258</v>
+      </c>
+      <c r="AI197">
+        <v>10.3065752</v>
+      </c>
+      <c r="AJ197">
+        <v>11.1431056</v>
+      </c>
+      <c r="AK197">
+        <v>16.9371142</v>
+      </c>
+      <c r="AL197">
+        <v>24.0018194</v>
+      </c>
+      <c r="AM197">
+        <v>10.7618898</v>
+      </c>
+      <c r="AN197">
+        <v>20.6417241</v>
+      </c>
+      <c r="AO197">
+        <v>27.2947301</v>
+      </c>
+      <c r="AP197">
+        <v>14.7829464</v>
+      </c>
+      <c r="AQ197">
+        <v>13.9146124</v>
+      </c>
+      <c r="AS197">
+        <v>12.0463044</v>
+      </c>
+      <c r="AT197">
+        <v>25.7603004</v>
+      </c>
+      <c r="AU197">
+        <v>24.6221963</v>
+      </c>
+      <c r="AV197">
+        <v>29.545132</v>
+      </c>
+      <c r="AW197">
+        <v>26.8449307</v>
+      </c>
+      <c r="AX197">
+        <v>25.5196967</v>
+      </c>
+      <c r="AY197">
+        <v>17.7430714</v>
+      </c>
+      <c r="BA197">
+        <v>9.2129619</v>
+      </c>
+      <c r="BB197">
+        <v>17.2592871</v>
+      </c>
+      <c r="BC197">
+        <v>20.3054107</v>
+      </c>
+      <c r="BD197">
+        <v>21.2220279</v>
+      </c>
+      <c r="BE197">
+        <v>18.9446464</v>
+      </c>
+    </row>
+    <row r="198" spans="1:57">
+      <c r="A198" t="s">
+        <v>252</v>
+      </c>
+      <c r="B198">
+        <v>19.1987513</v>
+      </c>
+      <c r="C198">
+        <v>33.2747161</v>
+      </c>
+      <c r="D198">
+        <v>27.584159</v>
+      </c>
+      <c r="F198">
+        <v>22.0904279</v>
+      </c>
+      <c r="G198">
+        <v>18.3198168</v>
+      </c>
+      <c r="H198">
+        <v>16.6290883</v>
+      </c>
+      <c r="I198">
+        <v>9.743336599999999</v>
+      </c>
+      <c r="J198">
+        <v>11.7007673</v>
+      </c>
+      <c r="K198">
+        <v>12.7610966</v>
+      </c>
+      <c r="L198">
+        <v>24.907447</v>
+      </c>
+      <c r="M198">
+        <v>30.2053708</v>
+      </c>
+      <c r="O198">
+        <v>16.2385321</v>
+      </c>
+      <c r="P198">
+        <v>25.9850905</v>
+      </c>
+      <c r="Q198">
+        <v>29.6955876</v>
+      </c>
+      <c r="R198">
+        <v>19.3076758</v>
+      </c>
+      <c r="S198">
+        <v>24.4792813</v>
+      </c>
+      <c r="T198">
+        <v>25.9166873</v>
+      </c>
+      <c r="U198">
+        <v>26.1704314</v>
+      </c>
+      <c r="V198">
+        <v>32.1175371</v>
+      </c>
+      <c r="W198">
+        <v>11.1762899</v>
+      </c>
+      <c r="X198">
+        <v>14.3588571</v>
+      </c>
+      <c r="Y198">
+        <v>10.1107465</v>
+      </c>
+      <c r="Z198">
+        <v>16.967869</v>
+      </c>
+      <c r="AA198">
+        <v>19.2988243</v>
+      </c>
+      <c r="AB198">
+        <v>25.2583839</v>
+      </c>
+      <c r="AD198">
+        <v>34.9141754</v>
+      </c>
+      <c r="AE198">
+        <v>22.8502989</v>
+      </c>
+      <c r="AF198">
+        <v>19.9396592</v>
+      </c>
+      <c r="AG198">
+        <v>25.7258507</v>
+      </c>
+      <c r="AH198">
+        <v>25.5199562</v>
+      </c>
+      <c r="AI198">
+        <v>10.0619835</v>
+      </c>
+      <c r="AJ198">
+        <v>10.8683679</v>
+      </c>
+      <c r="AK198">
+        <v>17.2474982</v>
+      </c>
+      <c r="AL198">
+        <v>24.4235001</v>
+      </c>
+      <c r="AM198">
+        <v>10.5770344</v>
+      </c>
+      <c r="AN198">
+        <v>20.3573403</v>
+      </c>
+      <c r="AO198">
+        <v>27.1270502</v>
+      </c>
+      <c r="AP198">
+        <v>14.5561165</v>
+      </c>
+      <c r="AQ198">
+        <v>13.825994</v>
+      </c>
+      <c r="AS198">
+        <v>12.1341478</v>
+      </c>
+      <c r="AT198">
+        <v>25.6155314</v>
+      </c>
+      <c r="AU198">
+        <v>24.5177924</v>
+      </c>
+      <c r="AV198">
+        <v>28.9365391</v>
+      </c>
+      <c r="AW198">
+        <v>26.4887662</v>
+      </c>
+      <c r="AX198">
+        <v>25.3008116</v>
+      </c>
+      <c r="AY198">
+        <v>17.6560204</v>
+      </c>
+      <c r="BA198">
+        <v>9.374993399999999</v>
+      </c>
+      <c r="BB198">
+        <v>17.3321307</v>
+      </c>
+      <c r="BC198">
+        <v>20.2057439</v>
+      </c>
+      <c r="BD198">
+        <v>20.9229353</v>
+      </c>
+      <c r="BE198">
+        <v>18.2362417</v>
+      </c>
+    </row>
+    <row r="199" spans="1:57">
+      <c r="A199" t="s">
+        <v>253</v>
+      </c>
+      <c r="B199">
+        <v>21.0907336</v>
+      </c>
+      <c r="C199">
+        <v>33.179098</v>
+      </c>
+      <c r="D199">
+        <v>28.5774491</v>
+      </c>
+      <c r="F199">
+        <v>21.8386044</v>
+      </c>
+      <c r="G199">
+        <v>17.9983606</v>
+      </c>
+      <c r="H199">
+        <v>16.4356827</v>
+      </c>
+      <c r="I199">
+        <v>9.318960300000001</v>
+      </c>
+      <c r="J199">
+        <v>11.8757613</v>
+      </c>
+      <c r="K199">
+        <v>12.3959001</v>
+      </c>
+      <c r="L199">
+        <v>24.5730907</v>
+      </c>
+      <c r="M199">
+        <v>29.7404412</v>
+      </c>
+      <c r="O199">
+        <v>16.2545235</v>
+      </c>
+      <c r="P199">
+        <v>26.157528</v>
+      </c>
+      <c r="Q199">
+        <v>29.436943</v>
+      </c>
+      <c r="R199">
+        <v>19.1925035</v>
+      </c>
+      <c r="S199">
+        <v>24.3479693</v>
+      </c>
+      <c r="T199">
+        <v>25.531528</v>
+      </c>
+      <c r="U199">
+        <v>25.4914788</v>
+      </c>
+      <c r="V199">
+        <v>31.527509</v>
+      </c>
+      <c r="W199">
+        <v>11.1632779</v>
+      </c>
+      <c r="X199">
+        <v>14.5476222</v>
+      </c>
+      <c r="Y199">
+        <v>10.0712768</v>
+      </c>
+      <c r="Z199">
+        <v>16.5792526</v>
+      </c>
+      <c r="AA199">
+        <v>19.4229163</v>
+      </c>
+      <c r="AB199">
+        <v>25.5561234</v>
+      </c>
+      <c r="AD199">
+        <v>34.4801424</v>
+      </c>
+      <c r="AE199">
+        <v>23.5342366</v>
+      </c>
+      <c r="AF199">
+        <v>19.6570704</v>
+      </c>
+      <c r="AG199">
+        <v>27.6955728</v>
+      </c>
+      <c r="AH199">
+        <v>24.686475</v>
+      </c>
+      <c r="AI199">
+        <v>10.259247</v>
+      </c>
+      <c r="AJ199">
+        <v>10.7386476</v>
+      </c>
+      <c r="AK199">
+        <v>16.8077537</v>
+      </c>
+      <c r="AL199">
+        <v>24.2840813</v>
+      </c>
+      <c r="AM199">
+        <v>10.4717989</v>
+      </c>
+      <c r="AN199">
+        <v>20.2996848</v>
+      </c>
+      <c r="AO199">
+        <v>26.7780441</v>
+      </c>
+      <c r="AP199">
+        <v>14.7600907</v>
+      </c>
+      <c r="AQ199">
+        <v>13.928179</v>
+      </c>
+      <c r="AS199">
+        <v>12.3523279</v>
+      </c>
+      <c r="AT199">
+        <v>25.0034232</v>
+      </c>
+      <c r="AU199">
+        <v>24.4485212</v>
+      </c>
+      <c r="AV199">
+        <v>29.2547936</v>
+      </c>
+      <c r="AW199">
+        <v>25.9248356</v>
+      </c>
+      <c r="AX199">
+        <v>23.9427531</v>
+      </c>
+      <c r="AY199">
+        <v>17.7829286</v>
+      </c>
+      <c r="BA199">
+        <v>8.717712199999999</v>
+      </c>
+      <c r="BB199">
+        <v>17.2681214</v>
+      </c>
+      <c r="BC199">
+        <v>20.4625111</v>
+      </c>
+      <c r="BD199">
+        <v>21.2966108</v>
+      </c>
+      <c r="BE199">
+        <v>18.5370784</v>
+      </c>
+    </row>
+    <row r="200" spans="1:57">
+      <c r="A200" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t>Alaska</t>
   </si>
@@ -779,6 +779,30 @@
   </si>
   <si>
     <t>17 08 2020</t>
+  </si>
+  <si>
+    <t>18 08 2020</t>
+  </si>
+  <si>
+    <t>19 08 2020</t>
+  </si>
+  <si>
+    <t>20 08 2020</t>
+  </si>
+  <si>
+    <t>21 08 2020</t>
+  </si>
+  <si>
+    <t>22 08 2020</t>
+  </si>
+  <si>
+    <t>23 08 2020</t>
+  </si>
+  <si>
+    <t>24 08 2020</t>
+  </si>
+  <si>
+    <t>25 08 2020</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE200"/>
+  <dimension ref="A1:BE208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -15822,6 +15846,9 @@
       <c r="AQ164">
         <v>13.736239</v>
       </c>
+      <c r="AR164">
+        <v>15.0485437</v>
+      </c>
       <c r="AS164">
         <v>11.389702</v>
       </c>
@@ -21248,7 +21275,7 @@
         <v>21.8386044</v>
       </c>
       <c r="G199">
-        <v>17.9983606</v>
+        <v>17.9978084</v>
       </c>
       <c r="H199">
         <v>16.4356827</v>
@@ -21287,7 +21314,7 @@
         <v>25.531528</v>
       </c>
       <c r="U199">
-        <v>25.4914788</v>
+        <v>25.4871452</v>
       </c>
       <c r="V199">
         <v>31.527509</v>
@@ -21392,6 +21419,1117 @@
     <row r="200" spans="1:57">
       <c r="A200" t="s">
         <v>254</v>
+      </c>
+      <c r="B200">
+        <v>23.3333333</v>
+      </c>
+      <c r="C200">
+        <v>33.3543238</v>
+      </c>
+      <c r="D200">
+        <v>27.2249111</v>
+      </c>
+      <c r="F200">
+        <v>21.482007</v>
+      </c>
+      <c r="G200">
+        <v>18.003383</v>
+      </c>
+      <c r="H200">
+        <v>16.7421134</v>
+      </c>
+      <c r="I200">
+        <v>9.3447581</v>
+      </c>
+      <c r="J200">
+        <v>12.6838235</v>
+      </c>
+      <c r="K200">
+        <v>12.1815807</v>
+      </c>
+      <c r="L200">
+        <v>24.0047943</v>
+      </c>
+      <c r="M200">
+        <v>29.7718869</v>
+      </c>
+      <c r="O200">
+        <v>16.9384058</v>
+      </c>
+      <c r="P200">
+        <v>26.2112133</v>
+      </c>
+      <c r="Q200">
+        <v>29.2305812</v>
+      </c>
+      <c r="R200">
+        <v>19.1434957</v>
+      </c>
+      <c r="S200">
+        <v>24.1831937</v>
+      </c>
+      <c r="T200">
+        <v>25.0630372</v>
+      </c>
+      <c r="U200">
+        <v>25.634058</v>
+      </c>
+      <c r="V200">
+        <v>31.6419783</v>
+      </c>
+      <c r="W200">
+        <v>10.7846997</v>
+      </c>
+      <c r="X200">
+        <v>13.6341334</v>
+      </c>
+      <c r="Y200">
+        <v>9.738955799999999</v>
+      </c>
+      <c r="Z200">
+        <v>16.2143534</v>
+      </c>
+      <c r="AA200">
+        <v>19.0648143</v>
+      </c>
+      <c r="AB200">
+        <v>25.8649965</v>
+      </c>
+      <c r="AD200">
+        <v>33.8170998</v>
+      </c>
+      <c r="AE200">
+        <v>23.4340164</v>
+      </c>
+      <c r="AF200">
+        <v>19.5538157</v>
+      </c>
+      <c r="AG200">
+        <v>24.6112745</v>
+      </c>
+      <c r="AH200">
+        <v>25.1362022</v>
+      </c>
+      <c r="AI200">
+        <v>10.432519</v>
+      </c>
+      <c r="AJ200">
+        <v>10.6698762</v>
+      </c>
+      <c r="AK200">
+        <v>17.6577112</v>
+      </c>
+      <c r="AL200">
+        <v>23.6675466</v>
+      </c>
+      <c r="AM200">
+        <v>10.463859</v>
+      </c>
+      <c r="AN200">
+        <v>19.8511686</v>
+      </c>
+      <c r="AO200">
+        <v>26.3138364</v>
+      </c>
+      <c r="AP200">
+        <v>15.1038825</v>
+      </c>
+      <c r="AQ200">
+        <v>14.0953533</v>
+      </c>
+      <c r="AS200">
+        <v>12.5399813</v>
+      </c>
+      <c r="AT200">
+        <v>24.9013276</v>
+      </c>
+      <c r="AU200">
+        <v>23.5124181</v>
+      </c>
+      <c r="AV200">
+        <v>29.5897621</v>
+      </c>
+      <c r="AW200">
+        <v>25.4639555</v>
+      </c>
+      <c r="AX200">
+        <v>23.8650278</v>
+      </c>
+      <c r="AY200">
+        <v>17.8691015</v>
+      </c>
+      <c r="BA200">
+        <v>9.5836921</v>
+      </c>
+      <c r="BB200">
+        <v>17.4154578</v>
+      </c>
+      <c r="BC200">
+        <v>20.8288989</v>
+      </c>
+      <c r="BD200">
+        <v>19.7258474</v>
+      </c>
+      <c r="BE200">
+        <v>18.6876285</v>
+      </c>
+    </row>
+    <row r="201" spans="1:57">
+      <c r="A201" t="s">
+        <v>255</v>
+      </c>
+      <c r="B201">
+        <v>21.4068826</v>
+      </c>
+      <c r="C201">
+        <v>31.9193523</v>
+      </c>
+      <c r="D201">
+        <v>27.4232695</v>
+      </c>
+      <c r="F201">
+        <v>21.1179561</v>
+      </c>
+      <c r="G201">
+        <v>17.5810259</v>
+      </c>
+      <c r="H201">
+        <v>16.3726729</v>
+      </c>
+      <c r="I201">
+        <v>9.437185899999999</v>
+      </c>
+      <c r="J201">
+        <v>12.5498008</v>
+      </c>
+      <c r="K201">
+        <v>11.9469246</v>
+      </c>
+      <c r="L201">
+        <v>23.5529611</v>
+      </c>
+      <c r="M201">
+        <v>29.5096159</v>
+      </c>
+      <c r="O201">
+        <v>16.9944683</v>
+      </c>
+      <c r="P201">
+        <v>26.2761885</v>
+      </c>
+      <c r="Q201">
+        <v>28.8737433</v>
+      </c>
+      <c r="R201">
+        <v>19.3430363</v>
+      </c>
+      <c r="S201">
+        <v>24.0310624</v>
+      </c>
+      <c r="T201">
+        <v>24.6884001</v>
+      </c>
+      <c r="U201">
+        <v>25.9725968</v>
+      </c>
+      <c r="V201">
+        <v>31.1415094</v>
+      </c>
+      <c r="W201">
+        <v>10.9233726</v>
+      </c>
+      <c r="X201">
+        <v>13.8274484</v>
+      </c>
+      <c r="Y201">
+        <v>9.299959299999999</v>
+      </c>
+      <c r="Z201">
+        <v>15.8600612</v>
+      </c>
+      <c r="AA201">
+        <v>19.0632918</v>
+      </c>
+      <c r="AB201">
+        <v>26.5757572</v>
+      </c>
+      <c r="AD201">
+        <v>33.3385051</v>
+      </c>
+      <c r="AE201">
+        <v>22.0340813</v>
+      </c>
+      <c r="AF201">
+        <v>19.5003739</v>
+      </c>
+      <c r="AG201">
+        <v>25.7181519</v>
+      </c>
+      <c r="AH201">
+        <v>25.4531641</v>
+      </c>
+      <c r="AI201">
+        <v>11.2510675</v>
+      </c>
+      <c r="AJ201">
+        <v>10.5807966</v>
+      </c>
+      <c r="AK201">
+        <v>16.7992982</v>
+      </c>
+      <c r="AL201">
+        <v>22.5781586</v>
+      </c>
+      <c r="AM201">
+        <v>10.4803359</v>
+      </c>
+      <c r="AN201">
+        <v>19.8338968</v>
+      </c>
+      <c r="AO201">
+        <v>25.8544159</v>
+      </c>
+      <c r="AP201">
+        <v>15.0019011</v>
+      </c>
+      <c r="AQ201">
+        <v>13.9073816</v>
+      </c>
+      <c r="AS201">
+        <v>13.6946141</v>
+      </c>
+      <c r="AT201">
+        <v>24.1643917</v>
+      </c>
+      <c r="AU201">
+        <v>24.4186851</v>
+      </c>
+      <c r="AV201">
+        <v>28.4340552</v>
+      </c>
+      <c r="AW201">
+        <v>25.1296136</v>
+      </c>
+      <c r="AX201">
+        <v>23.8942643</v>
+      </c>
+      <c r="AY201">
+        <v>17.462973</v>
+      </c>
+      <c r="BA201">
+        <v>8.2478677</v>
+      </c>
+      <c r="BB201">
+        <v>17.1095745</v>
+      </c>
+      <c r="BC201">
+        <v>20.7160495</v>
+      </c>
+      <c r="BD201">
+        <v>20.2573711</v>
+      </c>
+      <c r="BE201">
+        <v>19.3818245</v>
+      </c>
+    </row>
+    <row r="202" spans="1:57">
+      <c r="A202" t="s">
+        <v>256</v>
+      </c>
+      <c r="B202">
+        <v>23.0020492</v>
+      </c>
+      <c r="C202">
+        <v>32.505996</v>
+      </c>
+      <c r="D202">
+        <v>27.8943287</v>
+      </c>
+      <c r="F202">
+        <v>20.9632856</v>
+      </c>
+      <c r="G202">
+        <v>17.4768549</v>
+      </c>
+      <c r="H202">
+        <v>16.2517175</v>
+      </c>
+      <c r="I202">
+        <v>9.0158796</v>
+      </c>
+      <c r="J202">
+        <v>13.2111252</v>
+      </c>
+      <c r="K202">
+        <v>12.3198353</v>
+      </c>
+      <c r="L202">
+        <v>23.0200266</v>
+      </c>
+      <c r="M202">
+        <v>29.1382074</v>
+      </c>
+      <c r="O202">
+        <v>18.5314685</v>
+      </c>
+      <c r="P202">
+        <v>27.3415708</v>
+      </c>
+      <c r="Q202">
+        <v>28.4483909</v>
+      </c>
+      <c r="R202">
+        <v>19.5452273</v>
+      </c>
+      <c r="S202">
+        <v>24.1626899</v>
+      </c>
+      <c r="T202">
+        <v>24.421795</v>
+      </c>
+      <c r="U202">
+        <v>26.0295216</v>
+      </c>
+      <c r="V202">
+        <v>31.3025182</v>
+      </c>
+      <c r="W202">
+        <v>10.911696</v>
+      </c>
+      <c r="X202">
+        <v>13.711017</v>
+      </c>
+      <c r="Y202">
+        <v>8.948351600000001</v>
+      </c>
+      <c r="Z202">
+        <v>15.5806453</v>
+      </c>
+      <c r="AA202">
+        <v>18.8110252</v>
+      </c>
+      <c r="AB202">
+        <v>25.9969478</v>
+      </c>
+      <c r="AD202">
+        <v>33.7816684</v>
+      </c>
+      <c r="AE202">
+        <v>21.030348</v>
+      </c>
+      <c r="AF202">
+        <v>19.4797132</v>
+      </c>
+      <c r="AG202">
+        <v>26.1980023</v>
+      </c>
+      <c r="AH202">
+        <v>25.3180958</v>
+      </c>
+      <c r="AI202">
+        <v>10.4273424</v>
+      </c>
+      <c r="AJ202">
+        <v>10.8592962</v>
+      </c>
+      <c r="AK202">
+        <v>16.8481438</v>
+      </c>
+      <c r="AL202">
+        <v>22.9262175</v>
+      </c>
+      <c r="AM202">
+        <v>10.7884875</v>
+      </c>
+      <c r="AN202">
+        <v>19.7284507</v>
+      </c>
+      <c r="AO202">
+        <v>26.6187818</v>
+      </c>
+      <c r="AP202">
+        <v>15.0100735</v>
+      </c>
+      <c r="AQ202">
+        <v>13.7126537</v>
+      </c>
+      <c r="AS202">
+        <v>13.0053351</v>
+      </c>
+      <c r="AT202">
+        <v>23.7487206</v>
+      </c>
+      <c r="AU202">
+        <v>24.8820958</v>
+      </c>
+      <c r="AV202">
+        <v>28.7104449</v>
+      </c>
+      <c r="AW202">
+        <v>25.2940884</v>
+      </c>
+      <c r="AX202">
+        <v>22.8733311</v>
+      </c>
+      <c r="AY202">
+        <v>17.9279585</v>
+      </c>
+      <c r="BA202">
+        <v>8.5465711</v>
+      </c>
+      <c r="BB202">
+        <v>16.9326585</v>
+      </c>
+      <c r="BC202">
+        <v>20.5022462</v>
+      </c>
+      <c r="BD202">
+        <v>20.3247245</v>
+      </c>
+      <c r="BE202">
+        <v>19.1498765</v>
+      </c>
+    </row>
+    <row r="203" spans="1:57">
+      <c r="A203" t="s">
+        <v>257</v>
+      </c>
+      <c r="B203">
+        <v>22.7646454</v>
+      </c>
+      <c r="C203">
+        <v>31.7538421</v>
+      </c>
+      <c r="D203">
+        <v>26.4174931</v>
+      </c>
+      <c r="F203">
+        <v>20.8035111</v>
+      </c>
+      <c r="G203">
+        <v>17.2614686</v>
+      </c>
+      <c r="H203">
+        <v>16.1052188</v>
+      </c>
+      <c r="I203">
+        <v>9.164859</v>
+      </c>
+      <c r="J203">
+        <v>13.3821571</v>
+      </c>
+      <c r="K203">
+        <v>11.8448637</v>
+      </c>
+      <c r="L203">
+        <v>22.8988285</v>
+      </c>
+      <c r="M203">
+        <v>28.8857727</v>
+      </c>
+      <c r="O203">
+        <v>17.4463938</v>
+      </c>
+      <c r="P203">
+        <v>27.8489894</v>
+      </c>
+      <c r="Q203">
+        <v>28.8394072</v>
+      </c>
+      <c r="R203">
+        <v>19.4249427</v>
+      </c>
+      <c r="S203">
+        <v>24.4896847</v>
+      </c>
+      <c r="T203">
+        <v>24.7260763</v>
+      </c>
+      <c r="U203">
+        <v>25.2708323</v>
+      </c>
+      <c r="V203">
+        <v>31.3063652</v>
+      </c>
+      <c r="W203">
+        <v>10.6267023</v>
+      </c>
+      <c r="X203">
+        <v>13.5893541</v>
+      </c>
+      <c r="Y203">
+        <v>9.217114199999999</v>
+      </c>
+      <c r="Z203">
+        <v>15.6733471</v>
+      </c>
+      <c r="AA203">
+        <v>18.7986803</v>
+      </c>
+      <c r="AB203">
+        <v>26.284885</v>
+      </c>
+      <c r="AD203">
+        <v>34.7820835</v>
+      </c>
+      <c r="AE203">
+        <v>22.8202734</v>
+      </c>
+      <c r="AF203">
+        <v>19.4402246</v>
+      </c>
+      <c r="AG203">
+        <v>26.9873024</v>
+      </c>
+      <c r="AH203">
+        <v>25.7048679</v>
+      </c>
+      <c r="AI203">
+        <v>10.7905498</v>
+      </c>
+      <c r="AJ203">
+        <v>10.6656505</v>
+      </c>
+      <c r="AK203">
+        <v>16.0517053</v>
+      </c>
+      <c r="AL203">
+        <v>22.232371</v>
+      </c>
+      <c r="AM203">
+        <v>10.784958</v>
+      </c>
+      <c r="AN203">
+        <v>18.8847806</v>
+      </c>
+      <c r="AO203">
+        <v>26.3027979</v>
+      </c>
+      <c r="AP203">
+        <v>14.895803</v>
+      </c>
+      <c r="AQ203">
+        <v>13.7752975</v>
+      </c>
+      <c r="AS203">
+        <v>13.1424154</v>
+      </c>
+      <c r="AT203">
+        <v>23.8013851</v>
+      </c>
+      <c r="AU203">
+        <v>25.3049759</v>
+      </c>
+      <c r="AV203">
+        <v>27.7121714</v>
+      </c>
+      <c r="AW203">
+        <v>24.9840363</v>
+      </c>
+      <c r="AX203">
+        <v>22.3643953</v>
+      </c>
+      <c r="AY203">
+        <v>17.9162484</v>
+      </c>
+      <c r="BA203">
+        <v>9.113303999999999</v>
+      </c>
+      <c r="BB203">
+        <v>16.9236381</v>
+      </c>
+      <c r="BC203">
+        <v>20.5952041</v>
+      </c>
+      <c r="BD203">
+        <v>19.2633776</v>
+      </c>
+      <c r="BE203">
+        <v>18.6012902</v>
+      </c>
+    </row>
+    <row r="204" spans="1:57">
+      <c r="A204" t="s">
+        <v>258</v>
+      </c>
+      <c r="B204">
+        <v>23.5070575</v>
+      </c>
+      <c r="C204">
+        <v>31.5645889</v>
+      </c>
+      <c r="D204">
+        <v>26.6274285</v>
+      </c>
+      <c r="F204">
+        <v>20.2979847</v>
+      </c>
+      <c r="G204">
+        <v>16.9142816</v>
+      </c>
+      <c r="H204">
+        <v>16.5434194</v>
+      </c>
+      <c r="I204">
+        <v>9.1456736</v>
+      </c>
+      <c r="J204">
+        <v>13.8283379</v>
+      </c>
+      <c r="K204">
+        <v>11.5625</v>
+      </c>
+      <c r="L204">
+        <v>22.5974427</v>
+      </c>
+      <c r="M204">
+        <v>29.1834298</v>
+      </c>
+      <c r="O204">
+        <v>17.8869621</v>
+      </c>
+      <c r="P204">
+        <v>28.078152</v>
+      </c>
+      <c r="Q204">
+        <v>29.0149486</v>
+      </c>
+      <c r="R204">
+        <v>19.4138426</v>
+      </c>
+      <c r="S204">
+        <v>25.4449598</v>
+      </c>
+      <c r="T204">
+        <v>25.0000021</v>
+      </c>
+      <c r="U204">
+        <v>25.5825675</v>
+      </c>
+      <c r="V204">
+        <v>30.424625</v>
+      </c>
+      <c r="W204">
+        <v>10.5539775</v>
+      </c>
+      <c r="X204">
+        <v>13.7274383</v>
+      </c>
+      <c r="Y204">
+        <v>9.257622599999999</v>
+      </c>
+      <c r="Z204">
+        <v>15.2994647</v>
+      </c>
+      <c r="AA204">
+        <v>18.8595283</v>
+      </c>
+      <c r="AB204">
+        <v>25.8862777</v>
+      </c>
+      <c r="AD204">
+        <v>33.5325969</v>
+      </c>
+      <c r="AE204">
+        <v>22.0088504</v>
+      </c>
+      <c r="AF204">
+        <v>19.1561488</v>
+      </c>
+      <c r="AG204">
+        <v>25.630872</v>
+      </c>
+      <c r="AH204">
+        <v>25.9058954</v>
+      </c>
+      <c r="AI204">
+        <v>11.103664</v>
+      </c>
+      <c r="AJ204">
+        <v>10.7439521</v>
+      </c>
+      <c r="AK204">
+        <v>16.9772481</v>
+      </c>
+      <c r="AL204">
+        <v>22.4373924</v>
+      </c>
+      <c r="AM204">
+        <v>10.6688272</v>
+      </c>
+      <c r="AN204">
+        <v>19.2142415</v>
+      </c>
+      <c r="AO204">
+        <v>25.5380217</v>
+      </c>
+      <c r="AP204">
+        <v>15.1521182</v>
+      </c>
+      <c r="AQ204">
+        <v>13.8658093</v>
+      </c>
+      <c r="AS204">
+        <v>12.467359</v>
+      </c>
+      <c r="AT204">
+        <v>23.5771635</v>
+      </c>
+      <c r="AU204">
+        <v>23.1843811</v>
+      </c>
+      <c r="AV204">
+        <v>27.8251686</v>
+      </c>
+      <c r="AW204">
+        <v>25.0141461</v>
+      </c>
+      <c r="AX204">
+        <v>22.8090572</v>
+      </c>
+      <c r="AY204">
+        <v>17.9472948</v>
+      </c>
+      <c r="BA204">
+        <v>8.805975200000001</v>
+      </c>
+      <c r="BB204">
+        <v>16.4454095</v>
+      </c>
+      <c r="BC204">
+        <v>20.5554814</v>
+      </c>
+      <c r="BD204">
+        <v>20.277054</v>
+      </c>
+      <c r="BE204">
+        <v>17.8621282</v>
+      </c>
+    </row>
+    <row r="205" spans="1:57">
+      <c r="A205" t="s">
+        <v>259</v>
+      </c>
+      <c r="B205">
+        <v>22.9452055</v>
+      </c>
+      <c r="C205">
+        <v>30.8327891</v>
+      </c>
+      <c r="D205">
+        <v>25.7999306</v>
+      </c>
+      <c r="F205">
+        <v>20.1438353</v>
+      </c>
+      <c r="G205">
+        <v>16.5872906</v>
+      </c>
+      <c r="H205">
+        <v>16.2995906</v>
+      </c>
+      <c r="I205">
+        <v>9.0683632</v>
+      </c>
+      <c r="J205">
+        <v>14.4366197</v>
+      </c>
+      <c r="K205">
+        <v>11.6932686</v>
+      </c>
+      <c r="L205">
+        <v>22.4488329</v>
+      </c>
+      <c r="M205">
+        <v>29.0122706</v>
+      </c>
+      <c r="O205">
+        <v>17.5241158</v>
+      </c>
+      <c r="P205">
+        <v>28.5529128</v>
+      </c>
+      <c r="Q205">
+        <v>29.2008244</v>
+      </c>
+      <c r="R205">
+        <v>19.3972542</v>
+      </c>
+      <c r="S205">
+        <v>25.2040445</v>
+      </c>
+      <c r="T205">
+        <v>24.7459786</v>
+      </c>
+      <c r="U205">
+        <v>25.4570351</v>
+      </c>
+      <c r="V205">
+        <v>29.8786055</v>
+      </c>
+      <c r="W205">
+        <v>10.3792713</v>
+      </c>
+      <c r="X205">
+        <v>13.2965288</v>
+      </c>
+      <c r="Y205">
+        <v>9.380269800000001</v>
+      </c>
+      <c r="Z205">
+        <v>15.3897299</v>
+      </c>
+      <c r="AA205">
+        <v>18.5204141</v>
+      </c>
+      <c r="AB205">
+        <v>26.6598015</v>
+      </c>
+      <c r="AD205">
+        <v>33.1915918</v>
+      </c>
+      <c r="AE205">
+        <v>22.4049036</v>
+      </c>
+      <c r="AF205">
+        <v>19.216757</v>
+      </c>
+      <c r="AG205">
+        <v>24.6281559</v>
+      </c>
+      <c r="AH205">
+        <v>26.6383221</v>
+      </c>
+      <c r="AI205">
+        <v>11.5602837</v>
+      </c>
+      <c r="AJ205">
+        <v>10.7805547</v>
+      </c>
+      <c r="AK205">
+        <v>17.4083596</v>
+      </c>
+      <c r="AL205">
+        <v>22.0098618</v>
+      </c>
+      <c r="AM205">
+        <v>10.4031549</v>
+      </c>
+      <c r="AN205">
+        <v>18.8264815</v>
+      </c>
+      <c r="AO205">
+        <v>26.6788252</v>
+      </c>
+      <c r="AP205">
+        <v>15.0409724</v>
+      </c>
+      <c r="AQ205">
+        <v>13.7530155</v>
+      </c>
+      <c r="AS205">
+        <v>12.1960275</v>
+      </c>
+      <c r="AT205">
+        <v>23.1378347</v>
+      </c>
+      <c r="AU205">
+        <v>24.7266831</v>
+      </c>
+      <c r="AV205">
+        <v>27.8562097</v>
+      </c>
+      <c r="AW205">
+        <v>24.618424</v>
+      </c>
+      <c r="AX205">
+        <v>22.6705241</v>
+      </c>
+      <c r="AY205">
+        <v>17.8096348</v>
+      </c>
+      <c r="BA205">
+        <v>10.461683</v>
+      </c>
+      <c r="BB205">
+        <v>16.6870979</v>
+      </c>
+      <c r="BC205">
+        <v>20.3445259</v>
+      </c>
+      <c r="BD205">
+        <v>20.4930747</v>
+      </c>
+      <c r="BE205">
+        <v>17.782641</v>
+      </c>
+    </row>
+    <row r="206" spans="1:57">
+      <c r="A206" t="s">
+        <v>260</v>
+      </c>
+      <c r="B206">
+        <v>22.3214286</v>
+      </c>
+      <c r="C206">
+        <v>30.8178159</v>
+      </c>
+      <c r="D206">
+        <v>25.630216</v>
+      </c>
+      <c r="F206">
+        <v>19.7502937</v>
+      </c>
+      <c r="G206">
+        <v>16.5269201</v>
+      </c>
+      <c r="H206">
+        <v>16.2560963</v>
+      </c>
+      <c r="I206">
+        <v>9.648139799999999</v>
+      </c>
+      <c r="J206">
+        <v>14.9782923</v>
+      </c>
+      <c r="K206">
+        <v>11.3636364</v>
+      </c>
+      <c r="L206">
+        <v>22.0998004</v>
+      </c>
+      <c r="M206">
+        <v>28.4578547</v>
+      </c>
+      <c r="O206">
+        <v>18.5515873</v>
+      </c>
+      <c r="P206">
+        <v>29.1333218</v>
+      </c>
+      <c r="Q206">
+        <v>28.7968408</v>
+      </c>
+      <c r="R206">
+        <v>18.9785118</v>
+      </c>
+      <c r="S206">
+        <v>25.3275417</v>
+      </c>
+      <c r="T206">
+        <v>25.055695</v>
+      </c>
+      <c r="U206">
+        <v>25.2063575</v>
+      </c>
+      <c r="V206">
+        <v>29.8759385</v>
+      </c>
+      <c r="W206">
+        <v>10.6966489</v>
+      </c>
+      <c r="X206">
+        <v>13.5102246</v>
+      </c>
+      <c r="Y206">
+        <v>9.158083299999999</v>
+      </c>
+      <c r="Z206">
+        <v>15.5759924</v>
+      </c>
+      <c r="AA206">
+        <v>18.6148504</v>
+      </c>
+      <c r="AB206">
+        <v>25.6734863</v>
+      </c>
+      <c r="AD206">
+        <v>33.4500077</v>
+      </c>
+      <c r="AE206">
+        <v>22.6427579</v>
+      </c>
+      <c r="AF206">
+        <v>19.4914461</v>
+      </c>
+      <c r="AG206">
+        <v>25.2137565</v>
+      </c>
+      <c r="AH206">
+        <v>26.5805954</v>
+      </c>
+      <c r="AI206">
+        <v>10.5396679</v>
+      </c>
+      <c r="AJ206">
+        <v>11.2534041</v>
+      </c>
+      <c r="AK206">
+        <v>17.4642652</v>
+      </c>
+      <c r="AL206">
+        <v>21.6700614</v>
+      </c>
+      <c r="AM206">
+        <v>10.4719276</v>
+      </c>
+      <c r="AN206">
+        <v>18.4499495</v>
+      </c>
+      <c r="AO206">
+        <v>26.780914</v>
+      </c>
+      <c r="AP206">
+        <v>14.6117776</v>
+      </c>
+      <c r="AQ206">
+        <v>13.9447743</v>
+      </c>
+      <c r="AS206">
+        <v>11.7337082</v>
+      </c>
+      <c r="AT206">
+        <v>23.6292604</v>
+      </c>
+      <c r="AU206">
+        <v>23.8106786</v>
+      </c>
+      <c r="AV206">
+        <v>27.5000761</v>
+      </c>
+      <c r="AW206">
+        <v>24.4238878</v>
+      </c>
+      <c r="AX206">
+        <v>23.4138733</v>
+      </c>
+      <c r="AY206">
+        <v>17.7422052</v>
+      </c>
+      <c r="BA206">
+        <v>8.994971400000001</v>
+      </c>
+      <c r="BB206">
+        <v>16.4278659</v>
+      </c>
+      <c r="BC206">
+        <v>20.1877464</v>
+      </c>
+      <c r="BD206">
+        <v>20.0823243</v>
+      </c>
+      <c r="BE206">
+        <v>17.9415404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:57">
+      <c r="A207" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="208" spans="1:57">
+      <c r="A208" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="270">
   <si>
     <t>Alaska</t>
   </si>
@@ -803,6 +803,27 @@
   </si>
   <si>
     <t>25 08 2020</t>
+  </si>
+  <si>
+    <t>26 08 2020</t>
+  </si>
+  <si>
+    <t>27 08 2020</t>
+  </si>
+  <si>
+    <t>28 08 2020</t>
+  </si>
+  <si>
+    <t>29 08 2020</t>
+  </si>
+  <si>
+    <t>30 08 2020</t>
+  </si>
+  <si>
+    <t>31 08 2020</t>
+  </si>
+  <si>
+    <t>01 09 2020</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE208"/>
+  <dimension ref="A1:BE215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22381,10 +22402,10 @@
         <v>19.7502937</v>
       </c>
       <c r="G206">
-        <v>16.5269201</v>
+        <v>16.5263427</v>
       </c>
       <c r="H206">
-        <v>16.2560963</v>
+        <v>16.2691289</v>
       </c>
       <c r="I206">
         <v>9.648139799999999</v>
@@ -22399,7 +22420,7 @@
         <v>22.0998004</v>
       </c>
       <c r="M206">
-        <v>28.4578547</v>
+        <v>28.4934705</v>
       </c>
       <c r="O206">
         <v>18.5515873</v>
@@ -22444,7 +22465,7 @@
         <v>25.6734863</v>
       </c>
       <c r="AD206">
-        <v>33.4500077</v>
+        <v>33.4382549</v>
       </c>
       <c r="AE206">
         <v>22.6427579</v>
@@ -22526,10 +22547,1116 @@
       <c r="A207" t="s">
         <v>261</v>
       </c>
+      <c r="B207">
+        <v>21.9031532</v>
+      </c>
+      <c r="C207">
+        <v>30.5108106</v>
+      </c>
+      <c r="D207">
+        <v>25.9795765</v>
+      </c>
+      <c r="F207">
+        <v>19.48568</v>
+      </c>
+      <c r="G207">
+        <v>16.4245034</v>
+      </c>
+      <c r="H207">
+        <v>16.1147801</v>
+      </c>
+      <c r="I207">
+        <v>9.4324809</v>
+      </c>
+      <c r="J207">
+        <v>13.84</v>
+      </c>
+      <c r="K207">
+        <v>11.1070441</v>
+      </c>
+      <c r="L207">
+        <v>21.5842961</v>
+      </c>
+      <c r="M207">
+        <v>28.6209373</v>
+      </c>
+      <c r="O207">
+        <v>18.1970509</v>
+      </c>
+      <c r="P207">
+        <v>28.950401</v>
+      </c>
+      <c r="Q207">
+        <v>29.227855</v>
+      </c>
+      <c r="R207">
+        <v>19.4941232</v>
+      </c>
+      <c r="S207">
+        <v>25.1557938</v>
+      </c>
+      <c r="T207">
+        <v>25.0715916</v>
+      </c>
+      <c r="U207">
+        <v>25.925687</v>
+      </c>
+      <c r="V207">
+        <v>29.0880844</v>
+      </c>
+      <c r="W207">
+        <v>11.2088487</v>
+      </c>
+      <c r="X207">
+        <v>14.3417022</v>
+      </c>
+      <c r="Y207">
+        <v>9.158083299999999</v>
+      </c>
+      <c r="Z207">
+        <v>15.4183065</v>
+      </c>
+      <c r="AA207">
+        <v>18.3021088</v>
+      </c>
+      <c r="AB207">
+        <v>25.8825239</v>
+      </c>
+      <c r="AD207">
+        <v>33.6945201</v>
+      </c>
+      <c r="AE207">
+        <v>22.4912632</v>
+      </c>
+      <c r="AF207">
+        <v>19.6560316</v>
+      </c>
+      <c r="AG207">
+        <v>27.4248089</v>
+      </c>
+      <c r="AH207">
+        <v>25.5343674</v>
+      </c>
+      <c r="AI207">
+        <v>11.0165593</v>
+      </c>
+      <c r="AJ207">
+        <v>10.8494372</v>
+      </c>
+      <c r="AK207">
+        <v>16.4021984</v>
+      </c>
+      <c r="AL207">
+        <v>21.3995394</v>
+      </c>
+      <c r="AM207">
+        <v>10.8761027</v>
+      </c>
+      <c r="AN207">
+        <v>18.3530976</v>
+      </c>
+      <c r="AO207">
+        <v>26.8167368</v>
+      </c>
+      <c r="AP207">
+        <v>15.0818143</v>
+      </c>
+      <c r="AQ207">
+        <v>13.887804</v>
+      </c>
+      <c r="AS207">
+        <v>11.856551</v>
+      </c>
+      <c r="AT207">
+        <v>22.8942508</v>
+      </c>
+      <c r="AU207">
+        <v>25.2754086</v>
+      </c>
+      <c r="AV207">
+        <v>26.7923659</v>
+      </c>
+      <c r="AW207">
+        <v>23.9247021</v>
+      </c>
+      <c r="AX207">
+        <v>23.0096631</v>
+      </c>
+      <c r="AY207">
+        <v>17.5898835</v>
+      </c>
+      <c r="BA207">
+        <v>9.868421100000001</v>
+      </c>
+      <c r="BB207">
+        <v>15.9085842</v>
+      </c>
+      <c r="BC207">
+        <v>20.4160123</v>
+      </c>
+      <c r="BD207">
+        <v>19.2848332</v>
+      </c>
+      <c r="BE207">
+        <v>16.4628298</v>
+      </c>
     </row>
     <row r="208" spans="1:57">
       <c r="A208" t="s">
         <v>262</v>
+      </c>
+      <c r="B208">
+        <v>20.7738095</v>
+      </c>
+      <c r="C208">
+        <v>31.2051983</v>
+      </c>
+      <c r="D208">
+        <v>24.7118655</v>
+      </c>
+      <c r="F208">
+        <v>19.8375611</v>
+      </c>
+      <c r="G208">
+        <v>16.1245277</v>
+      </c>
+      <c r="H208">
+        <v>16.1652836</v>
+      </c>
+      <c r="I208">
+        <v>9.7910927</v>
+      </c>
+      <c r="J208">
+        <v>12.5409836</v>
+      </c>
+      <c r="K208">
+        <v>11.4772727</v>
+      </c>
+      <c r="L208">
+        <v>21.3938422</v>
+      </c>
+      <c r="M208">
+        <v>28.7933877</v>
+      </c>
+      <c r="O208">
+        <v>18.7241379</v>
+      </c>
+      <c r="P208">
+        <v>29.0295803</v>
+      </c>
+      <c r="Q208">
+        <v>28.2943874</v>
+      </c>
+      <c r="R208">
+        <v>19.4899527</v>
+      </c>
+      <c r="S208">
+        <v>25.0617803</v>
+      </c>
+      <c r="T208">
+        <v>23.9254387</v>
+      </c>
+      <c r="U208">
+        <v>24.7908579</v>
+      </c>
+      <c r="V208">
+        <v>28.1691924</v>
+      </c>
+      <c r="W208">
+        <v>10.7666901</v>
+      </c>
+      <c r="X208">
+        <v>14.4937639</v>
+      </c>
+      <c r="Y208">
+        <v>9.9224453</v>
+      </c>
+      <c r="Z208">
+        <v>15.5927349</v>
+      </c>
+      <c r="AA208">
+        <v>18.7406984</v>
+      </c>
+      <c r="AB208">
+        <v>25.9624703</v>
+      </c>
+      <c r="AD208">
+        <v>34.6621642</v>
+      </c>
+      <c r="AE208">
+        <v>21.8686034</v>
+      </c>
+      <c r="AF208">
+        <v>19.7819286</v>
+      </c>
+      <c r="AG208">
+        <v>26.6473325</v>
+      </c>
+      <c r="AH208">
+        <v>26.5557949</v>
+      </c>
+      <c r="AI208">
+        <v>10.6573224</v>
+      </c>
+      <c r="AJ208">
+        <v>10.8070671</v>
+      </c>
+      <c r="AK208">
+        <v>16.679206</v>
+      </c>
+      <c r="AL208">
+        <v>21.6156228</v>
+      </c>
+      <c r="AM208">
+        <v>10.9764853</v>
+      </c>
+      <c r="AN208">
+        <v>18.2141675</v>
+      </c>
+      <c r="AO208">
+        <v>26.0913204</v>
+      </c>
+      <c r="AP208">
+        <v>14.6372883</v>
+      </c>
+      <c r="AQ208">
+        <v>13.8438533</v>
+      </c>
+      <c r="AS208">
+        <v>11.3187732</v>
+      </c>
+      <c r="AT208">
+        <v>22.9715927</v>
+      </c>
+      <c r="AU208">
+        <v>28.0929451</v>
+      </c>
+      <c r="AV208">
+        <v>26.7995938</v>
+      </c>
+      <c r="AW208">
+        <v>24.0809742</v>
+      </c>
+      <c r="AX208">
+        <v>22.7449515</v>
+      </c>
+      <c r="AY208">
+        <v>18.0095944</v>
+      </c>
+      <c r="BA208">
+        <v>8.832965099999999</v>
+      </c>
+      <c r="BB208">
+        <v>15.9236831</v>
+      </c>
+      <c r="BC208">
+        <v>20.172733</v>
+      </c>
+      <c r="BD208">
+        <v>19.8620562</v>
+      </c>
+      <c r="BE208">
+        <v>18.7592539</v>
+      </c>
+    </row>
+    <row r="209" spans="1:57">
+      <c r="A209" t="s">
+        <v>263</v>
+      </c>
+      <c r="B209">
+        <v>21.0431655</v>
+      </c>
+      <c r="C209">
+        <v>29.9549419</v>
+      </c>
+      <c r="D209">
+        <v>25.777529</v>
+      </c>
+      <c r="F209">
+        <v>19.3948491</v>
+      </c>
+      <c r="G209">
+        <v>16.2259661</v>
+      </c>
+      <c r="H209">
+        <v>16.2624216</v>
+      </c>
+      <c r="I209">
+        <v>9.3574766</v>
+      </c>
+      <c r="J209">
+        <v>13.8474295</v>
+      </c>
+      <c r="K209">
+        <v>11.8034056</v>
+      </c>
+      <c r="L209">
+        <v>21.479265</v>
+      </c>
+      <c r="M209">
+        <v>28.7281459</v>
+      </c>
+      <c r="O209">
+        <v>17.1034946</v>
+      </c>
+      <c r="P209">
+        <v>28.503891</v>
+      </c>
+      <c r="Q209">
+        <v>27.8017871</v>
+      </c>
+      <c r="R209">
+        <v>19.404868</v>
+      </c>
+      <c r="S209">
+        <v>25.5791973</v>
+      </c>
+      <c r="T209">
+        <v>24.9854018</v>
+      </c>
+      <c r="U209">
+        <v>24.6063434</v>
+      </c>
+      <c r="V209">
+        <v>28.6450457</v>
+      </c>
+      <c r="W209">
+        <v>10.8307237</v>
+      </c>
+      <c r="X209">
+        <v>14.1996084</v>
+      </c>
+      <c r="Y209">
+        <v>10.0796416</v>
+      </c>
+      <c r="Z209">
+        <v>16.1192136</v>
+      </c>
+      <c r="AA209">
+        <v>18.9920859</v>
+      </c>
+      <c r="AB209">
+        <v>26.4916098</v>
+      </c>
+      <c r="AD209">
+        <v>33.5877712</v>
+      </c>
+      <c r="AE209">
+        <v>24.5300915</v>
+      </c>
+      <c r="AF209">
+        <v>19.5294711</v>
+      </c>
+      <c r="AG209">
+        <v>24.6896909</v>
+      </c>
+      <c r="AH209">
+        <v>25.9828767</v>
+      </c>
+      <c r="AI209">
+        <v>9.879454900000001</v>
+      </c>
+      <c r="AJ209">
+        <v>10.8368488</v>
+      </c>
+      <c r="AK209">
+        <v>16.168051</v>
+      </c>
+      <c r="AL209">
+        <v>21.3631809</v>
+      </c>
+      <c r="AM209">
+        <v>10.9042014</v>
+      </c>
+      <c r="AN209">
+        <v>17.9833659</v>
+      </c>
+      <c r="AO209">
+        <v>26.5276932</v>
+      </c>
+      <c r="AP209">
+        <v>14.86484</v>
+      </c>
+      <c r="AQ209">
+        <v>13.9731338</v>
+      </c>
+      <c r="AS209">
+        <v>10.4557632</v>
+      </c>
+      <c r="AT209">
+        <v>22.7582062</v>
+      </c>
+      <c r="AU209">
+        <v>27.333538</v>
+      </c>
+      <c r="AV209">
+        <v>26.8679938</v>
+      </c>
+      <c r="AW209">
+        <v>23.4696214</v>
+      </c>
+      <c r="AX209">
+        <v>23.2930916</v>
+      </c>
+      <c r="AY209">
+        <v>17.650914</v>
+      </c>
+      <c r="BA209">
+        <v>8.4771479</v>
+      </c>
+      <c r="BB209">
+        <v>15.7358434</v>
+      </c>
+      <c r="BC209">
+        <v>19.8117105</v>
+      </c>
+      <c r="BD209">
+        <v>20.2986489</v>
+      </c>
+      <c r="BE209">
+        <v>18.4908385</v>
+      </c>
+    </row>
+    <row r="210" spans="1:57">
+      <c r="A210" t="s">
+        <v>264</v>
+      </c>
+      <c r="B210">
+        <v>20.0116009</v>
+      </c>
+      <c r="C210">
+        <v>29.8808248</v>
+      </c>
+      <c r="D210">
+        <v>27.3490946</v>
+      </c>
+      <c r="F210">
+        <v>18.7104351</v>
+      </c>
+      <c r="G210">
+        <v>16.1133452</v>
+      </c>
+      <c r="H210">
+        <v>16.1786128</v>
+      </c>
+      <c r="I210">
+        <v>9.8830124</v>
+      </c>
+      <c r="J210">
+        <v>12.6237624</v>
+      </c>
+      <c r="K210">
+        <v>12.3938224</v>
+      </c>
+      <c r="L210">
+        <v>20.5669439</v>
+      </c>
+      <c r="M210">
+        <v>28.8879518</v>
+      </c>
+      <c r="O210">
+        <v>17.4328147</v>
+      </c>
+      <c r="P210">
+        <v>28.9274522</v>
+      </c>
+      <c r="Q210">
+        <v>28.3797779</v>
+      </c>
+      <c r="R210">
+        <v>19.5779314</v>
+      </c>
+      <c r="S210">
+        <v>25.4451118</v>
+      </c>
+      <c r="T210">
+        <v>24.7938658</v>
+      </c>
+      <c r="U210">
+        <v>24.1920264</v>
+      </c>
+      <c r="V210">
+        <v>27.1493936</v>
+      </c>
+      <c r="W210">
+        <v>10.7462696</v>
+      </c>
+      <c r="X210">
+        <v>14.0461028</v>
+      </c>
+      <c r="Y210">
+        <v>10.04914</v>
+      </c>
+      <c r="Z210">
+        <v>15.9119091</v>
+      </c>
+      <c r="AA210">
+        <v>18.7284024</v>
+      </c>
+      <c r="AB210">
+        <v>26.760609</v>
+      </c>
+      <c r="AD210">
+        <v>33.0943127</v>
+      </c>
+      <c r="AE210">
+        <v>21.8120321</v>
+      </c>
+      <c r="AF210">
+        <v>20.0311812</v>
+      </c>
+      <c r="AG210">
+        <v>25.5977961</v>
+      </c>
+      <c r="AH210">
+        <v>25.1426224</v>
+      </c>
+      <c r="AI210">
+        <v>10.3651685</v>
+      </c>
+      <c r="AJ210">
+        <v>11.0375106</v>
+      </c>
+      <c r="AK210">
+        <v>16.0901627</v>
+      </c>
+      <c r="AL210">
+        <v>21.1107526</v>
+      </c>
+      <c r="AM210">
+        <v>11.2250994</v>
+      </c>
+      <c r="AN210">
+        <v>18.4635337</v>
+      </c>
+      <c r="AO210">
+        <v>26.7869548</v>
+      </c>
+      <c r="AP210">
+        <v>14.7687336</v>
+      </c>
+      <c r="AQ210">
+        <v>13.8730967</v>
+      </c>
+      <c r="AS210">
+        <v>10.3410122</v>
+      </c>
+      <c r="AT210">
+        <v>22.6618717</v>
+      </c>
+      <c r="AU210">
+        <v>27.8756492</v>
+      </c>
+      <c r="AV210">
+        <v>27.9155562</v>
+      </c>
+      <c r="AW210">
+        <v>22.9732729</v>
+      </c>
+      <c r="AX210">
+        <v>23.4815281</v>
+      </c>
+      <c r="AY210">
+        <v>17.8721676</v>
+      </c>
+      <c r="BA210">
+        <v>9.9456522</v>
+      </c>
+      <c r="BB210">
+        <v>16.1659248</v>
+      </c>
+      <c r="BC210">
+        <v>19.634436</v>
+      </c>
+      <c r="BD210">
+        <v>19.6285658</v>
+      </c>
+      <c r="BE210">
+        <v>16.8052103</v>
+      </c>
+    </row>
+    <row r="211" spans="1:57">
+      <c r="A211" t="s">
+        <v>265</v>
+      </c>
+      <c r="B211">
+        <v>20.624235</v>
+      </c>
+      <c r="C211">
+        <v>29.3958337</v>
+      </c>
+      <c r="D211">
+        <v>25.668993</v>
+      </c>
+      <c r="F211">
+        <v>18.6910687</v>
+      </c>
+      <c r="G211">
+        <v>16.0783428</v>
+      </c>
+      <c r="H211">
+        <v>16.2665461</v>
+      </c>
+      <c r="I211">
+        <v>9.7885572</v>
+      </c>
+      <c r="J211">
+        <v>11.5814696</v>
+      </c>
+      <c r="K211">
+        <v>12.2681282</v>
+      </c>
+      <c r="L211">
+        <v>20.6965461</v>
+      </c>
+      <c r="M211">
+        <v>28.0912126</v>
+      </c>
+      <c r="O211">
+        <v>18.1786704</v>
+      </c>
+      <c r="P211">
+        <v>28.5448587</v>
+      </c>
+      <c r="Q211">
+        <v>27.6883136</v>
+      </c>
+      <c r="R211">
+        <v>19.4743127</v>
+      </c>
+      <c r="S211">
+        <v>25.0606646</v>
+      </c>
+      <c r="T211">
+        <v>23.8872116</v>
+      </c>
+      <c r="U211">
+        <v>24.1403989</v>
+      </c>
+      <c r="V211">
+        <v>26.9016989</v>
+      </c>
+      <c r="W211">
+        <v>11.2088539</v>
+      </c>
+      <c r="X211">
+        <v>14.060804</v>
+      </c>
+      <c r="Y211">
+        <v>9.8623853</v>
+      </c>
+      <c r="Z211">
+        <v>15.4217801</v>
+      </c>
+      <c r="AA211">
+        <v>19.1407569</v>
+      </c>
+      <c r="AB211">
+        <v>26.5031974</v>
+      </c>
+      <c r="AD211">
+        <v>32.1208124</v>
+      </c>
+      <c r="AE211">
+        <v>20.8714619</v>
+      </c>
+      <c r="AF211">
+        <v>20.3206037</v>
+      </c>
+      <c r="AG211">
+        <v>26.998522</v>
+      </c>
+      <c r="AH211">
+        <v>25.9504465</v>
+      </c>
+      <c r="AI211">
+        <v>9.8515134</v>
+      </c>
+      <c r="AJ211">
+        <v>10.9597669</v>
+      </c>
+      <c r="AK211">
+        <v>16.182212</v>
+      </c>
+      <c r="AL211">
+        <v>20.6156294</v>
+      </c>
+      <c r="AM211">
+        <v>11.0078098</v>
+      </c>
+      <c r="AN211">
+        <v>18.5548288</v>
+      </c>
+      <c r="AO211">
+        <v>27.3730503</v>
+      </c>
+      <c r="AP211">
+        <v>14.0642194</v>
+      </c>
+      <c r="AQ211">
+        <v>13.5859196</v>
+      </c>
+      <c r="AS211">
+        <v>11.0354456</v>
+      </c>
+      <c r="AT211">
+        <v>22.7694805</v>
+      </c>
+      <c r="AU211">
+        <v>28.1434882</v>
+      </c>
+      <c r="AV211">
+        <v>26.8977125</v>
+      </c>
+      <c r="AW211">
+        <v>22.8499447</v>
+      </c>
+      <c r="AX211">
+        <v>22.8773151</v>
+      </c>
+      <c r="AY211">
+        <v>17.979935</v>
+      </c>
+      <c r="BA211">
+        <v>10.9444335</v>
+      </c>
+      <c r="BB211">
+        <v>16.3266655</v>
+      </c>
+      <c r="BC211">
+        <v>19.2372858</v>
+      </c>
+      <c r="BD211">
+        <v>20.3138288</v>
+      </c>
+      <c r="BE211">
+        <v>19.1403836</v>
+      </c>
+    </row>
+    <row r="212" spans="1:57">
+      <c r="A212" t="s">
+        <v>266</v>
+      </c>
+      <c r="B212">
+        <v>22.4217845</v>
+      </c>
+      <c r="C212">
+        <v>30.4945302</v>
+      </c>
+      <c r="D212">
+        <v>25.1510647</v>
+      </c>
+      <c r="F212">
+        <v>18.8582814</v>
+      </c>
+      <c r="G212">
+        <v>15.7386364</v>
+      </c>
+      <c r="H212">
+        <v>16.2058496</v>
+      </c>
+      <c r="I212">
+        <v>10.0916325</v>
+      </c>
+      <c r="J212">
+        <v>11.352657</v>
+      </c>
+      <c r="K212">
+        <v>11.7722603</v>
+      </c>
+      <c r="L212">
+        <v>20.1713162</v>
+      </c>
+      <c r="M212">
+        <v>28.2329011</v>
+      </c>
+      <c r="O212">
+        <v>17.7533664</v>
+      </c>
+      <c r="P212">
+        <v>28.8209526</v>
+      </c>
+      <c r="Q212">
+        <v>28.0376279</v>
+      </c>
+      <c r="R212">
+        <v>19.835849</v>
+      </c>
+      <c r="S212">
+        <v>25.1259834</v>
+      </c>
+      <c r="T212">
+        <v>23.0947305</v>
+      </c>
+      <c r="U212">
+        <v>24.618994</v>
+      </c>
+      <c r="V212">
+        <v>27.4449202</v>
+      </c>
+      <c r="W212">
+        <v>10.9465227</v>
+      </c>
+      <c r="X212">
+        <v>13.2605465</v>
+      </c>
+      <c r="Y212">
+        <v>10.926305</v>
+      </c>
+      <c r="Z212">
+        <v>15.2594014</v>
+      </c>
+      <c r="AA212">
+        <v>19.4768902</v>
+      </c>
+      <c r="AB212">
+        <v>26.5482778</v>
+      </c>
+      <c r="AD212">
+        <v>31.9315273</v>
+      </c>
+      <c r="AE212">
+        <v>21.2515794</v>
+      </c>
+      <c r="AF212">
+        <v>19.9682442</v>
+      </c>
+      <c r="AG212">
+        <v>29.9201908</v>
+      </c>
+      <c r="AH212">
+        <v>25.6030248</v>
+      </c>
+      <c r="AI212">
+        <v>10.0374732</v>
+      </c>
+      <c r="AJ212">
+        <v>10.6075697</v>
+      </c>
+      <c r="AK212">
+        <v>16.0791502</v>
+      </c>
+      <c r="AL212">
+        <v>19.8184106</v>
+      </c>
+      <c r="AM212">
+        <v>10.9043434</v>
+      </c>
+      <c r="AN212">
+        <v>18.2120581</v>
+      </c>
+      <c r="AO212">
+        <v>26.7526943</v>
+      </c>
+      <c r="AP212">
+        <v>13.5241799</v>
+      </c>
+      <c r="AQ212">
+        <v>13.7794405</v>
+      </c>
+      <c r="AS212">
+        <v>11.2383037</v>
+      </c>
+      <c r="AT212">
+        <v>23.1656379</v>
+      </c>
+      <c r="AU212">
+        <v>28.6746541</v>
+      </c>
+      <c r="AV212">
+        <v>27.5797804</v>
+      </c>
+      <c r="AW212">
+        <v>22.8053156</v>
+      </c>
+      <c r="AX212">
+        <v>22.8174673</v>
+      </c>
+      <c r="AY212">
+        <v>18.3802514</v>
+      </c>
+      <c r="BA212">
+        <v>11.1412959</v>
+      </c>
+      <c r="BB212">
+        <v>16.0992773</v>
+      </c>
+      <c r="BC212">
+        <v>19.629436</v>
+      </c>
+      <c r="BD212">
+        <v>19.7887214</v>
+      </c>
+      <c r="BE212">
+        <v>18.7672512</v>
+      </c>
+    </row>
+    <row r="213" spans="1:57">
+      <c r="A213" t="s">
+        <v>267</v>
+      </c>
+      <c r="B213">
+        <v>20.8912037</v>
+      </c>
+      <c r="C213">
+        <v>29.3899161</v>
+      </c>
+      <c r="D213">
+        <v>25.3938951</v>
+      </c>
+      <c r="F213">
+        <v>19.0099834</v>
+      </c>
+      <c r="G213">
+        <v>15.6297417</v>
+      </c>
+      <c r="H213">
+        <v>16.4553556</v>
+      </c>
+      <c r="I213">
+        <v>10.566888</v>
+      </c>
+      <c r="J213">
+        <v>10.8</v>
+      </c>
+      <c r="K213">
+        <v>11.9396903</v>
+      </c>
+      <c r="L213">
+        <v>20.1972429</v>
+      </c>
+      <c r="M213">
+        <v>28.0119573</v>
+      </c>
+      <c r="O213">
+        <v>17.3387097</v>
+      </c>
+      <c r="P213">
+        <v>29.6534135</v>
+      </c>
+      <c r="Q213">
+        <v>27.7759895</v>
+      </c>
+      <c r="R213">
+        <v>19.7813394</v>
+      </c>
+      <c r="S213">
+        <v>25.3370703</v>
+      </c>
+      <c r="T213">
+        <v>24.0085027</v>
+      </c>
+      <c r="U213">
+        <v>23.8330303</v>
+      </c>
+      <c r="V213">
+        <v>26.5465358</v>
+      </c>
+      <c r="W213">
+        <v>11.1340487</v>
+      </c>
+      <c r="X213">
+        <v>13.2772565</v>
+      </c>
+      <c r="Y213">
+        <v>10.7351509</v>
+      </c>
+      <c r="Z213">
+        <v>14.8119559</v>
+      </c>
+      <c r="AA213">
+        <v>19.5478448</v>
+      </c>
+      <c r="AB213">
+        <v>26.6395781</v>
+      </c>
+      <c r="AD213">
+        <v>30.9293942</v>
+      </c>
+      <c r="AE213">
+        <v>20.5808754</v>
+      </c>
+      <c r="AF213">
+        <v>19.9299296</v>
+      </c>
+      <c r="AG213">
+        <v>25.582009</v>
+      </c>
+      <c r="AH213">
+        <v>25.1007871</v>
+      </c>
+      <c r="AI213">
+        <v>11.003861</v>
+      </c>
+      <c r="AJ213">
+        <v>10.8939387</v>
+      </c>
+      <c r="AK213">
+        <v>16.1745339</v>
+      </c>
+      <c r="AL213">
+        <v>19.6371721</v>
+      </c>
+      <c r="AM213">
+        <v>10.6603367</v>
+      </c>
+      <c r="AN213">
+        <v>17.9843635</v>
+      </c>
+      <c r="AO213">
+        <v>27.4488921</v>
+      </c>
+      <c r="AP213">
+        <v>13.5651388</v>
+      </c>
+      <c r="AQ213">
+        <v>13.6652524</v>
+      </c>
+      <c r="AS213">
+        <v>13.1221365</v>
+      </c>
+      <c r="AT213">
+        <v>23.0491374</v>
+      </c>
+      <c r="AU213">
+        <v>28.4147844</v>
+      </c>
+      <c r="AV213">
+        <v>27.9284109</v>
+      </c>
+      <c r="AW213">
+        <v>22.9382819</v>
+      </c>
+      <c r="AX213">
+        <v>21.8538847</v>
+      </c>
+      <c r="AY213">
+        <v>18.1197213</v>
+      </c>
+      <c r="BA213">
+        <v>10.1936219</v>
+      </c>
+      <c r="BB213">
+        <v>15.7431435</v>
+      </c>
+      <c r="BC213">
+        <v>19.9329092</v>
+      </c>
+      <c r="BD213">
+        <v>20.7024121</v>
+      </c>
+      <c r="BE213">
+        <v>17.2375123</v>
+      </c>
+    </row>
+    <row r="214" spans="1:57">
+      <c r="A214" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="215" spans="1:57">
+      <c r="A215" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -24555,7 +24555,7 @@
         <v>12.3646961</v>
       </c>
       <c r="L219">
-        <v>19.6124014</v>
+        <v>19.6167959</v>
       </c>
       <c r="M219">
         <v>26.3352541</v>
@@ -24630,7 +24630,7 @@
         <v>18.8131006</v>
       </c>
       <c r="AM219">
-        <v>10.484613</v>
+        <v>10.4909178</v>
       </c>
       <c r="AN219">
         <v>17.6314449</v>
@@ -24669,7 +24669,7 @@
         <v>8.9175927</v>
       </c>
       <c r="BB219">
-        <v>15.0696204</v>
+        <v>15.0676587</v>
       </c>
       <c r="BC219">
         <v>19.8449583</v>
@@ -24684,6 +24684,159 @@
     <row r="220" spans="1:57">
       <c r="A220" t="s">
         <v>274</v>
+      </c>
+      <c r="B220">
+        <v>19.348659</v>
+      </c>
+      <c r="C220">
+        <v>28.1589014</v>
+      </c>
+      <c r="D220">
+        <v>27.1531579</v>
+      </c>
+      <c r="F220">
+        <v>17.0568446</v>
+      </c>
+      <c r="G220">
+        <v>15.1358517</v>
+      </c>
+      <c r="H220">
+        <v>15.4303285</v>
+      </c>
+      <c r="I220">
+        <v>9.4494962</v>
+      </c>
+      <c r="J220">
+        <v>12.7850163</v>
+      </c>
+      <c r="K220">
+        <v>12.1351126</v>
+      </c>
+      <c r="L220">
+        <v>19.4098882</v>
+      </c>
+      <c r="M220">
+        <v>26.6449402</v>
+      </c>
+      <c r="O220">
+        <v>15.2122642</v>
+      </c>
+      <c r="P220">
+        <v>30.8076175</v>
+      </c>
+      <c r="Q220">
+        <v>26.8548524</v>
+      </c>
+      <c r="R220">
+        <v>20.3163569</v>
+      </c>
+      <c r="S220">
+        <v>25.2872618</v>
+      </c>
+      <c r="T220">
+        <v>26.2278085</v>
+      </c>
+      <c r="U220">
+        <v>23.8883276</v>
+      </c>
+      <c r="V220">
+        <v>24.0808368</v>
+      </c>
+      <c r="W220">
+        <v>10.572511</v>
+      </c>
+      <c r="X220">
+        <v>13.2732579</v>
+      </c>
+      <c r="Y220">
+        <v>10.2195504</v>
+      </c>
+      <c r="Z220">
+        <v>14.713122</v>
+      </c>
+      <c r="AA220">
+        <v>17.4347372</v>
+      </c>
+      <c r="AB220">
+        <v>28.3327067</v>
+      </c>
+      <c r="AD220">
+        <v>29.4071465</v>
+      </c>
+      <c r="AE220">
+        <v>21.4139167</v>
+      </c>
+      <c r="AF220">
+        <v>18.6057406</v>
+      </c>
+      <c r="AG220">
+        <v>30.4878895</v>
+      </c>
+      <c r="AH220">
+        <v>27.5223972</v>
+      </c>
+      <c r="AI220">
+        <v>10.190577</v>
+      </c>
+      <c r="AJ220">
+        <v>10.2358082</v>
+      </c>
+      <c r="AK220">
+        <v>15.2640431</v>
+      </c>
+      <c r="AL220">
+        <v>19.4593548</v>
+      </c>
+      <c r="AM220">
+        <v>10.6828715</v>
+      </c>
+      <c r="AN220">
+        <v>17.6952049</v>
+      </c>
+      <c r="AO220">
+        <v>28.0529212</v>
+      </c>
+      <c r="AP220">
+        <v>12.8612298</v>
+      </c>
+      <c r="AQ220">
+        <v>13.473985</v>
+      </c>
+      <c r="AS220">
+        <v>11.1259162</v>
+      </c>
+      <c r="AT220">
+        <v>21.8564621</v>
+      </c>
+      <c r="AU220">
+        <v>33.5761595</v>
+      </c>
+      <c r="AV220">
+        <v>26.6859001</v>
+      </c>
+      <c r="AW220">
+        <v>21.7190371</v>
+      </c>
+      <c r="AX220">
+        <v>23.0825918</v>
+      </c>
+      <c r="AY220">
+        <v>17.4920161</v>
+      </c>
+      <c r="BA220">
+        <v>8.7037075</v>
+      </c>
+      <c r="BB220">
+        <v>15.0425407</v>
+      </c>
+      <c r="BC220">
+        <v>19.829063</v>
+      </c>
+      <c r="BD220">
+        <v>20.1521553</v>
+      </c>
+      <c r="BE220">
+        <v>19.6242761</v>
       </c>
     </row>
     <row r="221" spans="1:57">

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>Alaska</t>
   </si>
@@ -842,6 +842,27 @@
   </si>
   <si>
     <t>07 09 2020</t>
+  </si>
+  <si>
+    <t>08 09 2020</t>
+  </si>
+  <si>
+    <t>09 09 2020</t>
+  </si>
+  <si>
+    <t>10 09 2020</t>
+  </si>
+  <si>
+    <t>11 09 2020</t>
+  </si>
+  <si>
+    <t>12 09 2020</t>
+  </si>
+  <si>
+    <t>13 09 2020</t>
+  </si>
+  <si>
+    <t>14 09 2020</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE221"/>
+  <dimension ref="A1:BE228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24239,7 +24260,7 @@
         <v>12.5987362</v>
       </c>
       <c r="L217">
-        <v>19.8386518</v>
+        <v>19.8429203</v>
       </c>
       <c r="M217">
         <v>26.8832006</v>
@@ -24272,7 +24293,7 @@
         <v>10.9846694</v>
       </c>
       <c r="X217">
-        <v>12.9778278</v>
+        <v>12.9750876</v>
       </c>
       <c r="Y217">
         <v>10.7719475</v>
@@ -24356,7 +24377,7 @@
         <v>15.2540744</v>
       </c>
       <c r="BC217">
-        <v>19.4834446</v>
+        <v>19.4970778</v>
       </c>
       <c r="BD217">
         <v>19.5676301</v>
@@ -24397,7 +24418,7 @@
         <v>12.3095429</v>
       </c>
       <c r="L218">
-        <v>19.6276467</v>
+        <v>19.6319525</v>
       </c>
       <c r="M218">
         <v>26.7978179</v>
@@ -24430,7 +24451,7 @@
         <v>10.8404326</v>
       </c>
       <c r="X218">
-        <v>12.8060506</v>
+        <v>12.8033247</v>
       </c>
       <c r="Y218">
         <v>10.7562596</v>
@@ -24514,7 +24535,7 @@
         <v>15.1679316</v>
       </c>
       <c r="BC218">
-        <v>19.7327697</v>
+        <v>19.7464277</v>
       </c>
       <c r="BD218">
         <v>19.5998639</v>
@@ -24555,7 +24576,7 @@
         <v>12.3646961</v>
       </c>
       <c r="L219">
-        <v>19.6167959</v>
+        <v>19.6211898</v>
       </c>
       <c r="M219">
         <v>26.3352541</v>
@@ -24588,7 +24609,7 @@
         <v>10.6596146</v>
       </c>
       <c r="X219">
-        <v>13.2575808</v>
+        <v>13.2547118</v>
       </c>
       <c r="Y219">
         <v>10.4155844</v>
@@ -24672,7 +24693,7 @@
         <v>15.0676587</v>
       </c>
       <c r="BC219">
-        <v>19.8449583</v>
+        <v>19.8589155</v>
       </c>
       <c r="BD219">
         <v>19.5950616</v>
@@ -24698,7 +24719,7 @@
         <v>17.0568446</v>
       </c>
       <c r="G220">
-        <v>15.1358517</v>
+        <v>15.1351926</v>
       </c>
       <c r="H220">
         <v>15.4303285</v>
@@ -24713,7 +24734,7 @@
         <v>12.1351126</v>
       </c>
       <c r="L220">
-        <v>19.4098882</v>
+        <v>19.4144043</v>
       </c>
       <c r="M220">
         <v>26.6449402</v>
@@ -24746,7 +24767,7 @@
         <v>10.572511</v>
       </c>
       <c r="X220">
-        <v>13.2732579</v>
+        <v>13.270305</v>
       </c>
       <c r="Y220">
         <v>10.2195504</v>
@@ -24815,7 +24836,7 @@
         <v>26.6859001</v>
       </c>
       <c r="AW220">
-        <v>21.7190371</v>
+        <v>21.723013</v>
       </c>
       <c r="AX220">
         <v>23.0825918</v>
@@ -24830,7 +24851,7 @@
         <v>15.0425407</v>
       </c>
       <c r="BC220">
-        <v>19.829063</v>
+        <v>19.8431852</v>
       </c>
       <c r="BD220">
         <v>20.1521553</v>
@@ -24842,6 +24863,1112 @@
     <row r="221" spans="1:57">
       <c r="A221" t="s">
         <v>275</v>
+      </c>
+      <c r="B221">
+        <v>19.7522816</v>
+      </c>
+      <c r="C221">
+        <v>27.9346891</v>
+      </c>
+      <c r="D221">
+        <v>26.7135996</v>
+      </c>
+      <c r="F221">
+        <v>16.5240542</v>
+      </c>
+      <c r="G221">
+        <v>14.8505697</v>
+      </c>
+      <c r="H221">
+        <v>15.8369119</v>
+      </c>
+      <c r="I221">
+        <v>9.507913</v>
+      </c>
+      <c r="J221">
+        <v>13.2520325</v>
+      </c>
+      <c r="K221">
+        <v>12.2769754</v>
+      </c>
+      <c r="L221">
+        <v>19.3741098</v>
+      </c>
+      <c r="M221">
+        <v>26.147733</v>
+      </c>
+      <c r="O221">
+        <v>16.0685805</v>
+      </c>
+      <c r="P221">
+        <v>29.9192125</v>
+      </c>
+      <c r="Q221">
+        <v>26.718357</v>
+      </c>
+      <c r="R221">
+        <v>20.4760189</v>
+      </c>
+      <c r="S221">
+        <v>24.8268822</v>
+      </c>
+      <c r="T221">
+        <v>26.2297664</v>
+      </c>
+      <c r="U221">
+        <v>23.4796748</v>
+      </c>
+      <c r="V221">
+        <v>23.8256672</v>
+      </c>
+      <c r="W221">
+        <v>10.7808555</v>
+      </c>
+      <c r="X221">
+        <v>13.2563923</v>
+      </c>
+      <c r="Y221">
+        <v>10.4354753</v>
+      </c>
+      <c r="Z221">
+        <v>14.8972611</v>
+      </c>
+      <c r="AA221">
+        <v>17.5653183</v>
+      </c>
+      <c r="AB221">
+        <v>28.5258923</v>
+      </c>
+      <c r="AD221">
+        <v>29.0379352</v>
+      </c>
+      <c r="AE221">
+        <v>22.1402825</v>
+      </c>
+      <c r="AF221">
+        <v>18.1970603</v>
+      </c>
+      <c r="AG221">
+        <v>30.2763785</v>
+      </c>
+      <c r="AH221">
+        <v>26.9418788</v>
+      </c>
+      <c r="AI221">
+        <v>10.0938967</v>
+      </c>
+      <c r="AJ221">
+        <v>10.1021682</v>
+      </c>
+      <c r="AK221">
+        <v>15.2133472</v>
+      </c>
+      <c r="AL221">
+        <v>19.2564634</v>
+      </c>
+      <c r="AM221">
+        <v>10.4623183</v>
+      </c>
+      <c r="AN221">
+        <v>17.7094465</v>
+      </c>
+      <c r="AO221">
+        <v>27.8464286</v>
+      </c>
+      <c r="AP221">
+        <v>12.8057871</v>
+      </c>
+      <c r="AQ221">
+        <v>13.4819896</v>
+      </c>
+      <c r="AS221">
+        <v>10.8791124</v>
+      </c>
+      <c r="AT221">
+        <v>21.6461165</v>
+      </c>
+      <c r="AU221">
+        <v>33.238607</v>
+      </c>
+      <c r="AV221">
+        <v>26.4411334</v>
+      </c>
+      <c r="AW221">
+        <v>21.397675</v>
+      </c>
+      <c r="AX221">
+        <v>23.2004779</v>
+      </c>
+      <c r="AY221">
+        <v>17.5284504</v>
+      </c>
+      <c r="BA221">
+        <v>8.090029599999999</v>
+      </c>
+      <c r="BB221">
+        <v>14.9033254</v>
+      </c>
+      <c r="BC221">
+        <v>19.8947684</v>
+      </c>
+      <c r="BD221">
+        <v>20.2280164</v>
+      </c>
+      <c r="BE221">
+        <v>20.0201613</v>
+      </c>
+    </row>
+    <row r="222" spans="1:57">
+      <c r="A222" t="s">
+        <v>276</v>
+      </c>
+      <c r="B222">
+        <v>19.5364238</v>
+      </c>
+      <c r="C222">
+        <v>27.1374849</v>
+      </c>
+      <c r="D222">
+        <v>26.4325128</v>
+      </c>
+      <c r="F222">
+        <v>16.2977241</v>
+      </c>
+      <c r="G222">
+        <v>14.6924722</v>
+      </c>
+      <c r="H222">
+        <v>16.1604681</v>
+      </c>
+      <c r="I222">
+        <v>9.4618494</v>
+      </c>
+      <c r="J222">
+        <v>12.7467105</v>
+      </c>
+      <c r="K222">
+        <v>12.2769754</v>
+      </c>
+      <c r="L222">
+        <v>19.3051469</v>
+      </c>
+      <c r="M222">
+        <v>26.0909485</v>
+      </c>
+      <c r="O222">
+        <v>15.5510204</v>
+      </c>
+      <c r="P222">
+        <v>29.7616337</v>
+      </c>
+      <c r="Q222">
+        <v>26.7433639</v>
+      </c>
+      <c r="R222">
+        <v>20.5054219</v>
+      </c>
+      <c r="S222">
+        <v>24.9490745</v>
+      </c>
+      <c r="T222">
+        <v>26.2575676</v>
+      </c>
+      <c r="U222">
+        <v>23.1158686</v>
+      </c>
+      <c r="V222">
+        <v>23.0588734</v>
+      </c>
+      <c r="W222">
+        <v>10.5335076</v>
+      </c>
+      <c r="X222">
+        <v>13.3665715</v>
+      </c>
+      <c r="Y222">
+        <v>10.9951846</v>
+      </c>
+      <c r="Z222">
+        <v>14.8606901</v>
+      </c>
+      <c r="AA222">
+        <v>17.5451961</v>
+      </c>
+      <c r="AB222">
+        <v>28.6765605</v>
+      </c>
+      <c r="AD222">
+        <v>28.9517722</v>
+      </c>
+      <c r="AE222">
+        <v>22.4382721</v>
+      </c>
+      <c r="AF222">
+        <v>17.9522769</v>
+      </c>
+      <c r="AG222">
+        <v>31.226091</v>
+      </c>
+      <c r="AH222">
+        <v>26.1622499</v>
+      </c>
+      <c r="AI222">
+        <v>9.0207557</v>
+      </c>
+      <c r="AJ222">
+        <v>10.0462817</v>
+      </c>
+      <c r="AK222">
+        <v>15.7632134</v>
+      </c>
+      <c r="AL222">
+        <v>19.3904884</v>
+      </c>
+      <c r="AM222">
+        <v>10.3709032</v>
+      </c>
+      <c r="AN222">
+        <v>17.6245033</v>
+      </c>
+      <c r="AO222">
+        <v>27.9413851</v>
+      </c>
+      <c r="AP222">
+        <v>12.6790651</v>
+      </c>
+      <c r="AQ222">
+        <v>13.3094401</v>
+      </c>
+      <c r="AS222">
+        <v>10.865627</v>
+      </c>
+      <c r="AT222">
+        <v>21.5665838</v>
+      </c>
+      <c r="AU222">
+        <v>33.2418035</v>
+      </c>
+      <c r="AV222">
+        <v>26.1858926</v>
+      </c>
+      <c r="AW222">
+        <v>21.2629632</v>
+      </c>
+      <c r="AX222">
+        <v>23.061841</v>
+      </c>
+      <c r="AY222">
+        <v>17.4436448</v>
+      </c>
+      <c r="BA222">
+        <v>7.7063163</v>
+      </c>
+      <c r="BB222">
+        <v>14.7090186</v>
+      </c>
+      <c r="BC222">
+        <v>19.6888794</v>
+      </c>
+      <c r="BD222">
+        <v>21.1989539</v>
+      </c>
+      <c r="BE222">
+        <v>21.0936722</v>
+      </c>
+    </row>
+    <row r="223" spans="1:57">
+      <c r="A223" t="s">
+        <v>277</v>
+      </c>
+      <c r="B223">
+        <v>19.8795181</v>
+      </c>
+      <c r="C223">
+        <v>26.5694584</v>
+      </c>
+      <c r="D223">
+        <v>26.5144293</v>
+      </c>
+      <c r="F223">
+        <v>16.5157421</v>
+      </c>
+      <c r="G223">
+        <v>14.5187308</v>
+      </c>
+      <c r="H223">
+        <v>15.9367374</v>
+      </c>
+      <c r="I223">
+        <v>9.3437006</v>
+      </c>
+      <c r="J223">
+        <v>12.300885</v>
+      </c>
+      <c r="K223">
+        <v>11.9318182</v>
+      </c>
+      <c r="L223">
+        <v>19.1864101</v>
+      </c>
+      <c r="M223">
+        <v>25.2825168</v>
+      </c>
+      <c r="O223">
+        <v>15.9129693</v>
+      </c>
+      <c r="P223">
+        <v>28.8272992</v>
+      </c>
+      <c r="Q223">
+        <v>27.6110537</v>
+      </c>
+      <c r="R223">
+        <v>20.3435622</v>
+      </c>
+      <c r="S223">
+        <v>24.1517566</v>
+      </c>
+      <c r="T223">
+        <v>25.4247589</v>
+      </c>
+      <c r="U223">
+        <v>22.8076706</v>
+      </c>
+      <c r="V223">
+        <v>23.0495445</v>
+      </c>
+      <c r="W223">
+        <v>10.339222</v>
+      </c>
+      <c r="X223">
+        <v>13.3773068</v>
+      </c>
+      <c r="Y223">
+        <v>11.1081081</v>
+      </c>
+      <c r="Z223">
+        <v>14.706838</v>
+      </c>
+      <c r="AA223">
+        <v>16.828343</v>
+      </c>
+      <c r="AB223">
+        <v>28.6941535</v>
+      </c>
+      <c r="AD223">
+        <v>28.0031041</v>
+      </c>
+      <c r="AE223">
+        <v>22.2854083</v>
+      </c>
+      <c r="AF223">
+        <v>17.5352234</v>
+      </c>
+      <c r="AG223">
+        <v>31.5016025</v>
+      </c>
+      <c r="AH223">
+        <v>24.990026</v>
+      </c>
+      <c r="AI223">
+        <v>8.5359116</v>
+      </c>
+      <c r="AJ223">
+        <v>10.0287742</v>
+      </c>
+      <c r="AK223">
+        <v>14.7268807</v>
+      </c>
+      <c r="AL223">
+        <v>18.8086993</v>
+      </c>
+      <c r="AM223">
+        <v>9.9657599</v>
+      </c>
+      <c r="AN223">
+        <v>17.4098234</v>
+      </c>
+      <c r="AO223">
+        <v>27.3153687</v>
+      </c>
+      <c r="AP223">
+        <v>12.5686644</v>
+      </c>
+      <c r="AQ223">
+        <v>13.1950802</v>
+      </c>
+      <c r="AS223">
+        <v>11.2301506</v>
+      </c>
+      <c r="AT223">
+        <v>21.407653</v>
+      </c>
+      <c r="AU223">
+        <v>33.1859061</v>
+      </c>
+      <c r="AV223">
+        <v>25.5625221</v>
+      </c>
+      <c r="AW223">
+        <v>20.8738051</v>
+      </c>
+      <c r="AX223">
+        <v>23.3509707</v>
+      </c>
+      <c r="AY223">
+        <v>17.7345454</v>
+      </c>
+      <c r="BA223">
+        <v>7.7651592</v>
+      </c>
+      <c r="BB223">
+        <v>14.7010333</v>
+      </c>
+      <c r="BC223">
+        <v>19.3623978</v>
+      </c>
+      <c r="BD223">
+        <v>21.0092047</v>
+      </c>
+      <c r="BE223">
+        <v>21.269023</v>
+      </c>
+    </row>
+    <row r="224" spans="1:57">
+      <c r="A224" t="s">
+        <v>278</v>
+      </c>
+      <c r="B224">
+        <v>20.0137552</v>
+      </c>
+      <c r="C224">
+        <v>26.2870897</v>
+      </c>
+      <c r="D224">
+        <v>26.5607652</v>
+      </c>
+      <c r="F224">
+        <v>16.6649902</v>
+      </c>
+      <c r="G224">
+        <v>14.4708911</v>
+      </c>
+      <c r="H224">
+        <v>16.0365701</v>
+      </c>
+      <c r="I224">
+        <v>9.4495662</v>
+      </c>
+      <c r="J224">
+        <v>10.6284658</v>
+      </c>
+      <c r="K224">
+        <v>10.7397504</v>
+      </c>
+      <c r="L224">
+        <v>19.1794418</v>
+      </c>
+      <c r="M224">
+        <v>25.2582446</v>
+      </c>
+      <c r="O224">
+        <v>16.5936953</v>
+      </c>
+      <c r="P224">
+        <v>28.1415347</v>
+      </c>
+      <c r="Q224">
+        <v>26.8073999</v>
+      </c>
+      <c r="R224">
+        <v>20.0992991</v>
+      </c>
+      <c r="S224">
+        <v>23.7292097</v>
+      </c>
+      <c r="T224">
+        <v>24.9662885</v>
+      </c>
+      <c r="U224">
+        <v>22.3454487</v>
+      </c>
+      <c r="V224">
+        <v>22.6882182</v>
+      </c>
+      <c r="W224">
+        <v>10.4502651</v>
+      </c>
+      <c r="X224">
+        <v>13.5671172</v>
+      </c>
+      <c r="Y224">
+        <v>10.7782755</v>
+      </c>
+      <c r="Z224">
+        <v>14.7280546</v>
+      </c>
+      <c r="AA224">
+        <v>17.1984238</v>
+      </c>
+      <c r="AB224">
+        <v>28.5267736</v>
+      </c>
+      <c r="AD224">
+        <v>27.1270979</v>
+      </c>
+      <c r="AE224">
+        <v>22.8381891</v>
+      </c>
+      <c r="AF224">
+        <v>17.39156</v>
+      </c>
+      <c r="AG224">
+        <v>31.9282043</v>
+      </c>
+      <c r="AH224">
+        <v>24.9791237</v>
+      </c>
+      <c r="AI224">
+        <v>8.581879600000001</v>
+      </c>
+      <c r="AJ224">
+        <v>9.786065300000001</v>
+      </c>
+      <c r="AK224">
+        <v>14.403464</v>
+      </c>
+      <c r="AL224">
+        <v>18.1072602</v>
+      </c>
+      <c r="AM224">
+        <v>9.847248</v>
+      </c>
+      <c r="AN224">
+        <v>16.8482128</v>
+      </c>
+      <c r="AO224">
+        <v>27.4766045</v>
+      </c>
+      <c r="AP224">
+        <v>12.3316526</v>
+      </c>
+      <c r="AQ224">
+        <v>13.3574794</v>
+      </c>
+      <c r="AS224">
+        <v>11.1482887</v>
+      </c>
+      <c r="AT224">
+        <v>22.2697392</v>
+      </c>
+      <c r="AU224">
+        <v>32.0536947</v>
+      </c>
+      <c r="AV224">
+        <v>25.8324932</v>
+      </c>
+      <c r="AW224">
+        <v>20.5434195</v>
+      </c>
+      <c r="AX224">
+        <v>23.4884273</v>
+      </c>
+      <c r="AY224">
+        <v>17.7084042</v>
+      </c>
+      <c r="BA224">
+        <v>7.0625099</v>
+      </c>
+      <c r="BB224">
+        <v>14.5224421</v>
+      </c>
+      <c r="BC224">
+        <v>19.4397107</v>
+      </c>
+      <c r="BD224">
+        <v>20.7332349</v>
+      </c>
+      <c r="BE224">
+        <v>20.2357396</v>
+      </c>
+    </row>
+    <row r="225" spans="1:57">
+      <c r="A225" t="s">
+        <v>279</v>
+      </c>
+      <c r="B225">
+        <v>20.6919946</v>
+      </c>
+      <c r="C225">
+        <v>26.3541035</v>
+      </c>
+      <c r="D225">
+        <v>26.4438674</v>
+      </c>
+      <c r="F225">
+        <v>16.6404644</v>
+      </c>
+      <c r="G225">
+        <v>14.1553496</v>
+      </c>
+      <c r="H225">
+        <v>15.7205043</v>
+      </c>
+      <c r="I225">
+        <v>9.4616863</v>
+      </c>
+      <c r="J225">
+        <v>9.7042514</v>
+      </c>
+      <c r="K225">
+        <v>10.8288066</v>
+      </c>
+      <c r="L225">
+        <v>19.0718649</v>
+      </c>
+      <c r="M225">
+        <v>25.0592481</v>
+      </c>
+      <c r="O225">
+        <v>17.5967597</v>
+      </c>
+      <c r="P225">
+        <v>27.6355026</v>
+      </c>
+      <c r="Q225">
+        <v>26.4948518</v>
+      </c>
+      <c r="R225">
+        <v>19.8771297</v>
+      </c>
+      <c r="S225">
+        <v>23.8275717</v>
+      </c>
+      <c r="T225">
+        <v>25.207784</v>
+      </c>
+      <c r="U225">
+        <v>22.071824</v>
+      </c>
+      <c r="V225">
+        <v>22.6937157</v>
+      </c>
+      <c r="W225">
+        <v>10.5130293</v>
+      </c>
+      <c r="X225">
+        <v>14.0519674</v>
+      </c>
+      <c r="Y225">
+        <v>11.1141907</v>
+      </c>
+      <c r="Z225">
+        <v>14.6446743</v>
+      </c>
+      <c r="AA225">
+        <v>17.6617248</v>
+      </c>
+      <c r="AB225">
+        <v>28.2102617</v>
+      </c>
+      <c r="AD225">
+        <v>26.658775</v>
+      </c>
+      <c r="AE225">
+        <v>23.4346398</v>
+      </c>
+      <c r="AF225">
+        <v>17.3000662</v>
+      </c>
+      <c r="AG225">
+        <v>31.0284026</v>
+      </c>
+      <c r="AH225">
+        <v>24.4604083</v>
+      </c>
+      <c r="AI225">
+        <v>8.4347826</v>
+      </c>
+      <c r="AJ225">
+        <v>9.8917913</v>
+      </c>
+      <c r="AK225">
+        <v>14.3413657</v>
+      </c>
+      <c r="AL225">
+        <v>17.7195963</v>
+      </c>
+      <c r="AM225">
+        <v>9.8332639</v>
+      </c>
+      <c r="AN225">
+        <v>16.8487054</v>
+      </c>
+      <c r="AO225">
+        <v>27.5088576</v>
+      </c>
+      <c r="AP225">
+        <v>11.9613438</v>
+      </c>
+      <c r="AQ225">
+        <v>13.1351518</v>
+      </c>
+      <c r="AS225">
+        <v>10.4043298</v>
+      </c>
+      <c r="AT225">
+        <v>22.119396</v>
+      </c>
+      <c r="AU225">
+        <v>32.1527431</v>
+      </c>
+      <c r="AV225">
+        <v>25.7001976</v>
+      </c>
+      <c r="AW225">
+        <v>20.4386306</v>
+      </c>
+      <c r="AX225">
+        <v>23.6783527</v>
+      </c>
+      <c r="AY225">
+        <v>17.848186</v>
+      </c>
+      <c r="BA225">
+        <v>6.7848402</v>
+      </c>
+      <c r="BB225">
+        <v>14.3813926</v>
+      </c>
+      <c r="BC225">
+        <v>19.3631759</v>
+      </c>
+      <c r="BD225">
+        <v>21.0591425</v>
+      </c>
+      <c r="BE225">
+        <v>19.1395063</v>
+      </c>
+    </row>
+    <row r="226" spans="1:57">
+      <c r="A226" t="s">
+        <v>280</v>
+      </c>
+      <c r="B226">
+        <v>21.4189189</v>
+      </c>
+      <c r="C226">
+        <v>25.8250591</v>
+      </c>
+      <c r="D226">
+        <v>25.5466055</v>
+      </c>
+      <c r="F226">
+        <v>16.2977445</v>
+      </c>
+      <c r="G226">
+        <v>14.0317662</v>
+      </c>
+      <c r="H226">
+        <v>15.4612885</v>
+      </c>
+      <c r="I226">
+        <v>9.5284327</v>
+      </c>
+      <c r="J226">
+        <v>10.2398524</v>
+      </c>
+      <c r="K226">
+        <v>10.8772079</v>
+      </c>
+      <c r="L226">
+        <v>19.0430499</v>
+      </c>
+      <c r="M226">
+        <v>25.086284</v>
+      </c>
+      <c r="O226">
+        <v>17.8240741</v>
+      </c>
+      <c r="P226">
+        <v>27.3059261</v>
+      </c>
+      <c r="Q226">
+        <v>26.1393656</v>
+      </c>
+      <c r="R226">
+        <v>19.5059466</v>
+      </c>
+      <c r="S226">
+        <v>23.7792627</v>
+      </c>
+      <c r="T226">
+        <v>24.7940781</v>
+      </c>
+      <c r="U226">
+        <v>22.1743276</v>
+      </c>
+      <c r="V226">
+        <v>22.2856268</v>
+      </c>
+      <c r="W226">
+        <v>10.6389635</v>
+      </c>
+      <c r="X226">
+        <v>13.619983</v>
+      </c>
+      <c r="Y226">
+        <v>11.0216546</v>
+      </c>
+      <c r="Z226">
+        <v>14.7444598</v>
+      </c>
+      <c r="AA226">
+        <v>17.4469844</v>
+      </c>
+      <c r="AB226">
+        <v>28.1306928</v>
+      </c>
+      <c r="AD226">
+        <v>26.2499178</v>
+      </c>
+      <c r="AE226">
+        <v>22.6673065</v>
+      </c>
+      <c r="AF226">
+        <v>17.7030127</v>
+      </c>
+      <c r="AG226">
+        <v>31.2354901</v>
+      </c>
+      <c r="AH226">
+        <v>23.749632</v>
+      </c>
+      <c r="AI226">
+        <v>8.228211</v>
+      </c>
+      <c r="AJ226">
+        <v>9.7955822</v>
+      </c>
+      <c r="AK226">
+        <v>14.1052155</v>
+      </c>
+      <c r="AL226">
+        <v>17.9967298</v>
+      </c>
+      <c r="AM226">
+        <v>9.806152300000001</v>
+      </c>
+      <c r="AN226">
+        <v>16.6483822</v>
+      </c>
+      <c r="AO226">
+        <v>27.0264588</v>
+      </c>
+      <c r="AP226">
+        <v>12.1285944</v>
+      </c>
+      <c r="AQ226">
+        <v>13.1523162</v>
+      </c>
+      <c r="AS226">
+        <v>10.0101272</v>
+      </c>
+      <c r="AT226">
+        <v>21.3167706</v>
+      </c>
+      <c r="AU226">
+        <v>31.2205508</v>
+      </c>
+      <c r="AV226">
+        <v>25.6877983</v>
+      </c>
+      <c r="AW226">
+        <v>20.1524895</v>
+      </c>
+      <c r="AX226">
+        <v>23.3966747</v>
+      </c>
+      <c r="AY226">
+        <v>17.8303427</v>
+      </c>
+      <c r="BA226">
+        <v>6.1186643</v>
+      </c>
+      <c r="BB226">
+        <v>14.3435682</v>
+      </c>
+      <c r="BC226">
+        <v>19.340073</v>
+      </c>
+      <c r="BD226">
+        <v>20.8662937</v>
+      </c>
+      <c r="BE226">
+        <v>19.4468629</v>
+      </c>
+    </row>
+    <row r="227" spans="1:57">
+      <c r="A227" t="s">
+        <v>281</v>
+      </c>
+      <c r="B227">
+        <v>21.1333333</v>
+      </c>
+      <c r="C227">
+        <v>25.4461216</v>
+      </c>
+      <c r="D227">
+        <v>25.1917575</v>
+      </c>
+      <c r="F227">
+        <v>15.698215</v>
+      </c>
+      <c r="G227">
+        <v>13.9543655</v>
+      </c>
+      <c r="H227">
+        <v>15.5845761</v>
+      </c>
+      <c r="I227">
+        <v>9.9583333</v>
+      </c>
+      <c r="J227">
+        <v>9.847036299999999</v>
+      </c>
+      <c r="K227">
+        <v>11.066523</v>
+      </c>
+      <c r="L227">
+        <v>18.7404372</v>
+      </c>
+      <c r="M227">
+        <v>24.6861913</v>
+      </c>
+      <c r="O227">
+        <v>17.8023033</v>
+      </c>
+      <c r="P227">
+        <v>26.4897553</v>
+      </c>
+      <c r="Q227">
+        <v>24.9924095</v>
+      </c>
+      <c r="R227">
+        <v>19.4919148</v>
+      </c>
+      <c r="S227">
+        <v>23.3217981</v>
+      </c>
+      <c r="T227">
+        <v>24.2969426</v>
+      </c>
+      <c r="U227">
+        <v>22.1003218</v>
+      </c>
+      <c r="V227">
+        <v>21.9120412</v>
+      </c>
+      <c r="W227">
+        <v>10.4720499</v>
+      </c>
+      <c r="X227">
+        <v>13.8073005</v>
+      </c>
+      <c r="Y227">
+        <v>11.1142534</v>
+      </c>
+      <c r="Z227">
+        <v>14.5962301</v>
+      </c>
+      <c r="AA227">
+        <v>17.3147612</v>
+      </c>
+      <c r="AB227">
+        <v>28.386176</v>
+      </c>
+      <c r="AD227">
+        <v>25.4164026</v>
+      </c>
+      <c r="AE227">
+        <v>22.3934198</v>
+      </c>
+      <c r="AF227">
+        <v>17.8503425</v>
+      </c>
+      <c r="AG227">
+        <v>31.7972962</v>
+      </c>
+      <c r="AH227">
+        <v>23.7028982</v>
+      </c>
+      <c r="AI227">
+        <v>8.0294118</v>
+      </c>
+      <c r="AJ227">
+        <v>9.607103499999999</v>
+      </c>
+      <c r="AK227">
+        <v>13.2481981</v>
+      </c>
+      <c r="AL227">
+        <v>16.8974704</v>
+      </c>
+      <c r="AM227">
+        <v>9.563927899999999</v>
+      </c>
+      <c r="AN227">
+        <v>16.8538602</v>
+      </c>
+      <c r="AO227">
+        <v>26.9852041</v>
+      </c>
+      <c r="AP227">
+        <v>12.3068733</v>
+      </c>
+      <c r="AQ227">
+        <v>13.0799619</v>
+      </c>
+      <c r="AS227">
+        <v>9.3976524</v>
+      </c>
+      <c r="AT227">
+        <v>21.2262332</v>
+      </c>
+      <c r="AU227">
+        <v>30.899325</v>
+      </c>
+      <c r="AV227">
+        <v>25.3589209</v>
+      </c>
+      <c r="AW227">
+        <v>19.6635631</v>
+      </c>
+      <c r="AX227">
+        <v>22.9577575</v>
+      </c>
+      <c r="AY227">
+        <v>17.7627881</v>
+      </c>
+      <c r="BA227">
+        <v>5.6662509</v>
+      </c>
+      <c r="BB227">
+        <v>14.3978399</v>
+      </c>
+      <c r="BC227">
+        <v>19.7371071</v>
+      </c>
+      <c r="BD227">
+        <v>21.0405897</v>
+      </c>
+      <c r="BE227">
+        <v>19.8245423</v>
+      </c>
+    </row>
+    <row r="228" spans="1:57">
+      <c r="A228" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/fb-survey-communityState.xlsx
+++ b/fb-survey-communityState.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>Alaska</t>
   </si>
@@ -863,6 +863,30 @@
   </si>
   <si>
     <t>14 09 2020</t>
+  </si>
+  <si>
+    <t>15 09 2020</t>
+  </si>
+  <si>
+    <t>16 09 2020</t>
+  </si>
+  <si>
+    <t>17 09 2020</t>
+  </si>
+  <si>
+    <t>18 09 2020</t>
+  </si>
+  <si>
+    <t>19 09 2020</t>
+  </si>
+  <si>
+    <t>20 09 2020</t>
+  </si>
+  <si>
+    <t>21 09 2020</t>
+  </si>
+  <si>
+    <t>22 09 2020</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BE228"/>
+  <dimension ref="A1:BE236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -25614,7 +25638,7 @@
         <v>13.1351518</v>
       </c>
       <c r="AS225">
-        <v>10.4043298</v>
+        <v>10.3940791</v>
       </c>
       <c r="AT225">
         <v>22.119396</v>
@@ -25664,7 +25688,7 @@
         <v>25.5466055</v>
       </c>
       <c r="F226">
-        <v>16.2977445</v>
+        <v>16.2944227</v>
       </c>
       <c r="G226">
         <v>14.0317662</v>
@@ -25772,7 +25796,7 @@
         <v>13.1523162</v>
       </c>
       <c r="AS226">
-        <v>10.0101272</v>
+        <v>9.999964500000001</v>
       </c>
       <c r="AT226">
         <v>21.3167706</v>
@@ -25822,10 +25846,10 @@
         <v>25.1917575</v>
       </c>
       <c r="F227">
-        <v>15.698215</v>
+        <v>15.6949836</v>
       </c>
       <c r="G227">
-        <v>13.9543655</v>
+        <v>13.9529203</v>
       </c>
       <c r="H227">
         <v>15.5845761</v>
@@ -25909,7 +25933,7 @@
         <v>9.607103499999999</v>
       </c>
       <c r="AK227">
-        <v>13.2481981</v>
+        <v>13.2401687</v>
       </c>
       <c r="AL227">
         <v>16.8974704</v>
@@ -25930,7 +25954,7 @@
         <v>13.0799619</v>
       </c>
       <c r="AS227">
-        <v>9.3976524</v>
+        <v>9.387903700000001</v>
       </c>
       <c r="AT227">
         <v>21.2262332</v>
@@ -25954,7 +25978,7 @@
         <v>5.6662509</v>
       </c>
       <c r="BB227">
-        <v>14.3978399</v>
+        <v>14.3955656</v>
       </c>
       <c r="BC227">
         <v>19.7371071</v>
@@ -25969,6 +25993,1270 @@
     <row r="228" spans="1:57">
       <c r="A228" t="s">
         <v>282</v>
+      </c>
+      <c r="B228">
+        <v>21.2141883</v>
+      </c>
+      <c r="C228">
+        <v>25.5122436</v>
+      </c>
+      <c r="D228">
+        <v>25.2714458</v>
+      </c>
+      <c r="F228">
+        <v>16.1377564</v>
+      </c>
+      <c r="G228">
+        <v>14.0981704</v>
+      </c>
+      <c r="H228">
+        <v>15.2251753</v>
+      </c>
+      <c r="I228">
+        <v>10.4293589</v>
+      </c>
+      <c r="J228">
+        <v>8.7809917</v>
+      </c>
+      <c r="K228">
+        <v>11.0168057</v>
+      </c>
+      <c r="L228">
+        <v>18.7844387</v>
+      </c>
+      <c r="M228">
+        <v>25.0126012</v>
+      </c>
+      <c r="O228">
+        <v>16.95</v>
+      </c>
+      <c r="P228">
+        <v>26.7066975</v>
+      </c>
+      <c r="Q228">
+        <v>25.2258052</v>
+      </c>
+      <c r="R228">
+        <v>19.3871183</v>
+      </c>
+      <c r="S228">
+        <v>23.2436115</v>
+      </c>
+      <c r="T228">
+        <v>24.0985226</v>
+      </c>
+      <c r="U228">
+        <v>22.3658343</v>
+      </c>
+      <c r="V228">
+        <v>22.0654306</v>
+      </c>
+      <c r="W228">
+        <v>10.4134597</v>
+      </c>
+      <c r="X228">
+        <v>13.6285119</v>
+      </c>
+      <c r="Y228">
+        <v>11.1970218</v>
+      </c>
+      <c r="Z228">
+        <v>14.3643579</v>
+      </c>
+      <c r="AA228">
+        <v>17.3495355</v>
+      </c>
+      <c r="AB228">
+        <v>28.1504759</v>
+      </c>
+      <c r="AD228">
+        <v>25.1303355</v>
+      </c>
+      <c r="AE228">
+        <v>22.981067</v>
+      </c>
+      <c r="AF228">
+        <v>17.8058012</v>
+      </c>
+      <c r="AG228">
+        <v>32.1407498</v>
+      </c>
+      <c r="AH228">
+        <v>23.2100553</v>
+      </c>
+      <c r="AI228">
+        <v>8.180147099999999</v>
+      </c>
+      <c r="AJ228">
+        <v>9.6777224</v>
+      </c>
+      <c r="AK228">
+        <v>13.803041</v>
+      </c>
+      <c r="AL228">
+        <v>17.4750799</v>
+      </c>
+      <c r="AM228">
+        <v>9.7378091</v>
+      </c>
+      <c r="AN228">
+        <v>16.7588534</v>
+      </c>
+      <c r="AO228">
+        <v>27.2932594</v>
+      </c>
+      <c r="AP228">
+        <v>12.3945558</v>
+      </c>
+      <c r="AQ228">
+        <v>12.9637983</v>
+      </c>
+      <c r="AS228">
+        <v>9.194763200000001</v>
+      </c>
+      <c r="AT228">
+        <v>21.5739735</v>
+      </c>
+      <c r="AU228">
+        <v>30.5568535</v>
+      </c>
+      <c r="AV228">
+        <v>24.9909566</v>
+      </c>
+      <c r="AW228">
+        <v>19.5242828</v>
+      </c>
+      <c r="AX228">
+        <v>22.9441567</v>
+      </c>
+      <c r="AY228">
+        <v>17.3031543</v>
+      </c>
+      <c r="BA228">
+        <v>5.4980574</v>
+      </c>
+      <c r="BB228">
+        <v>14.51608</v>
+      </c>
+      <c r="BC228">
+        <v>20.1921337</v>
+      </c>
+      <c r="BD228">
+        <v>21.8460435</v>
+      </c>
+      <c r="BE228">
+        <v>19.5826708</v>
+      </c>
+    </row>
+    <row r="229" spans="1:57">
+      <c r="A229" t="s">
+        <v>283</v>
+      </c>
+      <c r="B229">
+        <v>21.9562244</v>
+      </c>
+      <c r="C229">
+        <v>25.3431735</v>
+      </c>
+      <c r="D229">
+        <v>25.4877257</v>
+      </c>
+      <c r="F229">
+        <v>15.9855258</v>
+      </c>
+      <c r="G229">
+        <v>14.2028711</v>
+      </c>
+      <c r="H229">
+        <v>15.6941808</v>
+      </c>
+      <c r="I229">
+        <v>10.2080238</v>
+      </c>
+      <c r="J229">
+        <v>8.8043478</v>
+      </c>
+      <c r="K229">
+        <v>10.7007156</v>
+      </c>
+      <c r="L229">
+        <v>18.5791022</v>
+      </c>
+      <c r="M229">
+        <v>24.5593692</v>
+      </c>
+      <c r="O229">
+        <v>16.7667668</v>
+      </c>
+      <c r="P229">
+        <v>27.2122095</v>
+      </c>
+      <c r="Q229">
+        <v>25.3855153</v>
+      </c>
+      <c r="R229">
+        <v>18.9876866</v>
+      </c>
+      <c r="S229">
+        <v>22.5040907</v>
+      </c>
+      <c r="T229">
+        <v>24.1012345</v>
+      </c>
+      <c r="U229">
+        <v>22.7668596</v>
+      </c>
+      <c r="V229">
+        <v>23.1120512</v>
+      </c>
+      <c r="W229">
+        <v>10.5028572</v>
+      </c>
+      <c r="X229">
+        <v>13.2949764</v>
+      </c>
+      <c r="Y229">
+        <v>11.2238979</v>
+      </c>
+      <c r="Z229">
+        <v>14.2833242</v>
+      </c>
+      <c r="AA229">
+        <v>17.6090599</v>
+      </c>
+      <c r="AB229">
+        <v>27.838803</v>
+      </c>
+      <c r="AD229">
+        <v>24.8089906</v>
+      </c>
+      <c r="AE229">
+        <v>23.4855525</v>
+      </c>
+      <c r="AF229">
+        <v>17.7811896</v>
+      </c>
+      <c r="AG229">
+        <v>32.0046384</v>
+      </c>
+      <c r="AH229">
+        <v>23.1471583</v>
+      </c>
+      <c r="AI229">
+        <v>8.7357052</v>
+      </c>
+      <c r="AJ229">
+        <v>9.538425800000001</v>
+      </c>
+      <c r="AK229">
+        <v>13.5523434</v>
+      </c>
+      <c r="AL229">
+        <v>17.572653</v>
+      </c>
+      <c r="AM229">
+        <v>9.756638199999999</v>
+      </c>
+      <c r="AN229">
+        <v>16.591314</v>
+      </c>
+      <c r="AO229">
+        <v>27.4533567</v>
+      </c>
+      <c r="AP229">
+        <v>12.7627426</v>
+      </c>
+      <c r="AQ229">
+        <v>13.1314528</v>
+      </c>
+      <c r="AS229">
+        <v>9.405928899999999</v>
+      </c>
+      <c r="AT229">
+        <v>21.4475927</v>
+      </c>
+      <c r="AU229">
+        <v>30.317794</v>
+      </c>
+      <c r="AV229">
+        <v>25.2555583</v>
+      </c>
+      <c r="AW229">
+        <v>19.353784</v>
+      </c>
+      <c r="AX229">
+        <v>23.5366297</v>
+      </c>
+      <c r="AY229">
+        <v>16.9901064</v>
+      </c>
+      <c r="BA229">
+        <v>6.3164868</v>
+      </c>
+      <c r="BB229">
+        <v>14.6139238</v>
+      </c>
+      <c r="BC229">
+        <v>20.889213</v>
+      </c>
+      <c r="BD229">
+        <v>21.7694581</v>
+      </c>
+      <c r="BE229">
+        <v>20.5773056</v>
+      </c>
+    </row>
+    <row r="230" spans="1:57">
+      <c r="A230" t="s">
+        <v>284</v>
+      </c>
+      <c r="B230">
+        <v>22.3252496</v>
+      </c>
+      <c r="C230">
+        <v>25.7037591</v>
+      </c>
+      <c r="D230">
+        <v>26.7275757</v>
+      </c>
+      <c r="F230">
+        <v>15.1626351</v>
+      </c>
+      <c r="G230">
+        <v>14.0570639</v>
+      </c>
+      <c r="H230">
+        <v>15.7543579</v>
+      </c>
+      <c r="I230">
+        <v>10.6959153</v>
+      </c>
+      <c r="J230">
+        <v>9.4360087</v>
+      </c>
+      <c r="K230">
+        <v>10.6789037</v>
+      </c>
+      <c r="L230">
+        <v>18.3263389</v>
+      </c>
+      <c r="M230">
+        <v>24.6261421</v>
+      </c>
+      <c r="O230">
+        <v>17.1641791</v>
+      </c>
+      <c r="P230">
+        <v>27.3276123</v>
+      </c>
+      <c r="Q230">
+        <v>24.5411551</v>
+      </c>
+      <c r="R230">
+        <v>19.1750034</v>
+      </c>
+      <c r="S230">
+        <v>22.8892453</v>
+      </c>
+      <c r="T230">
+        <v>24.3469086</v>
+      </c>
+      <c r="U230">
+        <v>23.2180862</v>
+      </c>
+      <c r="V230">
+        <v>23.3724818</v>
+      </c>
+      <c r="W230">
+        <v>10.2197492</v>
+      </c>
+      <c r="X230">
+        <v>13.217972</v>
+      </c>
+      <c r="Y230">
+        <v>10.7523697</v>
+      </c>
+      <c r="Z230">
+        <v>14.7380986</v>
+      </c>
+      <c r="AA230">
+        <v>18.0581327</v>
+      </c>
+      <c r="AB230">
+        <v>28.286518</v>
+      </c>
+      <c r="AD230">
+        <v>24.3997397</v>
+      </c>
+      <c r="AE230">
+        <v>23.9020053</v>
+      </c>
+      <c r="AF230">
+        <v>17.9450309</v>
+      </c>
+      <c r="AG230">
+        <v>31.415801</v>
+      </c>
+      <c r="AH230">
+        <v>23.8885477</v>
+      </c>
+      <c r="AI230">
+        <v>9.2739274</v>
+      </c>
+      <c r="AJ230">
+        <v>9.7758973</v>
+      </c>
+      <c r="AK230">
+        <v>13.6725694</v>
+      </c>
+      <c r="AL230">
+        <v>18.6734733</v>
+      </c>
+      <c r="AM230">
+        <v>10.0579636</v>
+      </c>
+      <c r="AN230">
+        <v>16.7359984</v>
+      </c>
+      <c r="AO230">
+        <v>27.2785438</v>
+      </c>
+      <c r="AP230">
+        <v>12.8161829</v>
+      </c>
+      <c r="AQ230">
+        <v>13.1784052</v>
+      </c>
+      <c r="AS230">
+        <v>8.5666405</v>
+      </c>
+      <c r="AT230">
+        <v>21.6659698</v>
+      </c>
+      <c r="AU230">
+        <v>30.6101582</v>
+      </c>
+      <c r="AV230">
+        <v>25.511707</v>
+      </c>
+      <c r="AW230">
+        <v>19.4502759</v>
+      </c>
+      <c r="AX230">
+        <v>23.8810111</v>
+      </c>
+      <c r="AY230">
+        <v>16.7578369</v>
+      </c>
+      <c r="BA230">
+        <v>6.3417857</v>
+      </c>
+      <c r="BB230">
+        <v>14.4738914</v>
+      </c>
+      <c r="BC230">
+        <v>21.3398965</v>
+      </c>
+      <c r="BD230">
+        <v>22.3533981</v>
+      </c>
+      <c r="BE230">
+        <v>20.5721308</v>
+      </c>
+    </row>
+    <row r="231" spans="1:57">
+      <c r="A231" t="s">
+        <v>285</v>
+      </c>
+      <c r="B231">
+        <v>21.4074074</v>
+      </c>
+      <c r="C231">
+        <v>25.3205893</v>
+      </c>
+      <c r="D231">
+        <v>27.2933851</v>
+      </c>
+      <c r="F231">
+        <v>14.7604811</v>
+      </c>
+      <c r="G231">
+        <v>13.9623625</v>
+      </c>
+      <c r="H231">
+        <v>15.8212676</v>
+      </c>
+      <c r="I231">
+        <v>10.8062538</v>
+      </c>
+      <c r="J231">
+        <v>9.5720721</v>
+      </c>
+      <c r="K231">
+        <v>10.7073948</v>
+      </c>
+      <c r="L231">
+        <v>18.0631194</v>
+      </c>
+      <c r="M231">
+        <v>24.4823661</v>
+      </c>
+      <c r="O231">
+        <v>17.0892495</v>
+      </c>
+      <c r="P231">
+        <v>27.7445389</v>
+      </c>
+      <c r="Q231">
+        <v>24.3092348</v>
+      </c>
+      <c r="R231">
+        <v>19.0096268</v>
+      </c>
+      <c r="S231">
+        <v>22.1416525</v>
+      </c>
+      <c r="T231">
+        <v>24.5432077</v>
+      </c>
+      <c r="U231">
+        <v>23.3830286</v>
+      </c>
+      <c r="V231">
+        <v>22.8558239</v>
+      </c>
+      <c r="W231">
+        <v>10.0172314</v>
+      </c>
+      <c r="X231">
+        <v>13.1262123</v>
+      </c>
+      <c r="Y231">
+        <v>10.3892216</v>
+      </c>
+      <c r="Z231">
+        <v>14.9254573</v>
+      </c>
+      <c r="AA231">
+        <v>17.7210396</v>
+      </c>
+      <c r="AB231">
+        <v>28.7423062</v>
+      </c>
+      <c r="AD231">
+        <v>24.9272822</v>
+      </c>
+      <c r="AE231">
+        <v>23.3054274</v>
+      </c>
+      <c r="AF231">
+        <v>17.8751712</v>
+      </c>
+      <c r="AG231">
+        <v>31.158039</v>
+      </c>
+      <c r="AH231">
+        <v>24.0794497</v>
+      </c>
+      <c r="AI231">
+        <v>9.4267956</v>
+      </c>
+      <c r="AJ231">
+        <v>9.638422200000001</v>
+      </c>
+      <c r="AK231">
+        <v>13.4771029</v>
+      </c>
+      <c r="AL231">
+        <v>19.2369735</v>
+      </c>
+      <c r="AM231">
+        <v>10.1706761</v>
+      </c>
+      <c r="AN231">
+        <v>16.8165799</v>
+      </c>
+      <c r="AO231">
+        <v>27.3785036</v>
+      </c>
+      <c r="AP231">
+        <v>12.6931203</v>
+      </c>
+      <c r="AQ231">
+        <v>13.0802724</v>
+      </c>
+      <c r="AS231">
+        <v>8.8408271</v>
+      </c>
+      <c r="AT231">
+        <v>20.8602821</v>
+      </c>
+      <c r="AU231">
+        <v>31.5337342</v>
+      </c>
+      <c r="AV231">
+        <v>24.5033434</v>
+      </c>
+      <c r="AW231">
+        <v>19.5954086</v>
+      </c>
+      <c r="AX231">
+        <v>24.0197255</v>
+      </c>
+      <c r="AY231">
+        <v>16.8734158</v>
+      </c>
+      <c r="BA231">
+        <v>8.262708399999999</v>
+      </c>
+      <c r="BB231">
+        <v>15.0245902</v>
+      </c>
+      <c r="BC231">
+        <v>21.8474565</v>
+      </c>
+      <c r="BD231">
+        <v>23.0185346</v>
+      </c>
+      <c r="BE231">
+        <v>20.5045552</v>
+      </c>
+    </row>
+    <row r="232" spans="1:57">
+      <c r="A232" t="s">
+        <v>286</v>
+      </c>
+      <c r="B232">
+        <v>21.2099125</v>
+      </c>
+      <c r="C232">
+        <v>25.4524906</v>
+      </c>
+      <c r="D232">
+        <v>27.8154441</v>
+      </c>
+      <c r="F232">
+        <v>14.4072952</v>
+      </c>
+      <c r="G232">
+        <v>13.8801069</v>
+      </c>
+      <c r="H232">
+        <v>16.3911061</v>
+      </c>
+      <c r="I232">
+        <v>11.3139825</v>
+      </c>
+      <c r="J232">
+        <v>9.952038399999999</v>
+      </c>
+      <c r="K232">
+        <v>11.6000805</v>
+      </c>
+      <c r="L232">
+        <v>17.7838767</v>
+      </c>
+      <c r="M232">
+        <v>24.427005</v>
+      </c>
+      <c r="O232">
+        <v>16.7375133</v>
+      </c>
+      <c r="P232">
+        <v>28.1905089</v>
+      </c>
+      <c r="Q232">
+        <v>24.8372759</v>
+      </c>
+      <c r="R232">
+        <v>18.8608667</v>
+      </c>
+      <c r="S232">
+        <v>21.731844</v>
+      </c>
+      <c r="T232">
+        <v>24.1718086</v>
+      </c>
+      <c r="U232">
+        <v>23.1001849</v>
+      </c>
+      <c r="V232">
+        <v>23.3417841</v>
+      </c>
+      <c r="W232">
+        <v>10.2521897</v>
+      </c>
+      <c r="X232">
+        <v>12.8820948</v>
+      </c>
+      <c r="Y232">
+        <v>10.2160494</v>
+      </c>
+      <c r="Z232">
+        <v>14.9510718</v>
+      </c>
+      <c r="AA232">
+        <v>17.3423099</v>
+      </c>
+      <c r="AB232">
+        <v>28.8793143</v>
+      </c>
+      <c r="AD232">
+        <v>23.855372</v>
+      </c>
+      <c r="AE232">
+        <v>23.156067</v>
+      </c>
+      <c r="AF232">
+        <v>18.0147007</v>
+      </c>
+      <c r="AG232">
+        <v>32.1796037</v>
+      </c>
+      <c r="AH232">
+        <v>24.2540024</v>
+      </c>
+      <c r="AI232">
+        <v>9.965277800000001</v>
+      </c>
+      <c r="AJ232">
+        <v>9.455365499999999</v>
+      </c>
+      <c r="AK232">
+        <v>14.2788707</v>
+      </c>
+      <c r="AL232">
+        <v>18.8997963</v>
+      </c>
+      <c r="AM232">
+        <v>10.3374125</v>
+      </c>
+      <c r="AN232">
+        <v>16.801044</v>
+      </c>
+      <c r="AO232">
+        <v>27.2765994</v>
+      </c>
+      <c r="AP232">
+        <v>13.1743353</v>
+      </c>
+      <c r="AQ232">
+        <v>13.105937</v>
+      </c>
+      <c r="AS232">
+        <v>9.4484257</v>
+      </c>
+      <c r="AT232">
+        <v>21.1684544</v>
+      </c>
+      <c r="AU232">
+        <v>32.8276563</v>
+      </c>
+      <c r="AV232">
+        <v>24.6269824</v>
+      </c>
+      <c r="AW232">
+        <v>19.750448</v>
+      </c>
+      <c r="AX232">
+        <v>24.8128187</v>
+      </c>
+      <c r="AY232">
+        <v>16.6175208</v>
+      </c>
+      <c r="BA232">
+        <v>8.686125000000001</v>
+      </c>
+      <c r="BB232">
+        <v>15.0303914</v>
+      </c>
+      <c r="BC232">
+        <v>22.348893</v>
+      </c>
+      <c r="BD232">
+        <v>22.9376723</v>
+      </c>
+      <c r="BE232">
+        <v>20.9677332</v>
+      </c>
+    </row>
+    <row r="233" spans="1:57">
+      <c r="A233" t="s">
+        <v>287</v>
+      </c>
+      <c r="B233">
+        <v>21.4946071</v>
+      </c>
+      <c r="C233">
+        <v>25.579887</v>
+      </c>
+      <c r="D233">
+        <v>28.3547029</v>
+      </c>
+      <c r="F233">
+        <v>14.4863267</v>
+      </c>
+      <c r="G233">
+        <v>13.6329154</v>
+      </c>
+      <c r="H233">
+        <v>16.4736018</v>
+      </c>
+      <c r="I233">
+        <v>11.2980769</v>
+      </c>
+      <c r="J233">
+        <v>8.6466165</v>
+      </c>
+      <c r="K233">
+        <v>12.1496249</v>
+      </c>
+      <c r="L233">
+        <v>17.8111276</v>
+      </c>
+      <c r="M233">
+        <v>24.2847771</v>
+      </c>
+      <c r="O233">
+        <v>16.3209607</v>
+      </c>
+      <c r="P233">
+        <v>28.8411753</v>
+      </c>
+      <c r="Q233">
+        <v>24.5681354</v>
+      </c>
+      <c r="R233">
+        <v>18.9194042</v>
+      </c>
+      <c r="S233">
+        <v>21.4551827</v>
+      </c>
+      <c r="T233">
+        <v>24.3111865</v>
+      </c>
+      <c r="U233">
+        <v>23.1673353</v>
+      </c>
+      <c r="V233">
+        <v>23.5910731</v>
+      </c>
+      <c r="W233">
+        <v>10.2838507</v>
+      </c>
+      <c r="X233">
+        <v>12.4998328</v>
+      </c>
+      <c r="Y233">
+        <v>10.8290488</v>
+      </c>
+      <c r="Z233">
+        <v>15.0306742</v>
+      </c>
+      <c r="AA233">
+        <v>18.1504502</v>
+      </c>
+      <c r="AB233">
+        <v>29.4734379</v>
+      </c>
+      <c r="AD233">
+        <v>23.7729525</v>
+      </c>
+      <c r="AE233">
+        <v>24.2697207</v>
+      </c>
+      <c r="AF233">
+        <v>17.7123109</v>
+      </c>
+      <c r="AG233">
+        <v>33.082589</v>
+      </c>
+      <c r="AH233">
+        <v>24.5745802</v>
+      </c>
+      <c r="AI233">
+        <v>10.4710145</v>
+      </c>
+      <c r="AJ233">
+        <v>9.4303604</v>
+      </c>
+      <c r="AK233">
+        <v>14.5638401</v>
+      </c>
+      <c r="AL233">
+        <v>18.4451552</v>
+      </c>
+      <c r="AM233">
+        <v>10.4532906</v>
+      </c>
+      <c r="AN233">
+        <v>17.079155</v>
+      </c>
+      <c r="AO233">
+        <v>27.3645765</v>
+      </c>
+      <c r="AP233">
+        <v>13.3091831</v>
+      </c>
+      <c r="AQ233">
+        <v>13.0047859</v>
+      </c>
+      <c r="AS233">
+        <v>9.213691499999999</v>
+      </c>
+      <c r="AT233">
+        <v>21.157418</v>
+      </c>
+      <c r="AU233">
+        <v>33.9925983</v>
+      </c>
+      <c r="AV233">
+        <v>24.2072476</v>
+      </c>
+      <c r="AW233">
+        <v>19.7767038</v>
+      </c>
+      <c r="AX233">
+        <v>25.0750809</v>
+      </c>
+      <c r="AY233">
+        <v>16.6844953</v>
+      </c>
+      <c r="BA233">
+        <v>9.866460099999999</v>
+      </c>
+      <c r="BB233">
+        <v>15.2089369</v>
+      </c>
+      <c r="BC233">
+        <v>22.671435</v>
+      </c>
+      <c r="BD233">
+        <v>22.6953146</v>
+      </c>
+      <c r="BE233">
+        <v>21.2407875</v>
+      </c>
+    </row>
+    <row r="234" spans="1:57">
+      <c r="A234" t="s">
+        <v>288</v>
+      </c>
+      <c r="B234">
+        <v>21.7356688</v>
+      </c>
+      <c r="C234">
+        <v>25.800508</v>
+      </c>
+      <c r="D234">
+        <v>28.418914</v>
+      </c>
+      <c r="F234">
+        <v>14.7576902</v>
+      </c>
+      <c r="G234">
+        <v>13.5434692</v>
+      </c>
+      <c r="H234">
+        <v>15.9999768</v>
+      </c>
+      <c r="I234">
+        <v>11.2753238</v>
+      </c>
+      <c r="J234">
+        <v>8.7926509</v>
+      </c>
+      <c r="K234">
+        <v>12.8376818</v>
+      </c>
+      <c r="L234">
+        <v>17.8694034</v>
+      </c>
+      <c r="M234">
+        <v>24.1596356</v>
+      </c>
+      <c r="O234">
+        <v>15.4060067</v>
+      </c>
+      <c r="P234">
+        <v>29.495329</v>
+      </c>
+      <c r="Q234">
+        <v>25.346743</v>
+      </c>
+      <c r="R234">
+        <v>19.0754687</v>
+      </c>
+      <c r="S234">
+        <v>21.726629</v>
+      </c>
+      <c r="T234">
+        <v>24.934243</v>
+      </c>
+      <c r="U234">
+        <v>23.2654312</v>
+      </c>
+      <c r="V234">
+        <v>23.3522323</v>
+      </c>
+      <c r="W234">
+        <v>10.4675503</v>
+      </c>
+      <c r="X234">
+        <v>11.8904527</v>
+      </c>
+      <c r="Y234">
+        <v>10.9132124</v>
+      </c>
+      <c r="Z234">
+        <v>15.2086681</v>
+      </c>
+      <c r="AA234">
+        <v>18.6370637</v>
+      </c>
+      <c r="AB234">
+        <v>29.4426076</v>
+      </c>
+      <c r="AD234">
+        <v>24.070241</v>
+      </c>
+      <c r="AE234">
+        <v>23.3616501</v>
+      </c>
+      <c r="AF234">
+        <v>17.447291</v>
+      </c>
+      <c r="AG234">
+        <v>32.7620172</v>
+      </c>
+      <c r="AH234">
+        <v>25.3538781</v>
+      </c>
+      <c r="AI234">
+        <v>11.0074627</v>
+      </c>
+      <c r="AJ234">
+        <v>9.358411200000001</v>
+      </c>
+      <c r="AK234">
+        <v>15.0781409</v>
+      </c>
+      <c r="AL234">
+        <v>18.6960358</v>
+      </c>
+      <c r="AM234">
+        <v>10.6108853</v>
+      </c>
+      <c r="AN234">
+        <v>16.8386399</v>
+      </c>
+      <c r="AO234">
+        <v>27.1653599</v>
+      </c>
+      <c r="AP234">
+        <v>13.1360493</v>
+      </c>
+      <c r="AQ234">
+        <v>13.1867576</v>
+      </c>
+      <c r="AS234">
+        <v>10.2673554</v>
+      </c>
+      <c r="AT234">
+        <v>21.1862207</v>
+      </c>
+      <c r="AU234">
+        <v>34.3926106</v>
+      </c>
+      <c r="AV234">
+        <v>24.3621135</v>
+      </c>
+      <c r="AW234">
+        <v>20.0475088</v>
+      </c>
+      <c r="AX234">
+        <v>26.2289464</v>
+      </c>
+      <c r="AY234">
+        <v>16.7131913</v>
+      </c>
+      <c r="BA234">
+        <v>10.5222589</v>
+      </c>
+      <c r="BB234">
+        <v>15.0221497</v>
+      </c>
+      <c r="BC234">
+        <v>23.3073119</v>
+      </c>
+      <c r="BD234">
+        <v>22.7752151</v>
+      </c>
+      <c r="BE234">
+        <v>22.1172117</v>
+      </c>
+    </row>
+    <row r="235" spans="1:57">
+      <c r="A235" t="s">
+        <v>289</v>
+      </c>
+      <c r="B235">
+        <v>22.0853859</v>
+      </c>
+      <c r="C235">
+        <v>25.7753038</v>
+      </c>
+      <c r="D235">
+        <v>28.8277725</v>
+      </c>
+      <c r="F235">
+        <v>14.6503741</v>
+      </c>
+      <c r="G235">
+        <v>13.3269643</v>
+      </c>
+      <c r="H235">
+        <v>16.4058144</v>
+      </c>
+      <c r="I235">
+        <v>11.0723772</v>
+      </c>
+      <c r="J235">
+        <v>9.811828</v>
+      </c>
+      <c r="K235">
+        <v>12.2418408</v>
+      </c>
+      <c r="L235">
+        <v>17.3950459</v>
+      </c>
+      <c r="M235">
+        <v>23.5323756</v>
+      </c>
+      <c r="O235">
+        <v>15.4761905</v>
+      </c>
+      <c r="P235">
+        <v>28.985768</v>
+      </c>
+      <c r="Q235">
+        <v>24.683647</v>
+      </c>
+      <c r="R235">
+        <v>18.6797458</v>
+      </c>
+      <c r="S235">
+        <v>21.5757175</v>
+      </c>
+      <c r="T235">
+        <v>25.9129315</v>
+      </c>
+      <c r="U235">
+        <v>22.7673903</v>
+      </c>
+      <c r="V235">
+        <v>22.5732096</v>
+      </c>
+      <c r="W235">
+        <v>10.1844216</v>
+      </c>
+      <c r="X235">
+        <v>12.3023046</v>
+      </c>
+      <c r="Y235">
+        <v>11.0776439</v>
+      </c>
+      <c r="Z235">
+        <v>15.2791837</v>
+      </c>
+      <c r="AA235">
+        <v>18.7440006</v>
+      </c>
+      <c r="AB235">
+        <v>29.3475772</v>
+      </c>
+      <c r="AD235">
+        <v>24.3069863</v>
+      </c>
+      <c r="AE235">
+        <v>23.2573379</v>
+      </c>
+      <c r="AF235">
+        <v>17.931613</v>
+      </c>
+      <c r="AG235">
+        <v>33.2514503</v>
+      </c>
+      <c r="AH235">
+        <v>26.4431506</v>
+      </c>
+      <c r="AI235">
+        <v>12.2963538</v>
+      </c>
+      <c r="AJ235">
+        <v>9.111482499999999</v>
+      </c>
+      <c r="AK235">
+        <v>14.8204624</v>
+      </c>
+      <c r="AL235">
+        <v>18.3240334</v>
+      </c>
+      <c r="AM235">
+        <v>10.7056629</v>
+      </c>
+      <c r="AN235">
+        <v>16.8252196</v>
+      </c>
+      <c r="AO235">
+        <v>27.2015441</v>
+      </c>
+      <c r="AP235">
+        <v>13.2473506</v>
+      </c>
+      <c r="AQ235">
+        <v>13.4864573</v>
+      </c>
+      <c r="AS235">
+        <v>9.763721200000001</v>
+      </c>
+      <c r="AT235">
+        <v>20.8333155</v>
+      </c>
+      <c r="AU235">
+        <v>35.3875162</v>
+      </c>
+      <c r="AV235">
+        <v>24.5811647</v>
+      </c>
+      <c r="AW235">
+        <v>20.1662669</v>
+      </c>
+      <c r="AX235">
+        <v>26.5488218</v>
+      </c>
+      <c r="AY235">
+        <v>16.6246351</v>
+      </c>
+      <c r="BA235">
+        <v>12.0637335</v>
+      </c>
+      <c r="BB235">
+        <v>14.5672265</v>
+      </c>
+      <c r="BC235">
+        <v>23.7870499</v>
+      </c>
+      <c r="BD235">
+        <v>22.8370064</v>
+      </c>
+      <c r="BE235">
+        <v>21.578131</v>
+      </c>
+    </row>
+    <row r="236" spans="1:57">
+      <c r="A236" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
